--- a/gd/美术需求文档/UI相关/Icon需求.xlsx
+++ b/gd/美术需求文档/UI相关/Icon需求.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="705" yWindow="1410" windowWidth="29655" windowHeight="16440"/>
+    <workbookView xWindow="-345" yWindow="0" windowWidth="28410" windowHeight="12855" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ICON需求及分类" sheetId="1" r:id="rId1"/>
     <sheet name="ICON风格参考" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="物品道具翻译需求" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="398">
   <si>
     <t>宝石</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1028,8 +1028,84 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>二挡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝箱及其钥匙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>木质宝箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>木头品质要素的宝箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黒木钥匙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用黒木作为主要材质的宝箱钥匙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑铁宝箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以熟铁作为制作要素的宝箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑铁钥匙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑铁宝箱对应的钥匙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白银宝箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以白银为材质制作的宝箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白银钥匙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白银宝箱的钥匙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄金宝箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以黄金为材质制作的宝箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄金钥匙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄金宝箱的钥匙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>之前是双倍，三倍
-已经统一改回以前的设定</t>
+已经统一改回以前的设定增加1档50%提升的道具</t>
     <rPh sb="0" eb="1">
       <t>zhi'q</t>
     </rPh>
@@ -1045,11 +1121,499 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>二挡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>三档</t>
+    <t>活力值道具(12)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活力值道具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活力值道具使用增加12点活力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活力值道具(30)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活力值道具使用增加30点活力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活力值道具(60)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活力值道具使用增加60点活力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活力值道具使用增加12点活力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活力值道具使用增加30点活力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活力值道具使用增加60点活力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中文内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中文翻译建议</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英文对照翻译</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血量宝石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血魄石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>力量宝石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>锆石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智慧宝石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>琥珀石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御宝石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天青石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>速度宝石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灰石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恢复宝石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绿叶石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴击宝石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恶魔石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能量宝石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴伤宝石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>太阳石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小经验药水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中经验药水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大经验药水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通经验卷轴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级经验卷轴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>至高经验卷轴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>木质宝箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黒木钥匙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑铁宝箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑铁钥匙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白银宝箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白银钥匙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄金宝箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄金钥匙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扫荡券</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽奖替代券</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽奖券</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>万能碎片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灵魂本源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>妖兽的晶核</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>妖兽的皮毛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>妖兽的皮毛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>妖兽的指甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活力值道具(12)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活力饼干(小)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活力值道具(30)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活力饼干(中)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活力值道具(60)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活力饼干(大)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>材料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初级装备强化材料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初级装备强化石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中级装备强化材料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中级装备强化石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级装备强化材料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级装备强化石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备进阶石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备进阶卷轴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝石开孔石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物强化石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物进阶石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御型拳套(1档)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>坚固的拳套</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御型护腰(1档)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>坚固的护腰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御型护甲(1档)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>坚固的铠甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御型护腕(1档)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>坚固的护腕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御型戒指(1档)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>稳固的戒指</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御型护身符(1档)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玄武护符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理型拳套(1档)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>荆牙拳套</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理型护腰(1档)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>荆牙腰带</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理型护甲(1档)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>荆牙护甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理型手镯(1档)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>荆牙手镯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理型戒指(1档)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>荆牙戒指</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理型护身符(1档)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白虎符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法术型拳套(1档)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巫术手套</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法术型护腰(1档)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巫术衣带</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法术型护甲(1档)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巫术长袍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法术型手镯(1档)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巫术手镯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法术型戒指(1档)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巫术戒指</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法术型护身符(1档)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>朱雀符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支援型拳套(1档)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>祈祷手套</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支援型护腰(1档)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>祈祷腰带</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支援型护甲(1档)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>祈祷法袍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支援型手镯(1档)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>祈祷手镯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支援型戒指(1档)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>祈祷戒指</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支援型护身符(1档)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>青龙符</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1105,7 +1669,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -1261,11 +1825,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1291,13 +1864,16 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1316,7 +1892,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1358,7 +1934,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1393,7 +1969,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1602,10 +2178,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:P168"/>
+  <dimension ref="A3:AA180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="M30" sqref="M30"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" outlineLevelRow="1" x14ac:dyDescent="0.15"/>
@@ -1654,7 +2230,7 @@
       </c>
     </row>
     <row r="7" spans="1:12" ht="35.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="22" t="s">
         <v>234</v>
       </c>
       <c r="E7" s="1"/>
@@ -1670,7 +2246,7 @@
       </c>
     </row>
     <row r="8" spans="1:12" ht="31.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="21" t="s">
         <v>248</v>
       </c>
       <c r="D8" s="7" t="s">
@@ -1705,7 +2281,7 @@
       </c>
     </row>
     <row r="10" spans="1:12" ht="36.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="21" t="s">
         <v>249</v>
       </c>
       <c r="D10" s="7" t="s">
@@ -1772,7 +2348,7 @@
       </c>
     </row>
     <row r="14" spans="1:12" ht="46.5" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="21" t="s">
         <v>250</v>
       </c>
       <c r="D14" s="12" t="s">
@@ -1848,9 +2424,9 @@
         <v>252</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="40.5" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="22" t="s">
-        <v>254</v>
+    <row r="24" spans="1:9" ht="54" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="21" t="s">
+        <v>273</v>
       </c>
       <c r="E24" t="s">
         <v>27</v>
@@ -1864,7 +2440,7 @@
     </row>
     <row r="25" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="E25" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G25" s="11">
         <v>2</v>
@@ -1872,7 +2448,7 @@
     </row>
     <row r="26" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="E26" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G26" s="11">
         <v>3</v>
@@ -1889,7 +2465,7 @@
       </c>
     </row>
     <row r="30" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="E30" t="s">
+      <c r="E30" s="18" t="s">
         <v>3</v>
       </c>
       <c r="F30" t="s">
@@ -1900,7 +2476,7 @@
       </c>
     </row>
     <row r="31" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="E31" t="s">
+      <c r="E31" s="18" t="s">
         <v>3</v>
       </c>
       <c r="F31" t="s">
@@ -1908,15 +2484,15 @@
       </c>
     </row>
     <row r="32" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="E32" t="s">
+      <c r="E32" s="18" t="s">
         <v>3</v>
       </c>
       <c r="F32" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="33" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="E33" t="s">
+    <row r="33" spans="3:7" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="E33" s="18" t="s">
         <v>4</v>
       </c>
       <c r="F33" t="s">
@@ -1926,24 +2502,24 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="E34" t="s">
+    <row r="34" spans="3:7" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="E34" s="18" t="s">
         <v>223</v>
       </c>
       <c r="F34" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="35" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="E35" t="s">
+    <row r="35" spans="3:7" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="E35" s="18" t="s">
         <v>223</v>
       </c>
       <c r="F35" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="36" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="E36" t="s">
+    <row r="36" spans="3:7" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="E36" s="18" t="s">
         <v>5</v>
       </c>
       <c r="F36" t="s">
@@ -1953,190 +2529,123 @@
         <v>26</v>
       </c>
     </row>
-    <row r="37" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="E37" t="s">
+    <row r="37" spans="3:7" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="E37" s="18" t="s">
         <v>5</v>
       </c>
       <c r="F37" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="38" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="E38" t="s">
+    <row r="38" spans="3:7" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="E38" s="18" t="s">
         <v>5</v>
       </c>
       <c r="F38" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="39" spans="3:7" outlineLevel="1" x14ac:dyDescent="0.15"/>
+    <row r="40" spans="3:7" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C40" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="41" spans="3:7" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="E41" s="18" t="s">
+        <v>257</v>
+      </c>
+      <c r="F41" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="42" spans="3:7" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="E42" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="F42" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="43" spans="3:7" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="E43" s="18" t="s">
+        <v>261</v>
+      </c>
+      <c r="F43" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="44" spans="3:7" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="E44" s="18" t="s">
+        <v>263</v>
+      </c>
+      <c r="F44" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="45" spans="3:7" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="E45" s="18" t="s">
+        <v>265</v>
+      </c>
+      <c r="F45" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="46" spans="3:7" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="E46" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="F46" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="47" spans="3:7" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="E47" s="18" t="s">
+        <v>269</v>
+      </c>
+      <c r="F47" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="48" spans="3:7" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="E48" s="18" t="s">
+        <v>271</v>
+      </c>
+      <c r="F48" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="C49" t="s">
         <v>30</v>
       </c>
-      <c r="J40" t="s">
+      <c r="J49" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="41" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C41" s="21" t="s">
+    <row r="50" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="C50" s="23" t="s">
         <v>237</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="D50" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="F41" t="s">
+      <c r="F50" t="s">
         <v>119</v>
       </c>
-      <c r="J41" t="s">
+      <c r="J50" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="42" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="19"/>
-      <c r="C42" s="21"/>
-      <c r="D42" s="13" t="s">
+    <row r="51" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="19"/>
+      <c r="C51" s="23"/>
+      <c r="D51" s="13" t="s">
         <v>116</v>
-      </c>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="G42" s="14"/>
-      <c r="H42" s="14"/>
-      <c r="I42" s="14"/>
-      <c r="J42" s="14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="19"/>
-      <c r="C43" s="21"/>
-      <c r="D43" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="G43" s="14"/>
-      <c r="H43" s="14"/>
-      <c r="I43" s="14"/>
-      <c r="J43" s="14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C44" s="21"/>
-      <c r="D44" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="E44" s="14"/>
-      <c r="F44" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="G44" s="14"/>
-      <c r="H44" s="14"/>
-      <c r="I44" s="14"/>
-      <c r="J44" s="14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C45" s="21"/>
-      <c r="D45" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="F45" t="s">
-        <v>121</v>
-      </c>
-      <c r="J45" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C46" s="21"/>
-      <c r="D46" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="E46" s="14"/>
-      <c r="F46" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="G46" s="14"/>
-      <c r="H46" s="14"/>
-      <c r="I46" s="14"/>
-      <c r="J46" s="14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C47" s="21"/>
-      <c r="D47" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="E47" s="14"/>
-      <c r="F47" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="G47" s="14"/>
-      <c r="H47" s="14"/>
-      <c r="I47" s="14"/>
-      <c r="J47" s="14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C48" s="21"/>
-      <c r="D48" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="E48" s="14"/>
-      <c r="F48" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="G48" s="14"/>
-      <c r="H48" s="14"/>
-      <c r="I48" s="14"/>
-      <c r="J48" s="14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="49" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C49" s="21"/>
-      <c r="D49" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="F49" t="s">
-        <v>129</v>
-      </c>
-      <c r="J49" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="50" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C50" s="21"/>
-      <c r="D50" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="G50" s="14"/>
-      <c r="H50" s="14"/>
-      <c r="I50" s="14"/>
-      <c r="J50" s="14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="51" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C51" s="21"/>
-      <c r="D51" s="13" t="s">
-        <v>127</v>
       </c>
       <c r="E51" s="14"/>
       <c r="F51" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G51" s="14"/>
       <c r="H51" s="14"/>
@@ -2145,14 +2654,15 @@
         <v>31</v>
       </c>
     </row>
-    <row r="52" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C52" s="21"/>
+    <row r="52" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="19"/>
+      <c r="C52" s="23"/>
       <c r="D52" s="13" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="E52" s="14"/>
       <c r="F52" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G52" s="14"/>
       <c r="H52" s="14"/>
@@ -2161,42 +2671,42 @@
         <v>31</v>
       </c>
     </row>
-    <row r="53" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C53" s="21"/>
-      <c r="D53" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="F53" t="s">
-        <v>135</v>
-      </c>
-      <c r="J53" t="s">
+    <row r="53" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="C53" s="23"/>
+      <c r="D53" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="E53" s="14"/>
+      <c r="F53" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="G53" s="14"/>
+      <c r="H53" s="14"/>
+      <c r="I53" s="14"/>
+      <c r="J53" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="C54" s="23"/>
+      <c r="D54" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="F54" t="s">
+        <v>121</v>
+      </c>
+      <c r="J54" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="54" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C54" s="21"/>
-      <c r="D54" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="E54" s="14"/>
-      <c r="F54" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="G54" s="14"/>
-      <c r="H54" s="14"/>
-      <c r="I54" s="14"/>
-      <c r="J54" s="14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="55" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C55" s="21"/>
+    <row r="55" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="C55" s="23"/>
       <c r="D55" s="13" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="E55" s="14"/>
       <c r="F55" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G55" s="14"/>
       <c r="H55" s="14"/>
@@ -2205,14 +2715,14 @@
         <v>31</v>
       </c>
     </row>
-    <row r="56" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C56" s="21"/>
+    <row r="56" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="C56" s="23"/>
       <c r="D56" s="13" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="E56" s="14"/>
       <c r="F56" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G56" s="14"/>
       <c r="H56" s="14"/>
@@ -2221,42 +2731,42 @@
         <v>31</v>
       </c>
     </row>
-    <row r="57" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C57" s="21"/>
-      <c r="D57" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="F57" t="s">
-        <v>144</v>
-      </c>
-      <c r="J57" t="s">
+    <row r="57" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="C57" s="23"/>
+      <c r="D57" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="E57" s="14"/>
+      <c r="F57" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="G57" s="14"/>
+      <c r="H57" s="14"/>
+      <c r="I57" s="14"/>
+      <c r="J57" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="C58" s="23"/>
+      <c r="D58" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="F58" t="s">
+        <v>129</v>
+      </c>
+      <c r="J58" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="58" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C58" s="21"/>
-      <c r="D58" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="E58" s="14"/>
-      <c r="F58" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="G58" s="14"/>
-      <c r="H58" s="14"/>
-      <c r="I58" s="14"/>
-      <c r="J58" s="14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="59" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C59" s="21"/>
+    <row r="59" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="C59" s="23"/>
       <c r="D59" s="13" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="E59" s="14"/>
       <c r="F59" s="14" t="s">
-        <v>40</v>
+        <v>130</v>
       </c>
       <c r="G59" s="14"/>
       <c r="H59" s="14"/>
@@ -2265,14 +2775,14 @@
         <v>31</v>
       </c>
     </row>
-    <row r="60" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C60" s="21"/>
+    <row r="60" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="C60" s="23"/>
       <c r="D60" s="13" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="E60" s="14"/>
       <c r="F60" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G60" s="14"/>
       <c r="H60" s="14"/>
@@ -2281,42 +2791,42 @@
         <v>31</v>
       </c>
     </row>
-    <row r="61" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C61" s="21"/>
-      <c r="D61" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="F61" t="s">
-        <v>145</v>
-      </c>
-      <c r="J61" t="s">
+    <row r="61" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="C61" s="23"/>
+      <c r="D61" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="E61" s="14"/>
+      <c r="F61" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="G61" s="14"/>
+      <c r="H61" s="14"/>
+      <c r="I61" s="14"/>
+      <c r="J61" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="C62" s="23"/>
+      <c r="D62" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="F62" t="s">
+        <v>135</v>
+      </c>
+      <c r="J62" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="62" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C62" s="21"/>
-      <c r="D62" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="E62" s="14"/>
-      <c r="F62" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="G62" s="14"/>
-      <c r="H62" s="14"/>
-      <c r="I62" s="14"/>
-      <c r="J62" s="14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="63" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C63" s="21"/>
+    <row r="63" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="C63" s="23"/>
       <c r="D63" s="13" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="E63" s="14"/>
       <c r="F63" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G63" s="14"/>
       <c r="H63" s="14"/>
@@ -2325,14 +2835,14 @@
         <v>31</v>
       </c>
     </row>
-    <row r="64" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C64" s="21"/>
+    <row r="64" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="C64" s="23"/>
       <c r="D64" s="13" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="E64" s="14"/>
       <c r="F64" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G64" s="14"/>
       <c r="H64" s="14"/>
@@ -2342,160 +2852,163 @@
       </c>
     </row>
     <row r="65" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C65" s="21" t="s">
-        <v>236</v>
-      </c>
-      <c r="D65" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="F65" t="s">
-        <v>154</v>
-      </c>
-      <c r="J65" t="s">
-        <v>241</v>
+      <c r="C65" s="23"/>
+      <c r="D65" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="E65" s="14"/>
+      <c r="F65" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="G65" s="14"/>
+      <c r="H65" s="14"/>
+      <c r="I65" s="14"/>
+      <c r="J65" s="14" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="66" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C66" s="21"/>
-      <c r="D66" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="E66" s="14"/>
-      <c r="F66" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="G66" s="14"/>
-      <c r="H66" s="14"/>
-      <c r="I66" s="14"/>
-      <c r="J66" s="14" t="s">
-        <v>33</v>
+      <c r="C66" s="23"/>
+      <c r="D66" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="F66" t="s">
+        <v>144</v>
+      </c>
+      <c r="J66" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="67" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C67" s="21"/>
+      <c r="C67" s="23"/>
       <c r="D67" s="13" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="E67" s="14"/>
       <c r="F67" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G67" s="14"/>
       <c r="H67" s="14"/>
       <c r="I67" s="14"/>
       <c r="J67" s="14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="68" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C68" s="21"/>
+      <c r="C68" s="23"/>
       <c r="D68" s="13" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="E68" s="14"/>
       <c r="F68" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G68" s="14"/>
       <c r="H68" s="14"/>
       <c r="I68" s="14"/>
       <c r="J68" s="14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="69" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C69" s="21"/>
-      <c r="D69" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="F69" s="20" t="s">
-        <v>235</v>
-      </c>
-      <c r="J69" t="s">
-        <v>241</v>
+      <c r="C69" s="23"/>
+      <c r="D69" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="E69" s="14"/>
+      <c r="F69" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="G69" s="14"/>
+      <c r="H69" s="14"/>
+      <c r="I69" s="14"/>
+      <c r="J69" s="14" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="70" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C70" s="21"/>
-      <c r="D70" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="E70" s="14"/>
-      <c r="F70" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="G70" s="14"/>
-      <c r="H70" s="14"/>
-      <c r="I70" s="14"/>
-      <c r="J70" s="14" t="s">
-        <v>33</v>
+      <c r="C70" s="23"/>
+      <c r="D70" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="F70" t="s">
+        <v>145</v>
+      </c>
+      <c r="J70" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="71" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C71" s="21"/>
+      <c r="C71" s="23"/>
       <c r="D71" s="13" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="E71" s="14"/>
       <c r="F71" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G71" s="14"/>
       <c r="H71" s="14"/>
       <c r="I71" s="14"/>
       <c r="J71" s="14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="72" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C72" s="21"/>
+      <c r="C72" s="23"/>
       <c r="D72" s="13" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="E72" s="14"/>
       <c r="F72" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G72" s="14"/>
       <c r="H72" s="14"/>
       <c r="I72" s="14"/>
       <c r="J72" s="14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="73" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C73" s="21"/>
-      <c r="D73" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="J73" t="s">
+      <c r="C73" s="23"/>
+      <c r="D73" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="E73" s="14"/>
+      <c r="F73" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="G73" s="14"/>
+      <c r="H73" s="14"/>
+      <c r="I73" s="14"/>
+      <c r="J73" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="74" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="C74" s="23" t="s">
+        <v>236</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="F74" t="s">
+        <v>154</v>
+      </c>
+      <c r="J74" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="74" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C74" s="21"/>
-      <c r="D74" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="E74" s="14"/>
-      <c r="F74" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="G74" s="14"/>
-      <c r="H74" s="14"/>
-      <c r="I74" s="14"/>
-      <c r="J74" s="14" t="s">
-        <v>33</v>
-      </c>
-    </row>
     <row r="75" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C75" s="21"/>
+      <c r="C75" s="23"/>
       <c r="D75" s="13" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="E75" s="14"/>
       <c r="F75" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G75" s="14"/>
       <c r="H75" s="14"/>
@@ -2505,13 +3018,13 @@
       </c>
     </row>
     <row r="76" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C76" s="21"/>
+      <c r="C76" s="23"/>
       <c r="D76" s="13" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="E76" s="14"/>
       <c r="F76" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G76" s="14"/>
       <c r="H76" s="14"/>
@@ -2521,41 +3034,41 @@
       </c>
     </row>
     <row r="77" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C77" s="21"/>
-      <c r="D77" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="F77" t="s">
-        <v>163</v>
-      </c>
-      <c r="J77" t="s">
+      <c r="C77" s="23"/>
+      <c r="D77" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="E77" s="14"/>
+      <c r="F77" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="G77" s="14"/>
+      <c r="H77" s="14"/>
+      <c r="I77" s="14"/>
+      <c r="J77" s="14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="78" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="C78" s="23"/>
+      <c r="D78" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="F78" s="20" t="s">
+        <v>235</v>
+      </c>
+      <c r="J78" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="78" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C78" s="21"/>
-      <c r="D78" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="E78" s="14"/>
-      <c r="F78" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="G78" s="14"/>
-      <c r="H78" s="14"/>
-      <c r="I78" s="14"/>
-      <c r="J78" s="14" t="s">
-        <v>33</v>
-      </c>
-    </row>
     <row r="79" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C79" s="21"/>
+      <c r="C79" s="23"/>
       <c r="D79" s="13" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="E79" s="14"/>
       <c r="F79" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G79" s="14"/>
       <c r="H79" s="14"/>
@@ -2565,13 +3078,13 @@
       </c>
     </row>
     <row r="80" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C80" s="21"/>
+      <c r="C80" s="23"/>
       <c r="D80" s="13" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="E80" s="14"/>
       <c r="F80" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G80" s="14"/>
       <c r="H80" s="14"/>
@@ -2581,38 +3094,38 @@
       </c>
     </row>
     <row r="81" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C81" s="21"/>
-      <c r="D81" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="J81" t="s">
+      <c r="C81" s="23"/>
+      <c r="D81" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="E81" s="14"/>
+      <c r="F81" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="G81" s="14"/>
+      <c r="H81" s="14"/>
+      <c r="I81" s="14"/>
+      <c r="J81" s="14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="82" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="C82" s="23"/>
+      <c r="D82" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="J82" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="82" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C82" s="21"/>
-      <c r="D82" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="E82" s="14"/>
-      <c r="F82" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="G82" s="14"/>
-      <c r="H82" s="14"/>
-      <c r="I82" s="14"/>
-      <c r="J82" s="14" t="s">
-        <v>33</v>
-      </c>
-    </row>
     <row r="83" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C83" s="21"/>
+      <c r="C83" s="23"/>
       <c r="D83" s="13" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="E83" s="14"/>
       <c r="F83" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G83" s="14"/>
       <c r="H83" s="14"/>
@@ -2622,13 +3135,13 @@
       </c>
     </row>
     <row r="84" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C84" s="21"/>
+      <c r="C84" s="23"/>
       <c r="D84" s="13" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="E84" s="14"/>
       <c r="F84" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G84" s="14"/>
       <c r="H84" s="14"/>
@@ -2638,41 +3151,41 @@
       </c>
     </row>
     <row r="85" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C85" s="21"/>
-      <c r="D85" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="F85" s="20" t="s">
-        <v>245</v>
-      </c>
-      <c r="J85" t="s">
+      <c r="C85" s="23"/>
+      <c r="D85" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="E85" s="14"/>
+      <c r="F85" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="G85" s="14"/>
+      <c r="H85" s="14"/>
+      <c r="I85" s="14"/>
+      <c r="J85" s="14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="86" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="C86" s="23"/>
+      <c r="D86" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="F86" t="s">
+        <v>163</v>
+      </c>
+      <c r="J86" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="86" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C86" s="21"/>
-      <c r="D86" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="E86" s="14"/>
-      <c r="F86" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="G86" s="14"/>
-      <c r="H86" s="14"/>
-      <c r="I86" s="14"/>
-      <c r="J86" s="14" t="s">
-        <v>33</v>
-      </c>
-    </row>
     <row r="87" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C87" s="21"/>
+      <c r="C87" s="23"/>
       <c r="D87" s="13" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="E87" s="14"/>
       <c r="F87" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G87" s="14"/>
       <c r="H87" s="14"/>
@@ -2682,13 +3195,13 @@
       </c>
     </row>
     <row r="88" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C88" s="21"/>
+      <c r="C88" s="23"/>
       <c r="D88" s="13" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="E88" s="14"/>
       <c r="F88" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G88" s="14"/>
       <c r="H88" s="14"/>
@@ -2698,157 +3211,160 @@
       </c>
     </row>
     <row r="89" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C89" s="21" t="s">
-        <v>238</v>
-      </c>
-      <c r="D89" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="F89" t="s">
-        <v>184</v>
-      </c>
-      <c r="J89" t="s">
-        <v>242</v>
+      <c r="C89" s="23"/>
+      <c r="D89" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="E89" s="14"/>
+      <c r="F89" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="G89" s="14"/>
+      <c r="H89" s="14"/>
+      <c r="I89" s="14"/>
+      <c r="J89" s="14" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="90" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C90" s="21"/>
-      <c r="D90" s="13" t="s">
-        <v>173</v>
-      </c>
-      <c r="E90" s="14"/>
-      <c r="F90" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="G90" s="14"/>
-      <c r="H90" s="14"/>
-      <c r="I90" s="14"/>
-      <c r="J90" s="14" t="s">
-        <v>34</v>
+      <c r="C90" s="23"/>
+      <c r="D90" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="J90" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="91" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C91" s="21"/>
+      <c r="C91" s="23"/>
       <c r="D91" s="13" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="E91" s="14"/>
       <c r="F91" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G91" s="14"/>
       <c r="H91" s="14"/>
       <c r="I91" s="14"/>
       <c r="J91" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="92" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C92" s="21"/>
+      <c r="C92" s="23"/>
       <c r="D92" s="13" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="E92" s="14"/>
       <c r="F92" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G92" s="14"/>
       <c r="H92" s="14"/>
       <c r="I92" s="14"/>
       <c r="J92" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="93" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C93" s="21"/>
-      <c r="D93" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="J93" t="s">
-        <v>242</v>
+      <c r="C93" s="23"/>
+      <c r="D93" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="E93" s="14"/>
+      <c r="F93" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="G93" s="14"/>
+      <c r="H93" s="14"/>
+      <c r="I93" s="14"/>
+      <c r="J93" s="14" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="94" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C94" s="21"/>
-      <c r="D94" s="13" t="s">
-        <v>177</v>
-      </c>
-      <c r="E94" s="14"/>
-      <c r="F94" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="G94" s="14"/>
-      <c r="H94" s="14"/>
-      <c r="I94" s="14"/>
-      <c r="J94" s="14" t="s">
-        <v>34</v>
+      <c r="C94" s="23"/>
+      <c r="D94" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="F94" s="20" t="s">
+        <v>245</v>
+      </c>
+      <c r="J94" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="95" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C95" s="21"/>
+      <c r="C95" s="23"/>
       <c r="D95" s="13" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="E95" s="14"/>
       <c r="F95" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G95" s="14"/>
       <c r="H95" s="14"/>
       <c r="I95" s="14"/>
       <c r="J95" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="96" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C96" s="21"/>
+      <c r="C96" s="23"/>
       <c r="D96" s="13" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="E96" s="14"/>
       <c r="F96" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G96" s="14"/>
       <c r="H96" s="14"/>
       <c r="I96" s="14"/>
       <c r="J96" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="97" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C97" s="21"/>
-      <c r="D97" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="J97" t="s">
-        <v>244</v>
+      <c r="C97" s="23"/>
+      <c r="D97" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="E97" s="14"/>
+      <c r="F97" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="G97" s="14"/>
+      <c r="H97" s="14"/>
+      <c r="I97" s="14"/>
+      <c r="J97" s="14" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="98" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C98" s="21"/>
-      <c r="D98" s="13" t="s">
-        <v>181</v>
-      </c>
-      <c r="E98" s="14"/>
-      <c r="F98" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="G98" s="14"/>
-      <c r="H98" s="14"/>
-      <c r="I98" s="14"/>
-      <c r="J98" s="14" t="s">
-        <v>34</v>
+      <c r="C98" s="23" t="s">
+        <v>238</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="F98" t="s">
+        <v>184</v>
+      </c>
+      <c r="J98" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="99" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C99" s="21"/>
+      <c r="C99" s="23"/>
       <c r="D99" s="13" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="E99" s="14"/>
       <c r="F99" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G99" s="14"/>
       <c r="H99" s="14"/>
@@ -2858,13 +3374,13 @@
       </c>
     </row>
     <row r="100" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C100" s="21"/>
+      <c r="C100" s="23"/>
       <c r="D100" s="13" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="E100" s="14"/>
       <c r="F100" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G100" s="14"/>
       <c r="H100" s="14"/>
@@ -2874,38 +3390,38 @@
       </c>
     </row>
     <row r="101" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C101" s="21"/>
-      <c r="D101" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="J101" t="s">
+      <c r="C101" s="23"/>
+      <c r="D101" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="E101" s="14"/>
+      <c r="F101" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="G101" s="14"/>
+      <c r="H101" s="14"/>
+      <c r="I101" s="14"/>
+      <c r="J101" s="14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="102" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="C102" s="23"/>
+      <c r="D102" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="J102" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="102" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C102" s="21"/>
-      <c r="D102" s="13" t="s">
-        <v>186</v>
-      </c>
-      <c r="E102" s="14"/>
-      <c r="F102" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="G102" s="14"/>
-      <c r="H102" s="14"/>
-      <c r="I102" s="14"/>
-      <c r="J102" s="14" t="s">
-        <v>34</v>
-      </c>
-    </row>
     <row r="103" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C103" s="21"/>
+      <c r="C103" s="23"/>
       <c r="D103" s="13" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="E103" s="14"/>
       <c r="F103" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G103" s="14"/>
       <c r="H103" s="14"/>
@@ -2915,13 +3431,13 @@
       </c>
     </row>
     <row r="104" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C104" s="21"/>
+      <c r="C104" s="23"/>
       <c r="D104" s="13" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="E104" s="14"/>
       <c r="F104" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G104" s="14"/>
       <c r="H104" s="14"/>
@@ -2931,38 +3447,38 @@
       </c>
     </row>
     <row r="105" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C105" s="21"/>
-      <c r="D105" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="J105" t="s">
-        <v>242</v>
+      <c r="C105" s="23"/>
+      <c r="D105" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="E105" s="14"/>
+      <c r="F105" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="G105" s="14"/>
+      <c r="H105" s="14"/>
+      <c r="I105" s="14"/>
+      <c r="J105" s="14" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="106" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C106" s="21"/>
-      <c r="D106" s="13" t="s">
-        <v>190</v>
-      </c>
-      <c r="E106" s="14"/>
-      <c r="F106" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="G106" s="14"/>
-      <c r="H106" s="14"/>
-      <c r="I106" s="14"/>
-      <c r="J106" s="14" t="s">
-        <v>34</v>
+      <c r="C106" s="23"/>
+      <c r="D106" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="J106" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="107" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C107" s="21"/>
+      <c r="C107" s="23"/>
       <c r="D107" s="13" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="E107" s="14"/>
       <c r="F107" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G107" s="14"/>
       <c r="H107" s="14"/>
@@ -2972,13 +3488,13 @@
       </c>
     </row>
     <row r="108" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C108" s="21"/>
+      <c r="C108" s="23"/>
       <c r="D108" s="13" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="E108" s="14"/>
       <c r="F108" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G108" s="14"/>
       <c r="H108" s="14"/>
@@ -2988,41 +3504,38 @@
       </c>
     </row>
     <row r="109" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C109" s="21"/>
-      <c r="D109" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="F109" s="20" t="s">
-        <v>246</v>
-      </c>
-      <c r="J109" t="s">
+      <c r="C109" s="23"/>
+      <c r="D109" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="E109" s="14"/>
+      <c r="F109" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="G109" s="14"/>
+      <c r="H109" s="14"/>
+      <c r="I109" s="14"/>
+      <c r="J109" s="14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="110" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="C110" s="23"/>
+      <c r="D110" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="J110" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="110" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C110" s="21"/>
-      <c r="D110" s="13" t="s">
-        <v>194</v>
-      </c>
-      <c r="E110" s="14"/>
-      <c r="F110" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="G110" s="14"/>
-      <c r="H110" s="14"/>
-      <c r="I110" s="14"/>
-      <c r="J110" s="14" t="s">
-        <v>34</v>
-      </c>
-    </row>
     <row r="111" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C111" s="21"/>
+      <c r="C111" s="23"/>
       <c r="D111" s="13" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="E111" s="14"/>
       <c r="F111" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G111" s="14"/>
       <c r="H111" s="14"/>
@@ -3032,13 +3545,13 @@
       </c>
     </row>
     <row r="112" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C112" s="21"/>
+      <c r="C112" s="23"/>
       <c r="D112" s="13" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="E112" s="14"/>
       <c r="F112" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G112" s="14"/>
       <c r="H112" s="14"/>
@@ -3048,154 +3561,157 @@
       </c>
     </row>
     <row r="113" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C113" s="21" t="s">
-        <v>239</v>
-      </c>
-      <c r="D113" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="J113" t="s">
-        <v>247</v>
+      <c r="C113" s="23"/>
+      <c r="D113" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="E113" s="14"/>
+      <c r="F113" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="G113" s="14"/>
+      <c r="H113" s="14"/>
+      <c r="I113" s="14"/>
+      <c r="J113" s="14" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="114" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C114" s="21"/>
-      <c r="D114" s="13" t="s">
-        <v>198</v>
-      </c>
-      <c r="E114" s="14"/>
-      <c r="F114" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="G114" s="14"/>
-      <c r="H114" s="14"/>
-      <c r="I114" s="14"/>
-      <c r="J114" s="14" t="s">
-        <v>35</v>
+      <c r="C114" s="23"/>
+      <c r="D114" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="J114" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="115" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C115" s="21"/>
+      <c r="C115" s="23"/>
       <c r="D115" s="13" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="E115" s="14"/>
       <c r="F115" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G115" s="14"/>
       <c r="H115" s="14"/>
       <c r="I115" s="14"/>
       <c r="J115" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="116" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C116" s="21"/>
+      <c r="C116" s="23"/>
       <c r="D116" s="13" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="E116" s="14"/>
       <c r="F116" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G116" s="14"/>
       <c r="H116" s="14"/>
       <c r="I116" s="14"/>
       <c r="J116" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="117" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C117" s="21"/>
-      <c r="D117" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="J117" t="s">
-        <v>247</v>
+      <c r="C117" s="23"/>
+      <c r="D117" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="E117" s="14"/>
+      <c r="F117" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="G117" s="14"/>
+      <c r="H117" s="14"/>
+      <c r="I117" s="14"/>
+      <c r="J117" s="14" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="118" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C118" s="21"/>
-      <c r="D118" s="13" t="s">
-        <v>201</v>
-      </c>
-      <c r="E118" s="14"/>
-      <c r="F118" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="G118" s="14"/>
-      <c r="H118" s="14"/>
-      <c r="I118" s="14"/>
-      <c r="J118" s="14" t="s">
-        <v>35</v>
+      <c r="C118" s="23"/>
+      <c r="D118" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="F118" s="20" t="s">
+        <v>246</v>
+      </c>
+      <c r="J118" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="119" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C119" s="21"/>
+      <c r="C119" s="23"/>
       <c r="D119" s="13" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="E119" s="14"/>
       <c r="F119" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G119" s="14"/>
       <c r="H119" s="14"/>
       <c r="I119" s="14"/>
       <c r="J119" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="120" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C120" s="21"/>
+      <c r="C120" s="23"/>
       <c r="D120" s="13" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="E120" s="14"/>
       <c r="F120" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G120" s="14"/>
       <c r="H120" s="14"/>
       <c r="I120" s="14"/>
       <c r="J120" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="121" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C121" s="21"/>
-      <c r="D121" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="J121" t="s">
-        <v>243</v>
+      <c r="C121" s="23"/>
+      <c r="D121" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="E121" s="14"/>
+      <c r="F121" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="G121" s="14"/>
+      <c r="H121" s="14"/>
+      <c r="I121" s="14"/>
+      <c r="J121" s="14" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="122" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C122" s="21"/>
-      <c r="D122" s="13" t="s">
-        <v>205</v>
-      </c>
-      <c r="E122" s="14"/>
-      <c r="F122" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="G122" s="14"/>
-      <c r="H122" s="14"/>
-      <c r="I122" s="14"/>
-      <c r="J122" s="14" t="s">
-        <v>35</v>
+      <c r="C122" s="23" t="s">
+        <v>239</v>
+      </c>
+      <c r="D122" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="J122" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="123" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C123" s="21"/>
+      <c r="C123" s="23"/>
       <c r="D123" s="13" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="E123" s="14"/>
       <c r="F123" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G123" s="14"/>
       <c r="H123" s="14"/>
@@ -3205,13 +3721,13 @@
       </c>
     </row>
     <row r="124" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C124" s="21"/>
+      <c r="C124" s="23"/>
       <c r="D124" s="13" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="E124" s="14"/>
       <c r="F124" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G124" s="14"/>
       <c r="H124" s="14"/>
@@ -3221,38 +3737,38 @@
       </c>
     </row>
     <row r="125" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C125" s="21"/>
-      <c r="D125" s="3" t="s">
+      <c r="C125" s="23"/>
+      <c r="D125" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="E125" s="14"/>
+      <c r="F125" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="G125" s="14"/>
+      <c r="H125" s="14"/>
+      <c r="I125" s="14"/>
+      <c r="J125" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="126" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="C126" s="23"/>
+      <c r="D126" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="J125" t="s">
+      <c r="J126" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="126" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C126" s="21"/>
-      <c r="D126" s="13" t="s">
-        <v>208</v>
-      </c>
-      <c r="E126" s="14"/>
-      <c r="F126" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="G126" s="14"/>
-      <c r="H126" s="14"/>
-      <c r="I126" s="14"/>
-      <c r="J126" s="14" t="s">
-        <v>35</v>
-      </c>
-    </row>
     <row r="127" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C127" s="21"/>
+      <c r="C127" s="23"/>
       <c r="D127" s="13" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="E127" s="14"/>
       <c r="F127" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G127" s="14"/>
       <c r="H127" s="14"/>
@@ -3262,13 +3778,13 @@
       </c>
     </row>
     <row r="128" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C128" s="21"/>
+      <c r="C128" s="23"/>
       <c r="D128" s="13" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="E128" s="14"/>
       <c r="F128" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G128" s="14"/>
       <c r="H128" s="14"/>
@@ -3277,39 +3793,39 @@
         <v>35</v>
       </c>
     </row>
-    <row r="129" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C129" s="21"/>
-      <c r="D129" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="J129" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="130" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C130" s="21"/>
-      <c r="D130" s="13" t="s">
-        <v>211</v>
-      </c>
-      <c r="E130" s="14"/>
-      <c r="F130" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="G130" s="14"/>
-      <c r="H130" s="14"/>
-      <c r="I130" s="14"/>
-      <c r="J130" s="14" t="s">
+    <row r="129" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="C129" s="23"/>
+      <c r="D129" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="E129" s="14"/>
+      <c r="F129" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="G129" s="14"/>
+      <c r="H129" s="14"/>
+      <c r="I129" s="14"/>
+      <c r="J129" s="14" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="131" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C131" s="21"/>
+    <row r="130" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="C130" s="23"/>
+      <c r="D130" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="J130" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="131" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="C131" s="23"/>
       <c r="D131" s="13" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="E131" s="14"/>
       <c r="F131" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G131" s="14"/>
       <c r="H131" s="14"/>
@@ -3318,14 +3834,14 @@
         <v>35</v>
       </c>
     </row>
-    <row r="132" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C132" s="21"/>
+    <row r="132" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="C132" s="23"/>
       <c r="D132" s="13" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="E132" s="14"/>
       <c r="F132" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G132" s="14"/>
       <c r="H132" s="14"/>
@@ -3334,39 +3850,39 @@
         <v>35</v>
       </c>
     </row>
-    <row r="133" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C133" s="21"/>
-      <c r="D133" s="3" t="s">
+    <row r="133" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="C133" s="23"/>
+      <c r="D133" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="E133" s="14"/>
+      <c r="F133" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="G133" s="14"/>
+      <c r="H133" s="14"/>
+      <c r="I133" s="14"/>
+      <c r="J133" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="134" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="C134" s="23"/>
+      <c r="D134" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="J133" t="s">
+      <c r="J134" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="134" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C134" s="21"/>
-      <c r="D134" s="13" t="s">
-        <v>214</v>
-      </c>
-      <c r="E134" s="14"/>
-      <c r="F134" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="G134" s="14"/>
-      <c r="H134" s="14"/>
-      <c r="I134" s="14"/>
-      <c r="J134" s="14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="135" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C135" s="21"/>
+    <row r="135" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="C135" s="23"/>
       <c r="D135" s="13" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="E135" s="14"/>
       <c r="F135" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G135" s="14"/>
       <c r="H135" s="14"/>
@@ -3375,14 +3891,14 @@
         <v>35</v>
       </c>
     </row>
-    <row r="136" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C136" s="21"/>
+    <row r="136" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="C136" s="23"/>
       <c r="D136" s="13" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="E136" s="14"/>
       <c r="F136" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G136" s="14"/>
       <c r="H136" s="14"/>
@@ -3391,262 +3907,434 @@
         <v>35</v>
       </c>
     </row>
-    <row r="138" spans="3:12" x14ac:dyDescent="0.15">
-      <c r="C138" t="s">
+    <row r="137" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="C137" s="23"/>
+      <c r="D137" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="E137" s="14"/>
+      <c r="F137" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="G137" s="14"/>
+      <c r="H137" s="14"/>
+      <c r="I137" s="14"/>
+      <c r="J137" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="138" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="C138" s="23"/>
+      <c r="D138" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="J138" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="139" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="C139" s="23"/>
+      <c r="D139" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="E139" s="14"/>
+      <c r="F139" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="G139" s="14"/>
+      <c r="H139" s="14"/>
+      <c r="I139" s="14"/>
+      <c r="J139" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="140" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="C140" s="23"/>
+      <c r="D140" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="E140" s="14"/>
+      <c r="F140" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="G140" s="14"/>
+      <c r="H140" s="14"/>
+      <c r="I140" s="14"/>
+      <c r="J140" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="141" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="C141" s="23"/>
+      <c r="D141" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="E141" s="14"/>
+      <c r="F141" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="G141" s="14"/>
+      <c r="H141" s="14"/>
+      <c r="I141" s="14"/>
+      <c r="J141" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="142" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="C142" s="23"/>
+      <c r="D142" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="J142" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="143" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="C143" s="23"/>
+      <c r="D143" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="E143" s="14"/>
+      <c r="F143" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="G143" s="14"/>
+      <c r="H143" s="14"/>
+      <c r="I143" s="14"/>
+      <c r="J143" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="144" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="C144" s="23"/>
+      <c r="D144" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="E144" s="14"/>
+      <c r="F144" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="G144" s="14"/>
+      <c r="H144" s="14"/>
+      <c r="I144" s="14"/>
+      <c r="J144" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="145" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="C145" s="23"/>
+      <c r="D145" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="E145" s="14"/>
+      <c r="F145" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="G145" s="14"/>
+      <c r="H145" s="14"/>
+      <c r="I145" s="14"/>
+      <c r="J145" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="147" spans="3:12" x14ac:dyDescent="0.15">
+      <c r="C147" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="139" spans="3:12" x14ac:dyDescent="0.15">
-      <c r="D139" s="3" t="s">
+    <row r="148" spans="3:12" x14ac:dyDescent="0.15">
+      <c r="D148" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="140" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="D140" s="3" t="s">
+    <row r="149" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="D149" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="F140" t="s">
+      <c r="F149" t="s">
         <v>71</v>
       </c>
-      <c r="I140" t="s">
+      <c r="I149" t="s">
         <v>70</v>
       </c>
-      <c r="L140" t="s">
+      <c r="L149" s="18" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="141" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="D141" s="3" t="s">
+    <row r="150" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="D150" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="F141" t="s">
+      <c r="F150" t="s">
         <v>72</v>
       </c>
-      <c r="I141" t="s">
+      <c r="I150" t="s">
         <v>74</v>
       </c>
-      <c r="L141" t="s">
+      <c r="L150" s="18" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="142" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="D142" s="3" t="s">
+    <row r="151" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="D151" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F142" t="s">
+      <c r="F151" t="s">
         <v>73</v>
       </c>
-      <c r="I142" t="s">
+      <c r="I151" t="s">
         <v>75</v>
       </c>
-      <c r="L142" t="s">
+      <c r="L151" s="18" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="143" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="D143" s="3" t="s">
+    <row r="152" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="D152" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="F143" t="s">
+      <c r="F152" t="s">
         <v>76</v>
       </c>
-      <c r="L143" t="s">
+      <c r="L152" s="18" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="144" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="D144" s="3" t="s">
+    <row r="153" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="D153" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="F144" t="s">
+      <c r="F153" t="s">
         <v>77</v>
       </c>
-      <c r="L144" t="s">
+      <c r="L153" s="18" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="145" spans="3:16" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="D145" s="3" t="s">
+    <row r="154" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="D154" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="F145" t="s">
+      <c r="F154" t="s">
         <v>80</v>
       </c>
-      <c r="L145" t="s">
+      <c r="L154" s="18" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="146" spans="3:16" outlineLevel="1" x14ac:dyDescent="0.15"/>
-    <row r="147" spans="3:16" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="D147" s="3" t="s">
+    <row r="155" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.15"/>
+    <row r="156" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="D156" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="F147" t="s">
+      <c r="F156" t="s">
         <v>81</v>
       </c>
-      <c r="L147" t="s">
+      <c r="L156" s="18" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="148" spans="3:16" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="D148" s="3" t="s">
+    <row r="157" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="D157" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="F148" t="s">
+      <c r="F157" t="s">
         <v>82</v>
       </c>
-      <c r="L148" t="s">
+      <c r="L157" s="18" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="150" spans="3:16" x14ac:dyDescent="0.15">
-      <c r="C150" t="s">
+    <row r="159" spans="3:12" x14ac:dyDescent="0.15">
+      <c r="C159" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="151" spans="3:16" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="D151" t="s">
+    <row r="160" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="D160" t="s">
         <v>67</v>
       </c>
-      <c r="F151" t="s">
+      <c r="F160" t="s">
         <v>97</v>
       </c>
-      <c r="L151" t="s">
+      <c r="L160" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="152" spans="3:16" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="D152" t="s">
+    <row r="161" spans="1:27" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="D161" t="s">
         <v>69</v>
       </c>
-      <c r="F152" t="s">
+      <c r="F161" t="s">
         <v>99</v>
       </c>
-      <c r="L152" t="s">
+      <c r="L161" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="153" spans="3:16" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="D153" t="s">
+    <row r="162" spans="1:27" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="D162" t="s">
         <v>78</v>
       </c>
-      <c r="F153" t="s">
+      <c r="F162" t="s">
         <v>101</v>
       </c>
-      <c r="L153" t="s">
+      <c r="L162" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="154" spans="3:16" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="D154" t="s">
+      <c r="AA162" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="163" spans="1:27" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="D163" t="s">
         <v>79</v>
       </c>
-      <c r="F154" t="s">
+      <c r="F163" t="s">
         <v>102</v>
       </c>
-      <c r="L154" t="s">
+      <c r="L163" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="155" spans="3:16" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="D155" t="s">
+      <c r="AA163" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="164" spans="1:27" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="D164" t="s">
         <v>225</v>
       </c>
-      <c r="F155" t="s">
+      <c r="F164" t="s">
         <v>228</v>
       </c>
-      <c r="L155" t="s">
+      <c r="L164" s="18" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="156" spans="3:16" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="D156" t="s">
+      <c r="AA164" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="165" spans="1:27" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="D165" t="s">
         <v>226</v>
       </c>
-      <c r="F156" t="s">
+      <c r="F165" t="s">
         <v>228</v>
       </c>
-      <c r="L156" t="s">
+      <c r="L165" s="18" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="157" spans="3:16" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="D157" t="s">
+    <row r="166" spans="1:27" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="D166" t="s">
         <v>227</v>
       </c>
-      <c r="F157" t="s">
+      <c r="F166" t="s">
         <v>228</v>
       </c>
-      <c r="L157" t="s">
+      <c r="L166" s="18" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="159" spans="3:16" x14ac:dyDescent="0.15">
-      <c r="C159" t="s">
+    <row r="167" spans="1:27" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="D167" t="s">
+        <v>274</v>
+      </c>
+      <c r="F167" t="s">
+        <v>275</v>
+      </c>
+      <c r="L167" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="168" spans="1:27" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="D168" t="s">
+        <v>277</v>
+      </c>
+      <c r="F168" t="s">
+        <v>275</v>
+      </c>
+      <c r="L168" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="169" spans="1:27" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="D169" t="s">
+        <v>279</v>
+      </c>
+      <c r="F169" t="s">
+        <v>275</v>
+      </c>
+      <c r="L169" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="171" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="C171" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="160" spans="3:16" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="D160" t="s">
+    <row r="172" spans="1:27" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="D172" t="s">
         <v>90</v>
       </c>
-      <c r="F160" t="s">
+      <c r="F172" t="s">
         <v>107</v>
       </c>
-      <c r="L160" t="s">
+      <c r="L172" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="P160" t="s">
+      <c r="P172" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="161" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.15"/>
-    <row r="162" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="D162" t="s">
+    <row r="173" spans="1:27" outlineLevel="1" x14ac:dyDescent="0.15"/>
+    <row r="174" spans="1:27" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="D174" t="s">
         <v>91</v>
       </c>
-      <c r="F162" t="s">
+      <c r="F174" t="s">
         <v>91</v>
       </c>
-      <c r="L162" t="s">
+      <c r="L174" s="18" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="163" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.15"/>
-    <row r="164" spans="1:12" ht="54" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A164" s="22" t="s">
+    <row r="175" spans="1:27" outlineLevel="1" x14ac:dyDescent="0.15"/>
+    <row r="176" spans="1:27" ht="54" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A176" s="21" t="s">
         <v>253</v>
       </c>
-      <c r="D164" t="s">
+      <c r="D176" t="s">
         <v>92</v>
       </c>
-      <c r="F164" t="s">
+      <c r="F176" t="s">
         <v>94</v>
       </c>
-      <c r="L164" t="s">
+      <c r="L176" s="18" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="165" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.15"/>
-    <row r="166" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="D166" t="s">
+    <row r="177" spans="4:12" outlineLevel="1" x14ac:dyDescent="0.15"/>
+    <row r="178" spans="4:12" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="D178" t="s">
         <v>93</v>
       </c>
-      <c r="F166" t="s">
+      <c r="F178" t="s">
         <v>96</v>
       </c>
-      <c r="L166" t="s">
+      <c r="L178" s="18" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="167" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.15"/>
-    <row r="168" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.15"/>
+    <row r="179" spans="4:12" outlineLevel="1" x14ac:dyDescent="0.15"/>
+    <row r="180" spans="4:12" outlineLevel="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="C65:C88"/>
-    <mergeCell ref="C41:C64"/>
-    <mergeCell ref="C89:C112"/>
-    <mergeCell ref="C113:C136"/>
+    <mergeCell ref="C74:C97"/>
+    <mergeCell ref="C50:C73"/>
+    <mergeCell ref="C98:C121"/>
+    <mergeCell ref="C122:C145"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3677,13 +4365,625 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B2:G70"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C18" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="J26" sqref="J26"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B2" t="s">
+        <v>284</v>
+      </c>
+      <c r="C2" t="s">
+        <v>285</v>
+      </c>
+      <c r="E2" t="s">
+        <v>286</v>
+      </c>
+      <c r="G2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B4" s="24" t="s">
+        <v>288</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B5" s="24"/>
+      <c r="C5" s="22" t="s">
+        <v>291</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B6" s="24"/>
+      <c r="C6" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B7" s="24"/>
+      <c r="C7" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B8" s="24"/>
+      <c r="C8" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B9" s="24"/>
+      <c r="C9" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B10" s="24"/>
+      <c r="C10" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B11" s="24"/>
+      <c r="C11" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="24"/>
+      <c r="C12" s="12" t="s">
+        <v>305</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B14" s="23" t="s">
+        <v>307</v>
+      </c>
+      <c r="C14" t="s">
+        <v>308</v>
+      </c>
+      <c r="E14" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B15" s="23"/>
+      <c r="C15" t="s">
+        <v>309</v>
+      </c>
+      <c r="E15" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B16" s="23"/>
+      <c r="C16" t="s">
+        <v>310</v>
+      </c>
+      <c r="E16" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B17" s="23"/>
+      <c r="C17" t="s">
+        <v>311</v>
+      </c>
+      <c r="E17" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B18" s="23"/>
+      <c r="C18" t="s">
+        <v>312</v>
+      </c>
+      <c r="E18" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B19" s="23"/>
+      <c r="C19" t="s">
+        <v>313</v>
+      </c>
+      <c r="E19" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B20" s="23"/>
+      <c r="C20" t="s">
+        <v>314</v>
+      </c>
+      <c r="E20" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B21" s="23"/>
+      <c r="C21" t="s">
+        <v>315</v>
+      </c>
+      <c r="E21" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B22" s="23"/>
+      <c r="C22" t="s">
+        <v>316</v>
+      </c>
+      <c r="E22" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B23" s="23"/>
+      <c r="C23" t="s">
+        <v>317</v>
+      </c>
+      <c r="E23" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B24" s="23"/>
+      <c r="C24" t="s">
+        <v>318</v>
+      </c>
+      <c r="E24" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B25" s="23"/>
+      <c r="C25" t="s">
+        <v>319</v>
+      </c>
+      <c r="E25" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B26" s="23"/>
+      <c r="C26" t="s">
+        <v>320</v>
+      </c>
+      <c r="E26" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B27" s="23"/>
+      <c r="C27" t="s">
+        <v>321</v>
+      </c>
+      <c r="E27" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B28" s="23"/>
+      <c r="C28" t="s">
+        <v>322</v>
+      </c>
+      <c r="E28" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B29" s="23"/>
+      <c r="C29" t="s">
+        <v>323</v>
+      </c>
+      <c r="E29" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B30" s="23"/>
+      <c r="C30" t="s">
+        <v>325</v>
+      </c>
+      <c r="E30" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B31" s="23"/>
+      <c r="C31" t="s">
+        <v>327</v>
+      </c>
+      <c r="E31" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B32" s="23"/>
+      <c r="C32" t="s">
+        <v>328</v>
+      </c>
+      <c r="E32" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B33" s="23"/>
+      <c r="C33" t="s">
+        <v>330</v>
+      </c>
+      <c r="E33" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B34" s="23"/>
+      <c r="C34" t="s">
+        <v>331</v>
+      </c>
+      <c r="E34" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B35" s="23"/>
+      <c r="C35" t="s">
+        <v>333</v>
+      </c>
+      <c r="E35" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B36" s="23"/>
+      <c r="C36" t="s">
+        <v>335</v>
+      </c>
+      <c r="E36" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B38" s="23" t="s">
+        <v>337</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B39" s="23"/>
+      <c r="C39" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B40" s="23"/>
+      <c r="C40" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B41" s="23"/>
+      <c r="C41" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B42" s="23"/>
+      <c r="C42" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B43" s="23"/>
+      <c r="C43" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B44" s="23"/>
+      <c r="C44" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B45" s="23"/>
+      <c r="C45" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B47" s="23" t="s">
+        <v>349</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="E47" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B48" s="23"/>
+      <c r="C48" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="E48" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B49" s="23"/>
+      <c r="C49" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="E49" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B50" s="23"/>
+      <c r="C50" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="E50" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B51" s="23"/>
+      <c r="C51" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="E51" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B52" s="23"/>
+      <c r="C52" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="E52" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B53" s="23"/>
+      <c r="C53" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="E53" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B54" s="23"/>
+      <c r="C54" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="E54" s="20" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B55" s="23"/>
+      <c r="C55" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="E55" s="20" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B56" s="23"/>
+      <c r="C56" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="E56" s="20" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B57" s="23"/>
+      <c r="C57" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="E57" s="20" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B58" s="23"/>
+      <c r="C58" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="E58" s="20" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B59" s="23"/>
+      <c r="C59" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="E59" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B60" s="23"/>
+      <c r="C60" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="E60" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B61" s="23"/>
+      <c r="C61" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="E61" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B62" s="23"/>
+      <c r="C62" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="E62" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B63" s="23"/>
+      <c r="C63" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="E63" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B64" s="23"/>
+      <c r="C64" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="E64" s="20" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B65" s="23"/>
+      <c r="C65" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="E65" s="20" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B66" s="23"/>
+      <c r="C66" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="E66" s="20" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B67" s="23"/>
+      <c r="C67" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="E67" s="20" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B68" s="23"/>
+      <c r="C68" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="E68" s="20" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B69" s="23"/>
+      <c r="C69" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="E69" s="20" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B70" s="23"/>
+      <c r="C70" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E70" s="20" t="s">
+        <v>397</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B4:B12"/>
+    <mergeCell ref="B14:B36"/>
+    <mergeCell ref="B38:B45"/>
+    <mergeCell ref="B47:B70"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/gd/美术需求文档/UI相关/Icon需求.xlsx
+++ b/gd/美术需求文档/UI相关/Icon需求.xlsx
@@ -2,18 +2,18 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
-  <workbookPr filterPrivacy="1"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-345" yWindow="0" windowWidth="28410" windowHeight="12855" activeTab="2"/>
+    <workbookView xWindow="28605" yWindow="15" windowWidth="28635" windowHeight="12735" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ICON需求及分类" sheetId="1" r:id="rId1"/>
     <sheet name="ICON风格参考" sheetId="2" r:id="rId2"/>
     <sheet name="物品道具翻译需求" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="145621"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
@@ -21,902 +21,345 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="398">
-  <si>
-    <t>宝石</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>经验道具</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>活动相关</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>青铜宝箱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>白银宝箱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>钻石宝箱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>经验药水</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>经验卷轴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>能获得材料,升阶道具为主的宝物宝箱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>倒三角</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>力量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>智力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黑暗石</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>幽兰色</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>血色石</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>心形</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>血量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>玫瑰色</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>四叶草</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>绿叶石</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>琥珀石</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>正方形</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>防御</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天蓝色</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>形状</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宝石变化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>能获得宠物碎片,万能碎片等</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一档</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中经验药水</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小经验药水</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>装备</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>厚实沉稳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>外观特点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>尖锐锋利</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有符文感</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>绿色的符文</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>治疗加成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>绿色</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大经验药水</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>显得略微牛逼点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>显得比二挡更为牛逼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最为牛逼的并添加内发光</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>棱形</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>灰色</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>灰石</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>暴击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>速度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鬼石</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>十字星</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>能量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>羽毛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>彩虹色</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>橙红色</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>前置能量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>太阳型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>太阳石</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>暴击伤害</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="479">
+  <si>
+    <t>Rugged Belt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rugged Glove</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rugged Armor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>坚固的护腕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spiked Glove</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spiked Belt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spiked Armor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spiked Ring</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法术型护腰(1档)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巫术衣带</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法术型护甲(1档)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巫术长袍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法术型手镯(1档)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巫术手镯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法术型戒指(1档)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deadwood Key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rusted Key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gleaming Key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Golden Key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄金宝箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄金钥匙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扫荡券</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽奖替代券</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽奖券</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>万能碎片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灵魂本源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>妖兽的晶核</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>妖兽的皮毛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>妖兽的皮毛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>妖兽的指甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活力值道具(12)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活力饼干(小)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活力值道具(30)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活力饼干(中)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活力值道具(60)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活力饼干(大)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>材料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初级装备强化材料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中级装备强化材料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中级装备强化石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级装备强化材料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级装备强化石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备进阶卷轴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物强化石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Arcane Rune</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Blessing Rune</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normal EXP Scroll</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>荆牙手镯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spiked Band</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rugged Bracer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sacred Band</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mystic Band</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mystic Hood</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玄武护符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mystic Gloves</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mystic Belt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mystic Ring</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Guardian Rune</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Morbid Stone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sacred Ring</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sacred Robe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sacred Gloves</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sacred Belt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Savage Rune</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法术型护身符(1档)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>祈祷法袍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Blood Stone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vitality Stone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sage Stone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bastion Stone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Haste Stone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Volatile Stone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mending Stone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能量宝石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rusted Chest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deadwood Chest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rugged Ring</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Source Stone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Great EXP Scroll</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lucky Draw Ticket</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gem Socketing Chisel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初级装备强化石</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>装备进阶材料1</t>
-  </si>
-  <si>
-    <t>装备进阶材料2</t>
-  </si>
-  <si>
-    <t>宝石开孔材料</t>
-  </si>
-  <si>
-    <t>材料</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>初级装备强化材料</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中级装备强化材料</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高级装备强化材料</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宠物强化石</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宠物进阶石</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>扫荡券</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>其他</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>抽奖替代券</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>初级的材料可合成至中级材料</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>装备强化的初级材料</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>装备强化的中级材料</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>装备强化的高级材料</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中级的材料可以合成至高级材料</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高级材料已经是顶级了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>装备进阶的一般材料,产出比较大量可以和强化材料是同个美术表现类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>装备控制进阶材料,通常用于比较高端的装备进阶,可以有</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>各类宠物碎片</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>万能碎片</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>装备宝石孔开孔的道具,使用将会消耗一件该道具</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可以进行宠物强化的材料</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可以进行宠物进阶的材料</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类似开孔钻的样式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>紫色符石</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蓝色符石,带有强化特殊符文</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>红色符石</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>各类羊皮纸,图纸样式(紫色),更高级的用卷轴(橙色)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黑色五角星</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>亮色五角星</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通天塔币</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公会币</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公会活跃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公会贡献</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公会中用来表示公会繁荣度的货币</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>双翅样式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公会贡献度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>扫荡关卡时需要消耗的道具</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类似奖票样式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可以替代普通抽奖的券</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>奖票样式但会映出一个抽奖的ICON</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宠物样式的ICON增加碎片标示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宠物样式的ICON增加碎片标示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宠物的头像ICON边框使用碎片特有的标示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用"碎片样式的标志"作为icon图标来制作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公会图标样式在前方的原型货币,用咖啡色货币表示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一个拳头握紧的样式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通天塔掉落的货币</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>封印石样式,上带有符文类似魔灵封印石</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>但要区分开</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>钻石型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>洁白</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>经验药水</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新货币</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ICON风格建议偏Q版或日韩风格,不要走中国古侠类型游戏的ICON风格或者</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>防御型拳套(1档)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>防御型拳套(2档)</t>
-  </si>
-  <si>
-    <t>防御型拳套(3档)</t>
-  </si>
-  <si>
-    <t>防御型拳套(4档)</t>
-  </si>
-  <si>
-    <t>带有金属样式的拳套</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>防御型护腰(1档)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>粗厚的皮带外加金属贴边</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>防御型护腰(2档)</t>
-  </si>
-  <si>
-    <t>防御型护腰(3档)</t>
-  </si>
-  <si>
-    <t>防御型护腰(4档)</t>
-  </si>
-  <si>
-    <t>防御型护甲(1档)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>防御型护甲(2档)</t>
-  </si>
-  <si>
-    <t>防御型护甲(3档)</t>
-  </si>
-  <si>
-    <t>防御型护甲(4档)</t>
-  </si>
-  <si>
-    <t>稳固的金属铠甲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>显得略微牛逼点,可通过添加金属花纹等方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>防御型护腕(1档)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>防御型护腕(2档)</t>
-  </si>
-  <si>
-    <t>防御型护腕(3档)</t>
-  </si>
-  <si>
-    <t>防御型护腕(4档)</t>
-  </si>
-  <si>
-    <t>带有皮具金属混合的护腕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>防御型戒指(1档)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>防御型戒指(2档)</t>
-  </si>
-  <si>
-    <t>防御型戒指(3档)</t>
-  </si>
-  <si>
-    <t>防御型戒指(4档)</t>
-  </si>
-  <si>
-    <t>防御型护身符(1档)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>防御型护身符(2档)</t>
-  </si>
-  <si>
-    <t>防御型护身符(3档)</t>
-  </si>
-  <si>
-    <t>防御型护身符(4档)</t>
-  </si>
-  <si>
-    <t>最为厚实的戒指</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>玄武符</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>物理型拳套(1档)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>物理型拳套(2档)</t>
-  </si>
-  <si>
-    <t>物理型拳套(3档)</t>
-  </si>
-  <si>
-    <t>物理型拳套(4档)</t>
-  </si>
-  <si>
-    <t>物理型护腰(1档)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>物理型护腰(2档)</t>
-  </si>
-  <si>
-    <t>物理型护腰(3档)</t>
-  </si>
-  <si>
-    <t>物理型护腰(4档)</t>
-  </si>
-  <si>
-    <t>系列带有白虎元素</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>物理型护甲(1档)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>物理型护甲(2档)</t>
-  </si>
-  <si>
-    <t>物理型护甲(3档)</t>
-  </si>
-  <si>
-    <t>物理型护甲(4档)</t>
-  </si>
-  <si>
-    <t>物理型手镯(1档)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>物理型手镯(2档)</t>
-  </si>
-  <si>
-    <t>物理型手镯(3档)</t>
-  </si>
-  <si>
-    <t>物理型手镯(4档)</t>
-  </si>
-  <si>
-    <t>带有荆棘铁链</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>物理型戒指(1档)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>物理型戒指(2档)</t>
-  </si>
-  <si>
-    <t>物理型戒指(3档)</t>
-  </si>
-  <si>
-    <t>物理型戒指(4档)</t>
-  </si>
-  <si>
-    <t>物理型护身符(1档)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>物理型护身符(2档)</t>
-  </si>
-  <si>
-    <t>物理型护身符(3档)</t>
-  </si>
-  <si>
-    <t>物理型护身符(4档)</t>
-  </si>
-  <si>
-    <t>法术型拳套(1档)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>法术型拳套(2档)</t>
-  </si>
-  <si>
-    <t>法术型拳套(3档)</t>
-  </si>
-  <si>
-    <t>法术型拳套(4档)</t>
-  </si>
-  <si>
-    <t>法术型护腰(1档)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>法术型护腰(2档)</t>
-  </si>
-  <si>
-    <t>法术型护腰(3档)</t>
-  </si>
-  <si>
-    <t>法术型护腰(4档)</t>
-  </si>
-  <si>
-    <t>法术型护甲(1档)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>法术型护甲(2档)</t>
-  </si>
-  <si>
-    <t>法术型护甲(3档)</t>
-  </si>
-  <si>
-    <t>法术型护甲(4档)</t>
-  </si>
-  <si>
-    <t>增加符文的感觉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>法术型手镯(1档)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>法术型手镯(2档)</t>
-  </si>
-  <si>
-    <t>法术型手镯(3档)</t>
-  </si>
-  <si>
-    <t>法术型手镯(4档)</t>
-  </si>
-  <si>
-    <t>法术型戒指(1档)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>法术型戒指(2档)</t>
-  </si>
-  <si>
-    <t>法术型戒指(3档)</t>
-  </si>
-  <si>
-    <t>法术型戒指(4档)</t>
-  </si>
-  <si>
-    <t>法术型护身符(1档)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>法术型护身符(2档)</t>
-  </si>
-  <si>
-    <t>法术型护身符(3档)</t>
-  </si>
-  <si>
-    <t>法术型护身符(4档)</t>
-  </si>
-  <si>
-    <t>支援型拳套(1档)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>支援型拳套(2档)</t>
-  </si>
-  <si>
-    <t>支援型拳套(3档)</t>
-  </si>
-  <si>
-    <t>支援型拳套(4档)</t>
-  </si>
-  <si>
-    <t>支援型护腰(2档)</t>
-  </si>
-  <si>
-    <t>支援型护腰(3档)</t>
-  </si>
-  <si>
-    <t>支援型护腰(4档)</t>
-  </si>
-  <si>
-    <t>支援型护甲(1档)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>支援型护甲(2档)</t>
-  </si>
-  <si>
-    <t>支援型护甲(3档)</t>
-  </si>
-  <si>
-    <t>支援型护甲(4档)</t>
-  </si>
-  <si>
-    <t>支援型手镯(2档)</t>
-  </si>
-  <si>
-    <t>支援型手镯(3档)</t>
-  </si>
-  <si>
-    <t>支援型手镯(4档)</t>
-  </si>
-  <si>
-    <t>支援型戒指(2档)</t>
-  </si>
-  <si>
-    <t>支援型戒指(3档)</t>
-  </si>
-  <si>
-    <t>支援型戒指(4档)</t>
-  </si>
-  <si>
-    <t>支援型护身符(2档)</t>
-  </si>
-  <si>
-    <t>支援型护身符(3档)</t>
-  </si>
-  <si>
-    <t>支援型护身符(4档)</t>
-  </si>
-  <si>
-    <t>活动宝箱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>能获得资源,货币为主的宝物宝箱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>闭合状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可领取状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已领取状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>表现出经验药水的层级关系,用瓶子大小样式来区分,尽量不要改变药水颜色</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>白银宝箱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>晶莹的红色鹅卵石样式(贤者之石)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>妖兽的晶核</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>妖兽的皮毛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>妖兽的指甲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>就是一般卖钱的垃圾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>妖晶样式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>皮毛样式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>指甲样式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要帆爷订的,由帆爷完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>暂时不做的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>锆石</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>荆齿要素,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主题色金</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主题色黑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主题色,赤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主题色兰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>厚实沉稳,少量皮甲,多为板甲要素</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>尖锐锋利,荆棘,刀锋等要素</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>带有魔法表现,如法珠,星星,符文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备进阶石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝石开孔石</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1036,6 +479,741 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>巫术戒指</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>朱雀符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支援型拳套(1档)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>祈祷手套</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支援型护腰(1档)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>祈祷腰带</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支援型护甲(1档)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支援型手镯(1档)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>祈祷手镯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支援型戒指(1档)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>祈祷戒指</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支援型护身符(1档)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>青龙符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Small EXP Potion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Medium EXP Potion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Large EXP Potion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Raid Ticket</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gleaming Chest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Golden Strongbox</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Core Fragments</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wicked Crux</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wicked Pelt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wicked Nails</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boundless EXP Scroll</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活力值道具使用增加30点活力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活力值道具(60)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活力值道具使用增加60点活力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活力值道具使用增加12点活力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活力值道具使用增加30点活力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活力值道具使用增加60点活力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中文内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中文翻译建议</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英文对照翻译</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血量宝石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血魄石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>力量宝石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>锆石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智慧宝石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>琥珀石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御宝石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天青石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>速度宝石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灰石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恢复宝石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绿叶石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴击宝石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恶魔石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴伤宝石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>太阳石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小经验药水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中经验药水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大经验药水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通经验卷轴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级经验卷轴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>至高经验卷轴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>木质宝箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黒木钥匙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑铁宝箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑铁钥匙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白银宝箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白银钥匙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御型戒指(2档)</t>
+  </si>
+  <si>
+    <t>防御型戒指(3档)</t>
+  </si>
+  <si>
+    <t>防御型戒指(4档)</t>
+  </si>
+  <si>
+    <t>防御型护身符(1档)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御型护身符(2档)</t>
+  </si>
+  <si>
+    <t>防御型护身符(3档)</t>
+  </si>
+  <si>
+    <t>防御型护身符(4档)</t>
+  </si>
+  <si>
+    <t>最为厚实的戒指</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玄武符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理型拳套(1档)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理型拳套(2档)</t>
+  </si>
+  <si>
+    <t>物理型拳套(3档)</t>
+  </si>
+  <si>
+    <t>物理型拳套(4档)</t>
+  </si>
+  <si>
+    <t>物理型护腰(1档)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理型护腰(2档)</t>
+  </si>
+  <si>
+    <t>物理型护腰(3档)</t>
+  </si>
+  <si>
+    <t>物理型护腰(4档)</t>
+  </si>
+  <si>
+    <t>系列带有白虎元素</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理型护甲(1档)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理型护甲(2档)</t>
+  </si>
+  <si>
+    <t>物理型护甲(3档)</t>
+  </si>
+  <si>
+    <t>物理型护甲(4档)</t>
+  </si>
+  <si>
+    <t>物理型手镯(1档)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理型手镯(2档)</t>
+  </si>
+  <si>
+    <t>物理型手镯(3档)</t>
+  </si>
+  <si>
+    <t>物理型手镯(4档)</t>
+  </si>
+  <si>
+    <t>带有荆棘铁链</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理型戒指(1档)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理型戒指(2档)</t>
+  </si>
+  <si>
+    <t>物理型戒指(3档)</t>
+  </si>
+  <si>
+    <t>宠物进阶石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御型拳套(1档)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>坚固的拳套</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御型护腰(1档)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>坚固的护腰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御型护甲(1档)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>坚固的铠甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御型护腕(1档)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御型戒指(1档)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>稳固的戒指</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御型护身符(1档)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理型拳套(1档)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>荆牙拳套</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理型护腰(1档)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>荆牙腰带</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理型护甲(1档)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>荆牙护甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理型手镯(1档)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理型戒指(1档)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>荆牙戒指</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理型护身符(1档)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白虎符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法术型拳套(1档)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巫术手套</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支援型拳套(1档)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支援型拳套(2档)</t>
+  </si>
+  <si>
+    <t>支援型拳套(3档)</t>
+  </si>
+  <si>
+    <t>支援型拳套(4档)</t>
+  </si>
+  <si>
+    <t>支援型护腰(2档)</t>
+  </si>
+  <si>
+    <t>支援型护腰(3档)</t>
+  </si>
+  <si>
+    <t>支援型护腰(4档)</t>
+  </si>
+  <si>
+    <t>支援型护甲(1档)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支援型护甲(2档)</t>
+  </si>
+  <si>
+    <t>支援型护甲(3档)</t>
+  </si>
+  <si>
+    <t>支援型护甲(4档)</t>
+  </si>
+  <si>
+    <t>支援型手镯(2档)</t>
+  </si>
+  <si>
+    <t>支援型手镯(3档)</t>
+  </si>
+  <si>
+    <t>支援型手镯(4档)</t>
+  </si>
+  <si>
+    <t>支援型戒指(2档)</t>
+  </si>
+  <si>
+    <t>支援型戒指(3档)</t>
+  </si>
+  <si>
+    <t>支援型戒指(4档)</t>
+  </si>
+  <si>
+    <t>支援型护身符(2档)</t>
+  </si>
+  <si>
+    <t>支援型护身符(3档)</t>
+  </si>
+  <si>
+    <t>支援型护身符(4档)</t>
+  </si>
+  <si>
+    <t>活动宝箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能获得资源,货币为主的宝物宝箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闭合状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可领取状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已领取状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表现出经验药水的层级关系,用瓶子大小样式来区分,尽量不要改变药水颜色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白银宝箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晶莹的红色鹅卵石样式(贤者之石)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>妖兽的晶核</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>妖兽的皮毛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>妖兽的指甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>就是一般卖钱的垃圾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>妖晶样式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>皮毛样式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指甲样式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要帆爷订的,由帆爷完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂时不做的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>锆石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>荆齿要素,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主题色金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主题色黑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主题色,赤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主题色兰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厚实沉稳,少量皮甲,多为板甲要素</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尖锐锋利,荆棘,刀锋等要素</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>带有魔法表现,如法珠,星星,符文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>十字星</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>羽毛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>彩虹色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>橙红色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前置能量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>太阳型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>太阳石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴击伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备进阶材料1</t>
+  </si>
+  <si>
+    <t>装备进阶材料2</t>
+  </si>
+  <si>
+    <t>宝石开孔材料</t>
+  </si>
+  <si>
+    <t>材料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初级装备强化材料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中级装备强化材料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级装备强化材料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物强化石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物进阶石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扫荡券</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽奖替代券</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初级的材料可合成至中级材料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备强化的初级材料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备强化的中级材料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备强化的高级材料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中级的材料可以合成至高级材料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级材料已经是顶级了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>宝箱及其钥匙</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1137,67 +1315,413 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>活力值道具使用增加30点活力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>活力值道具(60)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>活力值道具使用增加60点活力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>活力值道具使用增加12点活力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>活力值道具使用增加30点活力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>活力值道具使用增加60点活力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中文内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中文翻译建议</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>英文对照翻译</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>类似奖票样式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以替代普通抽奖的券</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖票样式但会映出一个抽奖的ICON</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物样式的ICON增加碎片标示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物样式的ICON增加碎片标示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物的头像ICON边框使用碎片特有的标示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用"碎片样式的标志"作为icon图标来制作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公会图标样式在前方的原型货币,用咖啡色货币表示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个拳头握紧的样式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通天塔掉落的货币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>封印石样式,上带有符文类似魔灵封印石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>但要区分开</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钻石型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洁白</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经验药水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新货币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ICON风格建议偏Q版或日韩风格,不要走中国古侠类型游戏的ICON风格或者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御型拳套(1档)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御型拳套(2档)</t>
+  </si>
+  <si>
+    <t>防御型拳套(3档)</t>
+  </si>
+  <si>
+    <t>防御型拳套(4档)</t>
+  </si>
+  <si>
+    <t>带有金属样式的拳套</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御型护腰(1档)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>粗厚的皮带外加金属贴边</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御型护腰(2档)</t>
+  </si>
+  <si>
+    <t>防御型护腰(3档)</t>
+  </si>
+  <si>
+    <t>防御型护腰(4档)</t>
+  </si>
+  <si>
+    <t>防御型护甲(1档)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御型护甲(2档)</t>
+  </si>
+  <si>
+    <t>防御型护甲(3档)</t>
+  </si>
+  <si>
+    <t>防御型护甲(4档)</t>
+  </si>
+  <si>
+    <t>稳固的金属铠甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显得略微牛逼点,可通过添加金属花纹等方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御型护腕(1档)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御型护腕(2档)</t>
+  </si>
+  <si>
+    <t>防御型护腕(3档)</t>
+  </si>
+  <si>
+    <t>防御型护腕(4档)</t>
+  </si>
+  <si>
+    <t>带有皮具金属混合的护腕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御型戒指(1档)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备进阶的一般材料,产出比较大量可以和强化材料是同个美术表现类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备控制进阶材料,通常用于比较高端的装备进阶,可以有</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>各类宠物碎片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>万能碎片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备宝石孔开孔的道具,使用将会消耗一件该道具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以进行宠物强化的材料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以进行宠物进阶的材料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类似开孔钻的样式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫色符石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝色符石,带有强化特殊符文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红色符石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>各类羊皮纸,图纸样式(紫色),更高级的用卷轴(橙色)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑色五角星</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亮色五角星</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通天塔币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公会币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公会活跃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公会贡献</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公会中用来表示公会繁荣度的货币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双翅样式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公会贡献度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扫荡关卡时需要消耗的道具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理型戒指(4档)</t>
+  </si>
+  <si>
+    <t>物理型护身符(1档)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理型护身符(2档)</t>
+  </si>
+  <si>
+    <t>物理型护身符(3档)</t>
+  </si>
+  <si>
+    <t>物理型护身符(4档)</t>
+  </si>
+  <si>
+    <t>法术型拳套(1档)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法术型拳套(2档)</t>
+  </si>
+  <si>
+    <t>法术型拳套(3档)</t>
+  </si>
+  <si>
+    <t>法术型拳套(4档)</t>
+  </si>
+  <si>
+    <t>法术型护腰(1档)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法术型护腰(2档)</t>
+  </si>
+  <si>
+    <t>法术型护腰(3档)</t>
+  </si>
+  <si>
+    <t>法术型护腰(4档)</t>
+  </si>
+  <si>
+    <t>法术型护甲(1档)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法术型护甲(2档)</t>
+  </si>
+  <si>
+    <t>法术型护甲(3档)</t>
+  </si>
+  <si>
+    <t>法术型护甲(4档)</t>
+  </si>
+  <si>
+    <t>增加符文的感觉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法术型手镯(1档)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法术型手镯(2档)</t>
+  </si>
+  <si>
+    <t>法术型手镯(3档)</t>
+  </si>
+  <si>
+    <t>法术型手镯(4档)</t>
+  </si>
+  <si>
+    <t>法术型戒指(1档)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法术型戒指(2档)</t>
+  </si>
+  <si>
+    <t>法术型戒指(3档)</t>
+  </si>
+  <si>
+    <t>法术型戒指(4档)</t>
+  </si>
+  <si>
+    <t>法术型护身符(1档)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法术型护身符(2档)</t>
+  </si>
+  <si>
+    <t>法术型护身符(3档)</t>
+  </si>
+  <si>
+    <t>法术型护身符(4档)</t>
   </si>
   <si>
     <t>宝石</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>血量宝石</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>血魄石</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>力量宝石</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>锆石</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>智慧宝石</t>
+    <t>经验道具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动相关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>青铜宝箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白银宝箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钻石宝箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经验药水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经验卷轴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能获得材料,升阶道具为主的宝物宝箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>倒三角</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>力量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑暗石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幽兰色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血色石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>心形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玫瑰色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四叶草</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绿叶石</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1205,15 +1729,95 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>防御宝石</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天青石</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>速度宝石</t>
+    <t>正方形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天蓝色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>形状</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝石变化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能获得宠物碎片,万能碎片等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中经验药水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小经验药水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厚实沉稳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外观特点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尖锐锋利</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有符文感</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绿色的符文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治疗加成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绿色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大经验药水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显得略微牛逼点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显得比二挡更为牛逼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最为牛逼的并添加内发光</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>棱形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灰色</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1221,399 +1825,119 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>恢复宝石</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>绿叶石</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>暴击宝石</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>恶魔石</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>能量宝石</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>能量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>暴伤宝石</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>太阳石</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消耗品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小经验药水</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中经验药水</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大经验药水</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>普通经验卷轴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高级经验卷轴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>至高经验卷轴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>木质宝箱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黒木钥匙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黑铁宝箱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黑铁钥匙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>白银宝箱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>白银钥匙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄金宝箱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄金钥匙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>扫荡券</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>抽奖替代券</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>抽奖券</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>万能碎片</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>灵魂本源</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>妖兽的晶核</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>妖兽的皮毛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>妖兽的皮毛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>妖兽的指甲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>活力值道具(12)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>活力饼干(小)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>活力值道具(30)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>活力饼干(中)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>活力值道具(60)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>活力饼干(大)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>材料</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>初级装备强化材料</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>初级装备强化石</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中级装备强化材料</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中级装备强化石</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高级装备强化材料</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高级装备强化石</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>装备进阶石</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>装备进阶卷轴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宝石开孔石</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宠物强化石</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宠物进阶石</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>装备</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>防御型拳套(1档)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>坚固的拳套</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>防御型护腰(1档)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>坚固的护腰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>防御型护甲(1档)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>坚固的铠甲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>防御型护腕(1档)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>坚固的护腕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>防御型戒指(1档)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>稳固的戒指</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>防御型护身符(1档)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>玄武护符</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>物理型拳套(1档)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>荆牙拳套</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>物理型护腰(1档)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>荆牙腰带</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>物理型护甲(1档)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>荆牙护甲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>物理型手镯(1档)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>荆牙手镯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>物理型戒指(1档)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>荆牙戒指</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>物理型护身符(1档)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>白虎符</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>法术型拳套(1档)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>巫术手套</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>法术型护腰(1档)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>巫术衣带</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>法术型护甲(1档)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>巫术长袍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>法术型手镯(1档)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>巫术手镯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>法术型戒指(1档)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>巫术戒指</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>法术型护身符(1档)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>朱雀符</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>支援型拳套(1档)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>祈祷手套</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>支援型护腰(1档)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>祈祷腰带</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>支援型护甲(1档)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>祈祷法袍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>支援型手镯(1档)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>祈祷手镯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>支援型戒指(1档)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>祈祷戒指</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>支援型护身符(1档)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>青龙符</t>
+    <t>暴击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鬼石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用途</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Energy Cookies(Small)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Energy Cookies(Medium)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Energy Cookies(Large)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝石镶嵌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物经验提升</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物经验BUFF倍率获得</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏自然产出的宝箱,开启获得产出物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扫荡副本的凭证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以代替一次抽奖消耗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>传说中的万能碎片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>垃圾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恢复玩家人物活力值道具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>standard  upgrade stone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>basic upgrade stone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>superior  upgrade stone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Advanced scroll</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monster upgrade stone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monster advanced stone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Advanced stone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备强化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备进阶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝石镶嵌孔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物强化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物进阶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物穿戴</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1879,7 +2203,7 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1934,7 +2258,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1969,7 +2293,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2180,7 +2504,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:AA180"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
@@ -2192,178 +2516,178 @@
   <sheetData>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="C3" t="s">
-        <v>0</v>
+        <v>405</v>
       </c>
       <c r="K3" s="18"/>
       <c r="L3" t="s">
-        <v>232</v>
+        <v>253</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="D4" t="s">
-        <v>25</v>
+        <v>430</v>
       </c>
       <c r="K4" s="14"/>
       <c r="L4" t="s">
-        <v>233</v>
+        <v>254</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="14.25" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="F5" t="s">
-        <v>24</v>
+        <v>429</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="35.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="D6" s="5" t="s">
-        <v>14</v>
+        <v>419</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="6" t="s">
-        <v>15</v>
+        <v>420</v>
       </c>
       <c r="G6" s="6"/>
       <c r="H6" s="6" t="s">
-        <v>16</v>
+        <v>421</v>
       </c>
       <c r="I6" s="15" t="s">
-        <v>17</v>
+        <v>422</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="35.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="D7" s="22" t="s">
-        <v>234</v>
+        <v>255</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
-        <v>110</v>
+        <v>326</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1" t="s">
-        <v>10</v>
+        <v>415</v>
       </c>
       <c r="I7" s="16" t="s">
-        <v>111</v>
+        <v>327</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="31.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A8" s="21" t="s">
-        <v>248</v>
+        <v>90</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>12</v>
+        <v>417</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1" t="s">
-        <v>9</v>
+        <v>414</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1" t="s">
-        <v>11</v>
+        <v>416</v>
       </c>
       <c r="I8" s="16" t="s">
-        <v>13</v>
+        <v>418</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="D9" s="8" t="s">
-        <v>20</v>
+        <v>425</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="2" t="s">
-        <v>21</v>
+        <v>426</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="2" t="s">
-        <v>22</v>
+        <v>427</v>
       </c>
       <c r="I9" s="16" t="s">
-        <v>23</v>
+        <v>428</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="36.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A10" s="21" t="s">
-        <v>249</v>
+        <v>91</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>44</v>
+        <v>449</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1" t="s">
-        <v>42</v>
+        <v>447</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1" t="s">
-        <v>46</v>
+        <v>451</v>
       </c>
       <c r="I10" s="16" t="s">
-        <v>43</v>
+        <v>448</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="32.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="D11" s="7" t="s">
-        <v>19</v>
+        <v>424</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1" t="s">
-        <v>18</v>
+        <v>423</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1" t="s">
-        <v>36</v>
+        <v>441</v>
       </c>
       <c r="I11" s="16" t="s">
-        <v>37</v>
+        <v>442</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="42.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="D12" s="7" t="s">
-        <v>47</v>
+        <v>452</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1" t="s">
-        <v>48</v>
+        <v>264</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1" t="s">
-        <v>45</v>
+        <v>450</v>
       </c>
       <c r="I12" s="16" t="s">
-        <v>52</v>
+        <v>268</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="37.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="D13" s="7" t="s">
-        <v>49</v>
+        <v>265</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1" t="s">
-        <v>50</v>
+        <v>266</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1" t="s">
-        <v>53</v>
+        <v>269</v>
       </c>
       <c r="I13" s="16" t="s">
-        <v>51</v>
+        <v>267</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="46.5" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A14" s="21" t="s">
-        <v>250</v>
+        <v>92</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>55</v>
+        <v>271</v>
       </c>
       <c r="E14" s="10"/>
       <c r="F14" s="9" t="s">
-        <v>54</v>
+        <v>270</v>
       </c>
       <c r="G14" s="10"/>
       <c r="H14" s="10" t="s">
-        <v>56</v>
+        <v>272</v>
       </c>
       <c r="I14" s="17" t="s">
-        <v>52</v>
+        <v>268</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.15">
@@ -2376,39 +2700,39 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="C16" t="s">
-        <v>1</v>
+        <v>406</v>
       </c>
     </row>
     <row r="17" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="D17" t="s">
-        <v>6</v>
+        <v>411</v>
       </c>
     </row>
     <row r="18" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="E18" t="s">
-        <v>29</v>
+        <v>434</v>
       </c>
       <c r="G18">
         <v>60</v>
       </c>
       <c r="I18" t="s">
-        <v>112</v>
+        <v>328</v>
       </c>
     </row>
     <row r="19" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="E19" t="s">
-        <v>28</v>
+        <v>433</v>
       </c>
       <c r="G19">
         <v>360</v>
       </c>
       <c r="I19" t="s">
-        <v>222</v>
+        <v>243</v>
       </c>
     </row>
     <row r="20" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="E20" t="s">
-        <v>38</v>
+        <v>443</v>
       </c>
       <c r="G20">
         <v>1200</v>
@@ -2418,29 +2742,29 @@
     <row r="22" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.15"/>
     <row r="23" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="D23" t="s">
-        <v>7</v>
+        <v>412</v>
       </c>
       <c r="G23" t="s">
-        <v>252</v>
+        <v>94</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="54" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A24" s="21" t="s">
-        <v>273</v>
+        <v>309</v>
       </c>
       <c r="E24" t="s">
-        <v>27</v>
+        <v>432</v>
       </c>
       <c r="G24" s="11">
         <v>1.5</v>
       </c>
       <c r="I24" t="s">
-        <v>251</v>
+        <v>93</v>
       </c>
     </row>
     <row r="25" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="E25" t="s">
-        <v>254</v>
+        <v>96</v>
       </c>
       <c r="G25" s="11">
         <v>2</v>
@@ -2448,7 +2772,7 @@
     </row>
     <row r="26" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="E26" t="s">
-        <v>255</v>
+        <v>97</v>
       </c>
       <c r="G26" s="11">
         <v>3</v>
@@ -2456,1875 +2780,1875 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C28" t="s">
-        <v>2</v>
+        <v>407</v>
       </c>
     </row>
     <row r="29" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="D29" t="s">
-        <v>217</v>
+        <v>238</v>
       </c>
     </row>
     <row r="30" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="E30" s="18" t="s">
-        <v>3</v>
+        <v>408</v>
       </c>
       <c r="F30" t="s">
-        <v>219</v>
+        <v>240</v>
       </c>
       <c r="G30" t="s">
-        <v>218</v>
+        <v>239</v>
       </c>
     </row>
     <row r="31" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="E31" s="18" t="s">
-        <v>3</v>
+        <v>408</v>
       </c>
       <c r="F31" t="s">
-        <v>220</v>
+        <v>241</v>
       </c>
     </row>
     <row r="32" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="E32" s="18" t="s">
-        <v>3</v>
+        <v>408</v>
       </c>
       <c r="F32" t="s">
-        <v>221</v>
+        <v>242</v>
       </c>
     </row>
     <row r="33" spans="3:7" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="E33" s="18" t="s">
-        <v>4</v>
+        <v>409</v>
       </c>
       <c r="F33" t="s">
-        <v>219</v>
+        <v>240</v>
       </c>
       <c r="G33" t="s">
-        <v>8</v>
+        <v>413</v>
       </c>
     </row>
     <row r="34" spans="3:7" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="E34" s="18" t="s">
-        <v>223</v>
+        <v>244</v>
       </c>
       <c r="F34" t="s">
-        <v>220</v>
+        <v>241</v>
       </c>
     </row>
     <row r="35" spans="3:7" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="E35" s="18" t="s">
-        <v>223</v>
+        <v>244</v>
       </c>
       <c r="F35" t="s">
-        <v>221</v>
+        <v>242</v>
       </c>
     </row>
     <row r="36" spans="3:7" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="E36" s="18" t="s">
-        <v>5</v>
+        <v>410</v>
       </c>
       <c r="F36" t="s">
-        <v>219</v>
+        <v>240</v>
       </c>
       <c r="G36" t="s">
-        <v>26</v>
+        <v>431</v>
       </c>
     </row>
     <row r="37" spans="3:7" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="E37" s="18" t="s">
-        <v>5</v>
+        <v>410</v>
       </c>
       <c r="F37" t="s">
-        <v>220</v>
+        <v>241</v>
       </c>
     </row>
     <row r="38" spans="3:7" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="E38" s="18" t="s">
-        <v>5</v>
+        <v>410</v>
       </c>
       <c r="F38" t="s">
-        <v>221</v>
+        <v>242</v>
       </c>
     </row>
     <row r="39" spans="3:7" outlineLevel="1" x14ac:dyDescent="0.15"/>
     <row r="40" spans="3:7" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C40" t="s">
-        <v>256</v>
+        <v>292</v>
       </c>
     </row>
     <row r="41" spans="3:7" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="E41" s="18" t="s">
-        <v>257</v>
+        <v>293</v>
       </c>
       <c r="F41" t="s">
-        <v>258</v>
+        <v>294</v>
       </c>
     </row>
     <row r="42" spans="3:7" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="E42" s="18" t="s">
-        <v>259</v>
+        <v>295</v>
       </c>
       <c r="F42" t="s">
-        <v>260</v>
+        <v>296</v>
       </c>
     </row>
     <row r="43" spans="3:7" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="E43" s="18" t="s">
-        <v>261</v>
+        <v>297</v>
       </c>
       <c r="F43" t="s">
-        <v>262</v>
+        <v>298</v>
       </c>
     </row>
     <row r="44" spans="3:7" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="E44" s="18" t="s">
-        <v>263</v>
+        <v>299</v>
       </c>
       <c r="F44" t="s">
-        <v>264</v>
+        <v>300</v>
       </c>
     </row>
     <row r="45" spans="3:7" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="E45" s="18" t="s">
-        <v>265</v>
+        <v>301</v>
       </c>
       <c r="F45" t="s">
-        <v>266</v>
+        <v>302</v>
       </c>
     </row>
     <row r="46" spans="3:7" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="E46" s="18" t="s">
-        <v>267</v>
+        <v>303</v>
       </c>
       <c r="F46" t="s">
-        <v>268</v>
+        <v>304</v>
       </c>
     </row>
     <row r="47" spans="3:7" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="E47" s="18" t="s">
-        <v>269</v>
+        <v>305</v>
       </c>
       <c r="F47" t="s">
-        <v>270</v>
+        <v>306</v>
       </c>
     </row>
     <row r="48" spans="3:7" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="E48" s="18" t="s">
-        <v>271</v>
+        <v>307</v>
       </c>
       <c r="F48" t="s">
-        <v>272</v>
+        <v>308</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C49" t="s">
-        <v>30</v>
+        <v>435</v>
       </c>
       <c r="J49" t="s">
-        <v>32</v>
+        <v>437</v>
       </c>
     </row>
     <row r="50" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C50" s="23" t="s">
-        <v>237</v>
+        <v>258</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>115</v>
+        <v>331</v>
       </c>
       <c r="F50" t="s">
-        <v>119</v>
+        <v>335</v>
       </c>
       <c r="J50" t="s">
-        <v>240</v>
+        <v>261</v>
       </c>
     </row>
     <row r="51" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A51" s="19"/>
       <c r="C51" s="23"/>
       <c r="D51" s="13" t="s">
-        <v>116</v>
+        <v>332</v>
       </c>
       <c r="E51" s="14"/>
       <c r="F51" s="14" t="s">
-        <v>39</v>
+        <v>444</v>
       </c>
       <c r="G51" s="14"/>
       <c r="H51" s="14"/>
       <c r="I51" s="14"/>
       <c r="J51" s="14" t="s">
-        <v>31</v>
+        <v>436</v>
       </c>
     </row>
     <row r="52" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A52" s="19"/>
       <c r="C52" s="23"/>
       <c r="D52" s="13" t="s">
-        <v>117</v>
+        <v>333</v>
       </c>
       <c r="E52" s="14"/>
       <c r="F52" s="14" t="s">
-        <v>40</v>
+        <v>445</v>
       </c>
       <c r="G52" s="14"/>
       <c r="H52" s="14"/>
       <c r="I52" s="14"/>
       <c r="J52" s="14" t="s">
-        <v>31</v>
+        <v>436</v>
       </c>
     </row>
     <row r="53" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C53" s="23"/>
       <c r="D53" s="13" t="s">
-        <v>118</v>
+        <v>334</v>
       </c>
       <c r="E53" s="14"/>
       <c r="F53" s="14" t="s">
-        <v>41</v>
+        <v>446</v>
       </c>
       <c r="G53" s="14"/>
       <c r="H53" s="14"/>
       <c r="I53" s="14"/>
       <c r="J53" s="14" t="s">
-        <v>31</v>
+        <v>436</v>
       </c>
     </row>
     <row r="54" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C54" s="23"/>
       <c r="D54" s="3" t="s">
-        <v>120</v>
+        <v>336</v>
       </c>
       <c r="F54" t="s">
-        <v>121</v>
+        <v>337</v>
       </c>
       <c r="J54" t="s">
-        <v>240</v>
+        <v>261</v>
       </c>
     </row>
     <row r="55" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C55" s="23"/>
       <c r="D55" s="13" t="s">
-        <v>122</v>
+        <v>338</v>
       </c>
       <c r="E55" s="14"/>
       <c r="F55" s="14" t="s">
-        <v>39</v>
+        <v>444</v>
       </c>
       <c r="G55" s="14"/>
       <c r="H55" s="14"/>
       <c r="I55" s="14"/>
       <c r="J55" s="14" t="s">
-        <v>31</v>
+        <v>436</v>
       </c>
     </row>
     <row r="56" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C56" s="23"/>
       <c r="D56" s="13" t="s">
-        <v>123</v>
+        <v>339</v>
       </c>
       <c r="E56" s="14"/>
       <c r="F56" s="14" t="s">
-        <v>40</v>
+        <v>445</v>
       </c>
       <c r="G56" s="14"/>
       <c r="H56" s="14"/>
       <c r="I56" s="14"/>
       <c r="J56" s="14" t="s">
-        <v>31</v>
+        <v>436</v>
       </c>
     </row>
     <row r="57" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C57" s="23"/>
       <c r="D57" s="13" t="s">
-        <v>124</v>
+        <v>340</v>
       </c>
       <c r="E57" s="14"/>
       <c r="F57" s="14" t="s">
-        <v>41</v>
+        <v>446</v>
       </c>
       <c r="G57" s="14"/>
       <c r="H57" s="14"/>
       <c r="I57" s="14"/>
       <c r="J57" s="14" t="s">
-        <v>31</v>
+        <v>436</v>
       </c>
     </row>
     <row r="58" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C58" s="23"/>
       <c r="D58" s="3" t="s">
-        <v>125</v>
+        <v>341</v>
       </c>
       <c r="F58" t="s">
-        <v>129</v>
+        <v>345</v>
       </c>
       <c r="J58" t="s">
-        <v>240</v>
+        <v>261</v>
       </c>
     </row>
     <row r="59" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C59" s="23"/>
       <c r="D59" s="13" t="s">
-        <v>126</v>
+        <v>342</v>
       </c>
       <c r="E59" s="14"/>
       <c r="F59" s="14" t="s">
-        <v>130</v>
+        <v>346</v>
       </c>
       <c r="G59" s="14"/>
       <c r="H59" s="14"/>
       <c r="I59" s="14"/>
       <c r="J59" s="14" t="s">
-        <v>31</v>
+        <v>436</v>
       </c>
     </row>
     <row r="60" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C60" s="23"/>
       <c r="D60" s="13" t="s">
-        <v>127</v>
+        <v>343</v>
       </c>
       <c r="E60" s="14"/>
       <c r="F60" s="14" t="s">
-        <v>40</v>
+        <v>445</v>
       </c>
       <c r="G60" s="14"/>
       <c r="H60" s="14"/>
       <c r="I60" s="14"/>
       <c r="J60" s="14" t="s">
-        <v>31</v>
+        <v>436</v>
       </c>
     </row>
     <row r="61" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C61" s="23"/>
       <c r="D61" s="13" t="s">
-        <v>128</v>
+        <v>344</v>
       </c>
       <c r="E61" s="14"/>
       <c r="F61" s="14" t="s">
-        <v>41</v>
+        <v>446</v>
       </c>
       <c r="G61" s="14"/>
       <c r="H61" s="14"/>
       <c r="I61" s="14"/>
       <c r="J61" s="14" t="s">
-        <v>31</v>
+        <v>436</v>
       </c>
     </row>
     <row r="62" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C62" s="23"/>
       <c r="D62" s="3" t="s">
-        <v>131</v>
+        <v>347</v>
       </c>
       <c r="F62" t="s">
-        <v>135</v>
+        <v>351</v>
       </c>
       <c r="J62" t="s">
-        <v>240</v>
+        <v>261</v>
       </c>
     </row>
     <row r="63" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C63" s="23"/>
       <c r="D63" s="13" t="s">
-        <v>132</v>
+        <v>348</v>
       </c>
       <c r="E63" s="14"/>
       <c r="F63" s="14" t="s">
-        <v>39</v>
+        <v>444</v>
       </c>
       <c r="G63" s="14"/>
       <c r="H63" s="14"/>
       <c r="I63" s="14"/>
       <c r="J63" s="14" t="s">
-        <v>31</v>
+        <v>436</v>
       </c>
     </row>
     <row r="64" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C64" s="23"/>
       <c r="D64" s="13" t="s">
-        <v>133</v>
+        <v>349</v>
       </c>
       <c r="E64" s="14"/>
       <c r="F64" s="14" t="s">
-        <v>40</v>
+        <v>445</v>
       </c>
       <c r="G64" s="14"/>
       <c r="H64" s="14"/>
       <c r="I64" s="14"/>
       <c r="J64" s="14" t="s">
-        <v>31</v>
+        <v>436</v>
       </c>
     </row>
     <row r="65" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C65" s="23"/>
       <c r="D65" s="13" t="s">
-        <v>134</v>
+        <v>350</v>
       </c>
       <c r="E65" s="14"/>
       <c r="F65" s="14" t="s">
-        <v>41</v>
+        <v>446</v>
       </c>
       <c r="G65" s="14"/>
       <c r="H65" s="14"/>
       <c r="I65" s="14"/>
       <c r="J65" s="14" t="s">
-        <v>31</v>
+        <v>436</v>
       </c>
     </row>
     <row r="66" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C66" s="23"/>
       <c r="D66" s="3" t="s">
-        <v>136</v>
+        <v>352</v>
       </c>
       <c r="F66" t="s">
-        <v>144</v>
+        <v>170</v>
       </c>
       <c r="J66" t="s">
-        <v>240</v>
+        <v>261</v>
       </c>
     </row>
     <row r="67" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C67" s="23"/>
       <c r="D67" s="13" t="s">
-        <v>137</v>
+        <v>163</v>
       </c>
       <c r="E67" s="14"/>
       <c r="F67" s="14" t="s">
-        <v>39</v>
+        <v>444</v>
       </c>
       <c r="G67" s="14"/>
       <c r="H67" s="14"/>
       <c r="I67" s="14"/>
       <c r="J67" s="14" t="s">
-        <v>31</v>
+        <v>436</v>
       </c>
     </row>
     <row r="68" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C68" s="23"/>
       <c r="D68" s="13" t="s">
-        <v>138</v>
+        <v>164</v>
       </c>
       <c r="E68" s="14"/>
       <c r="F68" s="14" t="s">
-        <v>40</v>
+        <v>445</v>
       </c>
       <c r="G68" s="14"/>
       <c r="H68" s="14"/>
       <c r="I68" s="14"/>
       <c r="J68" s="14" t="s">
-        <v>31</v>
+        <v>436</v>
       </c>
     </row>
     <row r="69" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C69" s="23"/>
       <c r="D69" s="13" t="s">
-        <v>139</v>
+        <v>165</v>
       </c>
       <c r="E69" s="14"/>
       <c r="F69" s="14" t="s">
-        <v>41</v>
+        <v>446</v>
       </c>
       <c r="G69" s="14"/>
       <c r="H69" s="14"/>
       <c r="I69" s="14"/>
       <c r="J69" s="14" t="s">
-        <v>31</v>
+        <v>436</v>
       </c>
     </row>
     <row r="70" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C70" s="23"/>
       <c r="D70" s="3" t="s">
-        <v>140</v>
+        <v>166</v>
       </c>
       <c r="F70" t="s">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="J70" t="s">
-        <v>240</v>
+        <v>261</v>
       </c>
     </row>
     <row r="71" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C71" s="23"/>
       <c r="D71" s="13" t="s">
-        <v>141</v>
+        <v>167</v>
       </c>
       <c r="E71" s="14"/>
       <c r="F71" s="14" t="s">
-        <v>39</v>
+        <v>444</v>
       </c>
       <c r="G71" s="14"/>
       <c r="H71" s="14"/>
       <c r="I71" s="14"/>
       <c r="J71" s="14" t="s">
-        <v>31</v>
+        <v>436</v>
       </c>
     </row>
     <row r="72" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C72" s="23"/>
       <c r="D72" s="13" t="s">
-        <v>142</v>
+        <v>168</v>
       </c>
       <c r="E72" s="14"/>
       <c r="F72" s="14" t="s">
-        <v>40</v>
+        <v>445</v>
       </c>
       <c r="G72" s="14"/>
       <c r="H72" s="14"/>
       <c r="I72" s="14"/>
       <c r="J72" s="14" t="s">
-        <v>31</v>
+        <v>436</v>
       </c>
     </row>
     <row r="73" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C73" s="23"/>
       <c r="D73" s="13" t="s">
-        <v>143</v>
+        <v>169</v>
       </c>
       <c r="E73" s="14"/>
       <c r="F73" s="14" t="s">
-        <v>41</v>
+        <v>446</v>
       </c>
       <c r="G73" s="14"/>
       <c r="H73" s="14"/>
       <c r="I73" s="14"/>
       <c r="J73" s="14" t="s">
-        <v>31</v>
+        <v>436</v>
       </c>
     </row>
     <row r="74" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C74" s="23" t="s">
-        <v>236</v>
+        <v>257</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>146</v>
+        <v>172</v>
       </c>
       <c r="F74" t="s">
-        <v>154</v>
+        <v>180</v>
       </c>
       <c r="J74" t="s">
-        <v>241</v>
+        <v>262</v>
       </c>
     </row>
     <row r="75" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C75" s="23"/>
       <c r="D75" s="13" t="s">
-        <v>147</v>
+        <v>173</v>
       </c>
       <c r="E75" s="14"/>
       <c r="F75" s="14" t="s">
-        <v>39</v>
+        <v>444</v>
       </c>
       <c r="G75" s="14"/>
       <c r="H75" s="14"/>
       <c r="I75" s="14"/>
       <c r="J75" s="14" t="s">
-        <v>33</v>
+        <v>438</v>
       </c>
     </row>
     <row r="76" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C76" s="23"/>
       <c r="D76" s="13" t="s">
-        <v>148</v>
+        <v>174</v>
       </c>
       <c r="E76" s="14"/>
       <c r="F76" s="14" t="s">
-        <v>40</v>
+        <v>445</v>
       </c>
       <c r="G76" s="14"/>
       <c r="H76" s="14"/>
       <c r="I76" s="14"/>
       <c r="J76" s="14" t="s">
-        <v>33</v>
+        <v>438</v>
       </c>
     </row>
     <row r="77" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C77" s="23"/>
       <c r="D77" s="13" t="s">
-        <v>149</v>
+        <v>175</v>
       </c>
       <c r="E77" s="14"/>
       <c r="F77" s="14" t="s">
-        <v>41</v>
+        <v>446</v>
       </c>
       <c r="G77" s="14"/>
       <c r="H77" s="14"/>
       <c r="I77" s="14"/>
       <c r="J77" s="14" t="s">
-        <v>33</v>
+        <v>438</v>
       </c>
     </row>
     <row r="78" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C78" s="23"/>
       <c r="D78" s="3" t="s">
-        <v>150</v>
+        <v>176</v>
       </c>
       <c r="F78" s="20" t="s">
-        <v>235</v>
+        <v>256</v>
       </c>
       <c r="J78" t="s">
-        <v>241</v>
+        <v>262</v>
       </c>
     </row>
     <row r="79" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C79" s="23"/>
       <c r="D79" s="13" t="s">
-        <v>151</v>
+        <v>177</v>
       </c>
       <c r="E79" s="14"/>
       <c r="F79" s="14" t="s">
-        <v>39</v>
+        <v>444</v>
       </c>
       <c r="G79" s="14"/>
       <c r="H79" s="14"/>
       <c r="I79" s="14"/>
       <c r="J79" s="14" t="s">
-        <v>33</v>
+        <v>438</v>
       </c>
     </row>
     <row r="80" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C80" s="23"/>
       <c r="D80" s="13" t="s">
-        <v>152</v>
+        <v>178</v>
       </c>
       <c r="E80" s="14"/>
       <c r="F80" s="14" t="s">
-        <v>40</v>
+        <v>445</v>
       </c>
       <c r="G80" s="14"/>
       <c r="H80" s="14"/>
       <c r="I80" s="14"/>
       <c r="J80" s="14" t="s">
-        <v>33</v>
+        <v>438</v>
       </c>
     </row>
     <row r="81" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C81" s="23"/>
       <c r="D81" s="13" t="s">
-        <v>153</v>
+        <v>179</v>
       </c>
       <c r="E81" s="14"/>
       <c r="F81" s="14" t="s">
-        <v>41</v>
+        <v>446</v>
       </c>
       <c r="G81" s="14"/>
       <c r="H81" s="14"/>
       <c r="I81" s="14"/>
       <c r="J81" s="14" t="s">
-        <v>33</v>
+        <v>438</v>
       </c>
     </row>
     <row r="82" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C82" s="23"/>
       <c r="D82" s="3" t="s">
-        <v>155</v>
+        <v>181</v>
       </c>
       <c r="J82" t="s">
-        <v>241</v>
+        <v>262</v>
       </c>
     </row>
     <row r="83" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C83" s="23"/>
       <c r="D83" s="13" t="s">
-        <v>156</v>
+        <v>182</v>
       </c>
       <c r="E83" s="14"/>
       <c r="F83" s="14" t="s">
-        <v>39</v>
+        <v>444</v>
       </c>
       <c r="G83" s="14"/>
       <c r="H83" s="14"/>
       <c r="I83" s="14"/>
       <c r="J83" s="14" t="s">
-        <v>33</v>
+        <v>438</v>
       </c>
     </row>
     <row r="84" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C84" s="23"/>
       <c r="D84" s="13" t="s">
-        <v>157</v>
+        <v>183</v>
       </c>
       <c r="E84" s="14"/>
       <c r="F84" s="14" t="s">
-        <v>40</v>
+        <v>445</v>
       </c>
       <c r="G84" s="14"/>
       <c r="H84" s="14"/>
       <c r="I84" s="14"/>
       <c r="J84" s="14" t="s">
-        <v>33</v>
+        <v>438</v>
       </c>
     </row>
     <row r="85" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C85" s="23"/>
       <c r="D85" s="13" t="s">
-        <v>158</v>
+        <v>184</v>
       </c>
       <c r="E85" s="14"/>
       <c r="F85" s="14" t="s">
-        <v>41</v>
+        <v>446</v>
       </c>
       <c r="G85" s="14"/>
       <c r="H85" s="14"/>
       <c r="I85" s="14"/>
       <c r="J85" s="14" t="s">
-        <v>33</v>
+        <v>438</v>
       </c>
     </row>
     <row r="86" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C86" s="23"/>
       <c r="D86" s="3" t="s">
-        <v>159</v>
+        <v>185</v>
       </c>
       <c r="F86" t="s">
-        <v>163</v>
+        <v>189</v>
       </c>
       <c r="J86" t="s">
-        <v>241</v>
+        <v>262</v>
       </c>
     </row>
     <row r="87" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C87" s="23"/>
       <c r="D87" s="13" t="s">
-        <v>160</v>
+        <v>186</v>
       </c>
       <c r="E87" s="14"/>
       <c r="F87" s="14" t="s">
-        <v>39</v>
+        <v>444</v>
       </c>
       <c r="G87" s="14"/>
       <c r="H87" s="14"/>
       <c r="I87" s="14"/>
       <c r="J87" s="14" t="s">
-        <v>33</v>
+        <v>438</v>
       </c>
     </row>
     <row r="88" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C88" s="23"/>
       <c r="D88" s="13" t="s">
-        <v>161</v>
+        <v>187</v>
       </c>
       <c r="E88" s="14"/>
       <c r="F88" s="14" t="s">
-        <v>40</v>
+        <v>445</v>
       </c>
       <c r="G88" s="14"/>
       <c r="H88" s="14"/>
       <c r="I88" s="14"/>
       <c r="J88" s="14" t="s">
-        <v>33</v>
+        <v>438</v>
       </c>
     </row>
     <row r="89" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C89" s="23"/>
       <c r="D89" s="13" t="s">
-        <v>162</v>
+        <v>188</v>
       </c>
       <c r="E89" s="14"/>
       <c r="F89" s="14" t="s">
-        <v>41</v>
+        <v>446</v>
       </c>
       <c r="G89" s="14"/>
       <c r="H89" s="14"/>
       <c r="I89" s="14"/>
       <c r="J89" s="14" t="s">
-        <v>33</v>
+        <v>438</v>
       </c>
     </row>
     <row r="90" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C90" s="23"/>
       <c r="D90" s="3" t="s">
-        <v>164</v>
+        <v>190</v>
       </c>
       <c r="J90" t="s">
-        <v>241</v>
+        <v>262</v>
       </c>
     </row>
     <row r="91" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C91" s="23"/>
       <c r="D91" s="13" t="s">
-        <v>165</v>
+        <v>191</v>
       </c>
       <c r="E91" s="14"/>
       <c r="F91" s="14" t="s">
-        <v>39</v>
+        <v>444</v>
       </c>
       <c r="G91" s="14"/>
       <c r="H91" s="14"/>
       <c r="I91" s="14"/>
       <c r="J91" s="14" t="s">
-        <v>33</v>
+        <v>438</v>
       </c>
     </row>
     <row r="92" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C92" s="23"/>
       <c r="D92" s="13" t="s">
-        <v>166</v>
+        <v>192</v>
       </c>
       <c r="E92" s="14"/>
       <c r="F92" s="14" t="s">
-        <v>40</v>
+        <v>445</v>
       </c>
       <c r="G92" s="14"/>
       <c r="H92" s="14"/>
       <c r="I92" s="14"/>
       <c r="J92" s="14" t="s">
-        <v>33</v>
+        <v>438</v>
       </c>
     </row>
     <row r="93" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C93" s="23"/>
       <c r="D93" s="13" t="s">
-        <v>167</v>
+        <v>375</v>
       </c>
       <c r="E93" s="14"/>
       <c r="F93" s="14" t="s">
-        <v>41</v>
+        <v>446</v>
       </c>
       <c r="G93" s="14"/>
       <c r="H93" s="14"/>
       <c r="I93" s="14"/>
       <c r="J93" s="14" t="s">
-        <v>33</v>
+        <v>438</v>
       </c>
     </row>
     <row r="94" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C94" s="23"/>
       <c r="D94" s="3" t="s">
-        <v>168</v>
+        <v>376</v>
       </c>
       <c r="F94" s="20" t="s">
-        <v>245</v>
+        <v>87</v>
       </c>
       <c r="J94" t="s">
-        <v>241</v>
+        <v>262</v>
       </c>
     </row>
     <row r="95" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C95" s="23"/>
       <c r="D95" s="13" t="s">
-        <v>169</v>
+        <v>377</v>
       </c>
       <c r="E95" s="14"/>
       <c r="F95" s="14" t="s">
-        <v>39</v>
+        <v>444</v>
       </c>
       <c r="G95" s="14"/>
       <c r="H95" s="14"/>
       <c r="I95" s="14"/>
       <c r="J95" s="14" t="s">
-        <v>33</v>
+        <v>438</v>
       </c>
     </row>
     <row r="96" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C96" s="23"/>
       <c r="D96" s="13" t="s">
-        <v>170</v>
+        <v>378</v>
       </c>
       <c r="E96" s="14"/>
       <c r="F96" s="14" t="s">
-        <v>40</v>
+        <v>445</v>
       </c>
       <c r="G96" s="14"/>
       <c r="H96" s="14"/>
       <c r="I96" s="14"/>
       <c r="J96" s="14" t="s">
-        <v>33</v>
+        <v>438</v>
       </c>
     </row>
     <row r="97" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C97" s="23"/>
       <c r="D97" s="13" t="s">
-        <v>171</v>
+        <v>379</v>
       </c>
       <c r="E97" s="14"/>
       <c r="F97" s="14" t="s">
-        <v>41</v>
+        <v>446</v>
       </c>
       <c r="G97" s="14"/>
       <c r="H97" s="14"/>
       <c r="I97" s="14"/>
       <c r="J97" s="14" t="s">
-        <v>33</v>
+        <v>438</v>
       </c>
     </row>
     <row r="98" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C98" s="23" t="s">
-        <v>238</v>
+        <v>259</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>172</v>
+        <v>380</v>
       </c>
       <c r="F98" t="s">
-        <v>184</v>
+        <v>392</v>
       </c>
       <c r="J98" t="s">
-        <v>242</v>
+        <v>263</v>
       </c>
     </row>
     <row r="99" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C99" s="23"/>
       <c r="D99" s="13" t="s">
-        <v>173</v>
+        <v>381</v>
       </c>
       <c r="E99" s="14"/>
       <c r="F99" s="14" t="s">
-        <v>39</v>
+        <v>444</v>
       </c>
       <c r="G99" s="14"/>
       <c r="H99" s="14"/>
       <c r="I99" s="14"/>
       <c r="J99" s="14" t="s">
-        <v>34</v>
+        <v>439</v>
       </c>
     </row>
     <row r="100" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C100" s="23"/>
       <c r="D100" s="13" t="s">
-        <v>174</v>
+        <v>382</v>
       </c>
       <c r="E100" s="14"/>
       <c r="F100" s="14" t="s">
-        <v>40</v>
+        <v>445</v>
       </c>
       <c r="G100" s="14"/>
       <c r="H100" s="14"/>
       <c r="I100" s="14"/>
       <c r="J100" s="14" t="s">
-        <v>34</v>
+        <v>439</v>
       </c>
     </row>
     <row r="101" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C101" s="23"/>
       <c r="D101" s="13" t="s">
-        <v>175</v>
+        <v>383</v>
       </c>
       <c r="E101" s="14"/>
       <c r="F101" s="14" t="s">
-        <v>41</v>
+        <v>446</v>
       </c>
       <c r="G101" s="14"/>
       <c r="H101" s="14"/>
       <c r="I101" s="14"/>
       <c r="J101" s="14" t="s">
-        <v>34</v>
+        <v>439</v>
       </c>
     </row>
     <row r="102" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C102" s="23"/>
       <c r="D102" s="3" t="s">
-        <v>176</v>
+        <v>384</v>
       </c>
       <c r="J102" t="s">
-        <v>242</v>
+        <v>263</v>
       </c>
     </row>
     <row r="103" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C103" s="23"/>
       <c r="D103" s="13" t="s">
-        <v>177</v>
+        <v>385</v>
       </c>
       <c r="E103" s="14"/>
       <c r="F103" s="14" t="s">
-        <v>39</v>
+        <v>444</v>
       </c>
       <c r="G103" s="14"/>
       <c r="H103" s="14"/>
       <c r="I103" s="14"/>
       <c r="J103" s="14" t="s">
-        <v>34</v>
+        <v>439</v>
       </c>
     </row>
     <row r="104" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C104" s="23"/>
       <c r="D104" s="13" t="s">
-        <v>178</v>
+        <v>386</v>
       </c>
       <c r="E104" s="14"/>
       <c r="F104" s="14" t="s">
-        <v>40</v>
+        <v>445</v>
       </c>
       <c r="G104" s="14"/>
       <c r="H104" s="14"/>
       <c r="I104" s="14"/>
       <c r="J104" s="14" t="s">
-        <v>34</v>
+        <v>439</v>
       </c>
     </row>
     <row r="105" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C105" s="23"/>
       <c r="D105" s="13" t="s">
-        <v>179</v>
+        <v>387</v>
       </c>
       <c r="E105" s="14"/>
       <c r="F105" s="14" t="s">
-        <v>41</v>
+        <v>446</v>
       </c>
       <c r="G105" s="14"/>
       <c r="H105" s="14"/>
       <c r="I105" s="14"/>
       <c r="J105" s="14" t="s">
-        <v>34</v>
+        <v>439</v>
       </c>
     </row>
     <row r="106" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C106" s="23"/>
       <c r="D106" s="3" t="s">
-        <v>180</v>
+        <v>388</v>
       </c>
       <c r="J106" t="s">
-        <v>244</v>
+        <v>86</v>
       </c>
     </row>
     <row r="107" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C107" s="23"/>
       <c r="D107" s="13" t="s">
-        <v>181</v>
+        <v>389</v>
       </c>
       <c r="E107" s="14"/>
       <c r="F107" s="14" t="s">
-        <v>39</v>
+        <v>444</v>
       </c>
       <c r="G107" s="14"/>
       <c r="H107" s="14"/>
       <c r="I107" s="14"/>
       <c r="J107" s="14" t="s">
-        <v>34</v>
+        <v>439</v>
       </c>
     </row>
     <row r="108" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C108" s="23"/>
       <c r="D108" s="13" t="s">
-        <v>182</v>
+        <v>390</v>
       </c>
       <c r="E108" s="14"/>
       <c r="F108" s="14" t="s">
-        <v>40</v>
+        <v>445</v>
       </c>
       <c r="G108" s="14"/>
       <c r="H108" s="14"/>
       <c r="I108" s="14"/>
       <c r="J108" s="14" t="s">
-        <v>34</v>
+        <v>439</v>
       </c>
     </row>
     <row r="109" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C109" s="23"/>
       <c r="D109" s="13" t="s">
-        <v>183</v>
+        <v>391</v>
       </c>
       <c r="E109" s="14"/>
       <c r="F109" s="14" t="s">
-        <v>41</v>
+        <v>446</v>
       </c>
       <c r="G109" s="14"/>
       <c r="H109" s="14"/>
       <c r="I109" s="14"/>
       <c r="J109" s="14" t="s">
-        <v>34</v>
+        <v>439</v>
       </c>
     </row>
     <row r="110" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C110" s="23"/>
       <c r="D110" s="3" t="s">
-        <v>185</v>
+        <v>393</v>
       </c>
       <c r="J110" t="s">
-        <v>242</v>
+        <v>263</v>
       </c>
     </row>
     <row r="111" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C111" s="23"/>
       <c r="D111" s="13" t="s">
-        <v>186</v>
+        <v>394</v>
       </c>
       <c r="E111" s="14"/>
       <c r="F111" s="14" t="s">
-        <v>39</v>
+        <v>444</v>
       </c>
       <c r="G111" s="14"/>
       <c r="H111" s="14"/>
       <c r="I111" s="14"/>
       <c r="J111" s="14" t="s">
-        <v>34</v>
+        <v>439</v>
       </c>
     </row>
     <row r="112" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C112" s="23"/>
       <c r="D112" s="13" t="s">
-        <v>187</v>
+        <v>395</v>
       </c>
       <c r="E112" s="14"/>
       <c r="F112" s="14" t="s">
-        <v>40</v>
+        <v>445</v>
       </c>
       <c r="G112" s="14"/>
       <c r="H112" s="14"/>
       <c r="I112" s="14"/>
       <c r="J112" s="14" t="s">
-        <v>34</v>
+        <v>439</v>
       </c>
     </row>
     <row r="113" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C113" s="23"/>
       <c r="D113" s="13" t="s">
-        <v>188</v>
+        <v>396</v>
       </c>
       <c r="E113" s="14"/>
       <c r="F113" s="14" t="s">
-        <v>41</v>
+        <v>446</v>
       </c>
       <c r="G113" s="14"/>
       <c r="H113" s="14"/>
       <c r="I113" s="14"/>
       <c r="J113" s="14" t="s">
-        <v>34</v>
+        <v>439</v>
       </c>
     </row>
     <row r="114" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C114" s="23"/>
       <c r="D114" s="3" t="s">
-        <v>189</v>
+        <v>397</v>
       </c>
       <c r="J114" t="s">
-        <v>242</v>
+        <v>263</v>
       </c>
     </row>
     <row r="115" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C115" s="23"/>
       <c r="D115" s="13" t="s">
-        <v>190</v>
+        <v>398</v>
       </c>
       <c r="E115" s="14"/>
       <c r="F115" s="14" t="s">
-        <v>39</v>
+        <v>444</v>
       </c>
       <c r="G115" s="14"/>
       <c r="H115" s="14"/>
       <c r="I115" s="14"/>
       <c r="J115" s="14" t="s">
-        <v>34</v>
+        <v>439</v>
       </c>
     </row>
     <row r="116" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C116" s="23"/>
       <c r="D116" s="13" t="s">
-        <v>191</v>
+        <v>399</v>
       </c>
       <c r="E116" s="14"/>
       <c r="F116" s="14" t="s">
-        <v>40</v>
+        <v>445</v>
       </c>
       <c r="G116" s="14"/>
       <c r="H116" s="14"/>
       <c r="I116" s="14"/>
       <c r="J116" s="14" t="s">
-        <v>34</v>
+        <v>439</v>
       </c>
     </row>
     <row r="117" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C117" s="23"/>
       <c r="D117" s="13" t="s">
-        <v>192</v>
+        <v>400</v>
       </c>
       <c r="E117" s="14"/>
       <c r="F117" s="14" t="s">
-        <v>41</v>
+        <v>446</v>
       </c>
       <c r="G117" s="14"/>
       <c r="H117" s="14"/>
       <c r="I117" s="14"/>
       <c r="J117" s="14" t="s">
-        <v>34</v>
+        <v>439</v>
       </c>
     </row>
     <row r="118" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C118" s="23"/>
       <c r="D118" s="3" t="s">
-        <v>193</v>
+        <v>401</v>
       </c>
       <c r="F118" s="20" t="s">
-        <v>246</v>
+        <v>88</v>
       </c>
       <c r="J118" t="s">
-        <v>242</v>
+        <v>263</v>
       </c>
     </row>
     <row r="119" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C119" s="23"/>
       <c r="D119" s="13" t="s">
-        <v>194</v>
+        <v>402</v>
       </c>
       <c r="E119" s="14"/>
       <c r="F119" s="14" t="s">
-        <v>39</v>
+        <v>444</v>
       </c>
       <c r="G119" s="14"/>
       <c r="H119" s="14"/>
       <c r="I119" s="14"/>
       <c r="J119" s="14" t="s">
-        <v>34</v>
+        <v>439</v>
       </c>
     </row>
     <row r="120" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C120" s="23"/>
       <c r="D120" s="13" t="s">
-        <v>195</v>
+        <v>403</v>
       </c>
       <c r="E120" s="14"/>
       <c r="F120" s="14" t="s">
-        <v>40</v>
+        <v>445</v>
       </c>
       <c r="G120" s="14"/>
       <c r="H120" s="14"/>
       <c r="I120" s="14"/>
       <c r="J120" s="14" t="s">
-        <v>34</v>
+        <v>439</v>
       </c>
     </row>
     <row r="121" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C121" s="23"/>
       <c r="D121" s="13" t="s">
-        <v>196</v>
+        <v>404</v>
       </c>
       <c r="E121" s="14"/>
       <c r="F121" s="14" t="s">
-        <v>41</v>
+        <v>446</v>
       </c>
       <c r="G121" s="14"/>
       <c r="H121" s="14"/>
       <c r="I121" s="14"/>
       <c r="J121" s="14" t="s">
-        <v>34</v>
+        <v>439</v>
       </c>
     </row>
     <row r="122" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C122" s="23" t="s">
-        <v>239</v>
+        <v>260</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>197</v>
+        <v>218</v>
       </c>
       <c r="J122" t="s">
-        <v>247</v>
+        <v>89</v>
       </c>
     </row>
     <row r="123" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C123" s="23"/>
       <c r="D123" s="13" t="s">
-        <v>198</v>
+        <v>219</v>
       </c>
       <c r="E123" s="14"/>
       <c r="F123" s="14" t="s">
-        <v>39</v>
+        <v>444</v>
       </c>
       <c r="G123" s="14"/>
       <c r="H123" s="14"/>
       <c r="I123" s="14"/>
       <c r="J123" s="14" t="s">
-        <v>35</v>
+        <v>440</v>
       </c>
     </row>
     <row r="124" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C124" s="23"/>
       <c r="D124" s="13" t="s">
-        <v>199</v>
+        <v>220</v>
       </c>
       <c r="E124" s="14"/>
       <c r="F124" s="14" t="s">
-        <v>40</v>
+        <v>445</v>
       </c>
       <c r="G124" s="14"/>
       <c r="H124" s="14"/>
       <c r="I124" s="14"/>
       <c r="J124" s="14" t="s">
-        <v>35</v>
+        <v>440</v>
       </c>
     </row>
     <row r="125" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C125" s="23"/>
       <c r="D125" s="13" t="s">
-        <v>200</v>
+        <v>221</v>
       </c>
       <c r="E125" s="14"/>
       <c r="F125" s="14" t="s">
-        <v>41</v>
+        <v>446</v>
       </c>
       <c r="G125" s="14"/>
       <c r="H125" s="14"/>
       <c r="I125" s="14"/>
       <c r="J125" s="14" t="s">
-        <v>35</v>
+        <v>440</v>
       </c>
     </row>
     <row r="126" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C126" s="23"/>
       <c r="D126" s="3" t="s">
-        <v>197</v>
+        <v>218</v>
       </c>
       <c r="J126" t="s">
-        <v>247</v>
+        <v>89</v>
       </c>
     </row>
     <row r="127" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C127" s="23"/>
       <c r="D127" s="13" t="s">
-        <v>201</v>
+        <v>222</v>
       </c>
       <c r="E127" s="14"/>
       <c r="F127" s="14" t="s">
-        <v>39</v>
+        <v>444</v>
       </c>
       <c r="G127" s="14"/>
       <c r="H127" s="14"/>
       <c r="I127" s="14"/>
       <c r="J127" s="14" t="s">
-        <v>35</v>
+        <v>440</v>
       </c>
     </row>
     <row r="128" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C128" s="23"/>
       <c r="D128" s="13" t="s">
-        <v>202</v>
+        <v>223</v>
       </c>
       <c r="E128" s="14"/>
       <c r="F128" s="14" t="s">
-        <v>40</v>
+        <v>445</v>
       </c>
       <c r="G128" s="14"/>
       <c r="H128" s="14"/>
       <c r="I128" s="14"/>
       <c r="J128" s="14" t="s">
-        <v>35</v>
+        <v>440</v>
       </c>
     </row>
     <row r="129" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C129" s="23"/>
       <c r="D129" s="13" t="s">
-        <v>203</v>
+        <v>224</v>
       </c>
       <c r="E129" s="14"/>
       <c r="F129" s="14" t="s">
-        <v>41</v>
+        <v>446</v>
       </c>
       <c r="G129" s="14"/>
       <c r="H129" s="14"/>
       <c r="I129" s="14"/>
       <c r="J129" s="14" t="s">
-        <v>35</v>
+        <v>440</v>
       </c>
     </row>
     <row r="130" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C130" s="23"/>
       <c r="D130" s="3" t="s">
-        <v>204</v>
+        <v>225</v>
       </c>
       <c r="J130" t="s">
-        <v>243</v>
+        <v>85</v>
       </c>
     </row>
     <row r="131" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C131" s="23"/>
       <c r="D131" s="13" t="s">
-        <v>205</v>
+        <v>226</v>
       </c>
       <c r="E131" s="14"/>
       <c r="F131" s="14" t="s">
-        <v>39</v>
+        <v>444</v>
       </c>
       <c r="G131" s="14"/>
       <c r="H131" s="14"/>
       <c r="I131" s="14"/>
       <c r="J131" s="14" t="s">
-        <v>35</v>
+        <v>440</v>
       </c>
     </row>
     <row r="132" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C132" s="23"/>
       <c r="D132" s="13" t="s">
-        <v>206</v>
+        <v>227</v>
       </c>
       <c r="E132" s="14"/>
       <c r="F132" s="14" t="s">
-        <v>40</v>
+        <v>445</v>
       </c>
       <c r="G132" s="14"/>
       <c r="H132" s="14"/>
       <c r="I132" s="14"/>
       <c r="J132" s="14" t="s">
-        <v>35</v>
+        <v>440</v>
       </c>
     </row>
     <row r="133" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C133" s="23"/>
       <c r="D133" s="13" t="s">
-        <v>207</v>
+        <v>228</v>
       </c>
       <c r="E133" s="14"/>
       <c r="F133" s="14" t="s">
-        <v>41</v>
+        <v>446</v>
       </c>
       <c r="G133" s="14"/>
       <c r="H133" s="14"/>
       <c r="I133" s="14"/>
       <c r="J133" s="14" t="s">
-        <v>35</v>
+        <v>440</v>
       </c>
     </row>
     <row r="134" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C134" s="23"/>
       <c r="D134" s="3" t="s">
-        <v>197</v>
+        <v>218</v>
       </c>
       <c r="J134" t="s">
-        <v>247</v>
+        <v>89</v>
       </c>
     </row>
     <row r="135" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C135" s="23"/>
       <c r="D135" s="13" t="s">
-        <v>208</v>
+        <v>229</v>
       </c>
       <c r="E135" s="14"/>
       <c r="F135" s="14" t="s">
-        <v>39</v>
+        <v>444</v>
       </c>
       <c r="G135" s="14"/>
       <c r="H135" s="14"/>
       <c r="I135" s="14"/>
       <c r="J135" s="14" t="s">
-        <v>35</v>
+        <v>440</v>
       </c>
     </row>
     <row r="136" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C136" s="23"/>
       <c r="D136" s="13" t="s">
-        <v>209</v>
+        <v>230</v>
       </c>
       <c r="E136" s="14"/>
       <c r="F136" s="14" t="s">
-        <v>40</v>
+        <v>445</v>
       </c>
       <c r="G136" s="14"/>
       <c r="H136" s="14"/>
       <c r="I136" s="14"/>
       <c r="J136" s="14" t="s">
-        <v>35</v>
+        <v>440</v>
       </c>
     </row>
     <row r="137" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C137" s="23"/>
       <c r="D137" s="13" t="s">
-        <v>210</v>
+        <v>231</v>
       </c>
       <c r="E137" s="14"/>
       <c r="F137" s="14" t="s">
-        <v>41</v>
+        <v>446</v>
       </c>
       <c r="G137" s="14"/>
       <c r="H137" s="14"/>
       <c r="I137" s="14"/>
       <c r="J137" s="14" t="s">
-        <v>35</v>
+        <v>440</v>
       </c>
     </row>
     <row r="138" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C138" s="23"/>
       <c r="D138" s="3" t="s">
-        <v>197</v>
+        <v>218</v>
       </c>
       <c r="J138" t="s">
-        <v>247</v>
+        <v>89</v>
       </c>
     </row>
     <row r="139" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C139" s="23"/>
       <c r="D139" s="13" t="s">
-        <v>211</v>
+        <v>232</v>
       </c>
       <c r="E139" s="14"/>
       <c r="F139" s="14" t="s">
-        <v>39</v>
+        <v>444</v>
       </c>
       <c r="G139" s="14"/>
       <c r="H139" s="14"/>
       <c r="I139" s="14"/>
       <c r="J139" s="14" t="s">
-        <v>35</v>
+        <v>440</v>
       </c>
     </row>
     <row r="140" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C140" s="23"/>
       <c r="D140" s="13" t="s">
-        <v>212</v>
+        <v>233</v>
       </c>
       <c r="E140" s="14"/>
       <c r="F140" s="14" t="s">
-        <v>40</v>
+        <v>445</v>
       </c>
       <c r="G140" s="14"/>
       <c r="H140" s="14"/>
       <c r="I140" s="14"/>
       <c r="J140" s="14" t="s">
-        <v>35</v>
+        <v>440</v>
       </c>
     </row>
     <row r="141" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C141" s="23"/>
       <c r="D141" s="13" t="s">
-        <v>213</v>
+        <v>234</v>
       </c>
       <c r="E141" s="14"/>
       <c r="F141" s="14" t="s">
-        <v>41</v>
+        <v>446</v>
       </c>
       <c r="G141" s="14"/>
       <c r="H141" s="14"/>
       <c r="I141" s="14"/>
       <c r="J141" s="14" t="s">
-        <v>35</v>
+        <v>440</v>
       </c>
     </row>
     <row r="142" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C142" s="23"/>
       <c r="D142" s="3" t="s">
-        <v>197</v>
+        <v>218</v>
       </c>
       <c r="J142" t="s">
-        <v>247</v>
+        <v>89</v>
       </c>
     </row>
     <row r="143" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C143" s="23"/>
       <c r="D143" s="13" t="s">
-        <v>214</v>
+        <v>235</v>
       </c>
       <c r="E143" s="14"/>
       <c r="F143" s="14" t="s">
-        <v>39</v>
+        <v>444</v>
       </c>
       <c r="G143" s="14"/>
       <c r="H143" s="14"/>
       <c r="I143" s="14"/>
       <c r="J143" s="14" t="s">
-        <v>35</v>
+        <v>440</v>
       </c>
     </row>
     <row r="144" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C144" s="23"/>
       <c r="D144" s="13" t="s">
-        <v>215</v>
+        <v>236</v>
       </c>
       <c r="E144" s="14"/>
       <c r="F144" s="14" t="s">
-        <v>40</v>
+        <v>445</v>
       </c>
       <c r="G144" s="14"/>
       <c r="H144" s="14"/>
       <c r="I144" s="14"/>
       <c r="J144" s="14" t="s">
-        <v>35</v>
+        <v>440</v>
       </c>
     </row>
     <row r="145" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C145" s="23"/>
       <c r="D145" s="13" t="s">
-        <v>216</v>
+        <v>237</v>
       </c>
       <c r="E145" s="14"/>
       <c r="F145" s="14" t="s">
-        <v>41</v>
+        <v>446</v>
       </c>
       <c r="G145" s="14"/>
       <c r="H145" s="14"/>
       <c r="I145" s="14"/>
       <c r="J145" s="14" t="s">
-        <v>35</v>
+        <v>440</v>
       </c>
     </row>
     <row r="147" spans="3:12" x14ac:dyDescent="0.15">
       <c r="C147" t="s">
-        <v>60</v>
+        <v>276</v>
       </c>
     </row>
     <row r="148" spans="3:12" x14ac:dyDescent="0.15">
       <c r="D148" s="3" t="s">
-        <v>66</v>
+        <v>282</v>
       </c>
     </row>
     <row r="149" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="D149" s="3" t="s">
-        <v>61</v>
+        <v>277</v>
       </c>
       <c r="F149" t="s">
-        <v>71</v>
+        <v>287</v>
       </c>
       <c r="I149" t="s">
-        <v>70</v>
+        <v>286</v>
       </c>
       <c r="L149" s="18" t="s">
-        <v>85</v>
+        <v>362</v>
       </c>
     </row>
     <row r="150" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="D150" s="3" t="s">
-        <v>62</v>
+        <v>278</v>
       </c>
       <c r="F150" t="s">
-        <v>72</v>
+        <v>288</v>
       </c>
       <c r="I150" t="s">
-        <v>74</v>
+        <v>290</v>
       </c>
       <c r="L150" s="18" t="s">
-        <v>84</v>
+        <v>361</v>
       </c>
     </row>
     <row r="151" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="D151" s="3" t="s">
-        <v>63</v>
+        <v>279</v>
       </c>
       <c r="F151" t="s">
-        <v>73</v>
+        <v>289</v>
       </c>
       <c r="I151" t="s">
-        <v>75</v>
+        <v>291</v>
       </c>
       <c r="L151" s="18" t="s">
-        <v>86</v>
+        <v>363</v>
       </c>
     </row>
     <row r="152" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="D152" s="3" t="s">
-        <v>57</v>
+        <v>273</v>
       </c>
       <c r="F152" t="s">
-        <v>76</v>
+        <v>353</v>
       </c>
       <c r="L152" s="18" t="s">
-        <v>224</v>
+        <v>245</v>
       </c>
     </row>
     <row r="153" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="D153" s="3" t="s">
-        <v>58</v>
+        <v>274</v>
       </c>
       <c r="F153" t="s">
-        <v>77</v>
+        <v>354</v>
       </c>
       <c r="L153" s="18" t="s">
-        <v>87</v>
+        <v>364</v>
       </c>
     </row>
     <row r="154" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="D154" s="3" t="s">
-        <v>59</v>
+        <v>275</v>
       </c>
       <c r="F154" t="s">
-        <v>80</v>
+        <v>357</v>
       </c>
       <c r="L154" s="18" t="s">
-        <v>83</v>
+        <v>360</v>
       </c>
     </row>
     <row r="155" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.15"/>
     <row r="156" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="D156" s="3" t="s">
-        <v>64</v>
+        <v>280</v>
       </c>
       <c r="F156" t="s">
-        <v>81</v>
+        <v>358</v>
       </c>
       <c r="L156" s="18" t="s">
-        <v>88</v>
+        <v>365</v>
       </c>
     </row>
     <row r="157" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="D157" s="3" t="s">
-        <v>65</v>
+        <v>281</v>
       </c>
       <c r="F157" t="s">
-        <v>82</v>
+        <v>359</v>
       </c>
       <c r="L157" s="18" t="s">
-        <v>89</v>
+        <v>366</v>
       </c>
     </row>
     <row r="159" spans="3:12" x14ac:dyDescent="0.15">
       <c r="C159" t="s">
-        <v>68</v>
+        <v>284</v>
       </c>
     </row>
     <row r="160" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="D160" t="s">
-        <v>67</v>
+        <v>283</v>
       </c>
       <c r="F160" t="s">
-        <v>97</v>
+        <v>374</v>
       </c>
       <c r="L160" t="s">
-        <v>98</v>
+        <v>314</v>
       </c>
     </row>
     <row r="161" spans="1:27" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="D161" t="s">
-        <v>69</v>
+        <v>285</v>
       </c>
       <c r="F161" t="s">
-        <v>99</v>
+        <v>315</v>
       </c>
       <c r="L161" t="s">
-        <v>100</v>
+        <v>316</v>
       </c>
     </row>
     <row r="162" spans="1:27" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="D162" t="s">
-        <v>78</v>
+        <v>355</v>
       </c>
       <c r="F162" t="s">
-        <v>101</v>
+        <v>317</v>
       </c>
       <c r="L162" t="s">
-        <v>103</v>
+        <v>319</v>
       </c>
       <c r="AA162" t="s">
-        <v>276</v>
+        <v>312</v>
       </c>
     </row>
     <row r="163" spans="1:27" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="D163" t="s">
-        <v>79</v>
+        <v>356</v>
       </c>
       <c r="F163" t="s">
-        <v>102</v>
+        <v>318</v>
       </c>
       <c r="L163" t="s">
-        <v>104</v>
+        <v>320</v>
       </c>
       <c r="AA163" t="s">
-        <v>278</v>
+        <v>122</v>
       </c>
     </row>
     <row r="164" spans="1:27" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="D164" t="s">
-        <v>225</v>
+        <v>246</v>
       </c>
       <c r="F164" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="L164" s="18" t="s">
-        <v>229</v>
+        <v>250</v>
       </c>
       <c r="AA164" t="s">
-        <v>280</v>
+        <v>124</v>
       </c>
     </row>
     <row r="165" spans="1:27" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="D165" t="s">
-        <v>226</v>
+        <v>247</v>
       </c>
       <c r="F165" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="L165" s="18" t="s">
-        <v>230</v>
+        <v>251</v>
       </c>
     </row>
     <row r="166" spans="1:27" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="D166" t="s">
-        <v>227</v>
+        <v>248</v>
       </c>
       <c r="F166" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="L166" s="18" t="s">
-        <v>231</v>
+        <v>252</v>
       </c>
     </row>
     <row r="167" spans="1:27" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="D167" t="s">
-        <v>274</v>
+        <v>310</v>
       </c>
       <c r="F167" t="s">
-        <v>275</v>
+        <v>311</v>
       </c>
       <c r="L167" t="s">
-        <v>281</v>
+        <v>125</v>
       </c>
     </row>
     <row r="168" spans="1:27" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="D168" t="s">
-        <v>277</v>
+        <v>313</v>
       </c>
       <c r="F168" t="s">
-        <v>275</v>
+        <v>311</v>
       </c>
       <c r="L168" t="s">
-        <v>282</v>
+        <v>126</v>
       </c>
     </row>
     <row r="169" spans="1:27" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="D169" t="s">
-        <v>279</v>
+        <v>123</v>
       </c>
       <c r="F169" t="s">
-        <v>275</v>
+        <v>311</v>
       </c>
       <c r="L169" t="s">
-        <v>283</v>
+        <v>127</v>
       </c>
     </row>
     <row r="171" spans="1:27" x14ac:dyDescent="0.15">
       <c r="C171" t="s">
-        <v>113</v>
+        <v>329</v>
       </c>
     </row>
     <row r="172" spans="1:27" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="D172" t="s">
-        <v>90</v>
+        <v>367</v>
       </c>
       <c r="F172" t="s">
-        <v>107</v>
+        <v>323</v>
       </c>
       <c r="L172" s="18" t="s">
-        <v>108</v>
+        <v>324</v>
       </c>
       <c r="P172" t="s">
-        <v>109</v>
+        <v>325</v>
       </c>
     </row>
     <row r="173" spans="1:27" outlineLevel="1" x14ac:dyDescent="0.15"/>
     <row r="174" spans="1:27" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="D174" t="s">
-        <v>91</v>
+        <v>368</v>
       </c>
       <c r="F174" t="s">
-        <v>91</v>
+        <v>368</v>
       </c>
       <c r="L174" s="18" t="s">
-        <v>105</v>
+        <v>321</v>
       </c>
     </row>
     <row r="175" spans="1:27" outlineLevel="1" x14ac:dyDescent="0.15"/>
     <row r="176" spans="1:27" ht="54" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A176" s="21" t="s">
-        <v>253</v>
+        <v>95</v>
       </c>
       <c r="D176" t="s">
-        <v>92</v>
+        <v>369</v>
       </c>
       <c r="F176" t="s">
-        <v>94</v>
+        <v>371</v>
       </c>
       <c r="L176" s="18" t="s">
-        <v>95</v>
+        <v>372</v>
       </c>
     </row>
     <row r="177" spans="4:12" outlineLevel="1" x14ac:dyDescent="0.15"/>
     <row r="178" spans="4:12" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="D178" t="s">
-        <v>93</v>
+        <v>370</v>
       </c>
       <c r="F178" t="s">
-        <v>96</v>
+        <v>373</v>
       </c>
       <c r="L178" s="18" t="s">
-        <v>106</v>
+        <v>322</v>
       </c>
     </row>
     <row r="179" spans="4:12" outlineLevel="1" x14ac:dyDescent="0.15"/>
@@ -4338,7 +4662,11 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -4354,625 +4682,1022 @@
   <sheetData>
     <row r="4" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
-        <v>114</v>
+        <v>330</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G70"/>
+  <dimension ref="B2:H70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C18" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J26" sqref="J26"/>
+      <selection pane="bottomRight" activeCell="H47" sqref="H47:H70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="5" max="5" width="13.375" customWidth="1"/>
+    <col min="7" max="7" width="35.375" customWidth="1"/>
+    <col min="8" max="8" width="26.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
-        <v>284</v>
+        <v>128</v>
       </c>
       <c r="C2" t="s">
-        <v>285</v>
+        <v>129</v>
       </c>
       <c r="E2" t="s">
-        <v>286</v>
+        <v>130</v>
       </c>
       <c r="G2" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.15">
+        <v>131</v>
+      </c>
+      <c r="H2" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B4" s="24" t="s">
-        <v>288</v>
+        <v>132</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>289</v>
+        <v>133</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.15">
+        <v>134</v>
+      </c>
+      <c r="G4" t="s">
+        <v>66</v>
+      </c>
+      <c r="H4" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B5" s="24"/>
       <c r="C5" s="22" t="s">
-        <v>291</v>
+        <v>135</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.15">
+        <v>136</v>
+      </c>
+      <c r="G5" t="s">
+        <v>67</v>
+      </c>
+      <c r="H5" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B6" s="24"/>
       <c r="C6" s="7" t="s">
-        <v>293</v>
+        <v>137</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.15">
+        <v>138</v>
+      </c>
+      <c r="G6" t="s">
+        <v>68</v>
+      </c>
+      <c r="H6" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B7" s="24"/>
       <c r="C7" s="8" t="s">
-        <v>295</v>
+        <v>139</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.15">
+        <v>140</v>
+      </c>
+      <c r="G7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H7" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B8" s="24"/>
       <c r="C8" s="7" t="s">
-        <v>297</v>
+        <v>141</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.15">
+        <v>142</v>
+      </c>
+      <c r="G8" t="s">
+        <v>70</v>
+      </c>
+      <c r="H8" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B9" s="24"/>
       <c r="C9" s="7" t="s">
-        <v>299</v>
+        <v>143</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.15">
+        <v>144</v>
+      </c>
+      <c r="G9" t="s">
+        <v>72</v>
+      </c>
+      <c r="H9" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B10" s="24"/>
       <c r="C10" s="7" t="s">
-        <v>301</v>
+        <v>145</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.15">
+        <v>146</v>
+      </c>
+      <c r="G10" t="s">
+        <v>71</v>
+      </c>
+      <c r="H10" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B11" s="24"/>
       <c r="C11" s="7" t="s">
-        <v>303</v>
+        <v>73</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+      <c r="G11" t="s">
+        <v>77</v>
+      </c>
+      <c r="H11" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B12" s="24"/>
       <c r="C12" s="12" t="s">
-        <v>305</v>
+        <v>148</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.15">
+        <v>149</v>
+      </c>
+      <c r="G12" t="s">
+        <v>58</v>
+      </c>
+      <c r="H12" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B14" s="23" t="s">
-        <v>307</v>
+        <v>150</v>
       </c>
       <c r="C14" t="s">
-        <v>308</v>
+        <v>151</v>
       </c>
       <c r="E14" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.15">
+        <v>151</v>
+      </c>
+      <c r="G14" t="s">
+        <v>111</v>
+      </c>
+      <c r="H14" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B15" s="23"/>
       <c r="C15" t="s">
-        <v>309</v>
+        <v>152</v>
       </c>
       <c r="E15" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.15">
+        <v>152</v>
+      </c>
+      <c r="G15" t="s">
+        <v>112</v>
+      </c>
+      <c r="H15" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B16" s="23"/>
       <c r="C16" t="s">
-        <v>310</v>
+        <v>153</v>
       </c>
       <c r="E16" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.15">
+        <v>153</v>
+      </c>
+      <c r="G16" t="s">
+        <v>113</v>
+      </c>
+      <c r="H16" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B17" s="23"/>
       <c r="C17" t="s">
-        <v>311</v>
+        <v>154</v>
       </c>
       <c r="E17" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.15">
+        <v>154</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B18" s="23"/>
       <c r="C18" t="s">
-        <v>312</v>
+        <v>155</v>
       </c>
       <c r="E18" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.15">
+        <v>155</v>
+      </c>
+      <c r="G18" t="s">
+        <v>78</v>
+      </c>
+      <c r="H18" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B19" s="23"/>
       <c r="C19" t="s">
-        <v>313</v>
+        <v>156</v>
       </c>
       <c r="E19" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.15">
+        <v>156</v>
+      </c>
+      <c r="G19" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="H19" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B20" s="23"/>
       <c r="C20" t="s">
-        <v>314</v>
+        <v>157</v>
       </c>
       <c r="E20" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.15">
+        <v>157</v>
+      </c>
+      <c r="G20" t="s">
+        <v>75</v>
+      </c>
+      <c r="H20" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B21" s="23"/>
       <c r="C21" t="s">
-        <v>315</v>
+        <v>158</v>
       </c>
       <c r="E21" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.15">
+        <v>158</v>
+      </c>
+      <c r="G21" t="s">
+        <v>15</v>
+      </c>
+      <c r="H21" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B22" s="23"/>
       <c r="C22" t="s">
-        <v>316</v>
+        <v>159</v>
       </c>
       <c r="E22" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.15">
+        <v>159</v>
+      </c>
+      <c r="G22" t="s">
+        <v>74</v>
+      </c>
+      <c r="H22" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B23" s="23"/>
       <c r="C23" t="s">
-        <v>317</v>
+        <v>160</v>
       </c>
       <c r="E23" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.15">
+        <v>160</v>
+      </c>
+      <c r="G23" t="s">
+        <v>16</v>
+      </c>
+      <c r="H23" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B24" s="23"/>
       <c r="C24" t="s">
-        <v>318</v>
+        <v>161</v>
       </c>
       <c r="E24" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.15">
+        <v>161</v>
+      </c>
+      <c r="G24" t="s">
+        <v>115</v>
+      </c>
+      <c r="H24" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B25" s="23"/>
       <c r="C25" t="s">
-        <v>319</v>
+        <v>162</v>
       </c>
       <c r="E25" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.15">
+        <v>162</v>
+      </c>
+      <c r="G25" t="s">
+        <v>17</v>
+      </c>
+      <c r="H25" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B26" s="23"/>
       <c r="C26" t="s">
-        <v>320</v>
+        <v>19</v>
       </c>
       <c r="E26" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.15">
+        <v>19</v>
+      </c>
+      <c r="G26" t="s">
+        <v>116</v>
+      </c>
+      <c r="H26" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B27" s="23"/>
       <c r="C27" t="s">
-        <v>321</v>
+        <v>20</v>
       </c>
       <c r="E27" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.15">
+        <v>20</v>
+      </c>
+      <c r="G27" t="s">
+        <v>18</v>
+      </c>
+      <c r="H27" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B28" s="23"/>
       <c r="C28" t="s">
-        <v>322</v>
+        <v>21</v>
       </c>
       <c r="E28" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.15">
+        <v>21</v>
+      </c>
+      <c r="G28" t="s">
+        <v>114</v>
+      </c>
+      <c r="H28" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B29" s="23"/>
       <c r="C29" t="s">
-        <v>323</v>
+        <v>22</v>
       </c>
       <c r="E29" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+      <c r="G29" t="s">
+        <v>79</v>
+      </c>
+      <c r="H29" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B30" s="23"/>
       <c r="C30" t="s">
-        <v>325</v>
+        <v>24</v>
       </c>
       <c r="E30" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.15">
+        <v>25</v>
+      </c>
+      <c r="G30" t="s">
+        <v>117</v>
+      </c>
+      <c r="H30" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B31" s="23"/>
       <c r="C31" t="s">
-        <v>327</v>
+        <v>26</v>
       </c>
       <c r="E31" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.15">
+        <v>26</v>
+      </c>
+      <c r="G31" t="s">
+        <v>118</v>
+      </c>
+      <c r="H31" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B32" s="23"/>
       <c r="C32" t="s">
-        <v>328</v>
+        <v>27</v>
       </c>
       <c r="E32" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.15">
+        <v>28</v>
+      </c>
+      <c r="G32" t="s">
+        <v>119</v>
+      </c>
+      <c r="H32" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B33" s="23"/>
       <c r="C33" t="s">
-        <v>330</v>
+        <v>29</v>
       </c>
       <c r="E33" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.15">
+        <v>29</v>
+      </c>
+      <c r="G33" t="s">
+        <v>120</v>
+      </c>
+      <c r="H33" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B34" s="23"/>
       <c r="C34" t="s">
-        <v>331</v>
+        <v>30</v>
       </c>
       <c r="E34" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.15">
+        <v>31</v>
+      </c>
+      <c r="G34" t="s">
+        <v>454</v>
+      </c>
+      <c r="H34" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B35" s="23"/>
       <c r="C35" t="s">
-        <v>333</v>
+        <v>32</v>
       </c>
       <c r="E35" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.15">
+        <v>33</v>
+      </c>
+      <c r="G35" t="s">
+        <v>455</v>
+      </c>
+      <c r="H35" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B36" s="23"/>
       <c r="C36" t="s">
-        <v>335</v>
+        <v>34</v>
       </c>
       <c r="E36" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.15">
+        <v>35</v>
+      </c>
+      <c r="G36" t="s">
+        <v>456</v>
+      </c>
+      <c r="H36" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B38" s="23" t="s">
-        <v>337</v>
+        <v>36</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>338</v>
+        <v>37</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.15">
+        <v>81</v>
+      </c>
+      <c r="G38" t="s">
+        <v>467</v>
+      </c>
+      <c r="H38" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B39" s="23"/>
       <c r="C39" s="3" t="s">
-        <v>340</v>
+        <v>38</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.15">
+        <v>39</v>
+      </c>
+      <c r="G39" t="s">
+        <v>466</v>
+      </c>
+      <c r="H39" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B40" s="23"/>
       <c r="C40" s="3" t="s">
-        <v>342</v>
+        <v>40</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.15">
+        <v>41</v>
+      </c>
+      <c r="G40" t="s">
+        <v>468</v>
+      </c>
+      <c r="H40" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B41" s="23"/>
       <c r="C41" s="3" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.15">
+        <v>83</v>
+      </c>
+      <c r="G41" t="s">
+        <v>472</v>
+      </c>
+      <c r="H41" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B42" s="23"/>
       <c r="C42" s="3" t="s">
-        <v>58</v>
+        <v>274</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.15">
+        <v>42</v>
+      </c>
+      <c r="G42" t="s">
+        <v>469</v>
+      </c>
+      <c r="H42" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B43" s="23"/>
       <c r="C43" s="3" t="s">
-        <v>59</v>
+        <v>275</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.15">
+        <v>84</v>
+      </c>
+      <c r="G43" t="s">
+        <v>80</v>
+      </c>
+      <c r="H43" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B44" s="23"/>
       <c r="C44" s="3" t="s">
-        <v>347</v>
+        <v>43</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.15">
+        <v>43</v>
+      </c>
+      <c r="G44" t="s">
+        <v>470</v>
+      </c>
+      <c r="H44" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B45" s="23"/>
       <c r="C45" s="3" t="s">
-        <v>348</v>
+        <v>193</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.15">
+        <v>193</v>
+      </c>
+      <c r="G45" t="s">
+        <v>471</v>
+      </c>
+      <c r="H45" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B47" s="23" t="s">
-        <v>349</v>
+        <v>194</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>350</v>
+        <v>195</v>
       </c>
       <c r="E47" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.15">
+        <v>196</v>
+      </c>
+      <c r="G47" t="s">
+        <v>1</v>
+      </c>
+      <c r="H47" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B48" s="23"/>
       <c r="C48" s="3" t="s">
-        <v>352</v>
+        <v>197</v>
       </c>
       <c r="E48" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.15">
+        <v>198</v>
+      </c>
+      <c r="G48" t="s">
+        <v>0</v>
+      </c>
+      <c r="H48" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B49" s="23"/>
       <c r="C49" s="3" t="s">
-        <v>354</v>
+        <v>199</v>
       </c>
       <c r="E49" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.15">
+        <v>200</v>
+      </c>
+      <c r="G49" t="s">
+        <v>2</v>
+      </c>
+      <c r="H49" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B50" s="23"/>
       <c r="C50" s="3" t="s">
-        <v>356</v>
+        <v>201</v>
       </c>
       <c r="E50" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+      <c r="G50" t="s">
+        <v>49</v>
+      </c>
+      <c r="H50" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B51" s="23"/>
       <c r="C51" s="3" t="s">
-        <v>358</v>
+        <v>202</v>
       </c>
       <c r="E51" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.15">
+        <v>203</v>
+      </c>
+      <c r="G51" t="s">
+        <v>76</v>
+      </c>
+      <c r="H51" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B52" s="23"/>
       <c r="C52" s="3" t="s">
-        <v>360</v>
+        <v>204</v>
       </c>
       <c r="E52" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.15">
+        <v>53</v>
+      </c>
+      <c r="G52" t="s">
+        <v>57</v>
+      </c>
+      <c r="H52" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B53" s="23"/>
       <c r="C53" s="3" t="s">
-        <v>362</v>
+        <v>205</v>
       </c>
       <c r="E53" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.15">
+        <v>206</v>
+      </c>
+      <c r="G53" t="s">
+        <v>4</v>
+      </c>
+      <c r="H53" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B54" s="23"/>
       <c r="C54" s="3" t="s">
-        <v>364</v>
+        <v>207</v>
       </c>
       <c r="E54" s="20" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.15">
+        <v>208</v>
+      </c>
+      <c r="G54" t="s">
+        <v>5</v>
+      </c>
+      <c r="H54" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B55" s="23"/>
       <c r="C55" s="3" t="s">
-        <v>366</v>
+        <v>209</v>
       </c>
       <c r="E55" s="20" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.15">
+        <v>210</v>
+      </c>
+      <c r="G55" t="s">
+        <v>6</v>
+      </c>
+      <c r="H55" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B56" s="23"/>
       <c r="C56" s="3" t="s">
-        <v>368</v>
+        <v>211</v>
       </c>
       <c r="E56" s="20" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.15">
+        <v>47</v>
+      </c>
+      <c r="G56" t="s">
+        <v>48</v>
+      </c>
+      <c r="H56" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B57" s="23"/>
       <c r="C57" s="3" t="s">
-        <v>370</v>
+        <v>212</v>
       </c>
       <c r="E57" s="20" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.15">
+        <v>213</v>
+      </c>
+      <c r="G57" t="s">
+        <v>7</v>
+      </c>
+      <c r="H57" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B58" s="23"/>
       <c r="C58" s="3" t="s">
-        <v>372</v>
+        <v>214</v>
       </c>
       <c r="E58" s="20" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.15">
+        <v>215</v>
+      </c>
+      <c r="G58" t="s">
+        <v>63</v>
+      </c>
+      <c r="H58" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B59" s="23"/>
       <c r="C59" s="3" t="s">
-        <v>374</v>
+        <v>216</v>
       </c>
       <c r="E59" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.15">
+        <v>217</v>
+      </c>
+      <c r="G59" t="s">
+        <v>54</v>
+      </c>
+      <c r="H59" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B60" s="23"/>
       <c r="C60" s="3" t="s">
-        <v>376</v>
+        <v>8</v>
       </c>
       <c r="E60" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.15">
+        <v>9</v>
+      </c>
+      <c r="G60" t="s">
+        <v>55</v>
+      </c>
+      <c r="H60" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B61" s="23"/>
       <c r="C61" s="3" t="s">
-        <v>378</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+      <c r="G61" t="s">
+        <v>52</v>
+      </c>
+      <c r="H61" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B62" s="23"/>
       <c r="C62" s="3" t="s">
-        <v>380</v>
+        <v>12</v>
       </c>
       <c r="E62" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.15">
+        <v>13</v>
+      </c>
+      <c r="G62" t="s">
+        <v>51</v>
+      </c>
+      <c r="H62" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="63" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B63" s="23"/>
       <c r="C63" s="3" t="s">
-        <v>382</v>
+        <v>14</v>
       </c>
       <c r="E63" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.15">
+        <v>98</v>
+      </c>
+      <c r="G63" t="s">
+        <v>56</v>
+      </c>
+      <c r="H63" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="64" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B64" s="23"/>
       <c r="C64" s="3" t="s">
-        <v>384</v>
+        <v>64</v>
       </c>
       <c r="E64" s="20" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.15">
+        <v>99</v>
+      </c>
+      <c r="G64" t="s">
+        <v>44</v>
+      </c>
+      <c r="H64" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="65" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B65" s="23"/>
       <c r="C65" s="3" t="s">
-        <v>386</v>
+        <v>100</v>
       </c>
       <c r="E65" s="20" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.15">
+        <v>101</v>
+      </c>
+      <c r="G65" t="s">
+        <v>61</v>
+      </c>
+      <c r="H65" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="66" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B66" s="23"/>
       <c r="C66" s="3" t="s">
-        <v>388</v>
+        <v>102</v>
       </c>
       <c r="E66" s="20" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.15">
+        <v>103</v>
+      </c>
+      <c r="G66" t="s">
+        <v>62</v>
+      </c>
+      <c r="H66" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="67" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B67" s="23"/>
       <c r="C67" s="3" t="s">
-        <v>390</v>
+        <v>104</v>
       </c>
       <c r="E67" s="20" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.15">
+        <v>65</v>
+      </c>
+      <c r="G67" t="s">
+        <v>60</v>
+      </c>
+      <c r="H67" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="68" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B68" s="23"/>
       <c r="C68" s="3" t="s">
-        <v>392</v>
+        <v>105</v>
       </c>
       <c r="E68" s="20" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.15">
+        <v>106</v>
+      </c>
+      <c r="G68" t="s">
+        <v>50</v>
+      </c>
+      <c r="H68" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="69" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B69" s="23"/>
       <c r="C69" s="3" t="s">
-        <v>394</v>
+        <v>107</v>
       </c>
       <c r="E69" s="20" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.15">
+        <v>108</v>
+      </c>
+      <c r="G69" t="s">
+        <v>59</v>
+      </c>
+      <c r="H69" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="70" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B70" s="23"/>
       <c r="C70" s="3" t="s">
-        <v>396</v>
+        <v>109</v>
       </c>
       <c r="E70" s="20" t="s">
-        <v>397</v>
+        <v>110</v>
+      </c>
+      <c r="G70" t="s">
+        <v>45</v>
+      </c>
+      <c r="H70" t="s">
+        <v>478</v>
       </c>
     </row>
   </sheetData>
@@ -4984,6 +5709,10 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/gd/美术需求文档/UI相关/Icon需求.xlsx
+++ b/gd/美术需求文档/UI相关/Icon需求.xlsx
@@ -11,7 +11,7 @@
     <sheet name="ICON风格参考" sheetId="2" r:id="rId2"/>
     <sheet name="物品道具翻译需求" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:ArchID Flags="2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="491">
   <si>
     <t>Rugged Belt</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1853,18 +1853,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>宝石镶嵌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宠物经验提升</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宠物经验BUFF倍率获得</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>游戏自然产出的宝箱,开启获得产出物</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1929,15 +1917,75 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>宠物强化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宠物进阶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>宠物穿戴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物强化材料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物进阶材料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝石镶嵌 提高力量XX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝石镶嵌 提高血量XX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝石镶嵌 提高智慧XX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝石镶嵌 提高防御XX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝石镶嵌 提高速度XX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝石镶嵌 提高恢复度XX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝石镶嵌 提高暴击率XX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝石镶嵌 提高能量XX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝石镶嵌 提高暴击伤害XX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物经验提升 XX点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物经验XX%倍率获得提升</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以用来开启[黑铁宝箱]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以用来开启[木质宝箱]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以用来开启[白银宝箱]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以用来开启[黄金宝箱]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4701,10 +4749,10 @@
   <dimension ref="B2:H70"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C38" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H47" sqref="H47:H70"/>
+      <selection pane="bottomRight" activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4745,8 +4793,8 @@
       <c r="G4" t="s">
         <v>66</v>
       </c>
-      <c r="H4" t="s">
-        <v>457</v>
+      <c r="H4" s="18" t="s">
+        <v>477</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.15">
@@ -4760,8 +4808,8 @@
       <c r="G5" t="s">
         <v>67</v>
       </c>
-      <c r="H5" t="s">
-        <v>457</v>
+      <c r="H5" s="18" t="s">
+        <v>476</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.15">
@@ -4775,8 +4823,8 @@
       <c r="G6" t="s">
         <v>68</v>
       </c>
-      <c r="H6" t="s">
-        <v>457</v>
+      <c r="H6" s="18" t="s">
+        <v>478</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.15">
@@ -4790,8 +4838,8 @@
       <c r="G7" t="s">
         <v>69</v>
       </c>
-      <c r="H7" t="s">
-        <v>457</v>
+      <c r="H7" s="18" t="s">
+        <v>479</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.15">
@@ -4805,8 +4853,8 @@
       <c r="G8" t="s">
         <v>70</v>
       </c>
-      <c r="H8" t="s">
-        <v>457</v>
+      <c r="H8" s="18" t="s">
+        <v>480</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.15">
@@ -4820,8 +4868,8 @@
       <c r="G9" t="s">
         <v>72</v>
       </c>
-      <c r="H9" t="s">
-        <v>457</v>
+      <c r="H9" s="18" t="s">
+        <v>481</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.15">
@@ -4835,8 +4883,8 @@
       <c r="G10" t="s">
         <v>71</v>
       </c>
-      <c r="H10" t="s">
-        <v>457</v>
+      <c r="H10" s="18" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.15">
@@ -4850,8 +4898,8 @@
       <c r="G11" t="s">
         <v>77</v>
       </c>
-      <c r="H11" t="s">
-        <v>457</v>
+      <c r="H11" s="18" t="s">
+        <v>483</v>
       </c>
     </row>
     <row r="12" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -4865,8 +4913,8 @@
       <c r="G12" t="s">
         <v>58</v>
       </c>
-      <c r="H12" t="s">
-        <v>457</v>
+      <c r="H12" s="18" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.15">
@@ -4883,7 +4931,7 @@
         <v>111</v>
       </c>
       <c r="H14" t="s">
-        <v>458</v>
+        <v>485</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.15">
@@ -4898,7 +4946,7 @@
         <v>112</v>
       </c>
       <c r="H15" t="s">
-        <v>458</v>
+        <v>485</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.15">
@@ -4913,7 +4961,7 @@
         <v>113</v>
       </c>
       <c r="H16" t="s">
-        <v>458</v>
+        <v>485</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.15">
@@ -4928,7 +4976,7 @@
         <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>459</v>
+        <v>486</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.15">
@@ -4943,7 +4991,7 @@
         <v>78</v>
       </c>
       <c r="H18" t="s">
-        <v>459</v>
+        <v>486</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.15">
@@ -4958,7 +5006,7 @@
         <v>121</v>
       </c>
       <c r="H19" t="s">
-        <v>459</v>
+        <v>486</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.15">
@@ -4973,7 +5021,7 @@
         <v>75</v>
       </c>
       <c r="H20" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.15">
@@ -4988,7 +5036,7 @@
         <v>15</v>
       </c>
       <c r="H21" t="s">
-        <v>460</v>
+        <v>488</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.15">
@@ -5003,7 +5051,7 @@
         <v>74</v>
       </c>
       <c r="H22" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.15">
@@ -5018,7 +5066,7 @@
         <v>16</v>
       </c>
       <c r="H23" t="s">
-        <v>460</v>
+        <v>487</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.15">
@@ -5033,7 +5081,7 @@
         <v>115</v>
       </c>
       <c r="H24" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.15">
@@ -5048,7 +5096,7 @@
         <v>17</v>
       </c>
       <c r="H25" t="s">
-        <v>460</v>
+        <v>489</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.15">
@@ -5063,7 +5111,7 @@
         <v>116</v>
       </c>
       <c r="H26" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.15">
@@ -5078,7 +5126,7 @@
         <v>18</v>
       </c>
       <c r="H27" t="s">
-        <v>460</v>
+        <v>490</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.15">
@@ -5093,7 +5141,7 @@
         <v>114</v>
       </c>
       <c r="H28" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.15">
@@ -5108,7 +5156,7 @@
         <v>79</v>
       </c>
       <c r="H29" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.15">
@@ -5123,7 +5171,7 @@
         <v>117</v>
       </c>
       <c r="H30" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.15">
@@ -5138,7 +5186,7 @@
         <v>118</v>
       </c>
       <c r="H31" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.15">
@@ -5153,7 +5201,7 @@
         <v>119</v>
       </c>
       <c r="H32" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.15">
@@ -5168,7 +5216,7 @@
         <v>120</v>
       </c>
       <c r="H33" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.15">
@@ -5183,7 +5231,7 @@
         <v>454</v>
       </c>
       <c r="H34" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.15">
@@ -5198,7 +5246,7 @@
         <v>455</v>
       </c>
       <c r="H35" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.15">
@@ -5213,7 +5261,7 @@
         <v>456</v>
       </c>
       <c r="H36" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.15">
@@ -5227,10 +5275,10 @@
         <v>81</v>
       </c>
       <c r="G38" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="H38" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.15">
@@ -5242,10 +5290,10 @@
         <v>39</v>
       </c>
       <c r="G39" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="H39" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.15">
@@ -5257,10 +5305,10 @@
         <v>41</v>
       </c>
       <c r="G40" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="H40" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.15">
@@ -5272,10 +5320,10 @@
         <v>83</v>
       </c>
       <c r="G41" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="H41" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.15">
@@ -5287,10 +5335,10 @@
         <v>42</v>
       </c>
       <c r="G42" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="H42" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.15">
@@ -5305,7 +5353,7 @@
         <v>80</v>
       </c>
       <c r="H43" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.15">
@@ -5317,10 +5365,10 @@
         <v>43</v>
       </c>
       <c r="G44" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="H44" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.15">
@@ -5332,10 +5380,10 @@
         <v>193</v>
       </c>
       <c r="G45" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="H45" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.15">
@@ -5352,7 +5400,7 @@
         <v>1</v>
       </c>
       <c r="H47" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.15">
@@ -5367,7 +5415,7 @@
         <v>0</v>
       </c>
       <c r="H48" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.15">
@@ -5382,7 +5430,7 @@
         <v>2</v>
       </c>
       <c r="H49" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.15">
@@ -5397,7 +5445,7 @@
         <v>49</v>
       </c>
       <c r="H50" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.15">
@@ -5412,7 +5460,7 @@
         <v>76</v>
       </c>
       <c r="H51" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.15">
@@ -5427,7 +5475,7 @@
         <v>57</v>
       </c>
       <c r="H52" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.15">
@@ -5442,7 +5490,7 @@
         <v>4</v>
       </c>
       <c r="H53" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.15">
@@ -5457,7 +5505,7 @@
         <v>5</v>
       </c>
       <c r="H54" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.15">
@@ -5472,7 +5520,7 @@
         <v>6</v>
       </c>
       <c r="H55" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.15">
@@ -5487,7 +5535,7 @@
         <v>48</v>
       </c>
       <c r="H56" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.15">
@@ -5502,7 +5550,7 @@
         <v>7</v>
       </c>
       <c r="H57" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.15">
@@ -5517,7 +5565,7 @@
         <v>63</v>
       </c>
       <c r="H58" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.15">
@@ -5532,7 +5580,7 @@
         <v>54</v>
       </c>
       <c r="H59" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.15">
@@ -5547,7 +5595,7 @@
         <v>55</v>
       </c>
       <c r="H60" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.15">
@@ -5562,7 +5610,7 @@
         <v>52</v>
       </c>
       <c r="H61" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.15">
@@ -5577,7 +5625,7 @@
         <v>51</v>
       </c>
       <c r="H62" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.15">
@@ -5592,7 +5640,7 @@
         <v>56</v>
       </c>
       <c r="H63" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
     </row>
     <row r="64" spans="2:8" x14ac:dyDescent="0.15">
@@ -5607,7 +5655,7 @@
         <v>44</v>
       </c>
       <c r="H64" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.15">
@@ -5622,7 +5670,7 @@
         <v>61</v>
       </c>
       <c r="H65" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
     </row>
     <row r="66" spans="2:8" x14ac:dyDescent="0.15">
@@ -5637,7 +5685,7 @@
         <v>62</v>
       </c>
       <c r="H66" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
     </row>
     <row r="67" spans="2:8" x14ac:dyDescent="0.15">
@@ -5652,7 +5700,7 @@
         <v>60</v>
       </c>
       <c r="H67" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
     </row>
     <row r="68" spans="2:8" x14ac:dyDescent="0.15">
@@ -5667,7 +5715,7 @@
         <v>50</v>
       </c>
       <c r="H68" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
     </row>
     <row r="69" spans="2:8" x14ac:dyDescent="0.15">
@@ -5682,7 +5730,7 @@
         <v>59</v>
       </c>
       <c r="H69" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
     </row>
     <row r="70" spans="2:8" x14ac:dyDescent="0.15">
@@ -5697,7 +5745,7 @@
         <v>45</v>
       </c>
       <c r="H70" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
     </row>
   </sheetData>

--- a/gd/美术需求文档/UI相关/Icon需求.xlsx
+++ b/gd/美术需求文档/UI相关/Icon需求.xlsx
@@ -11,7 +11,7 @@
     <sheet name="ICON风格参考" sheetId="2" r:id="rId2"/>
     <sheet name="物品道具翻译需求" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:ArchID Flags="2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="494">
   <si>
     <t>Rugged Belt</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1869,10 +1869,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>垃圾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>恢复玩家人物活力值道具</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1986,6 +1982,22 @@
   </si>
   <si>
     <t>可以用来开启[黄金宝箱]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>还是拿去去换钱好些</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备进阶材料2碎片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进阶卷轴碎片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以合成装备进阶卷轴</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2210,7 +2222,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2240,6 +2252,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2996,7 +3011,7 @@
       </c>
     </row>
     <row r="50" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C50" s="23" t="s">
+      <c r="C50" s="24" t="s">
         <v>258</v>
       </c>
       <c r="D50" s="3" t="s">
@@ -3011,7 +3026,7 @@
     </row>
     <row r="51" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A51" s="19"/>
-      <c r="C51" s="23"/>
+      <c r="C51" s="24"/>
       <c r="D51" s="13" t="s">
         <v>332</v>
       </c>
@@ -3028,7 +3043,7 @@
     </row>
     <row r="52" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A52" s="19"/>
-      <c r="C52" s="23"/>
+      <c r="C52" s="24"/>
       <c r="D52" s="13" t="s">
         <v>333</v>
       </c>
@@ -3044,7 +3059,7 @@
       </c>
     </row>
     <row r="53" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C53" s="23"/>
+      <c r="C53" s="24"/>
       <c r="D53" s="13" t="s">
         <v>334</v>
       </c>
@@ -3060,7 +3075,7 @@
       </c>
     </row>
     <row r="54" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C54" s="23"/>
+      <c r="C54" s="24"/>
       <c r="D54" s="3" t="s">
         <v>336</v>
       </c>
@@ -3072,7 +3087,7 @@
       </c>
     </row>
     <row r="55" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C55" s="23"/>
+      <c r="C55" s="24"/>
       <c r="D55" s="13" t="s">
         <v>338</v>
       </c>
@@ -3088,7 +3103,7 @@
       </c>
     </row>
     <row r="56" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C56" s="23"/>
+      <c r="C56" s="24"/>
       <c r="D56" s="13" t="s">
         <v>339</v>
       </c>
@@ -3104,7 +3119,7 @@
       </c>
     </row>
     <row r="57" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C57" s="23"/>
+      <c r="C57" s="24"/>
       <c r="D57" s="13" t="s">
         <v>340</v>
       </c>
@@ -3120,7 +3135,7 @@
       </c>
     </row>
     <row r="58" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C58" s="23"/>
+      <c r="C58" s="24"/>
       <c r="D58" s="3" t="s">
         <v>341</v>
       </c>
@@ -3132,7 +3147,7 @@
       </c>
     </row>
     <row r="59" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C59" s="23"/>
+      <c r="C59" s="24"/>
       <c r="D59" s="13" t="s">
         <v>342</v>
       </c>
@@ -3148,7 +3163,7 @@
       </c>
     </row>
     <row r="60" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C60" s="23"/>
+      <c r="C60" s="24"/>
       <c r="D60" s="13" t="s">
         <v>343</v>
       </c>
@@ -3164,7 +3179,7 @@
       </c>
     </row>
     <row r="61" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C61" s="23"/>
+      <c r="C61" s="24"/>
       <c r="D61" s="13" t="s">
         <v>344</v>
       </c>
@@ -3180,7 +3195,7 @@
       </c>
     </row>
     <row r="62" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C62" s="23"/>
+      <c r="C62" s="24"/>
       <c r="D62" s="3" t="s">
         <v>347</v>
       </c>
@@ -3192,7 +3207,7 @@
       </c>
     </row>
     <row r="63" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C63" s="23"/>
+      <c r="C63" s="24"/>
       <c r="D63" s="13" t="s">
         <v>348</v>
       </c>
@@ -3208,7 +3223,7 @@
       </c>
     </row>
     <row r="64" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C64" s="23"/>
+      <c r="C64" s="24"/>
       <c r="D64" s="13" t="s">
         <v>349</v>
       </c>
@@ -3224,7 +3239,7 @@
       </c>
     </row>
     <row r="65" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C65" s="23"/>
+      <c r="C65" s="24"/>
       <c r="D65" s="13" t="s">
         <v>350</v>
       </c>
@@ -3240,7 +3255,7 @@
       </c>
     </row>
     <row r="66" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C66" s="23"/>
+      <c r="C66" s="24"/>
       <c r="D66" s="3" t="s">
         <v>352</v>
       </c>
@@ -3252,7 +3267,7 @@
       </c>
     </row>
     <row r="67" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C67" s="23"/>
+      <c r="C67" s="24"/>
       <c r="D67" s="13" t="s">
         <v>163</v>
       </c>
@@ -3268,7 +3283,7 @@
       </c>
     </row>
     <row r="68" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C68" s="23"/>
+      <c r="C68" s="24"/>
       <c r="D68" s="13" t="s">
         <v>164</v>
       </c>
@@ -3284,7 +3299,7 @@
       </c>
     </row>
     <row r="69" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C69" s="23"/>
+      <c r="C69" s="24"/>
       <c r="D69" s="13" t="s">
         <v>165</v>
       </c>
@@ -3300,7 +3315,7 @@
       </c>
     </row>
     <row r="70" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C70" s="23"/>
+      <c r="C70" s="24"/>
       <c r="D70" s="3" t="s">
         <v>166</v>
       </c>
@@ -3312,7 +3327,7 @@
       </c>
     </row>
     <row r="71" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C71" s="23"/>
+      <c r="C71" s="24"/>
       <c r="D71" s="13" t="s">
         <v>167</v>
       </c>
@@ -3328,7 +3343,7 @@
       </c>
     </row>
     <row r="72" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C72" s="23"/>
+      <c r="C72" s="24"/>
       <c r="D72" s="13" t="s">
         <v>168</v>
       </c>
@@ -3344,7 +3359,7 @@
       </c>
     </row>
     <row r="73" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C73" s="23"/>
+      <c r="C73" s="24"/>
       <c r="D73" s="13" t="s">
         <v>169</v>
       </c>
@@ -3360,7 +3375,7 @@
       </c>
     </row>
     <row r="74" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C74" s="23" t="s">
+      <c r="C74" s="24" t="s">
         <v>257</v>
       </c>
       <c r="D74" s="3" t="s">
@@ -3374,7 +3389,7 @@
       </c>
     </row>
     <row r="75" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C75" s="23"/>
+      <c r="C75" s="24"/>
       <c r="D75" s="13" t="s">
         <v>173</v>
       </c>
@@ -3390,7 +3405,7 @@
       </c>
     </row>
     <row r="76" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C76" s="23"/>
+      <c r="C76" s="24"/>
       <c r="D76" s="13" t="s">
         <v>174</v>
       </c>
@@ -3406,7 +3421,7 @@
       </c>
     </row>
     <row r="77" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C77" s="23"/>
+      <c r="C77" s="24"/>
       <c r="D77" s="13" t="s">
         <v>175</v>
       </c>
@@ -3422,7 +3437,7 @@
       </c>
     </row>
     <row r="78" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C78" s="23"/>
+      <c r="C78" s="24"/>
       <c r="D78" s="3" t="s">
         <v>176</v>
       </c>
@@ -3434,7 +3449,7 @@
       </c>
     </row>
     <row r="79" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C79" s="23"/>
+      <c r="C79" s="24"/>
       <c r="D79" s="13" t="s">
         <v>177</v>
       </c>
@@ -3450,7 +3465,7 @@
       </c>
     </row>
     <row r="80" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C80" s="23"/>
+      <c r="C80" s="24"/>
       <c r="D80" s="13" t="s">
         <v>178</v>
       </c>
@@ -3466,7 +3481,7 @@
       </c>
     </row>
     <row r="81" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C81" s="23"/>
+      <c r="C81" s="24"/>
       <c r="D81" s="13" t="s">
         <v>179</v>
       </c>
@@ -3482,7 +3497,7 @@
       </c>
     </row>
     <row r="82" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C82" s="23"/>
+      <c r="C82" s="24"/>
       <c r="D82" s="3" t="s">
         <v>181</v>
       </c>
@@ -3491,7 +3506,7 @@
       </c>
     </row>
     <row r="83" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C83" s="23"/>
+      <c r="C83" s="24"/>
       <c r="D83" s="13" t="s">
         <v>182</v>
       </c>
@@ -3507,7 +3522,7 @@
       </c>
     </row>
     <row r="84" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C84" s="23"/>
+      <c r="C84" s="24"/>
       <c r="D84" s="13" t="s">
         <v>183</v>
       </c>
@@ -3523,7 +3538,7 @@
       </c>
     </row>
     <row r="85" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C85" s="23"/>
+      <c r="C85" s="24"/>
       <c r="D85" s="13" t="s">
         <v>184</v>
       </c>
@@ -3539,7 +3554,7 @@
       </c>
     </row>
     <row r="86" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C86" s="23"/>
+      <c r="C86" s="24"/>
       <c r="D86" s="3" t="s">
         <v>185</v>
       </c>
@@ -3551,7 +3566,7 @@
       </c>
     </row>
     <row r="87" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C87" s="23"/>
+      <c r="C87" s="24"/>
       <c r="D87" s="13" t="s">
         <v>186</v>
       </c>
@@ -3567,7 +3582,7 @@
       </c>
     </row>
     <row r="88" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C88" s="23"/>
+      <c r="C88" s="24"/>
       <c r="D88" s="13" t="s">
         <v>187</v>
       </c>
@@ -3583,7 +3598,7 @@
       </c>
     </row>
     <row r="89" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C89" s="23"/>
+      <c r="C89" s="24"/>
       <c r="D89" s="13" t="s">
         <v>188</v>
       </c>
@@ -3599,7 +3614,7 @@
       </c>
     </row>
     <row r="90" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C90" s="23"/>
+      <c r="C90" s="24"/>
       <c r="D90" s="3" t="s">
         <v>190</v>
       </c>
@@ -3608,7 +3623,7 @@
       </c>
     </row>
     <row r="91" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C91" s="23"/>
+      <c r="C91" s="24"/>
       <c r="D91" s="13" t="s">
         <v>191</v>
       </c>
@@ -3624,7 +3639,7 @@
       </c>
     </row>
     <row r="92" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C92" s="23"/>
+      <c r="C92" s="24"/>
       <c r="D92" s="13" t="s">
         <v>192</v>
       </c>
@@ -3640,7 +3655,7 @@
       </c>
     </row>
     <row r="93" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C93" s="23"/>
+      <c r="C93" s="24"/>
       <c r="D93" s="13" t="s">
         <v>375</v>
       </c>
@@ -3656,7 +3671,7 @@
       </c>
     </row>
     <row r="94" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C94" s="23"/>
+      <c r="C94" s="24"/>
       <c r="D94" s="3" t="s">
         <v>376</v>
       </c>
@@ -3668,7 +3683,7 @@
       </c>
     </row>
     <row r="95" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C95" s="23"/>
+      <c r="C95" s="24"/>
       <c r="D95" s="13" t="s">
         <v>377</v>
       </c>
@@ -3684,7 +3699,7 @@
       </c>
     </row>
     <row r="96" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C96" s="23"/>
+      <c r="C96" s="24"/>
       <c r="D96" s="13" t="s">
         <v>378</v>
       </c>
@@ -3700,7 +3715,7 @@
       </c>
     </row>
     <row r="97" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C97" s="23"/>
+      <c r="C97" s="24"/>
       <c r="D97" s="13" t="s">
         <v>379</v>
       </c>
@@ -3716,7 +3731,7 @@
       </c>
     </row>
     <row r="98" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C98" s="23" t="s">
+      <c r="C98" s="24" t="s">
         <v>259</v>
       </c>
       <c r="D98" s="3" t="s">
@@ -3730,7 +3745,7 @@
       </c>
     </row>
     <row r="99" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C99" s="23"/>
+      <c r="C99" s="24"/>
       <c r="D99" s="13" t="s">
         <v>381</v>
       </c>
@@ -3746,7 +3761,7 @@
       </c>
     </row>
     <row r="100" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C100" s="23"/>
+      <c r="C100" s="24"/>
       <c r="D100" s="13" t="s">
         <v>382</v>
       </c>
@@ -3762,7 +3777,7 @@
       </c>
     </row>
     <row r="101" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C101" s="23"/>
+      <c r="C101" s="24"/>
       <c r="D101" s="13" t="s">
         <v>383</v>
       </c>
@@ -3778,7 +3793,7 @@
       </c>
     </row>
     <row r="102" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C102" s="23"/>
+      <c r="C102" s="24"/>
       <c r="D102" s="3" t="s">
         <v>384</v>
       </c>
@@ -3787,7 +3802,7 @@
       </c>
     </row>
     <row r="103" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C103" s="23"/>
+      <c r="C103" s="24"/>
       <c r="D103" s="13" t="s">
         <v>385</v>
       </c>
@@ -3803,7 +3818,7 @@
       </c>
     </row>
     <row r="104" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C104" s="23"/>
+      <c r="C104" s="24"/>
       <c r="D104" s="13" t="s">
         <v>386</v>
       </c>
@@ -3819,7 +3834,7 @@
       </c>
     </row>
     <row r="105" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C105" s="23"/>
+      <c r="C105" s="24"/>
       <c r="D105" s="13" t="s">
         <v>387</v>
       </c>
@@ -3835,7 +3850,7 @@
       </c>
     </row>
     <row r="106" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C106" s="23"/>
+      <c r="C106" s="24"/>
       <c r="D106" s="3" t="s">
         <v>388</v>
       </c>
@@ -3844,7 +3859,7 @@
       </c>
     </row>
     <row r="107" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C107" s="23"/>
+      <c r="C107" s="24"/>
       <c r="D107" s="13" t="s">
         <v>389</v>
       </c>
@@ -3860,7 +3875,7 @@
       </c>
     </row>
     <row r="108" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C108" s="23"/>
+      <c r="C108" s="24"/>
       <c r="D108" s="13" t="s">
         <v>390</v>
       </c>
@@ -3876,7 +3891,7 @@
       </c>
     </row>
     <row r="109" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C109" s="23"/>
+      <c r="C109" s="24"/>
       <c r="D109" s="13" t="s">
         <v>391</v>
       </c>
@@ -3892,7 +3907,7 @@
       </c>
     </row>
     <row r="110" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C110" s="23"/>
+      <c r="C110" s="24"/>
       <c r="D110" s="3" t="s">
         <v>393</v>
       </c>
@@ -3901,7 +3916,7 @@
       </c>
     </row>
     <row r="111" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C111" s="23"/>
+      <c r="C111" s="24"/>
       <c r="D111" s="13" t="s">
         <v>394</v>
       </c>
@@ -3917,7 +3932,7 @@
       </c>
     </row>
     <row r="112" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C112" s="23"/>
+      <c r="C112" s="24"/>
       <c r="D112" s="13" t="s">
         <v>395</v>
       </c>
@@ -3933,7 +3948,7 @@
       </c>
     </row>
     <row r="113" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C113" s="23"/>
+      <c r="C113" s="24"/>
       <c r="D113" s="13" t="s">
         <v>396</v>
       </c>
@@ -3949,7 +3964,7 @@
       </c>
     </row>
     <row r="114" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C114" s="23"/>
+      <c r="C114" s="24"/>
       <c r="D114" s="3" t="s">
         <v>397</v>
       </c>
@@ -3958,7 +3973,7 @@
       </c>
     </row>
     <row r="115" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C115" s="23"/>
+      <c r="C115" s="24"/>
       <c r="D115" s="13" t="s">
         <v>398</v>
       </c>
@@ -3974,7 +3989,7 @@
       </c>
     </row>
     <row r="116" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C116" s="23"/>
+      <c r="C116" s="24"/>
       <c r="D116" s="13" t="s">
         <v>399</v>
       </c>
@@ -3990,7 +4005,7 @@
       </c>
     </row>
     <row r="117" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C117" s="23"/>
+      <c r="C117" s="24"/>
       <c r="D117" s="13" t="s">
         <v>400</v>
       </c>
@@ -4006,7 +4021,7 @@
       </c>
     </row>
     <row r="118" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C118" s="23"/>
+      <c r="C118" s="24"/>
       <c r="D118" s="3" t="s">
         <v>401</v>
       </c>
@@ -4018,7 +4033,7 @@
       </c>
     </row>
     <row r="119" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C119" s="23"/>
+      <c r="C119" s="24"/>
       <c r="D119" s="13" t="s">
         <v>402</v>
       </c>
@@ -4034,7 +4049,7 @@
       </c>
     </row>
     <row r="120" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C120" s="23"/>
+      <c r="C120" s="24"/>
       <c r="D120" s="13" t="s">
         <v>403</v>
       </c>
@@ -4050,7 +4065,7 @@
       </c>
     </row>
     <row r="121" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C121" s="23"/>
+      <c r="C121" s="24"/>
       <c r="D121" s="13" t="s">
         <v>404</v>
       </c>
@@ -4066,7 +4081,7 @@
       </c>
     </row>
     <row r="122" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C122" s="23" t="s">
+      <c r="C122" s="24" t="s">
         <v>260</v>
       </c>
       <c r="D122" s="3" t="s">
@@ -4077,7 +4092,7 @@
       </c>
     </row>
     <row r="123" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C123" s="23"/>
+      <c r="C123" s="24"/>
       <c r="D123" s="13" t="s">
         <v>219</v>
       </c>
@@ -4093,7 +4108,7 @@
       </c>
     </row>
     <row r="124" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C124" s="23"/>
+      <c r="C124" s="24"/>
       <c r="D124" s="13" t="s">
         <v>220</v>
       </c>
@@ -4109,7 +4124,7 @@
       </c>
     </row>
     <row r="125" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C125" s="23"/>
+      <c r="C125" s="24"/>
       <c r="D125" s="13" t="s">
         <v>221</v>
       </c>
@@ -4125,7 +4140,7 @@
       </c>
     </row>
     <row r="126" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C126" s="23"/>
+      <c r="C126" s="24"/>
       <c r="D126" s="3" t="s">
         <v>218</v>
       </c>
@@ -4134,7 +4149,7 @@
       </c>
     </row>
     <row r="127" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C127" s="23"/>
+      <c r="C127" s="24"/>
       <c r="D127" s="13" t="s">
         <v>222</v>
       </c>
@@ -4150,7 +4165,7 @@
       </c>
     </row>
     <row r="128" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C128" s="23"/>
+      <c r="C128" s="24"/>
       <c r="D128" s="13" t="s">
         <v>223</v>
       </c>
@@ -4166,7 +4181,7 @@
       </c>
     </row>
     <row r="129" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C129" s="23"/>
+      <c r="C129" s="24"/>
       <c r="D129" s="13" t="s">
         <v>224</v>
       </c>
@@ -4182,7 +4197,7 @@
       </c>
     </row>
     <row r="130" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C130" s="23"/>
+      <c r="C130" s="24"/>
       <c r="D130" s="3" t="s">
         <v>225</v>
       </c>
@@ -4191,7 +4206,7 @@
       </c>
     </row>
     <row r="131" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C131" s="23"/>
+      <c r="C131" s="24"/>
       <c r="D131" s="13" t="s">
         <v>226</v>
       </c>
@@ -4207,7 +4222,7 @@
       </c>
     </row>
     <row r="132" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C132" s="23"/>
+      <c r="C132" s="24"/>
       <c r="D132" s="13" t="s">
         <v>227</v>
       </c>
@@ -4223,7 +4238,7 @@
       </c>
     </row>
     <row r="133" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C133" s="23"/>
+      <c r="C133" s="24"/>
       <c r="D133" s="13" t="s">
         <v>228</v>
       </c>
@@ -4239,7 +4254,7 @@
       </c>
     </row>
     <row r="134" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C134" s="23"/>
+      <c r="C134" s="24"/>
       <c r="D134" s="3" t="s">
         <v>218</v>
       </c>
@@ -4248,7 +4263,7 @@
       </c>
     </row>
     <row r="135" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C135" s="23"/>
+      <c r="C135" s="24"/>
       <c r="D135" s="13" t="s">
         <v>229</v>
       </c>
@@ -4264,7 +4279,7 @@
       </c>
     </row>
     <row r="136" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C136" s="23"/>
+      <c r="C136" s="24"/>
       <c r="D136" s="13" t="s">
         <v>230</v>
       </c>
@@ -4280,7 +4295,7 @@
       </c>
     </row>
     <row r="137" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C137" s="23"/>
+      <c r="C137" s="24"/>
       <c r="D137" s="13" t="s">
         <v>231</v>
       </c>
@@ -4296,7 +4311,7 @@
       </c>
     </row>
     <row r="138" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C138" s="23"/>
+      <c r="C138" s="24"/>
       <c r="D138" s="3" t="s">
         <v>218</v>
       </c>
@@ -4305,7 +4320,7 @@
       </c>
     </row>
     <row r="139" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C139" s="23"/>
+      <c r="C139" s="24"/>
       <c r="D139" s="13" t="s">
         <v>232</v>
       </c>
@@ -4321,7 +4336,7 @@
       </c>
     </row>
     <row r="140" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C140" s="23"/>
+      <c r="C140" s="24"/>
       <c r="D140" s="13" t="s">
         <v>233</v>
       </c>
@@ -4337,7 +4352,7 @@
       </c>
     </row>
     <row r="141" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C141" s="23"/>
+      <c r="C141" s="24"/>
       <c r="D141" s="13" t="s">
         <v>234</v>
       </c>
@@ -4353,7 +4368,7 @@
       </c>
     </row>
     <row r="142" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C142" s="23"/>
+      <c r="C142" s="24"/>
       <c r="D142" s="3" t="s">
         <v>218</v>
       </c>
@@ -4362,7 +4377,7 @@
       </c>
     </row>
     <row r="143" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C143" s="23"/>
+      <c r="C143" s="24"/>
       <c r="D143" s="13" t="s">
         <v>235</v>
       </c>
@@ -4378,7 +4393,7 @@
       </c>
     </row>
     <row r="144" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C144" s="23"/>
+      <c r="C144" s="24"/>
       <c r="D144" s="13" t="s">
         <v>236</v>
       </c>
@@ -4394,7 +4409,7 @@
       </c>
     </row>
     <row r="145" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C145" s="23"/>
+      <c r="C145" s="24"/>
       <c r="D145" s="13" t="s">
         <v>237</v>
       </c>
@@ -4746,13 +4761,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H70"/>
+  <dimension ref="B2:H71"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H26" sqref="H26"/>
+      <selection pane="bottomRight" activeCell="K56" sqref="K56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4781,7 +4796,7 @@
     </row>
     <row r="3" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="25" t="s">
         <v>132</v>
       </c>
       <c r="C4" s="5" t="s">
@@ -4794,11 +4809,11 @@
         <v>66</v>
       </c>
       <c r="H4" s="18" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B5" s="24"/>
+      <c r="B5" s="25"/>
       <c r="C5" s="22" t="s">
         <v>135</v>
       </c>
@@ -4809,11 +4824,11 @@
         <v>67</v>
       </c>
       <c r="H5" s="18" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B6" s="24"/>
+      <c r="B6" s="25"/>
       <c r="C6" s="7" t="s">
         <v>137</v>
       </c>
@@ -4824,11 +4839,11 @@
         <v>68</v>
       </c>
       <c r="H6" s="18" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B7" s="24"/>
+      <c r="B7" s="25"/>
       <c r="C7" s="8" t="s">
         <v>139</v>
       </c>
@@ -4839,11 +4854,11 @@
         <v>69</v>
       </c>
       <c r="H7" s="18" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B8" s="24"/>
+      <c r="B8" s="25"/>
       <c r="C8" s="7" t="s">
         <v>141</v>
       </c>
@@ -4854,11 +4869,11 @@
         <v>70</v>
       </c>
       <c r="H8" s="18" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B9" s="24"/>
+      <c r="B9" s="25"/>
       <c r="C9" s="7" t="s">
         <v>143</v>
       </c>
@@ -4869,11 +4884,11 @@
         <v>72</v>
       </c>
       <c r="H9" s="18" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B10" s="24"/>
+      <c r="B10" s="25"/>
       <c r="C10" s="7" t="s">
         <v>145</v>
       </c>
@@ -4884,11 +4899,11 @@
         <v>71</v>
       </c>
       <c r="H10" s="18" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B11" s="24"/>
+      <c r="B11" s="25"/>
       <c r="C11" s="7" t="s">
         <v>73</v>
       </c>
@@ -4899,11 +4914,11 @@
         <v>77</v>
       </c>
       <c r="H11" s="18" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="12" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="24"/>
+      <c r="B12" s="25"/>
       <c r="C12" s="12" t="s">
         <v>148</v>
       </c>
@@ -4914,11 +4929,11 @@
         <v>58</v>
       </c>
       <c r="H12" s="18" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="24" t="s">
         <v>150</v>
       </c>
       <c r="C14" t="s">
@@ -4931,11 +4946,11 @@
         <v>111</v>
       </c>
       <c r="H14" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B15" s="23"/>
+      <c r="B15" s="24"/>
       <c r="C15" t="s">
         <v>152</v>
       </c>
@@ -4946,11 +4961,11 @@
         <v>112</v>
       </c>
       <c r="H15" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B16" s="23"/>
+      <c r="B16" s="24"/>
       <c r="C16" t="s">
         <v>153</v>
       </c>
@@ -4961,11 +4976,11 @@
         <v>113</v>
       </c>
       <c r="H16" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B17" s="23"/>
+      <c r="B17" s="24"/>
       <c r="C17" t="s">
         <v>154</v>
       </c>
@@ -4976,11 +4991,11 @@
         <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B18" s="23"/>
+      <c r="B18" s="24"/>
       <c r="C18" t="s">
         <v>155</v>
       </c>
@@ -4991,11 +5006,11 @@
         <v>78</v>
       </c>
       <c r="H18" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B19" s="23"/>
+      <c r="B19" s="24"/>
       <c r="C19" t="s">
         <v>156</v>
       </c>
@@ -5006,11 +5021,11 @@
         <v>121</v>
       </c>
       <c r="H19" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B20" s="23"/>
+      <c r="B20" s="24"/>
       <c r="C20" t="s">
         <v>157</v>
       </c>
@@ -5025,7 +5040,7 @@
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B21" s="23"/>
+      <c r="B21" s="24"/>
       <c r="C21" t="s">
         <v>158</v>
       </c>
@@ -5036,11 +5051,11 @@
         <v>15</v>
       </c>
       <c r="H21" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B22" s="23"/>
+      <c r="B22" s="24"/>
       <c r="C22" t="s">
         <v>159</v>
       </c>
@@ -5055,7 +5070,7 @@
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B23" s="23"/>
+      <c r="B23" s="24"/>
       <c r="C23" t="s">
         <v>160</v>
       </c>
@@ -5066,11 +5081,11 @@
         <v>16</v>
       </c>
       <c r="H23" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B24" s="23"/>
+      <c r="B24" s="24"/>
       <c r="C24" t="s">
         <v>161</v>
       </c>
@@ -5085,7 +5100,7 @@
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B25" s="23"/>
+      <c r="B25" s="24"/>
       <c r="C25" t="s">
         <v>162</v>
       </c>
@@ -5096,11 +5111,11 @@
         <v>17</v>
       </c>
       <c r="H25" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B26" s="23"/>
+      <c r="B26" s="24"/>
       <c r="C26" t="s">
         <v>19</v>
       </c>
@@ -5115,7 +5130,7 @@
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B27" s="23"/>
+      <c r="B27" s="24"/>
       <c r="C27" t="s">
         <v>20</v>
       </c>
@@ -5126,11 +5141,11 @@
         <v>18</v>
       </c>
       <c r="H27" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B28" s="23"/>
+      <c r="B28" s="24"/>
       <c r="C28" t="s">
         <v>21</v>
       </c>
@@ -5145,7 +5160,7 @@
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B29" s="23"/>
+      <c r="B29" s="24"/>
       <c r="C29" t="s">
         <v>22</v>
       </c>
@@ -5160,7 +5175,7 @@
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B30" s="23"/>
+      <c r="B30" s="24"/>
       <c r="C30" t="s">
         <v>24</v>
       </c>
@@ -5175,7 +5190,7 @@
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B31" s="23"/>
+      <c r="B31" s="24"/>
       <c r="C31" t="s">
         <v>26</v>
       </c>
@@ -5186,11 +5201,11 @@
         <v>118</v>
       </c>
       <c r="H31" t="s">
-        <v>461</v>
+        <v>490</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B32" s="23"/>
+      <c r="B32" s="24"/>
       <c r="C32" t="s">
         <v>27</v>
       </c>
@@ -5201,11 +5216,11 @@
         <v>119</v>
       </c>
       <c r="H32" t="s">
-        <v>461</v>
+        <v>490</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B33" s="23"/>
+      <c r="B33" s="24"/>
       <c r="C33" t="s">
         <v>29</v>
       </c>
@@ -5216,11 +5231,11 @@
         <v>120</v>
       </c>
       <c r="H33" t="s">
-        <v>461</v>
+        <v>490</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B34" s="23"/>
+      <c r="B34" s="24"/>
       <c r="C34" t="s">
         <v>30</v>
       </c>
@@ -5231,11 +5246,11 @@
         <v>454</v>
       </c>
       <c r="H34" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B35" s="23"/>
+      <c r="B35" s="24"/>
       <c r="C35" t="s">
         <v>32</v>
       </c>
@@ -5246,11 +5261,11 @@
         <v>455</v>
       </c>
       <c r="H35" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B36" s="23"/>
+      <c r="B36" s="24"/>
       <c r="C36" t="s">
         <v>34</v>
       </c>
@@ -5261,11 +5276,11 @@
         <v>456</v>
       </c>
       <c r="H36" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B38" s="23" t="s">
+      <c r="B38" s="24" t="s">
         <v>36</v>
       </c>
       <c r="C38" s="3" t="s">
@@ -5275,14 +5290,14 @@
         <v>81</v>
       </c>
       <c r="G38" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H38" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B39" s="23"/>
+      <c r="B39" s="24"/>
       <c r="C39" s="3" t="s">
         <v>38</v>
       </c>
@@ -5290,14 +5305,14 @@
         <v>39</v>
       </c>
       <c r="G39" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H39" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B40" s="23"/>
+      <c r="B40" s="24"/>
       <c r="C40" s="3" t="s">
         <v>40</v>
       </c>
@@ -5305,14 +5320,14 @@
         <v>41</v>
       </c>
       <c r="G40" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H40" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B41" s="23"/>
+      <c r="B41" s="24"/>
       <c r="C41" s="3" t="s">
         <v>82</v>
       </c>
@@ -5320,14 +5335,14 @@
         <v>83</v>
       </c>
       <c r="G41" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H41" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B42" s="23"/>
+      <c r="B42" s="24"/>
       <c r="C42" s="3" t="s">
         <v>274</v>
       </c>
@@ -5335,14 +5350,14 @@
         <v>42</v>
       </c>
       <c r="G42" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H42" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B43" s="23"/>
+      <c r="B43" s="24"/>
       <c r="C43" s="3" t="s">
         <v>275</v>
       </c>
@@ -5353,11 +5368,11 @@
         <v>80</v>
       </c>
       <c r="H43" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B44" s="23"/>
+      <c r="B44" s="24"/>
       <c r="C44" s="3" t="s">
         <v>43</v>
       </c>
@@ -5365,14 +5380,14 @@
         <v>43</v>
       </c>
       <c r="G44" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H44" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B45" s="23"/>
+      <c r="B45" s="24"/>
       <c r="C45" s="3" t="s">
         <v>193</v>
       </c>
@@ -5380,372 +5395,384 @@
         <v>193</v>
       </c>
       <c r="G45" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H45" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B47" s="23" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B46" s="23"/>
+      <c r="C46" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="H46" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B48" s="24" t="s">
         <v>194</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="C48" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="E47" t="s">
+      <c r="E48" t="s">
         <v>196</v>
       </c>
-      <c r="G47" t="s">
+      <c r="G48" t="s">
         <v>1</v>
       </c>
-      <c r="H47" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B48" s="23"/>
-      <c r="C48" s="3" t="s">
+      <c r="H48" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B49" s="24"/>
+      <c r="C49" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="E48" t="s">
+      <c r="E49" t="s">
         <v>198</v>
       </c>
-      <c r="G48" t="s">
+      <c r="G49" t="s">
         <v>0</v>
       </c>
-      <c r="H48" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B49" s="23"/>
-      <c r="C49" s="3" t="s">
+      <c r="H49" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B50" s="24"/>
+      <c r="C50" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="E49" t="s">
+      <c r="E50" t="s">
         <v>200</v>
       </c>
-      <c r="G49" t="s">
+      <c r="G50" t="s">
         <v>2</v>
       </c>
-      <c r="H49" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B50" s="23"/>
-      <c r="C50" s="3" t="s">
+      <c r="H50" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B51" s="24"/>
+      <c r="C51" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="E50" t="s">
+      <c r="E51" t="s">
         <v>3</v>
       </c>
-      <c r="G50" t="s">
+      <c r="G51" t="s">
         <v>49</v>
       </c>
-      <c r="H50" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B51" s="23"/>
-      <c r="C51" s="3" t="s">
+      <c r="H51" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B52" s="24"/>
+      <c r="C52" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="E51" t="s">
+      <c r="E52" t="s">
         <v>203</v>
       </c>
-      <c r="G51" t="s">
+      <c r="G52" t="s">
         <v>76</v>
       </c>
-      <c r="H51" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B52" s="23"/>
-      <c r="C52" s="3" t="s">
+      <c r="H52" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B53" s="24"/>
+      <c r="C53" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="E52" t="s">
+      <c r="E53" t="s">
         <v>53</v>
       </c>
-      <c r="G52" t="s">
+      <c r="G53" t="s">
         <v>57</v>
       </c>
-      <c r="H52" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B53" s="23"/>
-      <c r="C53" s="3" t="s">
+      <c r="H53" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B54" s="24"/>
+      <c r="C54" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="E53" t="s">
+      <c r="E54" t="s">
         <v>206</v>
       </c>
-      <c r="G53" t="s">
+      <c r="G54" t="s">
         <v>4</v>
       </c>
-      <c r="H53" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B54" s="23"/>
-      <c r="C54" s="3" t="s">
+      <c r="H54" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B55" s="24"/>
+      <c r="C55" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="E54" s="20" t="s">
+      <c r="E55" s="20" t="s">
         <v>208</v>
       </c>
-      <c r="G54" t="s">
+      <c r="G55" t="s">
         <v>5</v>
       </c>
-      <c r="H54" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B55" s="23"/>
-      <c r="C55" s="3" t="s">
+      <c r="H55" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B56" s="24"/>
+      <c r="C56" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="E55" s="20" t="s">
+      <c r="E56" s="20" t="s">
         <v>210</v>
       </c>
-      <c r="G55" t="s">
+      <c r="G56" t="s">
         <v>6</v>
       </c>
-      <c r="H55" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B56" s="23"/>
-      <c r="C56" s="3" t="s">
+      <c r="H56" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B57" s="24"/>
+      <c r="C57" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="E56" s="20" t="s">
+      <c r="E57" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="G56" t="s">
+      <c r="G57" t="s">
         <v>48</v>
       </c>
-      <c r="H56" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B57" s="23"/>
-      <c r="C57" s="3" t="s">
+      <c r="H57" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B58" s="24"/>
+      <c r="C58" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="E57" s="20" t="s">
+      <c r="E58" s="20" t="s">
         <v>213</v>
       </c>
-      <c r="G57" t="s">
+      <c r="G58" t="s">
         <v>7</v>
       </c>
-      <c r="H57" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B58" s="23"/>
-      <c r="C58" s="3" t="s">
+      <c r="H58" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B59" s="24"/>
+      <c r="C59" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="E58" s="20" t="s">
+      <c r="E59" s="20" t="s">
         <v>215</v>
       </c>
-      <c r="G58" t="s">
+      <c r="G59" t="s">
         <v>63</v>
       </c>
-      <c r="H58" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B59" s="23"/>
-      <c r="C59" s="3" t="s">
+      <c r="H59" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B60" s="24"/>
+      <c r="C60" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="E59" t="s">
+      <c r="E60" t="s">
         <v>217</v>
       </c>
-      <c r="G59" t="s">
+      <c r="G60" t="s">
         <v>54</v>
       </c>
-      <c r="H59" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B60" s="23"/>
-      <c r="C60" s="3" t="s">
+      <c r="H60" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B61" s="24"/>
+      <c r="C61" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E60" t="s">
+      <c r="E61" t="s">
         <v>9</v>
       </c>
-      <c r="G60" t="s">
+      <c r="G61" t="s">
         <v>55</v>
       </c>
-      <c r="H60" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B61" s="23"/>
-      <c r="C61" s="3" t="s">
+      <c r="H61" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B62" s="24"/>
+      <c r="C62" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E61" t="s">
+      <c r="E62" t="s">
         <v>11</v>
       </c>
-      <c r="G61" t="s">
+      <c r="G62" t="s">
         <v>52</v>
       </c>
-      <c r="H61" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B62" s="23"/>
-      <c r="C62" s="3" t="s">
+      <c r="H62" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="63" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B63" s="24"/>
+      <c r="C63" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E62" t="s">
+      <c r="E63" t="s">
         <v>13</v>
       </c>
-      <c r="G62" t="s">
+      <c r="G63" t="s">
         <v>51</v>
       </c>
-      <c r="H62" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B63" s="23"/>
-      <c r="C63" s="3" t="s">
+      <c r="H63" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="64" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B64" s="24"/>
+      <c r="C64" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E63" t="s">
+      <c r="E64" t="s">
         <v>98</v>
       </c>
-      <c r="G63" t="s">
+      <c r="G64" t="s">
         <v>56</v>
       </c>
-      <c r="H63" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B64" s="23"/>
-      <c r="C64" s="3" t="s">
+      <c r="H64" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="65" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B65" s="24"/>
+      <c r="C65" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E64" s="20" t="s">
+      <c r="E65" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="G64" t="s">
+      <c r="G65" t="s">
         <v>44</v>
       </c>
-      <c r="H64" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B65" s="23"/>
-      <c r="C65" s="3" t="s">
+      <c r="H65" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="66" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B66" s="24"/>
+      <c r="C66" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="E65" s="20" t="s">
+      <c r="E66" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="G65" t="s">
+      <c r="G66" t="s">
         <v>61</v>
       </c>
-      <c r="H65" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B66" s="23"/>
-      <c r="C66" s="3" t="s">
+      <c r="H66" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="67" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B67" s="24"/>
+      <c r="C67" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="E66" s="20" t="s">
+      <c r="E67" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="G66" t="s">
+      <c r="G67" t="s">
         <v>62</v>
       </c>
-      <c r="H66" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B67" s="23"/>
-      <c r="C67" s="3" t="s">
+      <c r="H67" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="68" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B68" s="24"/>
+      <c r="C68" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="E67" s="20" t="s">
+      <c r="E68" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="G67" t="s">
+      <c r="G68" t="s">
         <v>60</v>
       </c>
-      <c r="H67" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B68" s="23"/>
-      <c r="C68" s="3" t="s">
+      <c r="H68" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="69" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B69" s="24"/>
+      <c r="C69" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="E68" s="20" t="s">
+      <c r="E69" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="G68" t="s">
+      <c r="G69" t="s">
         <v>50</v>
       </c>
-      <c r="H68" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B69" s="23"/>
-      <c r="C69" s="3" t="s">
+      <c r="H69" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="70" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B70" s="24"/>
+      <c r="C70" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="E69" s="20" t="s">
+      <c r="E70" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="G69" t="s">
+      <c r="G70" t="s">
         <v>59</v>
       </c>
-      <c r="H69" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="70" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B70" s="23"/>
-      <c r="C70" s="3" t="s">
+      <c r="H70" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="71" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B71" s="24"/>
+      <c r="C71" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="E70" s="20" t="s">
+      <c r="E71" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="G70" t="s">
+      <c r="G71" t="s">
         <v>45</v>
       </c>
-      <c r="H70" t="s">
-        <v>473</v>
+      <c r="H71" t="s">
+        <v>472</v>
       </c>
     </row>
   </sheetData>
@@ -5753,7 +5780,7 @@
     <mergeCell ref="B4:B12"/>
     <mergeCell ref="B14:B36"/>
     <mergeCell ref="B38:B45"/>
-    <mergeCell ref="B47:B70"/>
+    <mergeCell ref="B48:B71"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/gd/美术需求文档/UI相关/Icon需求.xlsx
+++ b/gd/美术需求文档/UI相关/Icon需求.xlsx
@@ -1,19 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="26124"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Headstreams/Documents/10.21.2.47/gd/美术需求文档/UI相关/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="28605" yWindow="15" windowWidth="28635" windowHeight="12735" activeTab="2"/>
+    <workbookView xWindow="4880" yWindow="500" windowWidth="29380" windowHeight="18620" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ICON需求及分类" sheetId="1" r:id="rId1"/>
     <sheet name="ICON风格参考" sheetId="2" r:id="rId2"/>
     <sheet name="物品道具翻译需求" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
@@ -21,40 +26,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="494">
-  <si>
-    <t>Rugged Belt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rugged Glove</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rugged Armor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="531">
   <si>
     <t>坚固的护腕</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Spiked Glove</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Spiked Belt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Spiked Armor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Spiked Ring</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>法术型护腰(1档)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -83,22 +60,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Deadwood Key</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rusted Key</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Gleaming Key</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Golden Key</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>黄金宝箱</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -199,86 +164,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Arcane Rune</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Blessing Rune</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Normal EXP Scroll</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>荆牙手镯</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Spiked Band</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rugged Bracer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sacred Band</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mystic Band</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mystic Hood</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>玄武护符</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Mystic Gloves</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mystic Belt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mystic Ring</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Guardian Rune</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Morbid Stone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sacred Ring</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sacred Robe</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sacred Gloves</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sacred Belt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Savage Rune</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>法术型护身符(1档)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -287,63 +180,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Blood Stone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Vitality Stone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sage Stone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bastion Stone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Haste Stone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Volatile Stone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mending Stone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>能量宝石</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rusted Chest</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Deadwood Chest</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rugged Ring</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Source Stone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Great EXP Scroll</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lucky Draw Ticket</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gem Socketing Chisel</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -531,22 +368,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Small EXP Potion</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Medium EXP Potion</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Large EXP Potion</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Raid Ticket</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Gleaming Chest</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -555,23 +376,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Core Fragments</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Wicked Crux</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Wicked Pelt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wicked Nails</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Boundless EXP Scroll</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1841,10 +1650,323 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>游戏自然产出的宝箱,开启获得产出物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>传说中的万能碎片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以用来开启[白银宝箱]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备进阶材料2碎片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进阶卷轴碎片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Blood Stone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝石镶嵌 提高体力XX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Embed to increase STA by XX.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vitality Stone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝石镶嵌 提高力量XX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Embed to increase STR by XX.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sage Stone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝石镶嵌 提高智力XX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Embed to increase INT by XX.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bastion Stone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝石镶嵌 提高防御XX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Embed to increase DEF by XX.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Haste Stone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝石镶嵌 提高速度XX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Embed to increase SPD by XX.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mending Stone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝石镶嵌 提高受治疗加成XX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Embed to increase Heal bonus by XX.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Volatile Stone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝石镶嵌 提高暴击率XX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Embed to increase Crit Rate by XX.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Source Stone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝石镶嵌 提高前置能量XX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Embed to increase start PWR by XX.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Morbid Stone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝石镶嵌 提高暴击伤害XX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Embed to increase Crit DMG by XX.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Small EXP Potion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物经验提升 XX点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Increases a monster's EXP by XX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Medium EXP Potion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Large EXP Potion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normal EXP Scroll</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>宠物经验</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>XX%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>倍率获得提升</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Increases a monster's EXP rate by XX%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Great EXP Scroll</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物经验XX%倍率获得提升</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boundless EXP Scroll</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deadwood Chest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏自然产出的宝箱,开启获得产出物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A chest produced by the game. Open it to receive its contents.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deadwood Key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以用来开启[木质宝箱]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Used to open a Deadwood Chest.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rusted Chest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rusted Key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以用来开启[黑铁宝箱]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Used to open a Rusted Chest.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A chest produced by the game. Open it to receive its contents.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Used to open a Gleaming Chest.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Golden Key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以用来开启[黄金宝箱]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Used to open a Golden Strongbox.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Raid Ticket</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扫荡副本的凭证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Voucher used to pass a stage battle.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lucky Draw Ticket</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以代替一次抽奖消耗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Used for a chance in the Lucky Draw.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Core Fragments</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The legendary Core Fragment!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>还是拿去换钱好些</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Might be a good idea to sell this one…</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wicked Nails</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>还是拿去换钱好些</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Might be a good idea to sell this one…</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>Energy Cookies(Small)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>恢复人物活力值道具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A tasty cookie... Good for Energy!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>Energy Cookies(Medium)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1853,51 +1975,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>游戏自然产出的宝箱,开启获得产出物</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>扫荡副本的凭证</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可以代替一次抽奖消耗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>传说中的万能碎片</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>恢复玩家人物活力值道具</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>standard  upgrade stone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>basic upgrade stone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>superior  upgrade stone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Advanced scroll</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>monster upgrade stone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>monster advanced stone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Advanced stone</t>
+    <t>Basic Upgrade Stone</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1905,99 +1983,195 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Used for equipment upgrades.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Standard Upgrade Stone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Superior Upgrade Stone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Advancement Stone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>装备进阶</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Advancement Scroll</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gem Socketing Chisel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>宝石镶嵌孔</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Used for opening Gem Sockets.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monster Upgrade Stone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物强化材料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monster upgrade material.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monster Advancement Stone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物进阶材料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monster advancement material.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Advancement Scroll Fragment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以合成装备进阶卷轴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Used to combine into an Advancement Scroll.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rugged Glove</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>宠物穿戴</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>宠物强化材料</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宠物进阶材料</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宝石镶嵌 提高力量XX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宝石镶嵌 提高血量XX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宝石镶嵌 提高智慧XX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宝石镶嵌 提高防御XX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宝石镶嵌 提高速度XX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宝石镶嵌 提高恢复度XX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宝石镶嵌 提高暴击率XX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宝石镶嵌 提高能量XX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宝石镶嵌 提高暴击伤害XX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宠物经验提升 XX点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宠物经验XX%倍率获得提升</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可以用来开启[黑铁宝箱]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可以用来开启[木质宝箱]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可以用来开启[白银宝箱]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可以用来开启[黄金宝箱]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>还是拿去去换钱好些</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>装备进阶材料2碎片</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>进阶卷轴碎片</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可以合成装备进阶卷轴</t>
+    <t>Worn by monsters.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rugged Belt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rugged Armor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rugged Bracer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rugged Ring</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Guardian Rune</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spiked Glove</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spiked Belt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spiked Armor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spiked Band</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spiked Ring</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Savage Rune</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mystic Gloves</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物穿戴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Worn by monsters.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mystic Belt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mystic Hood</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mystic Band</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mystic Ring</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物穿戴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Worn by monsters.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Arcane Rune</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sacred Gloves</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sacred Belt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sacred Robe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sacred Band</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sacred Ring</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Blessing Rune</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2005,7 +2179,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2019,6 +2193,17 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -2222,7 +2407,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2261,12 +2446,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2571,7 +2757,7 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" outlineLevelRow="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" outlineLevelRow="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="19.5" customWidth="1"/>
     <col min="10" max="10" width="23.5" bestFit="1" customWidth="1"/>
@@ -2579,178 +2765,178 @@
   <sheetData>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="C3" t="s">
-        <v>405</v>
+        <v>356</v>
       </c>
       <c r="K3" s="18"/>
       <c r="L3" t="s">
-        <v>253</v>
+        <v>204</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="D4" t="s">
-        <v>430</v>
+        <v>381</v>
       </c>
       <c r="K4" s="14"/>
       <c r="L4" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="14.25" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="F5" t="s">
-        <v>429</v>
+        <v>380</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="35.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="D6" s="5" t="s">
-        <v>419</v>
+        <v>370</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="6" t="s">
-        <v>420</v>
+        <v>371</v>
       </c>
       <c r="G6" s="6"/>
       <c r="H6" s="6" t="s">
-        <v>421</v>
+        <v>372</v>
       </c>
       <c r="I6" s="15" t="s">
-        <v>422</v>
+        <v>373</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="35.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="D7" s="22" t="s">
-        <v>255</v>
+        <v>206</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
-        <v>326</v>
+        <v>277</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1" t="s">
-        <v>415</v>
+        <v>366</v>
       </c>
       <c r="I7" s="16" t="s">
-        <v>327</v>
+        <v>278</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="31.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A8" s="21" t="s">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>417</v>
+        <v>368</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1" t="s">
-        <v>414</v>
+        <v>365</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1" t="s">
-        <v>416</v>
+        <v>367</v>
       </c>
       <c r="I8" s="16" t="s">
-        <v>418</v>
+        <v>369</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="D9" s="8" t="s">
-        <v>425</v>
+        <v>376</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="2" t="s">
-        <v>426</v>
+        <v>377</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="2" t="s">
-        <v>427</v>
+        <v>378</v>
       </c>
       <c r="I9" s="16" t="s">
-        <v>428</v>
+        <v>379</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="36.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A10" s="21" t="s">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>449</v>
+        <v>400</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1" t="s">
-        <v>447</v>
+        <v>398</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1" t="s">
-        <v>451</v>
+        <v>402</v>
       </c>
       <c r="I10" s="16" t="s">
-        <v>448</v>
+        <v>399</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="32.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="D11" s="7" t="s">
-        <v>424</v>
+        <v>375</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1" t="s">
-        <v>423</v>
+        <v>374</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1" t="s">
-        <v>441</v>
+        <v>392</v>
       </c>
       <c r="I11" s="16" t="s">
-        <v>442</v>
+        <v>393</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="42.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="D12" s="7" t="s">
-        <v>452</v>
+        <v>403</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1" t="s">
-        <v>264</v>
+        <v>215</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1" t="s">
-        <v>450</v>
+        <v>401</v>
       </c>
       <c r="I12" s="16" t="s">
-        <v>268</v>
+        <v>219</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="37.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="D13" s="7" t="s">
-        <v>265</v>
+        <v>216</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1" t="s">
-        <v>266</v>
+        <v>217</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1" t="s">
-        <v>269</v>
+        <v>220</v>
       </c>
       <c r="I13" s="16" t="s">
-        <v>267</v>
+        <v>218</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="46.5" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A14" s="21" t="s">
-        <v>92</v>
+        <v>50</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>271</v>
+        <v>222</v>
       </c>
       <c r="E14" s="10"/>
       <c r="F14" s="9" t="s">
-        <v>270</v>
+        <v>221</v>
       </c>
       <c r="G14" s="10"/>
       <c r="H14" s="10" t="s">
-        <v>272</v>
+        <v>223</v>
       </c>
       <c r="I14" s="17" t="s">
-        <v>268</v>
+        <v>219</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.15">
@@ -2763,39 +2949,39 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="C16" t="s">
-        <v>406</v>
+        <v>357</v>
       </c>
     </row>
     <row r="17" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="D17" t="s">
-        <v>411</v>
+        <v>362</v>
       </c>
     </row>
     <row r="18" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="E18" t="s">
-        <v>434</v>
+        <v>385</v>
       </c>
       <c r="G18">
         <v>60</v>
       </c>
       <c r="I18" t="s">
-        <v>328</v>
+        <v>279</v>
       </c>
     </row>
     <row r="19" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="E19" t="s">
-        <v>433</v>
+        <v>384</v>
       </c>
       <c r="G19">
         <v>360</v>
       </c>
       <c r="I19" t="s">
-        <v>243</v>
+        <v>194</v>
       </c>
     </row>
     <row r="20" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="E20" t="s">
-        <v>443</v>
+        <v>394</v>
       </c>
       <c r="G20">
         <v>1200</v>
@@ -2805,29 +2991,29 @@
     <row r="22" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.15"/>
     <row r="23" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="D23" t="s">
-        <v>412</v>
+        <v>363</v>
       </c>
       <c r="G23" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="54" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="56" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A24" s="21" t="s">
-        <v>309</v>
+        <v>260</v>
       </c>
       <c r="E24" t="s">
-        <v>432</v>
+        <v>383</v>
       </c>
       <c r="G24" s="11">
         <v>1.5</v>
       </c>
       <c r="I24" t="s">
-        <v>93</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="E25" t="s">
-        <v>96</v>
+        <v>54</v>
       </c>
       <c r="G25" s="11">
         <v>2</v>
@@ -2835,7 +3021,7 @@
     </row>
     <row r="26" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="E26" t="s">
-        <v>97</v>
+        <v>55</v>
       </c>
       <c r="G26" s="11">
         <v>3</v>
@@ -2843,1875 +3029,1875 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C28" t="s">
-        <v>407</v>
+        <v>358</v>
       </c>
     </row>
     <row r="29" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="D29" t="s">
-        <v>238</v>
+        <v>189</v>
       </c>
     </row>
     <row r="30" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="E30" s="18" t="s">
-        <v>408</v>
+        <v>359</v>
       </c>
       <c r="F30" t="s">
-        <v>240</v>
+        <v>191</v>
       </c>
       <c r="G30" t="s">
-        <v>239</v>
+        <v>190</v>
       </c>
     </row>
     <row r="31" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="E31" s="18" t="s">
-        <v>408</v>
+        <v>359</v>
       </c>
       <c r="F31" t="s">
-        <v>241</v>
+        <v>192</v>
       </c>
     </row>
     <row r="32" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="E32" s="18" t="s">
-        <v>408</v>
+        <v>359</v>
       </c>
       <c r="F32" t="s">
-        <v>242</v>
+        <v>193</v>
       </c>
     </row>
     <row r="33" spans="3:7" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="E33" s="18" t="s">
-        <v>409</v>
+        <v>360</v>
       </c>
       <c r="F33" t="s">
-        <v>240</v>
+        <v>191</v>
       </c>
       <c r="G33" t="s">
-        <v>413</v>
+        <v>364</v>
       </c>
     </row>
     <row r="34" spans="3:7" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="E34" s="18" t="s">
-        <v>244</v>
+        <v>195</v>
       </c>
       <c r="F34" t="s">
-        <v>241</v>
+        <v>192</v>
       </c>
     </row>
     <row r="35" spans="3:7" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="E35" s="18" t="s">
-        <v>244</v>
+        <v>195</v>
       </c>
       <c r="F35" t="s">
-        <v>242</v>
+        <v>193</v>
       </c>
     </row>
     <row r="36" spans="3:7" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="E36" s="18" t="s">
-        <v>410</v>
+        <v>361</v>
       </c>
       <c r="F36" t="s">
-        <v>240</v>
+        <v>191</v>
       </c>
       <c r="G36" t="s">
-        <v>431</v>
+        <v>382</v>
       </c>
     </row>
     <row r="37" spans="3:7" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="E37" s="18" t="s">
-        <v>410</v>
+        <v>361</v>
       </c>
       <c r="F37" t="s">
-        <v>241</v>
+        <v>192</v>
       </c>
     </row>
     <row r="38" spans="3:7" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="E38" s="18" t="s">
-        <v>410</v>
+        <v>361</v>
       </c>
       <c r="F38" t="s">
-        <v>242</v>
+        <v>193</v>
       </c>
     </row>
     <row r="39" spans="3:7" outlineLevel="1" x14ac:dyDescent="0.15"/>
     <row r="40" spans="3:7" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C40" t="s">
-        <v>292</v>
+        <v>243</v>
       </c>
     </row>
     <row r="41" spans="3:7" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="E41" s="18" t="s">
-        <v>293</v>
+        <v>244</v>
       </c>
       <c r="F41" t="s">
-        <v>294</v>
+        <v>245</v>
       </c>
     </row>
     <row r="42" spans="3:7" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="E42" s="18" t="s">
-        <v>295</v>
+        <v>246</v>
       </c>
       <c r="F42" t="s">
-        <v>296</v>
+        <v>247</v>
       </c>
     </row>
     <row r="43" spans="3:7" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="E43" s="18" t="s">
-        <v>297</v>
+        <v>248</v>
       </c>
       <c r="F43" t="s">
-        <v>298</v>
+        <v>249</v>
       </c>
     </row>
     <row r="44" spans="3:7" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="E44" s="18" t="s">
-        <v>299</v>
+        <v>250</v>
       </c>
       <c r="F44" t="s">
-        <v>300</v>
+        <v>251</v>
       </c>
     </row>
     <row r="45" spans="3:7" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="E45" s="18" t="s">
-        <v>301</v>
+        <v>252</v>
       </c>
       <c r="F45" t="s">
-        <v>302</v>
+        <v>253</v>
       </c>
     </row>
     <row r="46" spans="3:7" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="E46" s="18" t="s">
-        <v>303</v>
+        <v>254</v>
       </c>
       <c r="F46" t="s">
-        <v>304</v>
+        <v>255</v>
       </c>
     </row>
     <row r="47" spans="3:7" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="E47" s="18" t="s">
-        <v>305</v>
+        <v>256</v>
       </c>
       <c r="F47" t="s">
-        <v>306</v>
+        <v>257</v>
       </c>
     </row>
     <row r="48" spans="3:7" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="E48" s="18" t="s">
-        <v>307</v>
+        <v>258</v>
       </c>
       <c r="F48" t="s">
-        <v>308</v>
+        <v>259</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C49" t="s">
-        <v>435</v>
+        <v>386</v>
       </c>
       <c r="J49" t="s">
-        <v>437</v>
+        <v>388</v>
       </c>
     </row>
     <row r="50" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C50" s="24" t="s">
-        <v>258</v>
+        <v>209</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>331</v>
+        <v>282</v>
       </c>
       <c r="F50" t="s">
-        <v>335</v>
+        <v>286</v>
       </c>
       <c r="J50" t="s">
-        <v>261</v>
+        <v>212</v>
       </c>
     </row>
     <row r="51" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A51" s="19"/>
       <c r="C51" s="24"/>
       <c r="D51" s="13" t="s">
-        <v>332</v>
+        <v>283</v>
       </c>
       <c r="E51" s="14"/>
       <c r="F51" s="14" t="s">
-        <v>444</v>
+        <v>395</v>
       </c>
       <c r="G51" s="14"/>
       <c r="H51" s="14"/>
       <c r="I51" s="14"/>
       <c r="J51" s="14" t="s">
-        <v>436</v>
+        <v>387</v>
       </c>
     </row>
     <row r="52" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A52" s="19"/>
       <c r="C52" s="24"/>
       <c r="D52" s="13" t="s">
-        <v>333</v>
+        <v>284</v>
       </c>
       <c r="E52" s="14"/>
       <c r="F52" s="14" t="s">
-        <v>445</v>
+        <v>396</v>
       </c>
       <c r="G52" s="14"/>
       <c r="H52" s="14"/>
       <c r="I52" s="14"/>
       <c r="J52" s="14" t="s">
-        <v>436</v>
+        <v>387</v>
       </c>
     </row>
     <row r="53" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C53" s="24"/>
       <c r="D53" s="13" t="s">
-        <v>334</v>
+        <v>285</v>
       </c>
       <c r="E53" s="14"/>
       <c r="F53" s="14" t="s">
-        <v>446</v>
+        <v>397</v>
       </c>
       <c r="G53" s="14"/>
       <c r="H53" s="14"/>
       <c r="I53" s="14"/>
       <c r="J53" s="14" t="s">
-        <v>436</v>
+        <v>387</v>
       </c>
     </row>
     <row r="54" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C54" s="24"/>
       <c r="D54" s="3" t="s">
-        <v>336</v>
+        <v>287</v>
       </c>
       <c r="F54" t="s">
-        <v>337</v>
+        <v>288</v>
       </c>
       <c r="J54" t="s">
-        <v>261</v>
+        <v>212</v>
       </c>
     </row>
     <row r="55" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C55" s="24"/>
       <c r="D55" s="13" t="s">
-        <v>338</v>
+        <v>289</v>
       </c>
       <c r="E55" s="14"/>
       <c r="F55" s="14" t="s">
-        <v>444</v>
+        <v>395</v>
       </c>
       <c r="G55" s="14"/>
       <c r="H55" s="14"/>
       <c r="I55" s="14"/>
       <c r="J55" s="14" t="s">
-        <v>436</v>
+        <v>387</v>
       </c>
     </row>
     <row r="56" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C56" s="24"/>
       <c r="D56" s="13" t="s">
-        <v>339</v>
+        <v>290</v>
       </c>
       <c r="E56" s="14"/>
       <c r="F56" s="14" t="s">
-        <v>445</v>
+        <v>396</v>
       </c>
       <c r="G56" s="14"/>
       <c r="H56" s="14"/>
       <c r="I56" s="14"/>
       <c r="J56" s="14" t="s">
-        <v>436</v>
+        <v>387</v>
       </c>
     </row>
     <row r="57" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C57" s="24"/>
       <c r="D57" s="13" t="s">
-        <v>340</v>
+        <v>291</v>
       </c>
       <c r="E57" s="14"/>
       <c r="F57" s="14" t="s">
-        <v>446</v>
+        <v>397</v>
       </c>
       <c r="G57" s="14"/>
       <c r="H57" s="14"/>
       <c r="I57" s="14"/>
       <c r="J57" s="14" t="s">
-        <v>436</v>
+        <v>387</v>
       </c>
     </row>
     <row r="58" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C58" s="24"/>
       <c r="D58" s="3" t="s">
-        <v>341</v>
+        <v>292</v>
       </c>
       <c r="F58" t="s">
-        <v>345</v>
+        <v>296</v>
       </c>
       <c r="J58" t="s">
-        <v>261</v>
+        <v>212</v>
       </c>
     </row>
     <row r="59" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C59" s="24"/>
       <c r="D59" s="13" t="s">
-        <v>342</v>
+        <v>293</v>
       </c>
       <c r="E59" s="14"/>
       <c r="F59" s="14" t="s">
-        <v>346</v>
+        <v>297</v>
       </c>
       <c r="G59" s="14"/>
       <c r="H59" s="14"/>
       <c r="I59" s="14"/>
       <c r="J59" s="14" t="s">
-        <v>436</v>
+        <v>387</v>
       </c>
     </row>
     <row r="60" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C60" s="24"/>
       <c r="D60" s="13" t="s">
-        <v>343</v>
+        <v>294</v>
       </c>
       <c r="E60" s="14"/>
       <c r="F60" s="14" t="s">
-        <v>445</v>
+        <v>396</v>
       </c>
       <c r="G60" s="14"/>
       <c r="H60" s="14"/>
       <c r="I60" s="14"/>
       <c r="J60" s="14" t="s">
-        <v>436</v>
+        <v>387</v>
       </c>
     </row>
     <row r="61" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C61" s="24"/>
       <c r="D61" s="13" t="s">
-        <v>344</v>
+        <v>295</v>
       </c>
       <c r="E61" s="14"/>
       <c r="F61" s="14" t="s">
-        <v>446</v>
+        <v>397</v>
       </c>
       <c r="G61" s="14"/>
       <c r="H61" s="14"/>
       <c r="I61" s="14"/>
       <c r="J61" s="14" t="s">
-        <v>436</v>
+        <v>387</v>
       </c>
     </row>
     <row r="62" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C62" s="24"/>
       <c r="D62" s="3" t="s">
-        <v>347</v>
+        <v>298</v>
       </c>
       <c r="F62" t="s">
-        <v>351</v>
+        <v>302</v>
       </c>
       <c r="J62" t="s">
-        <v>261</v>
+        <v>212</v>
       </c>
     </row>
     <row r="63" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C63" s="24"/>
       <c r="D63" s="13" t="s">
-        <v>348</v>
+        <v>299</v>
       </c>
       <c r="E63" s="14"/>
       <c r="F63" s="14" t="s">
-        <v>444</v>
+        <v>395</v>
       </c>
       <c r="G63" s="14"/>
       <c r="H63" s="14"/>
       <c r="I63" s="14"/>
       <c r="J63" s="14" t="s">
-        <v>436</v>
+        <v>387</v>
       </c>
     </row>
     <row r="64" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C64" s="24"/>
       <c r="D64" s="13" t="s">
-        <v>349</v>
+        <v>300</v>
       </c>
       <c r="E64" s="14"/>
       <c r="F64" s="14" t="s">
-        <v>445</v>
+        <v>396</v>
       </c>
       <c r="G64" s="14"/>
       <c r="H64" s="14"/>
       <c r="I64" s="14"/>
       <c r="J64" s="14" t="s">
-        <v>436</v>
+        <v>387</v>
       </c>
     </row>
     <row r="65" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C65" s="24"/>
       <c r="D65" s="13" t="s">
-        <v>350</v>
+        <v>301</v>
       </c>
       <c r="E65" s="14"/>
       <c r="F65" s="14" t="s">
-        <v>446</v>
+        <v>397</v>
       </c>
       <c r="G65" s="14"/>
       <c r="H65" s="14"/>
       <c r="I65" s="14"/>
       <c r="J65" s="14" t="s">
-        <v>436</v>
+        <v>387</v>
       </c>
     </row>
     <row r="66" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C66" s="24"/>
       <c r="D66" s="3" t="s">
-        <v>352</v>
+        <v>303</v>
       </c>
       <c r="F66" t="s">
-        <v>170</v>
+        <v>121</v>
       </c>
       <c r="J66" t="s">
-        <v>261</v>
+        <v>212</v>
       </c>
     </row>
     <row r="67" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C67" s="24"/>
       <c r="D67" s="13" t="s">
-        <v>163</v>
+        <v>114</v>
       </c>
       <c r="E67" s="14"/>
       <c r="F67" s="14" t="s">
-        <v>444</v>
+        <v>395</v>
       </c>
       <c r="G67" s="14"/>
       <c r="H67" s="14"/>
       <c r="I67" s="14"/>
       <c r="J67" s="14" t="s">
-        <v>436</v>
+        <v>387</v>
       </c>
     </row>
     <row r="68" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C68" s="24"/>
       <c r="D68" s="13" t="s">
-        <v>164</v>
+        <v>115</v>
       </c>
       <c r="E68" s="14"/>
       <c r="F68" s="14" t="s">
-        <v>445</v>
+        <v>396</v>
       </c>
       <c r="G68" s="14"/>
       <c r="H68" s="14"/>
       <c r="I68" s="14"/>
       <c r="J68" s="14" t="s">
-        <v>436</v>
+        <v>387</v>
       </c>
     </row>
     <row r="69" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C69" s="24"/>
       <c r="D69" s="13" t="s">
-        <v>165</v>
+        <v>116</v>
       </c>
       <c r="E69" s="14"/>
       <c r="F69" s="14" t="s">
-        <v>446</v>
+        <v>397</v>
       </c>
       <c r="G69" s="14"/>
       <c r="H69" s="14"/>
       <c r="I69" s="14"/>
       <c r="J69" s="14" t="s">
-        <v>436</v>
+        <v>387</v>
       </c>
     </row>
     <row r="70" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C70" s="24"/>
       <c r="D70" s="3" t="s">
-        <v>166</v>
+        <v>117</v>
       </c>
       <c r="F70" t="s">
-        <v>171</v>
+        <v>122</v>
       </c>
       <c r="J70" t="s">
-        <v>261</v>
+        <v>212</v>
       </c>
     </row>
     <row r="71" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C71" s="24"/>
       <c r="D71" s="13" t="s">
-        <v>167</v>
+        <v>118</v>
       </c>
       <c r="E71" s="14"/>
       <c r="F71" s="14" t="s">
-        <v>444</v>
+        <v>395</v>
       </c>
       <c r="G71" s="14"/>
       <c r="H71" s="14"/>
       <c r="I71" s="14"/>
       <c r="J71" s="14" t="s">
-        <v>436</v>
+        <v>387</v>
       </c>
     </row>
     <row r="72" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C72" s="24"/>
       <c r="D72" s="13" t="s">
-        <v>168</v>
+        <v>119</v>
       </c>
       <c r="E72" s="14"/>
       <c r="F72" s="14" t="s">
-        <v>445</v>
+        <v>396</v>
       </c>
       <c r="G72" s="14"/>
       <c r="H72" s="14"/>
       <c r="I72" s="14"/>
       <c r="J72" s="14" t="s">
-        <v>436</v>
+        <v>387</v>
       </c>
     </row>
     <row r="73" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C73" s="24"/>
       <c r="D73" s="13" t="s">
-        <v>169</v>
+        <v>120</v>
       </c>
       <c r="E73" s="14"/>
       <c r="F73" s="14" t="s">
-        <v>446</v>
+        <v>397</v>
       </c>
       <c r="G73" s="14"/>
       <c r="H73" s="14"/>
       <c r="I73" s="14"/>
       <c r="J73" s="14" t="s">
-        <v>436</v>
+        <v>387</v>
       </c>
     </row>
     <row r="74" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C74" s="24" t="s">
-        <v>257</v>
+        <v>208</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>172</v>
+        <v>123</v>
       </c>
       <c r="F74" t="s">
-        <v>180</v>
+        <v>131</v>
       </c>
       <c r="J74" t="s">
-        <v>262</v>
+        <v>213</v>
       </c>
     </row>
     <row r="75" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C75" s="24"/>
       <c r="D75" s="13" t="s">
-        <v>173</v>
+        <v>124</v>
       </c>
       <c r="E75" s="14"/>
       <c r="F75" s="14" t="s">
-        <v>444</v>
+        <v>395</v>
       </c>
       <c r="G75" s="14"/>
       <c r="H75" s="14"/>
       <c r="I75" s="14"/>
       <c r="J75" s="14" t="s">
-        <v>438</v>
+        <v>389</v>
       </c>
     </row>
     <row r="76" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C76" s="24"/>
       <c r="D76" s="13" t="s">
-        <v>174</v>
+        <v>125</v>
       </c>
       <c r="E76" s="14"/>
       <c r="F76" s="14" t="s">
-        <v>445</v>
+        <v>396</v>
       </c>
       <c r="G76" s="14"/>
       <c r="H76" s="14"/>
       <c r="I76" s="14"/>
       <c r="J76" s="14" t="s">
-        <v>438</v>
+        <v>389</v>
       </c>
     </row>
     <row r="77" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C77" s="24"/>
       <c r="D77" s="13" t="s">
-        <v>175</v>
+        <v>126</v>
       </c>
       <c r="E77" s="14"/>
       <c r="F77" s="14" t="s">
-        <v>446</v>
+        <v>397</v>
       </c>
       <c r="G77" s="14"/>
       <c r="H77" s="14"/>
       <c r="I77" s="14"/>
       <c r="J77" s="14" t="s">
-        <v>438</v>
+        <v>389</v>
       </c>
     </row>
     <row r="78" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C78" s="24"/>
       <c r="D78" s="3" t="s">
-        <v>176</v>
+        <v>127</v>
       </c>
       <c r="F78" s="20" t="s">
-        <v>256</v>
+        <v>207</v>
       </c>
       <c r="J78" t="s">
-        <v>262</v>
+        <v>213</v>
       </c>
     </row>
     <row r="79" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C79" s="24"/>
       <c r="D79" s="13" t="s">
-        <v>177</v>
+        <v>128</v>
       </c>
       <c r="E79" s="14"/>
       <c r="F79" s="14" t="s">
-        <v>444</v>
+        <v>395</v>
       </c>
       <c r="G79" s="14"/>
       <c r="H79" s="14"/>
       <c r="I79" s="14"/>
       <c r="J79" s="14" t="s">
-        <v>438</v>
+        <v>389</v>
       </c>
     </row>
     <row r="80" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C80" s="24"/>
       <c r="D80" s="13" t="s">
-        <v>178</v>
+        <v>129</v>
       </c>
       <c r="E80" s="14"/>
       <c r="F80" s="14" t="s">
-        <v>445</v>
+        <v>396</v>
       </c>
       <c r="G80" s="14"/>
       <c r="H80" s="14"/>
       <c r="I80" s="14"/>
       <c r="J80" s="14" t="s">
-        <v>438</v>
+        <v>389</v>
       </c>
     </row>
     <row r="81" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C81" s="24"/>
       <c r="D81" s="13" t="s">
-        <v>179</v>
+        <v>130</v>
       </c>
       <c r="E81" s="14"/>
       <c r="F81" s="14" t="s">
-        <v>446</v>
+        <v>397</v>
       </c>
       <c r="G81" s="14"/>
       <c r="H81" s="14"/>
       <c r="I81" s="14"/>
       <c r="J81" s="14" t="s">
-        <v>438</v>
+        <v>389</v>
       </c>
     </row>
     <row r="82" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C82" s="24"/>
       <c r="D82" s="3" t="s">
-        <v>181</v>
+        <v>132</v>
       </c>
       <c r="J82" t="s">
-        <v>262</v>
+        <v>213</v>
       </c>
     </row>
     <row r="83" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C83" s="24"/>
       <c r="D83" s="13" t="s">
-        <v>182</v>
+        <v>133</v>
       </c>
       <c r="E83" s="14"/>
       <c r="F83" s="14" t="s">
-        <v>444</v>
+        <v>395</v>
       </c>
       <c r="G83" s="14"/>
       <c r="H83" s="14"/>
       <c r="I83" s="14"/>
       <c r="J83" s="14" t="s">
-        <v>438</v>
+        <v>389</v>
       </c>
     </row>
     <row r="84" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C84" s="24"/>
       <c r="D84" s="13" t="s">
-        <v>183</v>
+        <v>134</v>
       </c>
       <c r="E84" s="14"/>
       <c r="F84" s="14" t="s">
-        <v>445</v>
+        <v>396</v>
       </c>
       <c r="G84" s="14"/>
       <c r="H84" s="14"/>
       <c r="I84" s="14"/>
       <c r="J84" s="14" t="s">
-        <v>438</v>
+        <v>389</v>
       </c>
     </row>
     <row r="85" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C85" s="24"/>
       <c r="D85" s="13" t="s">
-        <v>184</v>
+        <v>135</v>
       </c>
       <c r="E85" s="14"/>
       <c r="F85" s="14" t="s">
-        <v>446</v>
+        <v>397</v>
       </c>
       <c r="G85" s="14"/>
       <c r="H85" s="14"/>
       <c r="I85" s="14"/>
       <c r="J85" s="14" t="s">
-        <v>438</v>
+        <v>389</v>
       </c>
     </row>
     <row r="86" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C86" s="24"/>
       <c r="D86" s="3" t="s">
-        <v>185</v>
+        <v>136</v>
       </c>
       <c r="F86" t="s">
-        <v>189</v>
+        <v>140</v>
       </c>
       <c r="J86" t="s">
-        <v>262</v>
+        <v>213</v>
       </c>
     </row>
     <row r="87" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C87" s="24"/>
       <c r="D87" s="13" t="s">
-        <v>186</v>
+        <v>137</v>
       </c>
       <c r="E87" s="14"/>
       <c r="F87" s="14" t="s">
-        <v>444</v>
+        <v>395</v>
       </c>
       <c r="G87" s="14"/>
       <c r="H87" s="14"/>
       <c r="I87" s="14"/>
       <c r="J87" s="14" t="s">
-        <v>438</v>
+        <v>389</v>
       </c>
     </row>
     <row r="88" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C88" s="24"/>
       <c r="D88" s="13" t="s">
-        <v>187</v>
+        <v>138</v>
       </c>
       <c r="E88" s="14"/>
       <c r="F88" s="14" t="s">
-        <v>445</v>
+        <v>396</v>
       </c>
       <c r="G88" s="14"/>
       <c r="H88" s="14"/>
       <c r="I88" s="14"/>
       <c r="J88" s="14" t="s">
-        <v>438</v>
+        <v>389</v>
       </c>
     </row>
     <row r="89" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C89" s="24"/>
       <c r="D89" s="13" t="s">
-        <v>188</v>
+        <v>139</v>
       </c>
       <c r="E89" s="14"/>
       <c r="F89" s="14" t="s">
-        <v>446</v>
+        <v>397</v>
       </c>
       <c r="G89" s="14"/>
       <c r="H89" s="14"/>
       <c r="I89" s="14"/>
       <c r="J89" s="14" t="s">
-        <v>438</v>
+        <v>389</v>
       </c>
     </row>
     <row r="90" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C90" s="24"/>
       <c r="D90" s="3" t="s">
-        <v>190</v>
+        <v>141</v>
       </c>
       <c r="J90" t="s">
-        <v>262</v>
+        <v>213</v>
       </c>
     </row>
     <row r="91" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C91" s="24"/>
       <c r="D91" s="13" t="s">
-        <v>191</v>
+        <v>142</v>
       </c>
       <c r="E91" s="14"/>
       <c r="F91" s="14" t="s">
-        <v>444</v>
+        <v>395</v>
       </c>
       <c r="G91" s="14"/>
       <c r="H91" s="14"/>
       <c r="I91" s="14"/>
       <c r="J91" s="14" t="s">
-        <v>438</v>
+        <v>389</v>
       </c>
     </row>
     <row r="92" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C92" s="24"/>
       <c r="D92" s="13" t="s">
-        <v>192</v>
+        <v>143</v>
       </c>
       <c r="E92" s="14"/>
       <c r="F92" s="14" t="s">
-        <v>445</v>
+        <v>396</v>
       </c>
       <c r="G92" s="14"/>
       <c r="H92" s="14"/>
       <c r="I92" s="14"/>
       <c r="J92" s="14" t="s">
-        <v>438</v>
+        <v>389</v>
       </c>
     </row>
     <row r="93" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C93" s="24"/>
       <c r="D93" s="13" t="s">
-        <v>375</v>
+        <v>326</v>
       </c>
       <c r="E93" s="14"/>
       <c r="F93" s="14" t="s">
-        <v>446</v>
+        <v>397</v>
       </c>
       <c r="G93" s="14"/>
       <c r="H93" s="14"/>
       <c r="I93" s="14"/>
       <c r="J93" s="14" t="s">
-        <v>438</v>
+        <v>389</v>
       </c>
     </row>
     <row r="94" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C94" s="24"/>
       <c r="D94" s="3" t="s">
-        <v>376</v>
+        <v>327</v>
       </c>
       <c r="F94" s="20" t="s">
-        <v>87</v>
+        <v>45</v>
       </c>
       <c r="J94" t="s">
-        <v>262</v>
+        <v>213</v>
       </c>
     </row>
     <row r="95" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C95" s="24"/>
       <c r="D95" s="13" t="s">
-        <v>377</v>
+        <v>328</v>
       </c>
       <c r="E95" s="14"/>
       <c r="F95" s="14" t="s">
-        <v>444</v>
+        <v>395</v>
       </c>
       <c r="G95" s="14"/>
       <c r="H95" s="14"/>
       <c r="I95" s="14"/>
       <c r="J95" s="14" t="s">
-        <v>438</v>
+        <v>389</v>
       </c>
     </row>
     <row r="96" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C96" s="24"/>
       <c r="D96" s="13" t="s">
-        <v>378</v>
+        <v>329</v>
       </c>
       <c r="E96" s="14"/>
       <c r="F96" s="14" t="s">
-        <v>445</v>
+        <v>396</v>
       </c>
       <c r="G96" s="14"/>
       <c r="H96" s="14"/>
       <c r="I96" s="14"/>
       <c r="J96" s="14" t="s">
-        <v>438</v>
+        <v>389</v>
       </c>
     </row>
     <row r="97" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C97" s="24"/>
       <c r="D97" s="13" t="s">
-        <v>379</v>
+        <v>330</v>
       </c>
       <c r="E97" s="14"/>
       <c r="F97" s="14" t="s">
-        <v>446</v>
+        <v>397</v>
       </c>
       <c r="G97" s="14"/>
       <c r="H97" s="14"/>
       <c r="I97" s="14"/>
       <c r="J97" s="14" t="s">
-        <v>438</v>
+        <v>389</v>
       </c>
     </row>
     <row r="98" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C98" s="24" t="s">
-        <v>259</v>
+        <v>210</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>380</v>
+        <v>331</v>
       </c>
       <c r="F98" t="s">
-        <v>392</v>
+        <v>343</v>
       </c>
       <c r="J98" t="s">
-        <v>263</v>
+        <v>214</v>
       </c>
     </row>
     <row r="99" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C99" s="24"/>
       <c r="D99" s="13" t="s">
-        <v>381</v>
+        <v>332</v>
       </c>
       <c r="E99" s="14"/>
       <c r="F99" s="14" t="s">
-        <v>444</v>
+        <v>395</v>
       </c>
       <c r="G99" s="14"/>
       <c r="H99" s="14"/>
       <c r="I99" s="14"/>
       <c r="J99" s="14" t="s">
-        <v>439</v>
+        <v>390</v>
       </c>
     </row>
     <row r="100" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C100" s="24"/>
       <c r="D100" s="13" t="s">
-        <v>382</v>
+        <v>333</v>
       </c>
       <c r="E100" s="14"/>
       <c r="F100" s="14" t="s">
-        <v>445</v>
+        <v>396</v>
       </c>
       <c r="G100" s="14"/>
       <c r="H100" s="14"/>
       <c r="I100" s="14"/>
       <c r="J100" s="14" t="s">
-        <v>439</v>
+        <v>390</v>
       </c>
     </row>
     <row r="101" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C101" s="24"/>
       <c r="D101" s="13" t="s">
-        <v>383</v>
+        <v>334</v>
       </c>
       <c r="E101" s="14"/>
       <c r="F101" s="14" t="s">
-        <v>446</v>
+        <v>397</v>
       </c>
       <c r="G101" s="14"/>
       <c r="H101" s="14"/>
       <c r="I101" s="14"/>
       <c r="J101" s="14" t="s">
-        <v>439</v>
+        <v>390</v>
       </c>
     </row>
     <row r="102" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C102" s="24"/>
       <c r="D102" s="3" t="s">
-        <v>384</v>
+        <v>335</v>
       </c>
       <c r="J102" t="s">
-        <v>263</v>
+        <v>214</v>
       </c>
     </row>
     <row r="103" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C103" s="24"/>
       <c r="D103" s="13" t="s">
-        <v>385</v>
+        <v>336</v>
       </c>
       <c r="E103" s="14"/>
       <c r="F103" s="14" t="s">
-        <v>444</v>
+        <v>395</v>
       </c>
       <c r="G103" s="14"/>
       <c r="H103" s="14"/>
       <c r="I103" s="14"/>
       <c r="J103" s="14" t="s">
-        <v>439</v>
+        <v>390</v>
       </c>
     </row>
     <row r="104" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C104" s="24"/>
       <c r="D104" s="13" t="s">
-        <v>386</v>
+        <v>337</v>
       </c>
       <c r="E104" s="14"/>
       <c r="F104" s="14" t="s">
-        <v>445</v>
+        <v>396</v>
       </c>
       <c r="G104" s="14"/>
       <c r="H104" s="14"/>
       <c r="I104" s="14"/>
       <c r="J104" s="14" t="s">
-        <v>439</v>
+        <v>390</v>
       </c>
     </row>
     <row r="105" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C105" s="24"/>
       <c r="D105" s="13" t="s">
-        <v>387</v>
+        <v>338</v>
       </c>
       <c r="E105" s="14"/>
       <c r="F105" s="14" t="s">
-        <v>446</v>
+        <v>397</v>
       </c>
       <c r="G105" s="14"/>
       <c r="H105" s="14"/>
       <c r="I105" s="14"/>
       <c r="J105" s="14" t="s">
-        <v>439</v>
+        <v>390</v>
       </c>
     </row>
     <row r="106" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C106" s="24"/>
       <c r="D106" s="3" t="s">
-        <v>388</v>
+        <v>339</v>
       </c>
       <c r="J106" t="s">
-        <v>86</v>
+        <v>44</v>
       </c>
     </row>
     <row r="107" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C107" s="24"/>
       <c r="D107" s="13" t="s">
-        <v>389</v>
+        <v>340</v>
       </c>
       <c r="E107" s="14"/>
       <c r="F107" s="14" t="s">
-        <v>444</v>
+        <v>395</v>
       </c>
       <c r="G107" s="14"/>
       <c r="H107" s="14"/>
       <c r="I107" s="14"/>
       <c r="J107" s="14" t="s">
-        <v>439</v>
+        <v>390</v>
       </c>
     </row>
     <row r="108" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C108" s="24"/>
       <c r="D108" s="13" t="s">
-        <v>390</v>
+        <v>341</v>
       </c>
       <c r="E108" s="14"/>
       <c r="F108" s="14" t="s">
-        <v>445</v>
+        <v>396</v>
       </c>
       <c r="G108" s="14"/>
       <c r="H108" s="14"/>
       <c r="I108" s="14"/>
       <c r="J108" s="14" t="s">
-        <v>439</v>
+        <v>390</v>
       </c>
     </row>
     <row r="109" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C109" s="24"/>
       <c r="D109" s="13" t="s">
-        <v>391</v>
+        <v>342</v>
       </c>
       <c r="E109" s="14"/>
       <c r="F109" s="14" t="s">
-        <v>446</v>
+        <v>397</v>
       </c>
       <c r="G109" s="14"/>
       <c r="H109" s="14"/>
       <c r="I109" s="14"/>
       <c r="J109" s="14" t="s">
-        <v>439</v>
+        <v>390</v>
       </c>
     </row>
     <row r="110" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C110" s="24"/>
       <c r="D110" s="3" t="s">
-        <v>393</v>
+        <v>344</v>
       </c>
       <c r="J110" t="s">
-        <v>263</v>
+        <v>214</v>
       </c>
     </row>
     <row r="111" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C111" s="24"/>
       <c r="D111" s="13" t="s">
-        <v>394</v>
+        <v>345</v>
       </c>
       <c r="E111" s="14"/>
       <c r="F111" s="14" t="s">
-        <v>444</v>
+        <v>395</v>
       </c>
       <c r="G111" s="14"/>
       <c r="H111" s="14"/>
       <c r="I111" s="14"/>
       <c r="J111" s="14" t="s">
-        <v>439</v>
+        <v>390</v>
       </c>
     </row>
     <row r="112" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C112" s="24"/>
       <c r="D112" s="13" t="s">
-        <v>395</v>
+        <v>346</v>
       </c>
       <c r="E112" s="14"/>
       <c r="F112" s="14" t="s">
-        <v>445</v>
+        <v>396</v>
       </c>
       <c r="G112" s="14"/>
       <c r="H112" s="14"/>
       <c r="I112" s="14"/>
       <c r="J112" s="14" t="s">
-        <v>439</v>
+        <v>390</v>
       </c>
     </row>
     <row r="113" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C113" s="24"/>
       <c r="D113" s="13" t="s">
-        <v>396</v>
+        <v>347</v>
       </c>
       <c r="E113" s="14"/>
       <c r="F113" s="14" t="s">
-        <v>446</v>
+        <v>397</v>
       </c>
       <c r="G113" s="14"/>
       <c r="H113" s="14"/>
       <c r="I113" s="14"/>
       <c r="J113" s="14" t="s">
-        <v>439</v>
+        <v>390</v>
       </c>
     </row>
     <row r="114" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C114" s="24"/>
       <c r="D114" s="3" t="s">
-        <v>397</v>
+        <v>348</v>
       </c>
       <c r="J114" t="s">
-        <v>263</v>
+        <v>214</v>
       </c>
     </row>
     <row r="115" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C115" s="24"/>
       <c r="D115" s="13" t="s">
-        <v>398</v>
+        <v>349</v>
       </c>
       <c r="E115" s="14"/>
       <c r="F115" s="14" t="s">
-        <v>444</v>
+        <v>395</v>
       </c>
       <c r="G115" s="14"/>
       <c r="H115" s="14"/>
       <c r="I115" s="14"/>
       <c r="J115" s="14" t="s">
-        <v>439</v>
+        <v>390</v>
       </c>
     </row>
     <row r="116" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C116" s="24"/>
       <c r="D116" s="13" t="s">
-        <v>399</v>
+        <v>350</v>
       </c>
       <c r="E116" s="14"/>
       <c r="F116" s="14" t="s">
-        <v>445</v>
+        <v>396</v>
       </c>
       <c r="G116" s="14"/>
       <c r="H116" s="14"/>
       <c r="I116" s="14"/>
       <c r="J116" s="14" t="s">
-        <v>439</v>
+        <v>390</v>
       </c>
     </row>
     <row r="117" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C117" s="24"/>
       <c r="D117" s="13" t="s">
-        <v>400</v>
+        <v>351</v>
       </c>
       <c r="E117" s="14"/>
       <c r="F117" s="14" t="s">
-        <v>446</v>
+        <v>397</v>
       </c>
       <c r="G117" s="14"/>
       <c r="H117" s="14"/>
       <c r="I117" s="14"/>
       <c r="J117" s="14" t="s">
-        <v>439</v>
+        <v>390</v>
       </c>
     </row>
     <row r="118" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C118" s="24"/>
       <c r="D118" s="3" t="s">
-        <v>401</v>
+        <v>352</v>
       </c>
       <c r="F118" s="20" t="s">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="J118" t="s">
-        <v>263</v>
+        <v>214</v>
       </c>
     </row>
     <row r="119" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C119" s="24"/>
       <c r="D119" s="13" t="s">
-        <v>402</v>
+        <v>353</v>
       </c>
       <c r="E119" s="14"/>
       <c r="F119" s="14" t="s">
-        <v>444</v>
+        <v>395</v>
       </c>
       <c r="G119" s="14"/>
       <c r="H119" s="14"/>
       <c r="I119" s="14"/>
       <c r="J119" s="14" t="s">
-        <v>439</v>
+        <v>390</v>
       </c>
     </row>
     <row r="120" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C120" s="24"/>
       <c r="D120" s="13" t="s">
-        <v>403</v>
+        <v>354</v>
       </c>
       <c r="E120" s="14"/>
       <c r="F120" s="14" t="s">
-        <v>445</v>
+        <v>396</v>
       </c>
       <c r="G120" s="14"/>
       <c r="H120" s="14"/>
       <c r="I120" s="14"/>
       <c r="J120" s="14" t="s">
-        <v>439</v>
+        <v>390</v>
       </c>
     </row>
     <row r="121" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C121" s="24"/>
       <c r="D121" s="13" t="s">
-        <v>404</v>
+        <v>355</v>
       </c>
       <c r="E121" s="14"/>
       <c r="F121" s="14" t="s">
-        <v>446</v>
+        <v>397</v>
       </c>
       <c r="G121" s="14"/>
       <c r="H121" s="14"/>
       <c r="I121" s="14"/>
       <c r="J121" s="14" t="s">
-        <v>439</v>
+        <v>390</v>
       </c>
     </row>
     <row r="122" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C122" s="24" t="s">
-        <v>260</v>
+        <v>211</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>218</v>
+        <v>169</v>
       </c>
       <c r="J122" t="s">
-        <v>89</v>
+        <v>47</v>
       </c>
     </row>
     <row r="123" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C123" s="24"/>
       <c r="D123" s="13" t="s">
-        <v>219</v>
+        <v>170</v>
       </c>
       <c r="E123" s="14"/>
       <c r="F123" s="14" t="s">
-        <v>444</v>
+        <v>395</v>
       </c>
       <c r="G123" s="14"/>
       <c r="H123" s="14"/>
       <c r="I123" s="14"/>
       <c r="J123" s="14" t="s">
-        <v>440</v>
+        <v>391</v>
       </c>
     </row>
     <row r="124" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C124" s="24"/>
       <c r="D124" s="13" t="s">
-        <v>220</v>
+        <v>171</v>
       </c>
       <c r="E124" s="14"/>
       <c r="F124" s="14" t="s">
-        <v>445</v>
+        <v>396</v>
       </c>
       <c r="G124" s="14"/>
       <c r="H124" s="14"/>
       <c r="I124" s="14"/>
       <c r="J124" s="14" t="s">
-        <v>440</v>
+        <v>391</v>
       </c>
     </row>
     <row r="125" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C125" s="24"/>
       <c r="D125" s="13" t="s">
-        <v>221</v>
+        <v>172</v>
       </c>
       <c r="E125" s="14"/>
       <c r="F125" s="14" t="s">
-        <v>446</v>
+        <v>397</v>
       </c>
       <c r="G125" s="14"/>
       <c r="H125" s="14"/>
       <c r="I125" s="14"/>
       <c r="J125" s="14" t="s">
-        <v>440</v>
+        <v>391</v>
       </c>
     </row>
     <row r="126" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C126" s="24"/>
       <c r="D126" s="3" t="s">
-        <v>218</v>
+        <v>169</v>
       </c>
       <c r="J126" t="s">
-        <v>89</v>
+        <v>47</v>
       </c>
     </row>
     <row r="127" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C127" s="24"/>
       <c r="D127" s="13" t="s">
-        <v>222</v>
+        <v>173</v>
       </c>
       <c r="E127" s="14"/>
       <c r="F127" s="14" t="s">
-        <v>444</v>
+        <v>395</v>
       </c>
       <c r="G127" s="14"/>
       <c r="H127" s="14"/>
       <c r="I127" s="14"/>
       <c r="J127" s="14" t="s">
-        <v>440</v>
+        <v>391</v>
       </c>
     </row>
     <row r="128" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C128" s="24"/>
       <c r="D128" s="13" t="s">
-        <v>223</v>
+        <v>174</v>
       </c>
       <c r="E128" s="14"/>
       <c r="F128" s="14" t="s">
-        <v>445</v>
+        <v>396</v>
       </c>
       <c r="G128" s="14"/>
       <c r="H128" s="14"/>
       <c r="I128" s="14"/>
       <c r="J128" s="14" t="s">
-        <v>440</v>
+        <v>391</v>
       </c>
     </row>
     <row r="129" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C129" s="24"/>
       <c r="D129" s="13" t="s">
-        <v>224</v>
+        <v>175</v>
       </c>
       <c r="E129" s="14"/>
       <c r="F129" s="14" t="s">
-        <v>446</v>
+        <v>397</v>
       </c>
       <c r="G129" s="14"/>
       <c r="H129" s="14"/>
       <c r="I129" s="14"/>
       <c r="J129" s="14" t="s">
-        <v>440</v>
+        <v>391</v>
       </c>
     </row>
     <row r="130" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C130" s="24"/>
       <c r="D130" s="3" t="s">
-        <v>225</v>
+        <v>176</v>
       </c>
       <c r="J130" t="s">
-        <v>85</v>
+        <v>43</v>
       </c>
     </row>
     <row r="131" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C131" s="24"/>
       <c r="D131" s="13" t="s">
-        <v>226</v>
+        <v>177</v>
       </c>
       <c r="E131" s="14"/>
       <c r="F131" s="14" t="s">
-        <v>444</v>
+        <v>395</v>
       </c>
       <c r="G131" s="14"/>
       <c r="H131" s="14"/>
       <c r="I131" s="14"/>
       <c r="J131" s="14" t="s">
-        <v>440</v>
+        <v>391</v>
       </c>
     </row>
     <row r="132" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C132" s="24"/>
       <c r="D132" s="13" t="s">
-        <v>227</v>
+        <v>178</v>
       </c>
       <c r="E132" s="14"/>
       <c r="F132" s="14" t="s">
-        <v>445</v>
+        <v>396</v>
       </c>
       <c r="G132" s="14"/>
       <c r="H132" s="14"/>
       <c r="I132" s="14"/>
       <c r="J132" s="14" t="s">
-        <v>440</v>
+        <v>391</v>
       </c>
     </row>
     <row r="133" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C133" s="24"/>
       <c r="D133" s="13" t="s">
-        <v>228</v>
+        <v>179</v>
       </c>
       <c r="E133" s="14"/>
       <c r="F133" s="14" t="s">
-        <v>446</v>
+        <v>397</v>
       </c>
       <c r="G133" s="14"/>
       <c r="H133" s="14"/>
       <c r="I133" s="14"/>
       <c r="J133" s="14" t="s">
-        <v>440</v>
+        <v>391</v>
       </c>
     </row>
     <row r="134" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C134" s="24"/>
       <c r="D134" s="3" t="s">
-        <v>218</v>
+        <v>169</v>
       </c>
       <c r="J134" t="s">
-        <v>89</v>
+        <v>47</v>
       </c>
     </row>
     <row r="135" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C135" s="24"/>
       <c r="D135" s="13" t="s">
-        <v>229</v>
+        <v>180</v>
       </c>
       <c r="E135" s="14"/>
       <c r="F135" s="14" t="s">
-        <v>444</v>
+        <v>395</v>
       </c>
       <c r="G135" s="14"/>
       <c r="H135" s="14"/>
       <c r="I135" s="14"/>
       <c r="J135" s="14" t="s">
-        <v>440</v>
+        <v>391</v>
       </c>
     </row>
     <row r="136" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C136" s="24"/>
       <c r="D136" s="13" t="s">
-        <v>230</v>
+        <v>181</v>
       </c>
       <c r="E136" s="14"/>
       <c r="F136" s="14" t="s">
-        <v>445</v>
+        <v>396</v>
       </c>
       <c r="G136" s="14"/>
       <c r="H136" s="14"/>
       <c r="I136" s="14"/>
       <c r="J136" s="14" t="s">
-        <v>440</v>
+        <v>391</v>
       </c>
     </row>
     <row r="137" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C137" s="24"/>
       <c r="D137" s="13" t="s">
-        <v>231</v>
+        <v>182</v>
       </c>
       <c r="E137" s="14"/>
       <c r="F137" s="14" t="s">
-        <v>446</v>
+        <v>397</v>
       </c>
       <c r="G137" s="14"/>
       <c r="H137" s="14"/>
       <c r="I137" s="14"/>
       <c r="J137" s="14" t="s">
-        <v>440</v>
+        <v>391</v>
       </c>
     </row>
     <row r="138" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C138" s="24"/>
       <c r="D138" s="3" t="s">
-        <v>218</v>
+        <v>169</v>
       </c>
       <c r="J138" t="s">
-        <v>89</v>
+        <v>47</v>
       </c>
     </row>
     <row r="139" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C139" s="24"/>
       <c r="D139" s="13" t="s">
-        <v>232</v>
+        <v>183</v>
       </c>
       <c r="E139" s="14"/>
       <c r="F139" s="14" t="s">
-        <v>444</v>
+        <v>395</v>
       </c>
       <c r="G139" s="14"/>
       <c r="H139" s="14"/>
       <c r="I139" s="14"/>
       <c r="J139" s="14" t="s">
-        <v>440</v>
+        <v>391</v>
       </c>
     </row>
     <row r="140" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C140" s="24"/>
       <c r="D140" s="13" t="s">
-        <v>233</v>
+        <v>184</v>
       </c>
       <c r="E140" s="14"/>
       <c r="F140" s="14" t="s">
-        <v>445</v>
+        <v>396</v>
       </c>
       <c r="G140" s="14"/>
       <c r="H140" s="14"/>
       <c r="I140" s="14"/>
       <c r="J140" s="14" t="s">
-        <v>440</v>
+        <v>391</v>
       </c>
     </row>
     <row r="141" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C141" s="24"/>
       <c r="D141" s="13" t="s">
-        <v>234</v>
+        <v>185</v>
       </c>
       <c r="E141" s="14"/>
       <c r="F141" s="14" t="s">
-        <v>446</v>
+        <v>397</v>
       </c>
       <c r="G141" s="14"/>
       <c r="H141" s="14"/>
       <c r="I141" s="14"/>
       <c r="J141" s="14" t="s">
-        <v>440</v>
+        <v>391</v>
       </c>
     </row>
     <row r="142" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C142" s="24"/>
       <c r="D142" s="3" t="s">
-        <v>218</v>
+        <v>169</v>
       </c>
       <c r="J142" t="s">
-        <v>89</v>
+        <v>47</v>
       </c>
     </row>
     <row r="143" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C143" s="24"/>
       <c r="D143" s="13" t="s">
-        <v>235</v>
+        <v>186</v>
       </c>
       <c r="E143" s="14"/>
       <c r="F143" s="14" t="s">
-        <v>444</v>
+        <v>395</v>
       </c>
       <c r="G143" s="14"/>
       <c r="H143" s="14"/>
       <c r="I143" s="14"/>
       <c r="J143" s="14" t="s">
-        <v>440</v>
+        <v>391</v>
       </c>
     </row>
     <row r="144" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C144" s="24"/>
       <c r="D144" s="13" t="s">
-        <v>236</v>
+        <v>187</v>
       </c>
       <c r="E144" s="14"/>
       <c r="F144" s="14" t="s">
-        <v>445</v>
+        <v>396</v>
       </c>
       <c r="G144" s="14"/>
       <c r="H144" s="14"/>
       <c r="I144" s="14"/>
       <c r="J144" s="14" t="s">
-        <v>440</v>
+        <v>391</v>
       </c>
     </row>
     <row r="145" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C145" s="24"/>
       <c r="D145" s="13" t="s">
-        <v>237</v>
+        <v>188</v>
       </c>
       <c r="E145" s="14"/>
       <c r="F145" s="14" t="s">
-        <v>446</v>
+        <v>397</v>
       </c>
       <c r="G145" s="14"/>
       <c r="H145" s="14"/>
       <c r="I145" s="14"/>
       <c r="J145" s="14" t="s">
-        <v>440</v>
+        <v>391</v>
       </c>
     </row>
     <row r="147" spans="3:12" x14ac:dyDescent="0.15">
       <c r="C147" t="s">
-        <v>276</v>
+        <v>227</v>
       </c>
     </row>
     <row r="148" spans="3:12" x14ac:dyDescent="0.15">
       <c r="D148" s="3" t="s">
-        <v>282</v>
+        <v>233</v>
       </c>
     </row>
     <row r="149" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="D149" s="3" t="s">
-        <v>277</v>
+        <v>228</v>
       </c>
       <c r="F149" t="s">
-        <v>287</v>
+        <v>238</v>
       </c>
       <c r="I149" t="s">
-        <v>286</v>
+        <v>237</v>
       </c>
       <c r="L149" s="18" t="s">
-        <v>362</v>
+        <v>313</v>
       </c>
     </row>
     <row r="150" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="D150" s="3" t="s">
-        <v>278</v>
+        <v>229</v>
       </c>
       <c r="F150" t="s">
-        <v>288</v>
+        <v>239</v>
       </c>
       <c r="I150" t="s">
-        <v>290</v>
+        <v>241</v>
       </c>
       <c r="L150" s="18" t="s">
-        <v>361</v>
+        <v>312</v>
       </c>
     </row>
     <row r="151" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="D151" s="3" t="s">
-        <v>279</v>
+        <v>230</v>
       </c>
       <c r="F151" t="s">
-        <v>289</v>
+        <v>240</v>
       </c>
       <c r="I151" t="s">
-        <v>291</v>
+        <v>242</v>
       </c>
       <c r="L151" s="18" t="s">
-        <v>363</v>
+        <v>314</v>
       </c>
     </row>
     <row r="152" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="D152" s="3" t="s">
-        <v>273</v>
+        <v>224</v>
       </c>
       <c r="F152" t="s">
-        <v>353</v>
+        <v>304</v>
       </c>
       <c r="L152" s="18" t="s">
-        <v>245</v>
+        <v>196</v>
       </c>
     </row>
     <row r="153" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="D153" s="3" t="s">
-        <v>274</v>
+        <v>225</v>
       </c>
       <c r="F153" t="s">
-        <v>354</v>
+        <v>305</v>
       </c>
       <c r="L153" s="18" t="s">
-        <v>364</v>
+        <v>315</v>
       </c>
     </row>
     <row r="154" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="D154" s="3" t="s">
-        <v>275</v>
+        <v>226</v>
       </c>
       <c r="F154" t="s">
-        <v>357</v>
+        <v>308</v>
       </c>
       <c r="L154" s="18" t="s">
-        <v>360</v>
+        <v>311</v>
       </c>
     </row>
     <row r="155" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.15"/>
     <row r="156" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="D156" s="3" t="s">
-        <v>280</v>
+        <v>231</v>
       </c>
       <c r="F156" t="s">
-        <v>358</v>
+        <v>309</v>
       </c>
       <c r="L156" s="18" t="s">
-        <v>365</v>
+        <v>316</v>
       </c>
     </row>
     <row r="157" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="D157" s="3" t="s">
-        <v>281</v>
+        <v>232</v>
       </c>
       <c r="F157" t="s">
-        <v>359</v>
+        <v>310</v>
       </c>
       <c r="L157" s="18" t="s">
-        <v>366</v>
+        <v>317</v>
       </c>
     </row>
     <row r="159" spans="3:12" x14ac:dyDescent="0.15">
       <c r="C159" t="s">
-        <v>284</v>
+        <v>235</v>
       </c>
     </row>
     <row r="160" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="D160" t="s">
-        <v>283</v>
+        <v>234</v>
       </c>
       <c r="F160" t="s">
-        <v>374</v>
+        <v>325</v>
       </c>
       <c r="L160" t="s">
-        <v>314</v>
+        <v>265</v>
       </c>
     </row>
     <row r="161" spans="1:27" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="D161" t="s">
-        <v>285</v>
+        <v>236</v>
       </c>
       <c r="F161" t="s">
-        <v>315</v>
+        <v>266</v>
       </c>
       <c r="L161" t="s">
-        <v>316</v>
+        <v>267</v>
       </c>
     </row>
     <row r="162" spans="1:27" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="D162" t="s">
-        <v>355</v>
+        <v>306</v>
       </c>
       <c r="F162" t="s">
-        <v>317</v>
+        <v>268</v>
       </c>
       <c r="L162" t="s">
-        <v>319</v>
+        <v>270</v>
       </c>
       <c r="AA162" t="s">
-        <v>312</v>
+        <v>263</v>
       </c>
     </row>
     <row r="163" spans="1:27" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="D163" t="s">
-        <v>356</v>
+        <v>307</v>
       </c>
       <c r="F163" t="s">
-        <v>318</v>
+        <v>269</v>
       </c>
       <c r="L163" t="s">
-        <v>320</v>
+        <v>271</v>
       </c>
       <c r="AA163" t="s">
-        <v>122</v>
+        <v>73</v>
       </c>
     </row>
     <row r="164" spans="1:27" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="D164" t="s">
-        <v>246</v>
+        <v>197</v>
       </c>
       <c r="F164" t="s">
-        <v>249</v>
+        <v>200</v>
       </c>
       <c r="L164" s="18" t="s">
-        <v>250</v>
+        <v>201</v>
       </c>
       <c r="AA164" t="s">
-        <v>124</v>
+        <v>75</v>
       </c>
     </row>
     <row r="165" spans="1:27" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="D165" t="s">
-        <v>247</v>
+        <v>198</v>
       </c>
       <c r="F165" t="s">
-        <v>249</v>
+        <v>200</v>
       </c>
       <c r="L165" s="18" t="s">
-        <v>251</v>
+        <v>202</v>
       </c>
     </row>
     <row r="166" spans="1:27" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="D166" t="s">
-        <v>248</v>
+        <v>199</v>
       </c>
       <c r="F166" t="s">
-        <v>249</v>
+        <v>200</v>
       </c>
       <c r="L166" s="18" t="s">
-        <v>252</v>
+        <v>203</v>
       </c>
     </row>
     <row r="167" spans="1:27" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="D167" t="s">
-        <v>310</v>
+        <v>261</v>
       </c>
       <c r="F167" t="s">
-        <v>311</v>
+        <v>262</v>
       </c>
       <c r="L167" t="s">
-        <v>125</v>
+        <v>76</v>
       </c>
     </row>
     <row r="168" spans="1:27" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="D168" t="s">
-        <v>313</v>
+        <v>264</v>
       </c>
       <c r="F168" t="s">
-        <v>311</v>
+        <v>262</v>
       </c>
       <c r="L168" t="s">
-        <v>126</v>
+        <v>77</v>
       </c>
     </row>
     <row r="169" spans="1:27" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="D169" t="s">
-        <v>123</v>
+        <v>74</v>
       </c>
       <c r="F169" t="s">
-        <v>311</v>
+        <v>262</v>
       </c>
       <c r="L169" t="s">
-        <v>127</v>
+        <v>78</v>
       </c>
     </row>
     <row r="171" spans="1:27" x14ac:dyDescent="0.15">
       <c r="C171" t="s">
-        <v>329</v>
+        <v>280</v>
       </c>
     </row>
     <row r="172" spans="1:27" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="D172" t="s">
-        <v>367</v>
+        <v>318</v>
       </c>
       <c r="F172" t="s">
-        <v>323</v>
+        <v>274</v>
       </c>
       <c r="L172" s="18" t="s">
-        <v>324</v>
+        <v>275</v>
       </c>
       <c r="P172" t="s">
-        <v>325</v>
+        <v>276</v>
       </c>
     </row>
     <row r="173" spans="1:27" outlineLevel="1" x14ac:dyDescent="0.15"/>
     <row r="174" spans="1:27" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="D174" t="s">
-        <v>368</v>
+        <v>319</v>
       </c>
       <c r="F174" t="s">
-        <v>368</v>
+        <v>319</v>
       </c>
       <c r="L174" s="18" t="s">
-        <v>321</v>
+        <v>272</v>
       </c>
     </row>
     <row r="175" spans="1:27" outlineLevel="1" x14ac:dyDescent="0.15"/>
-    <row r="176" spans="1:27" ht="54" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:27" ht="56" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A176" s="21" t="s">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="D176" t="s">
-        <v>369</v>
+        <v>320</v>
       </c>
       <c r="F176" t="s">
-        <v>371</v>
+        <v>322</v>
       </c>
       <c r="L176" s="18" t="s">
-        <v>372</v>
+        <v>323</v>
       </c>
     </row>
     <row r="177" spans="4:12" outlineLevel="1" x14ac:dyDescent="0.15"/>
     <row r="178" spans="4:12" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="D178" t="s">
-        <v>370</v>
+        <v>321</v>
       </c>
       <c r="F178" t="s">
-        <v>373</v>
+        <v>324</v>
       </c>
       <c r="L178" s="18" t="s">
-        <v>322</v>
+        <v>273</v>
       </c>
     </row>
     <row r="179" spans="4:12" outlineLevel="1" x14ac:dyDescent="0.15"/>
@@ -4725,11 +4911,6 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -4741,1038 +4922,1231 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="4" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
-        <v>330</v>
+        <v>281</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H71"/>
+  <dimension ref="B2:I71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C24" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K56" sqref="K56"/>
+      <selection pane="bottomRight" activeCell="G4" sqref="G4:I71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="5" max="5" width="13.375" customWidth="1"/>
-    <col min="7" max="7" width="35.375" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" customWidth="1"/>
+    <col min="7" max="7" width="35.33203125" customWidth="1"/>
     <col min="8" max="8" width="26.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
-        <v>128</v>
+        <v>79</v>
       </c>
       <c r="C2" t="s">
-        <v>129</v>
+        <v>80</v>
       </c>
       <c r="E2" t="s">
-        <v>130</v>
+        <v>81</v>
       </c>
       <c r="G2" t="s">
-        <v>131</v>
+        <v>82</v>
       </c>
       <c r="H2" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="3" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.15">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B4" s="25" t="s">
-        <v>132</v>
+        <v>83</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>133</v>
+        <v>84</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>134</v>
+        <v>85</v>
       </c>
       <c r="G4" t="s">
-        <v>66</v>
+        <v>410</v>
       </c>
       <c r="H4" s="18" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.15">
+        <v>411</v>
+      </c>
+      <c r="I4" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B5" s="25"/>
       <c r="C5" s="22" t="s">
-        <v>135</v>
+        <v>86</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>136</v>
+        <v>87</v>
       </c>
       <c r="G5" t="s">
-        <v>67</v>
+        <v>413</v>
       </c>
       <c r="H5" s="18" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.15">
+        <v>414</v>
+      </c>
+      <c r="I5" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B6" s="25"/>
       <c r="C6" s="7" t="s">
-        <v>137</v>
+        <v>88</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>138</v>
+        <v>89</v>
       </c>
       <c r="G6" t="s">
-        <v>68</v>
+        <v>416</v>
       </c>
       <c r="H6" s="18" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.15">
+        <v>417</v>
+      </c>
+      <c r="I6" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B7" s="25"/>
       <c r="C7" s="8" t="s">
-        <v>139</v>
+        <v>90</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>140</v>
+        <v>91</v>
       </c>
       <c r="G7" t="s">
-        <v>69</v>
+        <v>419</v>
       </c>
       <c r="H7" s="18" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.15">
+        <v>420</v>
+      </c>
+      <c r="I7" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B8" s="25"/>
       <c r="C8" s="7" t="s">
-        <v>141</v>
+        <v>92</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>142</v>
+        <v>93</v>
       </c>
       <c r="G8" t="s">
-        <v>70</v>
+        <v>422</v>
       </c>
       <c r="H8" s="18" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.15">
+        <v>423</v>
+      </c>
+      <c r="I8" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B9" s="25"/>
       <c r="C9" s="7" t="s">
-        <v>143</v>
+        <v>94</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>144</v>
+        <v>95</v>
       </c>
       <c r="G9" t="s">
-        <v>72</v>
+        <v>425</v>
       </c>
       <c r="H9" s="18" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.15">
+        <v>426</v>
+      </c>
+      <c r="I9" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B10" s="25"/>
       <c r="C10" s="7" t="s">
-        <v>145</v>
+        <v>96</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>146</v>
+        <v>97</v>
       </c>
       <c r="G10" t="s">
-        <v>71</v>
+        <v>428</v>
       </c>
       <c r="H10" s="18" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.15">
+        <v>429</v>
+      </c>
+      <c r="I10" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B11" s="25"/>
       <c r="C11" s="7" t="s">
-        <v>73</v>
+        <v>38</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>147</v>
+        <v>98</v>
       </c>
       <c r="G11" t="s">
-        <v>77</v>
+        <v>431</v>
       </c>
       <c r="H11" s="18" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+        <v>432</v>
+      </c>
+      <c r="I11" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B12" s="25"/>
       <c r="C12" s="12" t="s">
-        <v>148</v>
+        <v>99</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>149</v>
+        <v>100</v>
       </c>
       <c r="G12" t="s">
-        <v>58</v>
+        <v>434</v>
       </c>
       <c r="H12" s="18" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.15">
+        <v>435</v>
+      </c>
+      <c r="I12" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B14" s="24" t="s">
-        <v>150</v>
+        <v>101</v>
       </c>
       <c r="C14" t="s">
-        <v>151</v>
+        <v>102</v>
       </c>
       <c r="E14" t="s">
-        <v>151</v>
+        <v>102</v>
       </c>
       <c r="G14" t="s">
-        <v>111</v>
+        <v>437</v>
       </c>
       <c r="H14" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.15">
+        <v>438</v>
+      </c>
+      <c r="I14" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B15" s="24"/>
       <c r="C15" t="s">
-        <v>152</v>
+        <v>103</v>
       </c>
       <c r="E15" t="s">
-        <v>152</v>
+        <v>103</v>
       </c>
       <c r="G15" t="s">
-        <v>112</v>
+        <v>440</v>
       </c>
       <c r="H15" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.15">
+        <v>438</v>
+      </c>
+      <c r="I15" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B16" s="24"/>
       <c r="C16" t="s">
-        <v>153</v>
+        <v>104</v>
       </c>
       <c r="E16" t="s">
-        <v>153</v>
+        <v>104</v>
       </c>
       <c r="G16" t="s">
-        <v>113</v>
+        <v>441</v>
       </c>
       <c r="H16" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.15">
+        <v>438</v>
+      </c>
+      <c r="I16" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B17" s="24"/>
       <c r="C17" t="s">
-        <v>154</v>
+        <v>105</v>
       </c>
       <c r="E17" t="s">
-        <v>154</v>
+        <v>105</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
-      </c>
-      <c r="H17" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.15">
+        <v>442</v>
+      </c>
+      <c r="H17" s="26" t="s">
+        <v>443</v>
+      </c>
+      <c r="I17" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B18" s="24"/>
       <c r="C18" t="s">
-        <v>155</v>
+        <v>106</v>
       </c>
       <c r="E18" t="s">
-        <v>155</v>
+        <v>106</v>
       </c>
       <c r="G18" t="s">
-        <v>78</v>
+        <v>445</v>
       </c>
       <c r="H18" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.15">
+        <v>446</v>
+      </c>
+      <c r="I18" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B19" s="24"/>
       <c r="C19" t="s">
-        <v>156</v>
+        <v>107</v>
       </c>
       <c r="E19" t="s">
-        <v>156</v>
+        <v>107</v>
       </c>
       <c r="G19" s="20" t="s">
-        <v>121</v>
+        <v>447</v>
       </c>
       <c r="H19" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.15">
+        <v>446</v>
+      </c>
+      <c r="I19" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B20" s="24"/>
       <c r="C20" t="s">
-        <v>157</v>
+        <v>108</v>
       </c>
       <c r="E20" t="s">
-        <v>157</v>
+        <v>108</v>
       </c>
       <c r="G20" t="s">
-        <v>75</v>
+        <v>448</v>
       </c>
       <c r="H20" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.15">
+        <v>449</v>
+      </c>
+      <c r="I20" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B21" s="24"/>
       <c r="C21" t="s">
-        <v>158</v>
+        <v>109</v>
       </c>
       <c r="E21" t="s">
-        <v>158</v>
+        <v>109</v>
       </c>
       <c r="G21" t="s">
-        <v>15</v>
+        <v>451</v>
       </c>
       <c r="H21" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.15">
+        <v>452</v>
+      </c>
+      <c r="I21" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B22" s="24"/>
       <c r="C22" t="s">
-        <v>159</v>
+        <v>110</v>
       </c>
       <c r="E22" t="s">
-        <v>159</v>
+        <v>110</v>
       </c>
       <c r="G22" t="s">
-        <v>74</v>
+        <v>454</v>
       </c>
       <c r="H22" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.15">
+        <v>449</v>
+      </c>
+      <c r="I22" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B23" s="24"/>
       <c r="C23" t="s">
-        <v>160</v>
+        <v>111</v>
       </c>
       <c r="E23" t="s">
-        <v>160</v>
+        <v>111</v>
       </c>
       <c r="G23" t="s">
-        <v>16</v>
+        <v>455</v>
       </c>
       <c r="H23" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.15">
+        <v>456</v>
+      </c>
+      <c r="I23" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B24" s="24"/>
       <c r="C24" t="s">
-        <v>161</v>
+        <v>112</v>
       </c>
       <c r="E24" t="s">
-        <v>161</v>
+        <v>112</v>
       </c>
       <c r="G24" t="s">
-        <v>115</v>
+        <v>69</v>
       </c>
       <c r="H24" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.15">
+        <v>405</v>
+      </c>
+      <c r="I24" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B25" s="24"/>
       <c r="C25" t="s">
-        <v>162</v>
+        <v>113</v>
       </c>
       <c r="E25" t="s">
-        <v>162</v>
+        <v>113</v>
       </c>
       <c r="G25" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="H25" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.15">
+        <v>407</v>
+      </c>
+      <c r="I25" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B26" s="24"/>
       <c r="C26" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E26" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="G26" t="s">
-        <v>116</v>
+        <v>70</v>
       </c>
       <c r="H26" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.15">
+        <v>405</v>
+      </c>
+      <c r="I26" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B27" s="24"/>
       <c r="C27" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G27" t="s">
-        <v>18</v>
+        <v>460</v>
       </c>
       <c r="H27" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.15">
+        <v>461</v>
+      </c>
+      <c r="I27" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B28" s="24"/>
       <c r="C28" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="G28" t="s">
-        <v>114</v>
+        <v>463</v>
       </c>
       <c r="H28" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.15">
+        <v>464</v>
+      </c>
+      <c r="I28" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B29" s="24"/>
       <c r="C29" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="E29" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="G29" t="s">
-        <v>79</v>
+        <v>466</v>
       </c>
       <c r="H29" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.15">
+        <v>467</v>
+      </c>
+      <c r="I29" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B30" s="24"/>
       <c r="C30" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="E30" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="G30" t="s">
-        <v>117</v>
+        <v>469</v>
       </c>
       <c r="H30" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.15">
+        <v>406</v>
+      </c>
+      <c r="I30" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B31" s="24"/>
       <c r="C31" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="E31" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="G31" t="s">
-        <v>118</v>
+        <v>71</v>
       </c>
       <c r="H31" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.15">
+        <v>471</v>
+      </c>
+      <c r="I31" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B32" s="24"/>
       <c r="C32" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E32" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="G32" t="s">
-        <v>119</v>
+        <v>72</v>
       </c>
       <c r="H32" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.15">
+        <v>471</v>
+      </c>
+      <c r="I32" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B33" s="24"/>
       <c r="C33" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="E33" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="G33" t="s">
-        <v>120</v>
+        <v>473</v>
       </c>
       <c r="H33" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.15">
+        <v>474</v>
+      </c>
+      <c r="I33" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B34" s="24"/>
       <c r="C34" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E34" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="G34" t="s">
-        <v>454</v>
+        <v>476</v>
       </c>
       <c r="H34" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.15">
+        <v>477</v>
+      </c>
+      <c r="I34" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B35" s="24"/>
       <c r="C35" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E35" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="G35" t="s">
-        <v>455</v>
+        <v>479</v>
       </c>
       <c r="H35" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.15">
+        <v>477</v>
+      </c>
+      <c r="I35" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B36" s="24"/>
       <c r="C36" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E36" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G36" t="s">
-        <v>456</v>
+        <v>480</v>
       </c>
       <c r="H36" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.15">
+        <v>477</v>
+      </c>
+      <c r="I36" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B38" s="24" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="G38" t="s">
-        <v>463</v>
+        <v>481</v>
       </c>
       <c r="H38" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.15">
+        <v>482</v>
+      </c>
+      <c r="I38" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B39" s="24"/>
       <c r="C39" s="3" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G39" t="s">
-        <v>462</v>
+        <v>484</v>
       </c>
       <c r="H39" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.15">
+        <v>482</v>
+      </c>
+      <c r="I39" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B40" s="24"/>
       <c r="C40" s="3" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G40" t="s">
-        <v>464</v>
+        <v>485</v>
       </c>
       <c r="H40" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.15">
+        <v>482</v>
+      </c>
+      <c r="I40" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B41" s="24"/>
       <c r="C41" s="3" t="s">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="G41" t="s">
-        <v>468</v>
+        <v>486</v>
       </c>
       <c r="H41" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.15">
+        <v>487</v>
+      </c>
+      <c r="I41" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B42" s="24"/>
       <c r="C42" s="3" t="s">
-        <v>274</v>
+        <v>225</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G42" t="s">
-        <v>465</v>
+        <v>488</v>
       </c>
       <c r="H42" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.15">
+        <v>487</v>
+      </c>
+      <c r="I42" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B43" s="24"/>
       <c r="C43" s="3" t="s">
-        <v>275</v>
+        <v>226</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="G43" t="s">
-        <v>80</v>
+        <v>489</v>
       </c>
       <c r="H43" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.15">
+        <v>490</v>
+      </c>
+      <c r="I43" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B44" s="24"/>
       <c r="C44" s="3" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="G44" t="s">
-        <v>466</v>
+        <v>492</v>
       </c>
       <c r="H44" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.15">
+        <v>493</v>
+      </c>
+      <c r="I44" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B45" s="24"/>
       <c r="C45" s="3" t="s">
-        <v>193</v>
+        <v>144</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>193</v>
+        <v>144</v>
       </c>
       <c r="G45" t="s">
-        <v>467</v>
+        <v>495</v>
       </c>
       <c r="H45" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.15">
+        <v>496</v>
+      </c>
+      <c r="I45" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B46" s="23"/>
       <c r="C46" s="3" t="s">
-        <v>491</v>
+        <v>408</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>492</v>
+        <v>409</v>
+      </c>
+      <c r="G46" t="s">
+        <v>498</v>
       </c>
       <c r="H46" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.15">
+        <v>499</v>
+      </c>
+      <c r="I46" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B48" s="24" t="s">
-        <v>194</v>
+        <v>145</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>195</v>
+        <v>146</v>
       </c>
       <c r="E48" t="s">
-        <v>196</v>
+        <v>147</v>
       </c>
       <c r="G48" t="s">
-        <v>1</v>
+        <v>501</v>
       </c>
       <c r="H48" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.15">
+        <v>502</v>
+      </c>
+      <c r="I48" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B49" s="24"/>
       <c r="C49" s="3" t="s">
-        <v>197</v>
+        <v>148</v>
       </c>
       <c r="E49" t="s">
-        <v>198</v>
+        <v>149</v>
       </c>
       <c r="G49" t="s">
-        <v>0</v>
+        <v>504</v>
       </c>
       <c r="H49" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.15">
+        <v>502</v>
+      </c>
+      <c r="I49" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B50" s="24"/>
       <c r="C50" s="3" t="s">
-        <v>199</v>
+        <v>150</v>
       </c>
       <c r="E50" t="s">
-        <v>200</v>
+        <v>151</v>
       </c>
       <c r="G50" t="s">
-        <v>2</v>
+        <v>505</v>
       </c>
       <c r="H50" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.15">
+        <v>502</v>
+      </c>
+      <c r="I50" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B51" s="24"/>
       <c r="C51" s="3" t="s">
-        <v>201</v>
+        <v>152</v>
       </c>
       <c r="E51" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G51" t="s">
-        <v>49</v>
+        <v>506</v>
       </c>
       <c r="H51" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.15">
+        <v>502</v>
+      </c>
+      <c r="I51" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B52" s="24"/>
       <c r="C52" s="3" t="s">
-        <v>202</v>
+        <v>153</v>
       </c>
       <c r="E52" t="s">
-        <v>203</v>
+        <v>154</v>
       </c>
       <c r="G52" t="s">
-        <v>76</v>
+        <v>507</v>
       </c>
       <c r="H52" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.15">
+        <v>502</v>
+      </c>
+      <c r="I52" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B53" s="24"/>
       <c r="C53" s="3" t="s">
-        <v>204</v>
+        <v>155</v>
       </c>
       <c r="E53" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="G53" t="s">
-        <v>57</v>
+        <v>508</v>
       </c>
       <c r="H53" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.15">
+        <v>502</v>
+      </c>
+      <c r="I53" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B54" s="24"/>
       <c r="C54" s="3" t="s">
-        <v>205</v>
+        <v>156</v>
       </c>
       <c r="E54" t="s">
-        <v>206</v>
+        <v>157</v>
       </c>
       <c r="G54" t="s">
-        <v>4</v>
+        <v>509</v>
       </c>
       <c r="H54" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.15">
+        <v>502</v>
+      </c>
+      <c r="I54" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B55" s="24"/>
       <c r="C55" s="3" t="s">
-        <v>207</v>
+        <v>158</v>
       </c>
       <c r="E55" s="20" t="s">
-        <v>208</v>
+        <v>159</v>
       </c>
       <c r="G55" t="s">
-        <v>5</v>
+        <v>510</v>
       </c>
       <c r="H55" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.15">
+        <v>502</v>
+      </c>
+      <c r="I55" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B56" s="24"/>
       <c r="C56" s="3" t="s">
-        <v>209</v>
+        <v>160</v>
       </c>
       <c r="E56" s="20" t="s">
-        <v>210</v>
+        <v>161</v>
       </c>
       <c r="G56" t="s">
-        <v>6</v>
+        <v>511</v>
       </c>
       <c r="H56" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.15">
+        <v>502</v>
+      </c>
+      <c r="I56" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B57" s="24"/>
       <c r="C57" s="3" t="s">
-        <v>211</v>
+        <v>162</v>
       </c>
       <c r="E57" s="20" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="G57" t="s">
-        <v>48</v>
+        <v>512</v>
       </c>
       <c r="H57" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.15">
+        <v>502</v>
+      </c>
+      <c r="I57" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B58" s="24"/>
       <c r="C58" s="3" t="s">
-        <v>212</v>
+        <v>163</v>
       </c>
       <c r="E58" s="20" t="s">
-        <v>213</v>
+        <v>164</v>
       </c>
       <c r="G58" t="s">
-        <v>7</v>
+        <v>513</v>
       </c>
       <c r="H58" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.15">
+        <v>502</v>
+      </c>
+      <c r="I58" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B59" s="24"/>
       <c r="C59" s="3" t="s">
-        <v>214</v>
+        <v>165</v>
       </c>
       <c r="E59" s="20" t="s">
-        <v>215</v>
+        <v>166</v>
       </c>
       <c r="G59" t="s">
-        <v>63</v>
+        <v>514</v>
       </c>
       <c r="H59" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.15">
+        <v>502</v>
+      </c>
+      <c r="I59" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B60" s="24"/>
       <c r="C60" s="3" t="s">
-        <v>216</v>
+        <v>167</v>
       </c>
       <c r="E60" t="s">
-        <v>217</v>
+        <v>168</v>
       </c>
       <c r="G60" t="s">
-        <v>54</v>
+        <v>515</v>
       </c>
       <c r="H60" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.15">
+        <v>516</v>
+      </c>
+      <c r="I60" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B61" s="24"/>
       <c r="C61" s="3" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E61" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G61" t="s">
-        <v>55</v>
+        <v>518</v>
       </c>
       <c r="H61" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.15">
+        <v>516</v>
+      </c>
+      <c r="I61" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B62" s="24"/>
       <c r="C62" s="3" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="G62" t="s">
-        <v>52</v>
+        <v>519</v>
       </c>
       <c r="H62" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.15">
+        <v>516</v>
+      </c>
+      <c r="I62" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B63" s="24"/>
       <c r="C63" s="3" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E63" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="G63" t="s">
-        <v>51</v>
+        <v>520</v>
       </c>
       <c r="H63" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.15">
+        <v>516</v>
+      </c>
+      <c r="I63" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B64" s="24"/>
       <c r="C64" s="3" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E64" t="s">
-        <v>98</v>
+        <v>56</v>
       </c>
       <c r="G64" t="s">
-        <v>56</v>
+        <v>521</v>
       </c>
       <c r="H64" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.15">
+        <v>522</v>
+      </c>
+      <c r="I64" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B65" s="24"/>
       <c r="C65" s="3" t="s">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="E65" s="20" t="s">
-        <v>99</v>
+        <v>57</v>
       </c>
       <c r="G65" t="s">
-        <v>44</v>
+        <v>524</v>
       </c>
       <c r="H65" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.15">
+        <v>522</v>
+      </c>
+      <c r="I65" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B66" s="24"/>
       <c r="C66" s="3" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="E66" s="20" t="s">
-        <v>101</v>
+        <v>59</v>
       </c>
       <c r="G66" t="s">
-        <v>61</v>
+        <v>525</v>
       </c>
       <c r="H66" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.15">
+        <v>522</v>
+      </c>
+      <c r="I66" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B67" s="24"/>
       <c r="C67" s="3" t="s">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="E67" s="20" t="s">
-        <v>103</v>
+        <v>61</v>
       </c>
       <c r="G67" t="s">
-        <v>62</v>
+        <v>526</v>
       </c>
       <c r="H67" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.15">
+        <v>522</v>
+      </c>
+      <c r="I67" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B68" s="24"/>
       <c r="C68" s="3" t="s">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="E68" s="20" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="G68" t="s">
-        <v>60</v>
+        <v>527</v>
       </c>
       <c r="H68" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.15">
+        <v>522</v>
+      </c>
+      <c r="I68" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B69" s="24"/>
       <c r="C69" s="3" t="s">
-        <v>105</v>
+        <v>63</v>
       </c>
       <c r="E69" s="20" t="s">
-        <v>106</v>
+        <v>64</v>
       </c>
       <c r="G69" t="s">
-        <v>50</v>
+        <v>528</v>
       </c>
       <c r="H69" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="70" spans="2:8" x14ac:dyDescent="0.15">
+        <v>522</v>
+      </c>
+      <c r="I69" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B70" s="24"/>
       <c r="C70" s="3" t="s">
-        <v>107</v>
+        <v>65</v>
       </c>
       <c r="E70" s="20" t="s">
-        <v>108</v>
+        <v>66</v>
       </c>
       <c r="G70" t="s">
-        <v>59</v>
+        <v>529</v>
       </c>
       <c r="H70" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.15">
+        <v>522</v>
+      </c>
+      <c r="I70" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="71" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B71" s="24"/>
       <c r="C71" s="3" t="s">
-        <v>109</v>
+        <v>67</v>
       </c>
       <c r="E71" s="20" t="s">
-        <v>110</v>
+        <v>68</v>
       </c>
       <c r="G71" t="s">
-        <v>45</v>
+        <v>530</v>
       </c>
       <c r="H71" t="s">
-        <v>472</v>
+        <v>522</v>
+      </c>
+      <c r="I71" t="s">
+        <v>523</v>
       </c>
     </row>
   </sheetData>
@@ -5784,10 +6158,5 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/gd/美术需求文档/UI相关/Icon需求.xlsx
+++ b/gd/美术需求文档/UI相关/Icon需求.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="26124"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Headstreams/Documents/10.21.2.47/gd/美术需求文档/UI相关/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4880" yWindow="500" windowWidth="29380" windowHeight="18620" activeTab="2"/>
+    <workbookView xWindow="-180" yWindow="690" windowWidth="28725" windowHeight="10425" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ICON需求及分类" sheetId="1" r:id="rId1"/>
@@ -26,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="531">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="586">
   <si>
     <t>坚固的护腕</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -57,10 +52,6 @@
   </si>
   <si>
     <t>法术型戒指(1档)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gleaming Key</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -368,22 +359,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Gleaming Chest</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Golden Strongbox</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wicked Crux</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wicked Pelt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>活力值道具使用增加30点活力</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1670,10 +1645,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Blood Stone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>宝石镶嵌 提高体力XX</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1682,10 +1653,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Vitality Stone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>宝石镶嵌 提高力量XX</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1694,10 +1661,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Sage Stone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>宝石镶嵌 提高智力XX</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1706,10 +1669,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Bastion Stone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>宝石镶嵌 提高防御XX</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1718,10 +1677,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Haste Stone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>宝石镶嵌 提高速度XX</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1730,10 +1685,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Mending Stone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>宝石镶嵌 提高受治疗加成XX</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1742,10 +1693,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Volatile Stone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>宝石镶嵌 提高暴击率XX</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1754,10 +1701,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Source Stone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>宝石镶嵌 提高前置能量XX</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1766,10 +1709,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Morbid Stone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>宝石镶嵌 提高暴击伤害XX</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1778,27 +1717,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Small EXP Potion</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>宠物经验提升 XX点</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Increases a monster's EXP by XX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Medium EXP Potion</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Large EXP Potion</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Normal EXP Scroll</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1831,22 +1754,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Great EXP Scroll</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>宠物经验XX%倍率获得提升</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Boundless EXP Scroll</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Deadwood Chest</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>游戏自然产出的宝箱,开启获得产出物</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1855,23 +1766,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Deadwood Key</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>可以用来开启[木质宝箱]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Used to open a Deadwood Chest.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rusted Chest</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rusted Key</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1891,10 +1790,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Golden Key</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>可以用来开启[黄金宝箱]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1903,10 +1798,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Raid Ticket</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>扫荡副本的凭证</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1915,10 +1806,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Lucky Draw Ticket</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>可以代替一次抽奖消耗</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1927,10 +1814,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Core Fragments</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>The legendary Core Fragment!</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1943,10 +1826,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Wicked Nails</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>还是拿去换钱好些</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1955,10 +1834,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Energy Cookies(Small)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>恢复人物活力值道具</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1967,19 +1842,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Energy Cookies(Medium)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Energy Cookies(Large)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Basic Upgrade Stone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>装备强化</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1999,10 +1862,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>装备进阶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Advancement Scroll</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2172,6 +2031,362 @@
   </si>
   <si>
     <t>Blessing Rune</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备进阶材料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备进阶材料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备强化材料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备强化材料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Blood Stone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_BloodStone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vitality Stone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_VitalityStone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sage Stone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_SageStone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bastion Stone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_BastionStone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Haste Stone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_HasteStone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mending Stone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_MendingStone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Volatile Stone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_VolatileStone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Source Stone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_SourceStone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Morbid Stone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_MorbidStone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Small EXP Potion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_SmallEXPPotion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Medium EXP Potion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_MediumEXPPotion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Large EXP Potion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_LargeEXPPotion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normal EXP Scroll</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_NormalEXPScroll</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Great EXP Scroll</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_GreatEXPScroll</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boundless EXP Scroll</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_BoundlessEXPScroll</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deadwood Chest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_DeadwoodChest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deadwood Key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_DeadwoodKey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rusted Chest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_RustedChest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rusted Key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_RustedKey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gleaming Chest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_GleamingChest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gleaming Key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_GleamingKey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Raid Ticket</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Golden Strongbox</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_GoldenStrongbox</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Golden Key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_GoldenKey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_RaidTicket</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lucky Draw Ticket</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_LuckyDrawTicket</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Core Fragments</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_CoreFragments</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wicked Crux</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_WickedCrux</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wicked Pelt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_WickedPelt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wicked Nails</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_WickedNails</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Energy Cookies(Small)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Energy Cookies(Medium)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Energy Cookies(Large)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_EnergyCookiesLarge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_EnergyCookiesMedium</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_EnergyCookiesSmall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ICON文件名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI文件名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加底图文件名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>baoshiditu_BloodStone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>baoshiditu_VitalityStone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>baoshiditu_SageStone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>baoshiditu_BastionStone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>baoshiditu_HasteStone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>baoshiditu_MendingStone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>baoshiditu_VolatileStone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>baoshiditu_SourceStone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>baoshiditu_MorbidStone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_BloodStone1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_VitalityStone1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_SageStone1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_BastionStone1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_HasteStone1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_MendingStone1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_VolatileStone1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_SourceStone1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_MorbidStone1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2440,13 +2655,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2757,7 +2972,7 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" outlineLevelRow="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" outlineLevelRow="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="19.5" customWidth="1"/>
     <col min="10" max="10" width="23.5" bestFit="1" customWidth="1"/>
@@ -2765,178 +2980,178 @@
   <sheetData>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="C3" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="K3" s="18"/>
       <c r="L3" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="D4" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="K4" s="14"/>
       <c r="L4" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="14.25" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="F5" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="35.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="D6" s="5" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="6" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="G6" s="6"/>
       <c r="H6" s="6" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="I6" s="15" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="35.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="D7" s="22" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="I7" s="16" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="31.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A8" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="I8" s="16" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="D9" s="8" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="2" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="2" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="I9" s="16" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="36.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A10" s="21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="I10" s="16" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="32.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="D11" s="7" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="I11" s="16" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="42.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="D12" s="7" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="I12" s="16" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="37.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="D13" s="7" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="I13" s="16" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="46.5" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A14" s="21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="E14" s="10"/>
       <c r="F14" s="9" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="G14" s="10"/>
       <c r="H14" s="10" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="I14" s="17" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.15">
@@ -2949,39 +3164,39 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="C16" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
     </row>
     <row r="17" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="D17" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
     </row>
     <row r="18" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="E18" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="G18">
         <v>60</v>
       </c>
       <c r="I18" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
     </row>
     <row r="19" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="E19" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="G19">
         <v>360</v>
       </c>
       <c r="I19" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
     </row>
     <row r="20" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="E20" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="G20">
         <v>1200</v>
@@ -2991,29 +3206,29 @@
     <row r="22" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.15"/>
     <row r="23" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="D23" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="G23" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="56" outlineLevel="1" x14ac:dyDescent="0.15">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="54" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A24" s="21" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="E24" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="G24" s="11">
         <v>1.5</v>
       </c>
       <c r="I24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="E25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G25" s="11">
         <v>2</v>
@@ -3021,7 +3236,7 @@
     </row>
     <row r="26" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="E26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G26" s="11">
         <v>3</v>
@@ -3029,1875 +3244,1875 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C28" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
     </row>
     <row r="29" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="D29" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="30" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="E30" s="18" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="F30" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="G30" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="31" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="E31" s="18" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="F31" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
     <row r="32" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="E32" s="18" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="F32" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
     </row>
     <row r="33" spans="3:7" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="E33" s="18" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="F33" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="G33" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
     </row>
     <row r="34" spans="3:7" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="E34" s="18" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="F34" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
     <row r="35" spans="3:7" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="E35" s="18" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="F35" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
     </row>
     <row r="36" spans="3:7" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="E36" s="18" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="F36" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="G36" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
     </row>
     <row r="37" spans="3:7" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="E37" s="18" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="F37" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
     <row r="38" spans="3:7" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="E38" s="18" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="F38" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
     </row>
     <row r="39" spans="3:7" outlineLevel="1" x14ac:dyDescent="0.15"/>
     <row r="40" spans="3:7" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C40" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
     </row>
     <row r="41" spans="3:7" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="E41" s="18" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="F41" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
     </row>
     <row r="42" spans="3:7" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="E42" s="18" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="F42" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
     </row>
     <row r="43" spans="3:7" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="E43" s="18" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="F43" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="44" spans="3:7" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="E44" s="18" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="F44" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
     </row>
     <row r="45" spans="3:7" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="E45" s="18" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="F45" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
     </row>
     <row r="46" spans="3:7" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="E46" s="18" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="F46" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
     </row>
     <row r="47" spans="3:7" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="E47" s="18" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="F47" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
     </row>
     <row r="48" spans="3:7" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="E48" s="18" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="F48" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C49" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="J49" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
     </row>
     <row r="50" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C50" s="24" t="s">
-        <v>209</v>
+      <c r="C50" s="25" t="s">
+        <v>204</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="F50" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="J50" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
     </row>
     <row r="51" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A51" s="19"/>
-      <c r="C51" s="24"/>
+      <c r="C51" s="25"/>
       <c r="D51" s="13" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="E51" s="14"/>
       <c r="F51" s="14" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="G51" s="14"/>
       <c r="H51" s="14"/>
       <c r="I51" s="14"/>
       <c r="J51" s="14" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
     </row>
     <row r="52" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A52" s="19"/>
-      <c r="C52" s="24"/>
+      <c r="C52" s="25"/>
       <c r="D52" s="13" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="E52" s="14"/>
       <c r="F52" s="14" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="G52" s="14"/>
       <c r="H52" s="14"/>
       <c r="I52" s="14"/>
       <c r="J52" s="14" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
     </row>
     <row r="53" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C53" s="24"/>
+      <c r="C53" s="25"/>
       <c r="D53" s="13" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="E53" s="14"/>
       <c r="F53" s="14" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="G53" s="14"/>
       <c r="H53" s="14"/>
       <c r="I53" s="14"/>
       <c r="J53" s="14" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
     </row>
     <row r="54" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C54" s="24"/>
+      <c r="C54" s="25"/>
       <c r="D54" s="3" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="F54" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="J54" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
     </row>
     <row r="55" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C55" s="24"/>
+      <c r="C55" s="25"/>
       <c r="D55" s="13" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="E55" s="14"/>
       <c r="F55" s="14" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="G55" s="14"/>
       <c r="H55" s="14"/>
       <c r="I55" s="14"/>
       <c r="J55" s="14" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
     </row>
     <row r="56" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C56" s="24"/>
+      <c r="C56" s="25"/>
       <c r="D56" s="13" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="E56" s="14"/>
       <c r="F56" s="14" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="G56" s="14"/>
       <c r="H56" s="14"/>
       <c r="I56" s="14"/>
       <c r="J56" s="14" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
     </row>
     <row r="57" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C57" s="24"/>
+      <c r="C57" s="25"/>
       <c r="D57" s="13" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="E57" s="14"/>
       <c r="F57" s="14" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="G57" s="14"/>
       <c r="H57" s="14"/>
       <c r="I57" s="14"/>
       <c r="J57" s="14" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
     </row>
     <row r="58" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C58" s="24"/>
+      <c r="C58" s="25"/>
       <c r="D58" s="3" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="F58" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="J58" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
     </row>
     <row r="59" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C59" s="24"/>
+      <c r="C59" s="25"/>
       <c r="D59" s="13" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="E59" s="14"/>
       <c r="F59" s="14" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="G59" s="14"/>
       <c r="H59" s="14"/>
       <c r="I59" s="14"/>
       <c r="J59" s="14" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
     </row>
     <row r="60" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C60" s="24"/>
+      <c r="C60" s="25"/>
       <c r="D60" s="13" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="E60" s="14"/>
       <c r="F60" s="14" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="G60" s="14"/>
       <c r="H60" s="14"/>
       <c r="I60" s="14"/>
       <c r="J60" s="14" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
     </row>
     <row r="61" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C61" s="24"/>
+      <c r="C61" s="25"/>
       <c r="D61" s="13" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="E61" s="14"/>
       <c r="F61" s="14" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="G61" s="14"/>
       <c r="H61" s="14"/>
       <c r="I61" s="14"/>
       <c r="J61" s="14" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
     </row>
     <row r="62" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C62" s="24"/>
+      <c r="C62" s="25"/>
       <c r="D62" s="3" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="F62" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="J62" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
     </row>
     <row r="63" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C63" s="24"/>
+      <c r="C63" s="25"/>
       <c r="D63" s="13" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="E63" s="14"/>
       <c r="F63" s="14" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="G63" s="14"/>
       <c r="H63" s="14"/>
       <c r="I63" s="14"/>
       <c r="J63" s="14" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
     </row>
     <row r="64" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C64" s="24"/>
+      <c r="C64" s="25"/>
       <c r="D64" s="13" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="E64" s="14"/>
       <c r="F64" s="14" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="G64" s="14"/>
       <c r="H64" s="14"/>
       <c r="I64" s="14"/>
       <c r="J64" s="14" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
     </row>
     <row r="65" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C65" s="24"/>
+      <c r="C65" s="25"/>
       <c r="D65" s="13" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="E65" s="14"/>
       <c r="F65" s="14" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="G65" s="14"/>
       <c r="H65" s="14"/>
       <c r="I65" s="14"/>
       <c r="J65" s="14" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
     </row>
     <row r="66" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C66" s="24"/>
+      <c r="C66" s="25"/>
       <c r="D66" s="3" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="F66" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="J66" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
     </row>
     <row r="67" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C67" s="24"/>
+      <c r="C67" s="25"/>
       <c r="D67" s="13" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="E67" s="14"/>
       <c r="F67" s="14" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="G67" s="14"/>
       <c r="H67" s="14"/>
       <c r="I67" s="14"/>
       <c r="J67" s="14" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
     </row>
     <row r="68" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C68" s="24"/>
+      <c r="C68" s="25"/>
       <c r="D68" s="13" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="E68" s="14"/>
       <c r="F68" s="14" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="G68" s="14"/>
       <c r="H68" s="14"/>
       <c r="I68" s="14"/>
       <c r="J68" s="14" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
     </row>
     <row r="69" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C69" s="24"/>
+      <c r="C69" s="25"/>
       <c r="D69" s="13" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="E69" s="14"/>
       <c r="F69" s="14" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="G69" s="14"/>
       <c r="H69" s="14"/>
       <c r="I69" s="14"/>
       <c r="J69" s="14" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
     </row>
     <row r="70" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C70" s="24"/>
+      <c r="C70" s="25"/>
       <c r="D70" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="F70" t="s">
         <v>117</v>
       </c>
-      <c r="F70" t="s">
-        <v>122</v>
-      </c>
       <c r="J70" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
     </row>
     <row r="71" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C71" s="24"/>
+      <c r="C71" s="25"/>
       <c r="D71" s="13" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="E71" s="14"/>
       <c r="F71" s="14" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="G71" s="14"/>
       <c r="H71" s="14"/>
       <c r="I71" s="14"/>
       <c r="J71" s="14" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
     </row>
     <row r="72" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C72" s="24"/>
+      <c r="C72" s="25"/>
       <c r="D72" s="13" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="E72" s="14"/>
       <c r="F72" s="14" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="G72" s="14"/>
       <c r="H72" s="14"/>
       <c r="I72" s="14"/>
       <c r="J72" s="14" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
     </row>
     <row r="73" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C73" s="24"/>
+      <c r="C73" s="25"/>
       <c r="D73" s="13" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="E73" s="14"/>
       <c r="F73" s="14" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="G73" s="14"/>
       <c r="H73" s="14"/>
       <c r="I73" s="14"/>
       <c r="J73" s="14" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
     </row>
     <row r="74" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C74" s="24" t="s">
+      <c r="C74" s="25" t="s">
+        <v>203</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F74" t="s">
+        <v>126</v>
+      </c>
+      <c r="J74" t="s">
         <v>208</v>
       </c>
-      <c r="D74" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="F74" t="s">
-        <v>131</v>
-      </c>
-      <c r="J74" t="s">
-        <v>213</v>
-      </c>
     </row>
     <row r="75" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C75" s="24"/>
+      <c r="C75" s="25"/>
       <c r="D75" s="13" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="E75" s="14"/>
       <c r="F75" s="14" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="G75" s="14"/>
       <c r="H75" s="14"/>
       <c r="I75" s="14"/>
       <c r="J75" s="14" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
     <row r="76" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C76" s="24"/>
+      <c r="C76" s="25"/>
       <c r="D76" s="13" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="E76" s="14"/>
       <c r="F76" s="14" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="G76" s="14"/>
       <c r="H76" s="14"/>
       <c r="I76" s="14"/>
       <c r="J76" s="14" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
     <row r="77" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C77" s="24"/>
+      <c r="C77" s="25"/>
       <c r="D77" s="13" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E77" s="14"/>
       <c r="F77" s="14" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="G77" s="14"/>
       <c r="H77" s="14"/>
       <c r="I77" s="14"/>
       <c r="J77" s="14" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
     <row r="78" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C78" s="24"/>
+      <c r="C78" s="25"/>
       <c r="D78" s="3" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F78" s="20" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="J78" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
     </row>
     <row r="79" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C79" s="24"/>
+      <c r="C79" s="25"/>
       <c r="D79" s="13" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="E79" s="14"/>
       <c r="F79" s="14" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="G79" s="14"/>
       <c r="H79" s="14"/>
       <c r="I79" s="14"/>
       <c r="J79" s="14" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
     <row r="80" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C80" s="24"/>
+      <c r="C80" s="25"/>
       <c r="D80" s="13" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="E80" s="14"/>
       <c r="F80" s="14" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="G80" s="14"/>
       <c r="H80" s="14"/>
       <c r="I80" s="14"/>
       <c r="J80" s="14" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
     <row r="81" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C81" s="24"/>
+      <c r="C81" s="25"/>
       <c r="D81" s="13" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="E81" s="14"/>
       <c r="F81" s="14" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="G81" s="14"/>
       <c r="H81" s="14"/>
       <c r="I81" s="14"/>
       <c r="J81" s="14" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
     <row r="82" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C82" s="24"/>
+      <c r="C82" s="25"/>
       <c r="D82" s="3" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="J82" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
     </row>
     <row r="83" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C83" s="24"/>
+      <c r="C83" s="25"/>
       <c r="D83" s="13" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="E83" s="14"/>
       <c r="F83" s="14" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="G83" s="14"/>
       <c r="H83" s="14"/>
       <c r="I83" s="14"/>
       <c r="J83" s="14" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
     <row r="84" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C84" s="24"/>
+      <c r="C84" s="25"/>
       <c r="D84" s="13" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E84" s="14"/>
       <c r="F84" s="14" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="G84" s="14"/>
       <c r="H84" s="14"/>
       <c r="I84" s="14"/>
       <c r="J84" s="14" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
     <row r="85" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C85" s="24"/>
+      <c r="C85" s="25"/>
       <c r="D85" s="13" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="E85" s="14"/>
       <c r="F85" s="14" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="G85" s="14"/>
       <c r="H85" s="14"/>
       <c r="I85" s="14"/>
       <c r="J85" s="14" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
     <row r="86" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C86" s="24"/>
+      <c r="C86" s="25"/>
       <c r="D86" s="3" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="F86" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="J86" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
     </row>
     <row r="87" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C87" s="24"/>
+      <c r="C87" s="25"/>
       <c r="D87" s="13" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="E87" s="14"/>
       <c r="F87" s="14" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="G87" s="14"/>
       <c r="H87" s="14"/>
       <c r="I87" s="14"/>
       <c r="J87" s="14" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
     <row r="88" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C88" s="24"/>
+      <c r="C88" s="25"/>
       <c r="D88" s="13" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="E88" s="14"/>
       <c r="F88" s="14" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="G88" s="14"/>
       <c r="H88" s="14"/>
       <c r="I88" s="14"/>
       <c r="J88" s="14" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
     <row r="89" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C89" s="24"/>
+      <c r="C89" s="25"/>
       <c r="D89" s="13" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="E89" s="14"/>
       <c r="F89" s="14" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="G89" s="14"/>
       <c r="H89" s="14"/>
       <c r="I89" s="14"/>
       <c r="J89" s="14" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
     <row r="90" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C90" s="24"/>
+      <c r="C90" s="25"/>
       <c r="D90" s="3" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="J90" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
     </row>
     <row r="91" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C91" s="24"/>
+      <c r="C91" s="25"/>
       <c r="D91" s="13" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="E91" s="14"/>
       <c r="F91" s="14" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="G91" s="14"/>
       <c r="H91" s="14"/>
       <c r="I91" s="14"/>
       <c r="J91" s="14" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
     <row r="92" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C92" s="24"/>
+      <c r="C92" s="25"/>
       <c r="D92" s="13" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E92" s="14"/>
       <c r="F92" s="14" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="G92" s="14"/>
       <c r="H92" s="14"/>
       <c r="I92" s="14"/>
       <c r="J92" s="14" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
     <row r="93" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C93" s="24"/>
+      <c r="C93" s="25"/>
       <c r="D93" s="13" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="E93" s="14"/>
       <c r="F93" s="14" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="G93" s="14"/>
       <c r="H93" s="14"/>
       <c r="I93" s="14"/>
       <c r="J93" s="14" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
     <row r="94" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C94" s="24"/>
+      <c r="C94" s="25"/>
       <c r="D94" s="3" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="F94" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J94" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
     </row>
     <row r="95" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C95" s="24"/>
+      <c r="C95" s="25"/>
       <c r="D95" s="13" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="E95" s="14"/>
       <c r="F95" s="14" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="G95" s="14"/>
       <c r="H95" s="14"/>
       <c r="I95" s="14"/>
       <c r="J95" s="14" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
     <row r="96" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C96" s="24"/>
+      <c r="C96" s="25"/>
       <c r="D96" s="13" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="E96" s="14"/>
       <c r="F96" s="14" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="G96" s="14"/>
       <c r="H96" s="14"/>
       <c r="I96" s="14"/>
       <c r="J96" s="14" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
     <row r="97" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C97" s="24"/>
+      <c r="C97" s="25"/>
       <c r="D97" s="13" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="E97" s="14"/>
       <c r="F97" s="14" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="G97" s="14"/>
       <c r="H97" s="14"/>
       <c r="I97" s="14"/>
       <c r="J97" s="14" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
     <row r="98" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C98" s="24" t="s">
-        <v>210</v>
+      <c r="C98" s="25" t="s">
+        <v>205</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="F98" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="J98" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="99" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C99" s="24"/>
+      <c r="C99" s="25"/>
       <c r="D99" s="13" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="E99" s="14"/>
       <c r="F99" s="14" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="G99" s="14"/>
       <c r="H99" s="14"/>
       <c r="I99" s="14"/>
       <c r="J99" s="14" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
     </row>
     <row r="100" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C100" s="24"/>
+      <c r="C100" s="25"/>
       <c r="D100" s="13" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="E100" s="14"/>
       <c r="F100" s="14" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="G100" s="14"/>
       <c r="H100" s="14"/>
       <c r="I100" s="14"/>
       <c r="J100" s="14" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
     </row>
     <row r="101" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C101" s="24"/>
+      <c r="C101" s="25"/>
       <c r="D101" s="13" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="E101" s="14"/>
       <c r="F101" s="14" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="G101" s="14"/>
       <c r="H101" s="14"/>
       <c r="I101" s="14"/>
       <c r="J101" s="14" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
     </row>
     <row r="102" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C102" s="24"/>
+      <c r="C102" s="25"/>
       <c r="D102" s="3" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="J102" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="103" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C103" s="24"/>
+      <c r="C103" s="25"/>
       <c r="D103" s="13" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="E103" s="14"/>
       <c r="F103" s="14" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="G103" s="14"/>
       <c r="H103" s="14"/>
       <c r="I103" s="14"/>
       <c r="J103" s="14" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
     </row>
     <row r="104" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C104" s="24"/>
+      <c r="C104" s="25"/>
       <c r="D104" s="13" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="E104" s="14"/>
       <c r="F104" s="14" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="G104" s="14"/>
       <c r="H104" s="14"/>
       <c r="I104" s="14"/>
       <c r="J104" s="14" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
     </row>
     <row r="105" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C105" s="24"/>
+      <c r="C105" s="25"/>
       <c r="D105" s="13" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="E105" s="14"/>
       <c r="F105" s="14" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="G105" s="14"/>
       <c r="H105" s="14"/>
       <c r="I105" s="14"/>
       <c r="J105" s="14" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
     </row>
     <row r="106" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C106" s="24"/>
+      <c r="C106" s="25"/>
       <c r="D106" s="3" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="J106" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="107" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C107" s="24"/>
+      <c r="C107" s="25"/>
       <c r="D107" s="13" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="E107" s="14"/>
       <c r="F107" s="14" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="G107" s="14"/>
       <c r="H107" s="14"/>
       <c r="I107" s="14"/>
       <c r="J107" s="14" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
     </row>
     <row r="108" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C108" s="24"/>
+      <c r="C108" s="25"/>
       <c r="D108" s="13" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="E108" s="14"/>
       <c r="F108" s="14" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="G108" s="14"/>
       <c r="H108" s="14"/>
       <c r="I108" s="14"/>
       <c r="J108" s="14" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
     </row>
     <row r="109" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C109" s="24"/>
+      <c r="C109" s="25"/>
       <c r="D109" s="13" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="E109" s="14"/>
       <c r="F109" s="14" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="G109" s="14"/>
       <c r="H109" s="14"/>
       <c r="I109" s="14"/>
       <c r="J109" s="14" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
     </row>
     <row r="110" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C110" s="24"/>
+      <c r="C110" s="25"/>
       <c r="D110" s="3" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="J110" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="111" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C111" s="24"/>
+      <c r="C111" s="25"/>
       <c r="D111" s="13" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="E111" s="14"/>
       <c r="F111" s="14" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="G111" s="14"/>
       <c r="H111" s="14"/>
       <c r="I111" s="14"/>
       <c r="J111" s="14" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
     </row>
     <row r="112" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C112" s="24"/>
+      <c r="C112" s="25"/>
       <c r="D112" s="13" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="E112" s="14"/>
       <c r="F112" s="14" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="G112" s="14"/>
       <c r="H112" s="14"/>
       <c r="I112" s="14"/>
       <c r="J112" s="14" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
     </row>
     <row r="113" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C113" s="24"/>
+      <c r="C113" s="25"/>
       <c r="D113" s="13" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="E113" s="14"/>
       <c r="F113" s="14" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="G113" s="14"/>
       <c r="H113" s="14"/>
       <c r="I113" s="14"/>
       <c r="J113" s="14" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
     </row>
     <row r="114" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C114" s="24"/>
+      <c r="C114" s="25"/>
       <c r="D114" s="3" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="J114" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="115" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C115" s="24"/>
+      <c r="C115" s="25"/>
       <c r="D115" s="13" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="E115" s="14"/>
       <c r="F115" s="14" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="G115" s="14"/>
       <c r="H115" s="14"/>
       <c r="I115" s="14"/>
       <c r="J115" s="14" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
     </row>
     <row r="116" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C116" s="24"/>
+      <c r="C116" s="25"/>
       <c r="D116" s="13" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="E116" s="14"/>
       <c r="F116" s="14" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="G116" s="14"/>
       <c r="H116" s="14"/>
       <c r="I116" s="14"/>
       <c r="J116" s="14" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
     </row>
     <row r="117" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C117" s="24"/>
+      <c r="C117" s="25"/>
       <c r="D117" s="13" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="E117" s="14"/>
       <c r="F117" s="14" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="G117" s="14"/>
       <c r="H117" s="14"/>
       <c r="I117" s="14"/>
       <c r="J117" s="14" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
     </row>
     <row r="118" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C118" s="24"/>
+      <c r="C118" s="25"/>
       <c r="D118" s="3" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="F118" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J118" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="119" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C119" s="24"/>
+      <c r="C119" s="25"/>
       <c r="D119" s="13" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="E119" s="14"/>
       <c r="F119" s="14" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="G119" s="14"/>
       <c r="H119" s="14"/>
       <c r="I119" s="14"/>
       <c r="J119" s="14" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
     </row>
     <row r="120" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C120" s="24"/>
+      <c r="C120" s="25"/>
       <c r="D120" s="13" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="E120" s="14"/>
       <c r="F120" s="14" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="G120" s="14"/>
       <c r="H120" s="14"/>
       <c r="I120" s="14"/>
       <c r="J120" s="14" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
     </row>
     <row r="121" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C121" s="24"/>
+      <c r="C121" s="25"/>
       <c r="D121" s="13" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="E121" s="14"/>
       <c r="F121" s="14" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="G121" s="14"/>
       <c r="H121" s="14"/>
       <c r="I121" s="14"/>
       <c r="J121" s="14" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
     </row>
     <row r="122" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C122" s="24" t="s">
-        <v>211</v>
+      <c r="C122" s="25" t="s">
+        <v>206</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="J122" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="123" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C123" s="24"/>
+      <c r="C123" s="25"/>
       <c r="D123" s="13" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="E123" s="14"/>
       <c r="F123" s="14" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="G123" s="14"/>
       <c r="H123" s="14"/>
       <c r="I123" s="14"/>
       <c r="J123" s="14" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
     </row>
     <row r="124" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C124" s="24"/>
+      <c r="C124" s="25"/>
       <c r="D124" s="13" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="E124" s="14"/>
       <c r="F124" s="14" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="G124" s="14"/>
       <c r="H124" s="14"/>
       <c r="I124" s="14"/>
       <c r="J124" s="14" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
     </row>
     <row r="125" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C125" s="24"/>
+      <c r="C125" s="25"/>
       <c r="D125" s="13" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="E125" s="14"/>
       <c r="F125" s="14" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="G125" s="14"/>
       <c r="H125" s="14"/>
       <c r="I125" s="14"/>
       <c r="J125" s="14" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
     </row>
     <row r="126" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C126" s="24"/>
+      <c r="C126" s="25"/>
       <c r="D126" s="3" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="J126" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="127" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C127" s="24"/>
+      <c r="C127" s="25"/>
       <c r="D127" s="13" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E127" s="14"/>
       <c r="F127" s="14" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="G127" s="14"/>
       <c r="H127" s="14"/>
       <c r="I127" s="14"/>
       <c r="J127" s="14" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
     </row>
     <row r="128" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C128" s="24"/>
+      <c r="C128" s="25"/>
       <c r="D128" s="13" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="E128" s="14"/>
       <c r="F128" s="14" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="G128" s="14"/>
       <c r="H128" s="14"/>
       <c r="I128" s="14"/>
       <c r="J128" s="14" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
     </row>
     <row r="129" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C129" s="24"/>
+      <c r="C129" s="25"/>
       <c r="D129" s="13" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="E129" s="14"/>
       <c r="F129" s="14" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="G129" s="14"/>
       <c r="H129" s="14"/>
       <c r="I129" s="14"/>
       <c r="J129" s="14" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
     </row>
     <row r="130" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C130" s="24"/>
+      <c r="C130" s="25"/>
       <c r="D130" s="3" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="J130" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="131" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C131" s="24"/>
+      <c r="C131" s="25"/>
       <c r="D131" s="13" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="E131" s="14"/>
       <c r="F131" s="14" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="G131" s="14"/>
       <c r="H131" s="14"/>
       <c r="I131" s="14"/>
       <c r="J131" s="14" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
     </row>
     <row r="132" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C132" s="24"/>
+      <c r="C132" s="25"/>
       <c r="D132" s="13" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="E132" s="14"/>
       <c r="F132" s="14" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="G132" s="14"/>
       <c r="H132" s="14"/>
       <c r="I132" s="14"/>
       <c r="J132" s="14" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
     </row>
     <row r="133" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C133" s="24"/>
+      <c r="C133" s="25"/>
       <c r="D133" s="13" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="E133" s="14"/>
       <c r="F133" s="14" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="G133" s="14"/>
       <c r="H133" s="14"/>
       <c r="I133" s="14"/>
       <c r="J133" s="14" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
     </row>
     <row r="134" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C134" s="24"/>
+      <c r="C134" s="25"/>
       <c r="D134" s="3" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="J134" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="135" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C135" s="24"/>
+      <c r="C135" s="25"/>
       <c r="D135" s="13" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="E135" s="14"/>
       <c r="F135" s="14" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="G135" s="14"/>
       <c r="H135" s="14"/>
       <c r="I135" s="14"/>
       <c r="J135" s="14" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
     </row>
     <row r="136" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C136" s="24"/>
+      <c r="C136" s="25"/>
       <c r="D136" s="13" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="E136" s="14"/>
       <c r="F136" s="14" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="G136" s="14"/>
       <c r="H136" s="14"/>
       <c r="I136" s="14"/>
       <c r="J136" s="14" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
     </row>
     <row r="137" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C137" s="24"/>
+      <c r="C137" s="25"/>
       <c r="D137" s="13" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="E137" s="14"/>
       <c r="F137" s="14" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="G137" s="14"/>
       <c r="H137" s="14"/>
       <c r="I137" s="14"/>
       <c r="J137" s="14" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
     </row>
     <row r="138" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C138" s="24"/>
+      <c r="C138" s="25"/>
       <c r="D138" s="3" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="J138" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="139" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C139" s="24"/>
+      <c r="C139" s="25"/>
       <c r="D139" s="13" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="E139" s="14"/>
       <c r="F139" s="14" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="G139" s="14"/>
       <c r="H139" s="14"/>
       <c r="I139" s="14"/>
       <c r="J139" s="14" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
     </row>
     <row r="140" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C140" s="24"/>
+      <c r="C140" s="25"/>
       <c r="D140" s="13" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="E140" s="14"/>
       <c r="F140" s="14" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="G140" s="14"/>
       <c r="H140" s="14"/>
       <c r="I140" s="14"/>
       <c r="J140" s="14" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
     </row>
     <row r="141" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C141" s="24"/>
+      <c r="C141" s="25"/>
       <c r="D141" s="13" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="E141" s="14"/>
       <c r="F141" s="14" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="G141" s="14"/>
       <c r="H141" s="14"/>
       <c r="I141" s="14"/>
       <c r="J141" s="14" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
     </row>
     <row r="142" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C142" s="24"/>
+      <c r="C142" s="25"/>
       <c r="D142" s="3" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="J142" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="143" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C143" s="24"/>
+      <c r="C143" s="25"/>
       <c r="D143" s="13" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="E143" s="14"/>
       <c r="F143" s="14" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="G143" s="14"/>
       <c r="H143" s="14"/>
       <c r="I143" s="14"/>
       <c r="J143" s="14" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
     </row>
     <row r="144" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C144" s="24"/>
+      <c r="C144" s="25"/>
       <c r="D144" s="13" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="E144" s="14"/>
       <c r="F144" s="14" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="G144" s="14"/>
       <c r="H144" s="14"/>
       <c r="I144" s="14"/>
       <c r="J144" s="14" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
     </row>
     <row r="145" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C145" s="24"/>
+      <c r="C145" s="25"/>
       <c r="D145" s="13" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="E145" s="14"/>
       <c r="F145" s="14" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="G145" s="14"/>
       <c r="H145" s="14"/>
       <c r="I145" s="14"/>
       <c r="J145" s="14" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
     </row>
     <row r="147" spans="3:12" x14ac:dyDescent="0.15">
       <c r="C147" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="148" spans="3:12" x14ac:dyDescent="0.15">
       <c r="D148" s="3" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
     </row>
     <row r="149" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="D149" s="3" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="F149" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="I149" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="L149" s="18" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="150" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="D150" s="3" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="F150" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="I150" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="L150" s="18" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
     </row>
     <row r="151" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="D151" s="3" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="F151" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="I151" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="L151" s="18" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
     </row>
     <row r="152" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="D152" s="3" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="F152" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="L152" s="18" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
     </row>
     <row r="153" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="D153" s="3" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="F153" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="L153" s="18" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
     </row>
     <row r="154" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="D154" s="3" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="F154" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="L154" s="18" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
     </row>
     <row r="155" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.15"/>
     <row r="156" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="D156" s="3" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="F156" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="L156" s="18" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
     </row>
     <row r="157" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="D157" s="3" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="F157" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="L157" s="18" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="159" spans="3:12" x14ac:dyDescent="0.15">
       <c r="C159" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
     </row>
     <row r="160" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="D160" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="F160" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="L160" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="161" spans="1:27" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="D161" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="F161" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="L161" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
     </row>
     <row r="162" spans="1:27" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="D162" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="F162" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="L162" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="AA162" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
     </row>
     <row r="163" spans="1:27" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="D163" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="F163" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="L163" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="AA163" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="164" spans="1:27" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="D164" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="F164" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="L164" s="18" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="AA164" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="165" spans="1:27" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="D165" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="F165" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="L165" s="18" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="166" spans="1:27" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="D166" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="F166" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="L166" s="18" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="167" spans="1:27" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="D167" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="F167" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="L167" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="168" spans="1:27" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="D168" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="F168" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="L168" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="169" spans="1:27" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="D169" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="F169" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="L169" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="171" spans="1:27" x14ac:dyDescent="0.15">
       <c r="C171" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
     </row>
     <row r="172" spans="1:27" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="D172" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="F172" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="L172" s="18" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="P172" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
     </row>
     <row r="173" spans="1:27" outlineLevel="1" x14ac:dyDescent="0.15"/>
     <row r="174" spans="1:27" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="D174" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="F174" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="L174" s="18" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="175" spans="1:27" outlineLevel="1" x14ac:dyDescent="0.15"/>
-    <row r="176" spans="1:27" ht="56" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:27" ht="54" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A176" s="21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D176" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="F176" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="L176" s="18" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="177" spans="4:12" outlineLevel="1" x14ac:dyDescent="0.15"/>
     <row r="178" spans="4:12" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="D178" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="F178" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="L178" s="18" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
     </row>
     <row r="179" spans="4:12" outlineLevel="1" x14ac:dyDescent="0.15"/>
@@ -4922,11 +5137,11 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="4" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
     </row>
   </sheetData>
@@ -4937,1022 +5152,1183 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I71"/>
+  <dimension ref="B2:S71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C25" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G4" sqref="G4:I71"/>
+      <selection pane="bottomRight" activeCell="S13" sqref="S13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="5" max="5" width="13.33203125" customWidth="1"/>
-    <col min="7" max="7" width="35.33203125" customWidth="1"/>
+    <col min="5" max="5" width="13.375" customWidth="1"/>
+    <col min="7" max="7" width="35.375" customWidth="1"/>
     <col min="8" max="8" width="26.5" customWidth="1"/>
+    <col min="16" max="16" width="17.5" customWidth="1"/>
+    <col min="18" max="18" width="20.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H2" t="s">
+        <v>399</v>
+      </c>
+      <c r="O2" t="s">
+        <v>565</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>566</v>
+      </c>
+      <c r="S2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="3" spans="2:19" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="2:19" x14ac:dyDescent="0.15">
+      <c r="B4" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E4" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G4" t="s">
+        <v>501</v>
+      </c>
+      <c r="H4" s="18" t="s">
+        <v>405</v>
+      </c>
+      <c r="I4" t="s">
+        <v>406</v>
+      </c>
+      <c r="O4" t="s">
+        <v>502</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>568</v>
+      </c>
+      <c r="S4" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="5" spans="2:19" x14ac:dyDescent="0.15">
+      <c r="B5" s="26"/>
+      <c r="C5" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="G2" t="s">
+      <c r="E5" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="H2" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B4" s="25" t="s">
+      <c r="G5" t="s">
+        <v>503</v>
+      </c>
+      <c r="H5" s="18" t="s">
+        <v>407</v>
+      </c>
+      <c r="I5" t="s">
+        <v>408</v>
+      </c>
+      <c r="O5" t="s">
+        <v>504</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>569</v>
+      </c>
+      <c r="S5" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="6" spans="2:19" x14ac:dyDescent="0.15">
+      <c r="B6" s="26"/>
+      <c r="C6" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="E6" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="G6" t="s">
+        <v>505</v>
+      </c>
+      <c r="H6" s="18" t="s">
+        <v>409</v>
+      </c>
+      <c r="I6" t="s">
+        <v>410</v>
+      </c>
+      <c r="O6" t="s">
+        <v>506</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>570</v>
+      </c>
+      <c r="S6" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="7" spans="2:19" x14ac:dyDescent="0.15">
+      <c r="B7" s="26"/>
+      <c r="C7" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="G4" t="s">
-        <v>410</v>
-      </c>
-      <c r="H4" s="18" t="s">
+      <c r="E7" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G7" t="s">
+        <v>507</v>
+      </c>
+      <c r="H7" s="18" t="s">
         <v>411</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I7" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B5" s="25"/>
-      <c r="C5" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="E5" s="1" t="s">
+      <c r="O7" t="s">
+        <v>508</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>571</v>
+      </c>
+      <c r="S7" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="8" spans="2:19" x14ac:dyDescent="0.15">
+      <c r="B8" s="26"/>
+      <c r="C8" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="G5" t="s">
+      <c r="E8" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G8" t="s">
+        <v>509</v>
+      </c>
+      <c r="H8" s="18" t="s">
         <v>413</v>
       </c>
-      <c r="H5" s="18" t="s">
+      <c r="I8" t="s">
         <v>414</v>
       </c>
-      <c r="I5" t="s">
+      <c r="O8" t="s">
+        <v>510</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>572</v>
+      </c>
+      <c r="S8" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="9" spans="2:19" x14ac:dyDescent="0.15">
+      <c r="B9" s="26"/>
+      <c r="C9" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G9" t="s">
+        <v>511</v>
+      </c>
+      <c r="H9" s="18" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B6" s="25"/>
-      <c r="C6" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="I9" t="s">
         <v>416</v>
       </c>
-      <c r="H6" s="18" t="s">
+      <c r="O9" t="s">
+        <v>512</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>573</v>
+      </c>
+      <c r="S9" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="10" spans="2:19" x14ac:dyDescent="0.15">
+      <c r="B10" s="26"/>
+      <c r="C10" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G10" t="s">
+        <v>513</v>
+      </c>
+      <c r="H10" s="18" t="s">
         <v>417</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I10" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B7" s="25"/>
-      <c r="C7" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="O10" t="s">
+        <v>514</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>574</v>
+      </c>
+      <c r="S10" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="11" spans="2:19" x14ac:dyDescent="0.15">
+      <c r="B11" s="26"/>
+      <c r="C11" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G11" t="s">
+        <v>515</v>
+      </c>
+      <c r="H11" s="18" t="s">
         <v>419</v>
       </c>
-      <c r="H7" s="18" t="s">
+      <c r="I11" t="s">
         <v>420</v>
       </c>
-      <c r="I7" t="s">
+      <c r="O11" t="s">
+        <v>516</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>575</v>
+      </c>
+      <c r="S11" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="12" spans="2:19" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="26"/>
+      <c r="C12" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G12" t="s">
+        <v>517</v>
+      </c>
+      <c r="H12" s="18" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B8" s="25"/>
-      <c r="C8" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="G8" t="s">
+      <c r="I12" t="s">
         <v>422</v>
       </c>
-      <c r="H8" s="18" t="s">
+      <c r="O12" t="s">
+        <v>518</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>576</v>
+      </c>
+      <c r="S12" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="14" spans="2:19" x14ac:dyDescent="0.15">
+      <c r="B14" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="C14" t="s">
+        <v>97</v>
+      </c>
+      <c r="E14" t="s">
+        <v>97</v>
+      </c>
+      <c r="G14" t="s">
+        <v>519</v>
+      </c>
+      <c r="H14" t="s">
         <v>423</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I14" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B9" s="25"/>
-      <c r="C9" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="G9" t="s">
+      <c r="O14" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="15" spans="2:19" x14ac:dyDescent="0.15">
+      <c r="B15" s="25"/>
+      <c r="C15" t="s">
+        <v>98</v>
+      </c>
+      <c r="E15" t="s">
+        <v>98</v>
+      </c>
+      <c r="G15" t="s">
+        <v>521</v>
+      </c>
+      <c r="H15" t="s">
+        <v>423</v>
+      </c>
+      <c r="I15" t="s">
+        <v>424</v>
+      </c>
+      <c r="O15" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="16" spans="2:19" x14ac:dyDescent="0.15">
+      <c r="B16" s="25"/>
+      <c r="C16" t="s">
+        <v>99</v>
+      </c>
+      <c r="E16" t="s">
+        <v>99</v>
+      </c>
+      <c r="G16" t="s">
+        <v>523</v>
+      </c>
+      <c r="H16" t="s">
+        <v>423</v>
+      </c>
+      <c r="I16" t="s">
+        <v>424</v>
+      </c>
+      <c r="O16" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B17" s="25"/>
+      <c r="C17" t="s">
+        <v>100</v>
+      </c>
+      <c r="E17" t="s">
+        <v>100</v>
+      </c>
+      <c r="G17" t="s">
+        <v>525</v>
+      </c>
+      <c r="H17" s="24" t="s">
         <v>425</v>
       </c>
-      <c r="H9" s="18" t="s">
+      <c r="I17" t="s">
         <v>426</v>
       </c>
-      <c r="I9" t="s">
+      <c r="O17" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B18" s="25"/>
+      <c r="C18" t="s">
+        <v>101</v>
+      </c>
+      <c r="E18" t="s">
+        <v>101</v>
+      </c>
+      <c r="G18" t="s">
+        <v>527</v>
+      </c>
+      <c r="H18" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B10" s="25"/>
-      <c r="C10" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="G10" t="s">
+      <c r="I18" t="s">
+        <v>426</v>
+      </c>
+      <c r="O18" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B19" s="25"/>
+      <c r="C19" t="s">
+        <v>102</v>
+      </c>
+      <c r="E19" t="s">
+        <v>102</v>
+      </c>
+      <c r="G19" s="20" t="s">
+        <v>529</v>
+      </c>
+      <c r="H19" t="s">
+        <v>427</v>
+      </c>
+      <c r="I19" t="s">
+        <v>426</v>
+      </c>
+      <c r="O19" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B20" s="25"/>
+      <c r="C20" t="s">
+        <v>103</v>
+      </c>
+      <c r="E20" t="s">
+        <v>103</v>
+      </c>
+      <c r="G20" t="s">
+        <v>531</v>
+      </c>
+      <c r="H20" t="s">
         <v>428</v>
       </c>
-      <c r="H10" s="18" t="s">
+      <c r="I20" t="s">
         <v>429</v>
       </c>
-      <c r="I10" t="s">
+      <c r="O20" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B21" s="25"/>
+      <c r="C21" t="s">
+        <v>104</v>
+      </c>
+      <c r="E21" t="s">
+        <v>104</v>
+      </c>
+      <c r="G21" t="s">
+        <v>533</v>
+      </c>
+      <c r="H21" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B11" s="25"/>
-      <c r="C11" s="7" t="s">
+      <c r="I21" t="s">
+        <v>431</v>
+      </c>
+      <c r="O21" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B22" s="25"/>
+      <c r="C22" t="s">
+        <v>105</v>
+      </c>
+      <c r="E22" t="s">
+        <v>105</v>
+      </c>
+      <c r="G22" t="s">
+        <v>535</v>
+      </c>
+      <c r="H22" t="s">
+        <v>428</v>
+      </c>
+      <c r="I22" t="s">
+        <v>429</v>
+      </c>
+      <c r="O22" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B23" s="25"/>
+      <c r="C23" t="s">
+        <v>106</v>
+      </c>
+      <c r="E23" t="s">
+        <v>106</v>
+      </c>
+      <c r="G23" t="s">
+        <v>537</v>
+      </c>
+      <c r="H23" t="s">
+        <v>432</v>
+      </c>
+      <c r="I23" t="s">
+        <v>433</v>
+      </c>
+      <c r="O23" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B24" s="25"/>
+      <c r="C24" t="s">
+        <v>107</v>
+      </c>
+      <c r="E24" t="s">
+        <v>107</v>
+      </c>
+      <c r="G24" t="s">
+        <v>539</v>
+      </c>
+      <c r="H24" t="s">
+        <v>400</v>
+      </c>
+      <c r="I24" t="s">
+        <v>434</v>
+      </c>
+      <c r="O24" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B25" s="25"/>
+      <c r="C25" t="s">
+        <v>108</v>
+      </c>
+      <c r="E25" t="s">
+        <v>108</v>
+      </c>
+      <c r="G25" t="s">
+        <v>541</v>
+      </c>
+      <c r="H25" t="s">
+        <v>402</v>
+      </c>
+      <c r="I25" t="s">
+        <v>435</v>
+      </c>
+      <c r="O25" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B26" s="25"/>
+      <c r="C26" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" t="s">
+        <v>8</v>
+      </c>
+      <c r="G26" t="s">
+        <v>544</v>
+      </c>
+      <c r="H26" t="s">
+        <v>400</v>
+      </c>
+      <c r="I26" t="s">
+        <v>434</v>
+      </c>
+      <c r="O26" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B27" s="25"/>
+      <c r="C27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" t="s">
+        <v>9</v>
+      </c>
+      <c r="G27" t="s">
+        <v>546</v>
+      </c>
+      <c r="H27" t="s">
+        <v>436</v>
+      </c>
+      <c r="I27" t="s">
+        <v>437</v>
+      </c>
+      <c r="O27" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B28" s="25"/>
+      <c r="C28" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" t="s">
+        <v>10</v>
+      </c>
+      <c r="G28" t="s">
+        <v>543</v>
+      </c>
+      <c r="H28" t="s">
+        <v>438</v>
+      </c>
+      <c r="I28" t="s">
+        <v>439</v>
+      </c>
+      <c r="O28" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B29" s="25"/>
+      <c r="C29" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" t="s">
+        <v>549</v>
+      </c>
+      <c r="H29" t="s">
+        <v>440</v>
+      </c>
+      <c r="I29" t="s">
+        <v>441</v>
+      </c>
+      <c r="O29" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="30" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B30" s="25"/>
+      <c r="C30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E30" t="s">
+        <v>14</v>
+      </c>
+      <c r="G30" t="s">
+        <v>551</v>
+      </c>
+      <c r="H30" t="s">
+        <v>401</v>
+      </c>
+      <c r="I30" t="s">
+        <v>442</v>
+      </c>
+      <c r="O30" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="31" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B31" s="25"/>
+      <c r="C31" t="s">
+        <v>15</v>
+      </c>
+      <c r="E31" t="s">
+        <v>15</v>
+      </c>
+      <c r="G31" t="s">
+        <v>553</v>
+      </c>
+      <c r="H31" t="s">
+        <v>443</v>
+      </c>
+      <c r="I31" t="s">
+        <v>444</v>
+      </c>
+      <c r="O31" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="32" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B32" s="25"/>
+      <c r="C32" t="s">
+        <v>16</v>
+      </c>
+      <c r="E32" t="s">
+        <v>17</v>
+      </c>
+      <c r="G32" t="s">
+        <v>555</v>
+      </c>
+      <c r="H32" t="s">
+        <v>443</v>
+      </c>
+      <c r="I32" t="s">
+        <v>444</v>
+      </c>
+      <c r="O32" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B33" s="25"/>
+      <c r="C33" t="s">
+        <v>18</v>
+      </c>
+      <c r="E33" t="s">
+        <v>18</v>
+      </c>
+      <c r="G33" t="s">
+        <v>557</v>
+      </c>
+      <c r="H33" t="s">
+        <v>445</v>
+      </c>
+      <c r="I33" t="s">
+        <v>446</v>
+      </c>
+      <c r="O33" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B34" s="25"/>
+      <c r="C34" t="s">
+        <v>19</v>
+      </c>
+      <c r="E34" t="s">
+        <v>20</v>
+      </c>
+      <c r="G34" t="s">
+        <v>559</v>
+      </c>
+      <c r="H34" t="s">
+        <v>447</v>
+      </c>
+      <c r="I34" t="s">
+        <v>448</v>
+      </c>
+      <c r="O34" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B35" s="25"/>
+      <c r="C35" t="s">
+        <v>21</v>
+      </c>
+      <c r="E35" t="s">
+        <v>22</v>
+      </c>
+      <c r="G35" t="s">
+        <v>560</v>
+      </c>
+      <c r="H35" t="s">
+        <v>447</v>
+      </c>
+      <c r="I35" t="s">
+        <v>448</v>
+      </c>
+      <c r="O35" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="36" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B36" s="25"/>
+      <c r="C36" t="s">
+        <v>23</v>
+      </c>
+      <c r="E36" t="s">
+        <v>24</v>
+      </c>
+      <c r="G36" t="s">
+        <v>561</v>
+      </c>
+      <c r="H36" t="s">
+        <v>447</v>
+      </c>
+      <c r="I36" t="s">
+        <v>448</v>
+      </c>
+      <c r="O36" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="38" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B38" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E38" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="G11" t="s">
-        <v>431</v>
-      </c>
-      <c r="H11" s="18" t="s">
-        <v>432</v>
-      </c>
-      <c r="I11" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="25"/>
-      <c r="C12" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="G12" t="s">
-        <v>434</v>
-      </c>
-      <c r="H12" s="18" t="s">
-        <v>435</v>
-      </c>
-      <c r="I12" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B14" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="C14" t="s">
-        <v>102</v>
-      </c>
-      <c r="E14" t="s">
-        <v>102</v>
-      </c>
-      <c r="G14" t="s">
-        <v>437</v>
-      </c>
-      <c r="H14" t="s">
-        <v>438</v>
-      </c>
-      <c r="I14" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B15" s="24"/>
-      <c r="C15" t="s">
-        <v>103</v>
-      </c>
-      <c r="E15" t="s">
-        <v>103</v>
-      </c>
-      <c r="G15" t="s">
-        <v>440</v>
-      </c>
-      <c r="H15" t="s">
-        <v>438</v>
-      </c>
-      <c r="I15" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B16" s="24"/>
-      <c r="C16" t="s">
-        <v>104</v>
-      </c>
-      <c r="E16" t="s">
-        <v>104</v>
-      </c>
-      <c r="G16" t="s">
-        <v>441</v>
-      </c>
-      <c r="H16" t="s">
-        <v>438</v>
-      </c>
-      <c r="I16" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B17" s="24"/>
-      <c r="C17" t="s">
-        <v>105</v>
-      </c>
-      <c r="E17" t="s">
-        <v>105</v>
-      </c>
-      <c r="G17" t="s">
-        <v>442</v>
-      </c>
-      <c r="H17" s="26" t="s">
-        <v>443</v>
-      </c>
-      <c r="I17" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B18" s="24"/>
-      <c r="C18" t="s">
-        <v>106</v>
-      </c>
-      <c r="E18" t="s">
-        <v>106</v>
-      </c>
-      <c r="G18" t="s">
-        <v>445</v>
-      </c>
-      <c r="H18" t="s">
-        <v>446</v>
-      </c>
-      <c r="I18" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B19" s="24"/>
-      <c r="C19" t="s">
-        <v>107</v>
-      </c>
-      <c r="E19" t="s">
-        <v>107</v>
-      </c>
-      <c r="G19" s="20" t="s">
-        <v>447</v>
-      </c>
-      <c r="H19" t="s">
-        <v>446</v>
-      </c>
-      <c r="I19" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B20" s="24"/>
-      <c r="C20" t="s">
-        <v>108</v>
-      </c>
-      <c r="E20" t="s">
-        <v>108</v>
-      </c>
-      <c r="G20" t="s">
-        <v>448</v>
-      </c>
-      <c r="H20" t="s">
+      <c r="G38" t="s">
         <v>449</v>
       </c>
-      <c r="I20" t="s">
+      <c r="H38" t="s">
+        <v>499</v>
+      </c>
+      <c r="I38" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B21" s="24"/>
-      <c r="C21" t="s">
-        <v>109</v>
-      </c>
-      <c r="E21" t="s">
-        <v>109</v>
-      </c>
-      <c r="G21" t="s">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B39" s="25"/>
+      <c r="C39" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G39" t="s">
         <v>451</v>
       </c>
-      <c r="H21" t="s">
+      <c r="H39" t="s">
+        <v>500</v>
+      </c>
+      <c r="I39" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B40" s="25"/>
+      <c r="C40" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G40" t="s">
         <v>452</v>
       </c>
-      <c r="I21" t="s">
+      <c r="H40" t="s">
+        <v>499</v>
+      </c>
+      <c r="I40" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B41" s="25"/>
+      <c r="C41" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G41" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B22" s="24"/>
-      <c r="C22" t="s">
-        <v>110</v>
-      </c>
-      <c r="E22" t="s">
-        <v>110</v>
-      </c>
-      <c r="G22" t="s">
+      <c r="H41" t="s">
+        <v>498</v>
+      </c>
+      <c r="I41" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B42" s="25"/>
+      <c r="C42" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G42" t="s">
         <v>454</v>
       </c>
-      <c r="H22" t="s">
-        <v>449</v>
-      </c>
-      <c r="I22" t="s">
+      <c r="H42" t="s">
+        <v>497</v>
+      </c>
+      <c r="I42" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B23" s="24"/>
-      <c r="C23" t="s">
-        <v>111</v>
-      </c>
-      <c r="E23" t="s">
-        <v>111</v>
-      </c>
-      <c r="G23" t="s">
+    <row r="43" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B43" s="25"/>
+      <c r="C43" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G43" t="s">
         <v>455</v>
       </c>
-      <c r="H23" t="s">
+      <c r="H43" t="s">
         <v>456</v>
       </c>
-      <c r="I23" t="s">
+      <c r="I43" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B24" s="24"/>
-      <c r="C24" t="s">
-        <v>112</v>
-      </c>
-      <c r="E24" t="s">
-        <v>112</v>
-      </c>
-      <c r="G24" t="s">
-        <v>69</v>
-      </c>
-      <c r="H24" t="s">
-        <v>405</v>
-      </c>
-      <c r="I24" t="s">
+    <row r="44" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B44" s="25"/>
+      <c r="C44" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G44" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B25" s="24"/>
-      <c r="C25" t="s">
-        <v>113</v>
-      </c>
-      <c r="E25" t="s">
-        <v>113</v>
-      </c>
-      <c r="G25" t="s">
-        <v>8</v>
-      </c>
-      <c r="H25" t="s">
-        <v>407</v>
-      </c>
-      <c r="I25" t="s">
+      <c r="H44" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B26" s="24"/>
-      <c r="C26" t="s">
-        <v>9</v>
-      </c>
-      <c r="E26" t="s">
-        <v>9</v>
-      </c>
-      <c r="G26" t="s">
-        <v>70</v>
-      </c>
-      <c r="H26" t="s">
-        <v>405</v>
-      </c>
-      <c r="I26" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B27" s="24"/>
-      <c r="C27" t="s">
-        <v>10</v>
-      </c>
-      <c r="E27" t="s">
-        <v>10</v>
-      </c>
-      <c r="G27" t="s">
+      <c r="I44" t="s">
         <v>460</v>
       </c>
-      <c r="H27" t="s">
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B45" s="25"/>
+      <c r="C45" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="G45" t="s">
         <v>461</v>
       </c>
-      <c r="I27" t="s">
+      <c r="H45" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B28" s="24"/>
-      <c r="C28" t="s">
-        <v>11</v>
-      </c>
-      <c r="E28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G28" t="s">
+      <c r="I45" t="s">
         <v>463</v>
       </c>
-      <c r="H28" t="s">
-        <v>464</v>
-      </c>
-      <c r="I28" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B29" s="24"/>
-      <c r="C29" t="s">
-        <v>12</v>
-      </c>
-      <c r="E29" t="s">
-        <v>13</v>
-      </c>
-      <c r="G29" t="s">
-        <v>466</v>
-      </c>
-      <c r="H29" t="s">
-        <v>467</v>
-      </c>
-      <c r="I29" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B30" s="24"/>
-      <c r="C30" t="s">
-        <v>14</v>
-      </c>
-      <c r="E30" t="s">
-        <v>15</v>
-      </c>
-      <c r="G30" t="s">
-        <v>469</v>
-      </c>
-      <c r="H30" t="s">
-        <v>406</v>
-      </c>
-      <c r="I30" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B31" s="24"/>
-      <c r="C31" t="s">
-        <v>16</v>
-      </c>
-      <c r="E31" t="s">
-        <v>16</v>
-      </c>
-      <c r="G31" t="s">
-        <v>71</v>
-      </c>
-      <c r="H31" t="s">
-        <v>471</v>
-      </c>
-      <c r="I31" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B32" s="24"/>
-      <c r="C32" t="s">
-        <v>17</v>
-      </c>
-      <c r="E32" t="s">
-        <v>18</v>
-      </c>
-      <c r="G32" t="s">
-        <v>72</v>
-      </c>
-      <c r="H32" t="s">
-        <v>471</v>
-      </c>
-      <c r="I32" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B33" s="24"/>
-      <c r="C33" t="s">
-        <v>19</v>
-      </c>
-      <c r="E33" t="s">
-        <v>19</v>
-      </c>
-      <c r="G33" t="s">
-        <v>473</v>
-      </c>
-      <c r="H33" t="s">
-        <v>474</v>
-      </c>
-      <c r="I33" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B34" s="24"/>
-      <c r="C34" t="s">
-        <v>20</v>
-      </c>
-      <c r="E34" t="s">
-        <v>21</v>
-      </c>
-      <c r="G34" t="s">
-        <v>476</v>
-      </c>
-      <c r="H34" t="s">
-        <v>477</v>
-      </c>
-      <c r="I34" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B35" s="24"/>
-      <c r="C35" t="s">
-        <v>22</v>
-      </c>
-      <c r="E35" t="s">
-        <v>23</v>
-      </c>
-      <c r="G35" t="s">
-        <v>479</v>
-      </c>
-      <c r="H35" t="s">
-        <v>477</v>
-      </c>
-      <c r="I35" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B36" s="24"/>
-      <c r="C36" t="s">
-        <v>24</v>
-      </c>
-      <c r="E36" t="s">
-        <v>25</v>
-      </c>
-      <c r="G36" t="s">
-        <v>480</v>
-      </c>
-      <c r="H36" t="s">
-        <v>477</v>
-      </c>
-      <c r="I36" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B38" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G38" t="s">
-        <v>481</v>
-      </c>
-      <c r="H38" t="s">
-        <v>482</v>
-      </c>
-      <c r="I38" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B39" s="24"/>
-      <c r="C39" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G39" t="s">
-        <v>484</v>
-      </c>
-      <c r="H39" t="s">
-        <v>482</v>
-      </c>
-      <c r="I39" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B40" s="24"/>
-      <c r="C40" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G40" t="s">
-        <v>485</v>
-      </c>
-      <c r="H40" t="s">
-        <v>482</v>
-      </c>
-      <c r="I40" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B41" s="24"/>
-      <c r="C41" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G41" t="s">
-        <v>486</v>
-      </c>
-      <c r="H41" t="s">
-        <v>487</v>
-      </c>
-      <c r="I41" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B42" s="24"/>
-      <c r="C42" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G42" t="s">
-        <v>488</v>
-      </c>
-      <c r="H42" t="s">
-        <v>487</v>
-      </c>
-      <c r="I42" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B43" s="24"/>
-      <c r="C43" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="G43" t="s">
-        <v>489</v>
-      </c>
-      <c r="H43" t="s">
-        <v>490</v>
-      </c>
-      <c r="I43" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B44" s="24"/>
-      <c r="C44" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G44" t="s">
-        <v>492</v>
-      </c>
-      <c r="H44" t="s">
-        <v>493</v>
-      </c>
-      <c r="I44" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B45" s="24"/>
-      <c r="C45" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="G45" t="s">
-        <v>495</v>
-      </c>
-      <c r="H45" t="s">
-        <v>496</v>
-      </c>
-      <c r="I45" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.15">
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B46" s="23"/>
       <c r="C46" s="3" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="G46" t="s">
-        <v>498</v>
+        <v>464</v>
       </c>
       <c r="H46" t="s">
-        <v>499</v>
+        <v>465</v>
       </c>
       <c r="I46" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B48" s="24" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B48" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="E48" t="s">
+        <v>142</v>
+      </c>
+      <c r="G48" t="s">
+        <v>467</v>
+      </c>
+      <c r="H48" t="s">
+        <v>468</v>
+      </c>
+      <c r="I48" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B49" s="25"/>
+      <c r="C49" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="E49" t="s">
+        <v>144</v>
+      </c>
+      <c r="G49" t="s">
+        <v>470</v>
+      </c>
+      <c r="H49" t="s">
+        <v>468</v>
+      </c>
+      <c r="I49" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B50" s="25"/>
+      <c r="C50" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="E50" t="s">
         <v>146</v>
       </c>
-      <c r="E48" t="s">
+      <c r="G50" t="s">
+        <v>471</v>
+      </c>
+      <c r="H50" t="s">
+        <v>468</v>
+      </c>
+      <c r="I50" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B51" s="25"/>
+      <c r="C51" s="3" t="s">
         <v>147</v>
-      </c>
-      <c r="G48" t="s">
-        <v>501</v>
-      </c>
-      <c r="H48" t="s">
-        <v>502</v>
-      </c>
-      <c r="I48" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B49" s="24"/>
-      <c r="C49" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="E49" t="s">
-        <v>149</v>
-      </c>
-      <c r="G49" t="s">
-        <v>504</v>
-      </c>
-      <c r="H49" t="s">
-        <v>502</v>
-      </c>
-      <c r="I49" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B50" s="24"/>
-      <c r="C50" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="E50" t="s">
-        <v>151</v>
-      </c>
-      <c r="G50" t="s">
-        <v>505</v>
-      </c>
-      <c r="H50" t="s">
-        <v>502</v>
-      </c>
-      <c r="I50" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B51" s="24"/>
-      <c r="C51" s="3" t="s">
-        <v>152</v>
       </c>
       <c r="E51" t="s">
         <v>0</v>
       </c>
       <c r="G51" t="s">
-        <v>506</v>
+        <v>472</v>
       </c>
       <c r="H51" t="s">
-        <v>502</v>
+        <v>468</v>
       </c>
       <c r="I51" t="s">
-        <v>503</v>
+        <v>469</v>
       </c>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B52" s="24"/>
+      <c r="B52" s="25"/>
       <c r="C52" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="E52" t="s">
+        <v>149</v>
+      </c>
+      <c r="G52" t="s">
+        <v>473</v>
+      </c>
+      <c r="H52" t="s">
+        <v>468</v>
+      </c>
+      <c r="I52" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B53" s="25"/>
+      <c r="C53" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E53" t="s">
+        <v>34</v>
+      </c>
+      <c r="G53" t="s">
+        <v>474</v>
+      </c>
+      <c r="H53" t="s">
+        <v>468</v>
+      </c>
+      <c r="I53" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B54" s="25"/>
+      <c r="C54" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="E54" t="s">
+        <v>152</v>
+      </c>
+      <c r="G54" t="s">
+        <v>475</v>
+      </c>
+      <c r="H54" t="s">
+        <v>468</v>
+      </c>
+      <c r="I54" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B55" s="25"/>
+      <c r="C55" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="E52" t="s">
+      <c r="E55" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="G52" t="s">
-        <v>507</v>
-      </c>
-      <c r="H52" t="s">
-        <v>502</v>
-      </c>
-      <c r="I52" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B53" s="24"/>
-      <c r="C53" s="3" t="s">
+      <c r="G55" t="s">
+        <v>476</v>
+      </c>
+      <c r="H55" t="s">
+        <v>468</v>
+      </c>
+      <c r="I55" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B56" s="25"/>
+      <c r="C56" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="E53" t="s">
-        <v>35</v>
-      </c>
-      <c r="G53" t="s">
-        <v>508</v>
-      </c>
-      <c r="H53" t="s">
-        <v>502</v>
-      </c>
-      <c r="I53" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B54" s="24"/>
-      <c r="C54" s="3" t="s">
+      <c r="E56" s="20" t="s">
         <v>156</v>
       </c>
-      <c r="E54" t="s">
+      <c r="G56" t="s">
+        <v>477</v>
+      </c>
+      <c r="H56" t="s">
+        <v>468</v>
+      </c>
+      <c r="I56" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B57" s="25"/>
+      <c r="C57" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="G54" t="s">
-        <v>509</v>
-      </c>
-      <c r="H54" t="s">
-        <v>502</v>
-      </c>
-      <c r="I54" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B55" s="24"/>
-      <c r="C55" s="3" t="s">
+      <c r="E57" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="G57" t="s">
+        <v>478</v>
+      </c>
+      <c r="H57" t="s">
+        <v>468</v>
+      </c>
+      <c r="I57" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B58" s="25"/>
+      <c r="C58" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="E55" s="20" t="s">
+      <c r="E58" s="20" t="s">
         <v>159</v>
       </c>
-      <c r="G55" t="s">
-        <v>510</v>
-      </c>
-      <c r="H55" t="s">
-        <v>502</v>
-      </c>
-      <c r="I55" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B56" s="24"/>
-      <c r="C56" s="3" t="s">
+      <c r="G58" t="s">
+        <v>479</v>
+      </c>
+      <c r="H58" t="s">
+        <v>468</v>
+      </c>
+      <c r="I58" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B59" s="25"/>
+      <c r="C59" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="E56" s="20" t="s">
+      <c r="E59" s="20" t="s">
         <v>161</v>
       </c>
-      <c r="G56" t="s">
-        <v>511</v>
-      </c>
-      <c r="H56" t="s">
-        <v>502</v>
-      </c>
-      <c r="I56" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B57" s="24"/>
-      <c r="C57" s="3" t="s">
+      <c r="G59" t="s">
+        <v>480</v>
+      </c>
+      <c r="H59" t="s">
+        <v>468</v>
+      </c>
+      <c r="I59" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B60" s="25"/>
+      <c r="C60" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="E57" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="G57" t="s">
-        <v>512</v>
-      </c>
-      <c r="H57" t="s">
-        <v>502</v>
-      </c>
-      <c r="I57" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B58" s="24"/>
-      <c r="C58" s="3" t="s">
+      <c r="E60" t="s">
         <v>163</v>
       </c>
-      <c r="E58" s="20" t="s">
-        <v>164</v>
-      </c>
-      <c r="G58" t="s">
-        <v>513</v>
-      </c>
-      <c r="H58" t="s">
-        <v>502</v>
-      </c>
-      <c r="I58" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B59" s="24"/>
-      <c r="C59" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="E59" s="20" t="s">
-        <v>166</v>
-      </c>
-      <c r="G59" t="s">
-        <v>514</v>
-      </c>
-      <c r="H59" t="s">
-        <v>502</v>
-      </c>
-      <c r="I59" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B60" s="24"/>
-      <c r="C60" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="E60" t="s">
-        <v>168</v>
-      </c>
       <c r="G60" t="s">
-        <v>515</v>
+        <v>481</v>
       </c>
       <c r="H60" t="s">
-        <v>516</v>
+        <v>482</v>
       </c>
       <c r="I60" t="s">
-        <v>517</v>
+        <v>483</v>
       </c>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B61" s="24"/>
+      <c r="B61" s="25"/>
       <c r="C61" s="3" t="s">
         <v>1</v>
       </c>
@@ -5960,17 +6336,17 @@
         <v>2</v>
       </c>
       <c r="G61" t="s">
-        <v>518</v>
+        <v>484</v>
       </c>
       <c r="H61" t="s">
-        <v>516</v>
+        <v>482</v>
       </c>
       <c r="I61" t="s">
-        <v>517</v>
+        <v>483</v>
       </c>
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B62" s="24"/>
+      <c r="B62" s="25"/>
       <c r="C62" s="3" t="s">
         <v>3</v>
       </c>
@@ -5978,17 +6354,17 @@
         <v>4</v>
       </c>
       <c r="G62" t="s">
-        <v>519</v>
+        <v>485</v>
       </c>
       <c r="H62" t="s">
-        <v>516</v>
+        <v>482</v>
       </c>
       <c r="I62" t="s">
-        <v>517</v>
+        <v>483</v>
       </c>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B63" s="24"/>
+      <c r="B63" s="25"/>
       <c r="C63" s="3" t="s">
         <v>5</v>
       </c>
@@ -5996,157 +6372,157 @@
         <v>6</v>
       </c>
       <c r="G63" t="s">
-        <v>520</v>
+        <v>486</v>
       </c>
       <c r="H63" t="s">
-        <v>516</v>
+        <v>482</v>
       </c>
       <c r="I63" t="s">
-        <v>517</v>
+        <v>483</v>
       </c>
     </row>
     <row r="64" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B64" s="24"/>
+      <c r="B64" s="25"/>
       <c r="C64" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E64" t="s">
+        <v>55</v>
+      </c>
+      <c r="G64" t="s">
+        <v>487</v>
+      </c>
+      <c r="H64" t="s">
+        <v>488</v>
+      </c>
+      <c r="I64" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B65" s="25"/>
+      <c r="C65" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E65" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="G64" t="s">
-        <v>521</v>
-      </c>
-      <c r="H64" t="s">
-        <v>522</v>
-      </c>
-      <c r="I64" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B65" s="24"/>
-      <c r="C65" s="3" t="s">
+      <c r="G65" t="s">
+        <v>490</v>
+      </c>
+      <c r="H65" t="s">
+        <v>488</v>
+      </c>
+      <c r="I65" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B66" s="25"/>
+      <c r="C66" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E66" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="G66" t="s">
+        <v>491</v>
+      </c>
+      <c r="H66" t="s">
+        <v>488</v>
+      </c>
+      <c r="I66" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B67" s="25"/>
+      <c r="C67" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E67" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="G67" t="s">
+        <v>492</v>
+      </c>
+      <c r="H67" t="s">
+        <v>488</v>
+      </c>
+      <c r="I67" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B68" s="25"/>
+      <c r="C68" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E68" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="E65" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="G65" t="s">
-        <v>524</v>
-      </c>
-      <c r="H65" t="s">
-        <v>522</v>
-      </c>
-      <c r="I65" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B66" s="24"/>
-      <c r="C66" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E66" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="G66" t="s">
-        <v>525</v>
-      </c>
-      <c r="H66" t="s">
-        <v>522</v>
-      </c>
-      <c r="I66" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B67" s="24"/>
-      <c r="C67" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E67" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="G67" t="s">
-        <v>526</v>
-      </c>
-      <c r="H67" t="s">
-        <v>522</v>
-      </c>
-      <c r="I67" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B68" s="24"/>
-      <c r="C68" s="3" t="s">
+      <c r="G68" t="s">
+        <v>493</v>
+      </c>
+      <c r="H68" t="s">
+        <v>488</v>
+      </c>
+      <c r="I68" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B69" s="25"/>
+      <c r="C69" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E68" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="G68" t="s">
-        <v>527</v>
-      </c>
-      <c r="H68" t="s">
-        <v>522</v>
-      </c>
-      <c r="I68" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B69" s="24"/>
-      <c r="C69" s="3" t="s">
+      <c r="E69" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="E69" s="20" t="s">
+      <c r="G69" t="s">
+        <v>494</v>
+      </c>
+      <c r="H69" t="s">
+        <v>488</v>
+      </c>
+      <c r="I69" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B70" s="25"/>
+      <c r="C70" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="G69" t="s">
-        <v>528</v>
-      </c>
-      <c r="H69" t="s">
-        <v>522</v>
-      </c>
-      <c r="I69" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B70" s="24"/>
-      <c r="C70" s="3" t="s">
+      <c r="E70" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="E70" s="20" t="s">
+      <c r="G70" t="s">
+        <v>495</v>
+      </c>
+      <c r="H70" t="s">
+        <v>488</v>
+      </c>
+      <c r="I70" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="71" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B71" s="25"/>
+      <c r="C71" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="G70" t="s">
-        <v>529</v>
-      </c>
-      <c r="H70" t="s">
-        <v>522</v>
-      </c>
-      <c r="I70" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B71" s="24"/>
-      <c r="C71" s="3" t="s">
+      <c r="E71" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="E71" s="20" t="s">
-        <v>68</v>
-      </c>
       <c r="G71" t="s">
-        <v>530</v>
+        <v>496</v>
       </c>
       <c r="H71" t="s">
-        <v>522</v>
+        <v>488</v>
       </c>
       <c r="I71" t="s">
-        <v>523</v>
+        <v>489</v>
       </c>
     </row>
   </sheetData>

--- a/gd/美术需求文档/UI相关/Icon需求.xlsx
+++ b/gd/美术需求文档/UI相关/Icon需求.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-180" yWindow="690" windowWidth="28725" windowHeight="10425" activeTab="2"/>
+    <workbookView xWindow="-180" yWindow="0" windowWidth="28725" windowHeight="12345"/>
   </bookViews>
   <sheets>
     <sheet name="ICON需求及分类" sheetId="1" r:id="rId1"/>
     <sheet name="ICON风格参考" sheetId="2" r:id="rId2"/>
     <sheet name="物品道具翻译需求" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="586">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="608">
   <si>
     <t>坚固的护腕</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -211,54 +211,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>和钻石不一样？
-名称已经改为锆石</t>
-    <rPh sb="0" eb="1">
-      <t>he</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>zuan'shi</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>bu'yi'yang</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>灰色会不会觉得比较低级？
-感觉灰色比较能有效代表"速度"</t>
-    <rPh sb="0" eb="1">
-      <t>hui'se</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>hui</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>bu'hui</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>jue'de</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>bi'jiao</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>di'ji</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>两个橙红色
-因为两个都是跟"暴击"相关</t>
-    <rPh sb="0" eb="1">
-      <t>liang'g</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>cheng'hong'se</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>卷轴样式,空白处显示经验倍数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -267,38 +219,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>活跃和贡献区分公会和个人的么
-活跃度就是工会的,个人的是公会贡献</t>
-    <rPh sb="0" eb="1">
-      <t>huo'yue</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>he</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>gong'xian</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>qu'fen</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>gong'hui</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>he</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>g'r</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>d</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>me</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>二挡</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -889,26 +809,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>十字星</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>能量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>羽毛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>彩虹色</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>橙红色</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>前置能量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1066,23 +974,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>之前是双倍，三倍
-已经统一改回以前的设定增加1档50%提升的道具</t>
-    <rPh sb="0" eb="1">
-      <t>zhi'q</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>shi</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>shuang'b</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>san'bei</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>活力值道具(12)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1107,10 +998,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>奖票样式但会映出一个抽奖的ICON</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>宠物样式的ICON增加碎片标示</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1147,14 +1034,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>钻石型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>洁白</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>经验药水</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1163,14 +1042,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ICON风格建议偏Q版或日韩风格,不要走中国古侠类型游戏的ICON风格或者</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>防御型拳套(1档)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>防御型拳套(2档)</t>
   </si>
   <si>
@@ -1287,14 +1158,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>各类羊皮纸,图纸样式(紫色),更高级的用卷轴(橙色)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黑色五角星</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>亮色五角星</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1465,10 +1328,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>倒三角</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>力量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1481,18 +1340,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>幽兰色</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>血色石</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>心形</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>血量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1501,10 +1352,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>四叶草</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>绿叶石</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1513,18 +1360,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>正方形</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>防御</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>天蓝色</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>形状</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1594,14 +1433,6 @@
   </si>
   <si>
     <t>最为牛逼的并添加内发光</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>棱形</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>灰色</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2387,6 +2218,184 @@
   </si>
   <si>
     <t>icon_MorbidStone1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>竞技场荣誉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类似勋章样式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>勋徽样式即可</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>票卷样式但会映出一个抽奖的ICON，替代钻石抽奖一次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备材料包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物材料包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类似KFC外卖袋一样的包装，，但显示为装备强化石的标志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类似KFC外卖袋一样的包装，，但显示为宠物进阶石的标志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>照妖镜加固核心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>照妖镜能量芯片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给照妖镜解锁更强大的能力的必须物品之一，和照妖镜色系相同</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五边形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正方形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>六角型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>橘色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>六棱锥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>圆角四边形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>六角形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝色系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫色系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红色系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等同品质递进关系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>各类羊皮纸,图纸样式(紫色),更高级的用卷轴(橙色)物品向外内发光</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑色月牙形，有明暗渐变</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>六边形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>青色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三角形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初心口袋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上阶口袋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>勇者口袋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精英口袋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大师口袋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>带翅膀的绿色琉璃口袋，镶着金边</t>
+  </si>
+  <si>
+    <t>带翅膀的龙头口袋，黑色系</t>
+  </si>
+  <si>
+    <t>破旧麻布口袋，略带些破旧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>带黑色边的口袋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>银质口袋，带有金色的边带</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金色口袋，带有钻石的边带</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>传说口袋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御型拳套(1档)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>墨绿色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>都出现浓烈的药水看起来非常危险的样子，。。高级药水甚至有不明生物的甲壳。。。触手之类的东西</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2622,7 +2631,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2661,6 +2670,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2966,10 +2978,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:AA180"/>
+  <dimension ref="A3:AA186"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" outlineLevelRow="1" x14ac:dyDescent="0.15"/>
@@ -2980,178 +2992,172 @@
   <sheetData>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="C3" t="s">
-        <v>351</v>
+        <v>336</v>
       </c>
       <c r="K3" s="18"/>
       <c r="L3" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="D4" t="s">
-        <v>376</v>
+        <v>355</v>
       </c>
       <c r="K4" s="14"/>
       <c r="L4" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="14.25" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="F5" t="s">
-        <v>375</v>
+        <v>354</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="35.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="D6" s="5" t="s">
-        <v>365</v>
+        <v>348</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="6" t="s">
-        <v>366</v>
+        <v>574</v>
       </c>
       <c r="G6" s="6"/>
       <c r="H6" s="6" t="s">
-        <v>367</v>
+        <v>349</v>
       </c>
       <c r="I6" s="15" t="s">
-        <v>368</v>
+        <v>350</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="35.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="D7" s="22" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
-        <v>272</v>
+        <v>580</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1" t="s">
-        <v>361</v>
+        <v>345</v>
       </c>
       <c r="I7" s="16" t="s">
-        <v>273</v>
+        <v>578</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="31.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="21" t="s">
-        <v>47</v>
-      </c>
+      <c r="A8" s="21"/>
       <c r="D8" s="7" t="s">
-        <v>363</v>
+        <v>347</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1" t="s">
-        <v>360</v>
+        <v>581</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1" t="s">
-        <v>362</v>
+        <v>346</v>
       </c>
       <c r="I8" s="16" t="s">
-        <v>364</v>
+        <v>582</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="D9" s="8" t="s">
-        <v>371</v>
+        <v>352</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="2" t="s">
-        <v>372</v>
+        <v>579</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="2" t="s">
-        <v>373</v>
+        <v>353</v>
       </c>
       <c r="I9" s="16" t="s">
-        <v>374</v>
+        <v>577</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="36.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="21" t="s">
-        <v>48</v>
-      </c>
+      <c r="A10" s="21"/>
       <c r="D10" s="7" t="s">
-        <v>395</v>
+        <v>372</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1" t="s">
-        <v>393</v>
+        <v>589</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1" t="s">
-        <v>397</v>
+        <v>374</v>
       </c>
       <c r="I10" s="16" t="s">
-        <v>394</v>
+        <v>590</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="32.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="D11" s="7" t="s">
-        <v>370</v>
+        <v>351</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1" t="s">
-        <v>369</v>
+        <v>575</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1" t="s">
-        <v>387</v>
+        <v>366</v>
       </c>
       <c r="I11" s="16" t="s">
-        <v>388</v>
+        <v>367</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="42.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="D12" s="7" t="s">
-        <v>398</v>
+        <v>375</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1" t="s">
-        <v>210</v>
+        <v>591</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1" t="s">
-        <v>396</v>
+        <v>373</v>
       </c>
       <c r="I12" s="16" t="s">
-        <v>214</v>
+        <v>592</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="37.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="D13" s="7" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1" t="s">
-        <v>212</v>
+        <v>576</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="I13" s="16" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="46.5" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="21" t="s">
-        <v>49</v>
-      </c>
+      <c r="A14" s="21"/>
       <c r="D14" s="12" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="E14" s="10"/>
       <c r="F14" s="9" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="G14" s="10"/>
       <c r="H14" s="10" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="I14" s="17" t="s">
-        <v>214</v>
+        <v>606</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.15">
@@ -3164,71 +3170,72 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="C16" t="s">
-        <v>352</v>
+        <v>337</v>
       </c>
     </row>
     <row r="17" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="D17" t="s">
-        <v>357</v>
+        <v>342</v>
       </c>
     </row>
     <row r="18" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="E18" t="s">
-        <v>380</v>
+        <v>359</v>
       </c>
       <c r="G18">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="I18" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
     </row>
     <row r="19" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="E19" t="s">
-        <v>379</v>
+        <v>358</v>
       </c>
       <c r="G19">
-        <v>360</v>
+        <v>500</v>
       </c>
       <c r="I19" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="20" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="E20" t="s">
-        <v>389</v>
+        <v>368</v>
       </c>
       <c r="G20">
-        <v>1200</v>
+        <v>3000</v>
+      </c>
+      <c r="I20" t="s">
+        <v>607</v>
       </c>
     </row>
     <row r="21" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.15"/>
     <row r="22" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.15"/>
     <row r="23" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="D23" t="s">
-        <v>358</v>
+        <v>343</v>
       </c>
       <c r="G23" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="54" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="21" t="s">
-        <v>255</v>
-      </c>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="21"/>
       <c r="E24" t="s">
-        <v>378</v>
+        <v>357</v>
       </c>
       <c r="G24" s="11">
         <v>1.5</v>
       </c>
       <c r="I24" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="E25" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G25" s="11">
         <v>2</v>
@@ -3236,7 +3243,7 @@
     </row>
     <row r="26" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="E26" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G26" s="11">
         <v>3</v>
@@ -3244,1885 +3251,1997 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C28" t="s">
-        <v>353</v>
+        <v>338</v>
       </c>
     </row>
     <row r="29" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="D29" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="E30" s="20" t="s">
+        <v>339</v>
+      </c>
+      <c r="F30" t="s">
+        <v>182</v>
+      </c>
+      <c r="G30" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="E31" s="20" t="s">
+        <v>339</v>
+      </c>
+      <c r="F31" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="E32" s="20" t="s">
+        <v>339</v>
+      </c>
+      <c r="F32" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="30" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="E30" s="18" t="s">
-        <v>354</v>
-      </c>
-      <c r="F30" t="s">
+    <row r="33" spans="3:7" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="E33" s="20" t="s">
+        <v>340</v>
+      </c>
+      <c r="F33" t="s">
+        <v>182</v>
+      </c>
+      <c r="G33" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="34" spans="3:7" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="E34" s="20" t="s">
         <v>186</v>
       </c>
-      <c r="G30" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="E31" s="18" t="s">
-        <v>354</v>
-      </c>
-      <c r="F31" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="E32" s="18" t="s">
-        <v>354</v>
-      </c>
-      <c r="F32" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="33" spans="3:7" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="E33" s="18" t="s">
-        <v>355</v>
-      </c>
-      <c r="F33" t="s">
+      <c r="F34" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="35" spans="3:7" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="E35" s="20" t="s">
         <v>186</v>
       </c>
-      <c r="G33" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="34" spans="3:7" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="E34" s="18" t="s">
-        <v>190</v>
-      </c>
-      <c r="F34" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="35" spans="3:7" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="E35" s="18" t="s">
-        <v>190</v>
-      </c>
       <c r="F35" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="36" spans="3:7" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="E36" s="18" t="s">
+      <c r="E36" s="20" t="s">
+        <v>341</v>
+      </c>
+      <c r="F36" t="s">
+        <v>182</v>
+      </c>
+      <c r="G36" t="s">
         <v>356</v>
       </c>
-      <c r="F36" t="s">
-        <v>186</v>
-      </c>
-      <c r="G36" t="s">
-        <v>377</v>
-      </c>
     </row>
     <row r="37" spans="3:7" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="E37" s="18" t="s">
-        <v>356</v>
+      <c r="E37" s="20" t="s">
+        <v>341</v>
       </c>
       <c r="F37" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="38" spans="3:7" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="E38" s="18" t="s">
-        <v>356</v>
+      <c r="E38" s="20" t="s">
+        <v>341</v>
       </c>
       <c r="F38" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="39" spans="3:7" outlineLevel="1" x14ac:dyDescent="0.15"/>
+        <v>184</v>
+      </c>
+    </row>
+    <row r="39" spans="3:7" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="E39" s="20"/>
+    </row>
     <row r="40" spans="3:7" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C40" t="s">
+        <v>231</v>
+      </c>
+      <c r="E40" s="20"/>
+    </row>
+    <row r="41" spans="3:7" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="E41" s="20" t="s">
+        <v>232</v>
+      </c>
+      <c r="F41" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="42" spans="3:7" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="E42" s="20" t="s">
+        <v>234</v>
+      </c>
+      <c r="F42" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="43" spans="3:7" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="E43" s="20" t="s">
+        <v>236</v>
+      </c>
+      <c r="F43" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="44" spans="3:7" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="E44" s="20" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="41" spans="3:7" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="E41" s="18" t="s">
+      <c r="F44" t="s">
         <v>239</v>
       </c>
-      <c r="F41" t="s">
+    </row>
+    <row r="45" spans="3:7" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="E45" s="20" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="42" spans="3:7" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="E42" s="18" t="s">
+      <c r="F45" t="s">
         <v>241</v>
       </c>
-      <c r="F42" t="s">
+    </row>
+    <row r="46" spans="3:7" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="E46" s="20" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="43" spans="3:7" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="E43" s="18" t="s">
+      <c r="F46" t="s">
         <v>243</v>
       </c>
-      <c r="F43" t="s">
+    </row>
+    <row r="47" spans="3:7" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="E47" s="20" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="44" spans="3:7" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="E44" s="18" t="s">
+      <c r="F47" t="s">
         <v>245</v>
       </c>
-      <c r="F44" t="s">
+    </row>
+    <row r="48" spans="3:7" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="E48" s="20" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="45" spans="3:7" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="E45" s="18" t="s">
+      <c r="F48" t="s">
         <v>247</v>
       </c>
-      <c r="F45" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="46" spans="3:7" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="E46" s="18" t="s">
-        <v>249</v>
-      </c>
-      <c r="F46" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="47" spans="3:7" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="E47" s="18" t="s">
-        <v>251</v>
-      </c>
-      <c r="F47" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="48" spans="3:7" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="E48" s="18" t="s">
-        <v>253</v>
-      </c>
-      <c r="F48" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="C49" t="s">
-        <v>381</v>
-      </c>
-      <c r="J49" t="s">
-        <v>383</v>
+    </row>
+    <row r="49" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="E49" s="20" t="s">
+        <v>567</v>
+      </c>
+      <c r="G49" t="s">
+        <v>569</v>
       </c>
     </row>
     <row r="50" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C50" s="25" t="s">
-        <v>204</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="F50" t="s">
-        <v>281</v>
-      </c>
-      <c r="J50" t="s">
-        <v>207</v>
+      <c r="E50" s="20" t="s">
+        <v>568</v>
+      </c>
+      <c r="G50" t="s">
+        <v>570</v>
       </c>
     </row>
     <row r="51" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="19"/>
-      <c r="C51" s="25"/>
-      <c r="D51" s="13" t="s">
-        <v>278</v>
-      </c>
-      <c r="E51" s="14"/>
-      <c r="F51" s="14" t="s">
-        <v>390</v>
-      </c>
-      <c r="G51" s="14"/>
-      <c r="H51" s="14"/>
-      <c r="I51" s="14"/>
-      <c r="J51" s="14" t="s">
-        <v>382</v>
+      <c r="E51" s="20" t="s">
+        <v>572</v>
+      </c>
+      <c r="G51" t="s">
+        <v>573</v>
       </c>
     </row>
     <row r="52" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="19"/>
-      <c r="C52" s="25"/>
-      <c r="D52" s="13" t="s">
-        <v>279</v>
-      </c>
-      <c r="E52" s="14"/>
-      <c r="F52" s="14" t="s">
-        <v>391</v>
-      </c>
-      <c r="G52" s="14"/>
-      <c r="H52" s="14"/>
-      <c r="I52" s="14"/>
-      <c r="J52" s="14" t="s">
-        <v>382</v>
+      <c r="E52" s="20" t="s">
+        <v>571</v>
+      </c>
+      <c r="G52" t="s">
+        <v>573</v>
       </c>
     </row>
     <row r="53" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C53" s="25"/>
-      <c r="D53" s="13" t="s">
-        <v>280</v>
-      </c>
-      <c r="E53" s="14"/>
-      <c r="F53" s="14" t="s">
-        <v>392</v>
-      </c>
-      <c r="G53" s="14"/>
-      <c r="H53" s="14"/>
-      <c r="I53" s="14"/>
-      <c r="J53" s="14" t="s">
-        <v>382</v>
+      <c r="E53" s="20" t="s">
+        <v>593</v>
+      </c>
+      <c r="G53" t="s">
+        <v>600</v>
       </c>
     </row>
     <row r="54" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C54" s="25"/>
-      <c r="D54" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="F54" t="s">
-        <v>283</v>
-      </c>
-      <c r="J54" t="s">
-        <v>207</v>
+      <c r="E54" s="20" t="s">
+        <v>594</v>
+      </c>
+      <c r="G54" t="s">
+        <v>601</v>
       </c>
     </row>
     <row r="55" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C55" s="25"/>
-      <c r="D55" s="13" t="s">
-        <v>284</v>
-      </c>
-      <c r="E55" s="14"/>
-      <c r="F55" s="14" t="s">
-        <v>390</v>
-      </c>
-      <c r="G55" s="14"/>
-      <c r="H55" s="14"/>
-      <c r="I55" s="14"/>
-      <c r="J55" s="14" t="s">
-        <v>382</v>
+      <c r="E55" s="20" t="s">
+        <v>595</v>
+      </c>
+      <c r="G55" t="s">
+        <v>602</v>
       </c>
     </row>
     <row r="56" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C56" s="25"/>
-      <c r="D56" s="13" t="s">
-        <v>285</v>
-      </c>
-      <c r="E56" s="14"/>
-      <c r="F56" s="14" t="s">
-        <v>391</v>
-      </c>
-      <c r="G56" s="14"/>
-      <c r="H56" s="14"/>
-      <c r="I56" s="14"/>
-      <c r="J56" s="14" t="s">
-        <v>382</v>
+      <c r="E56" s="20" t="s">
+        <v>596</v>
+      </c>
+      <c r="G56" t="s">
+        <v>603</v>
       </c>
     </row>
     <row r="57" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C57" s="25"/>
-      <c r="D57" s="13" t="s">
-        <v>286</v>
-      </c>
-      <c r="E57" s="14"/>
-      <c r="F57" s="14" t="s">
-        <v>392</v>
-      </c>
-      <c r="G57" s="14"/>
-      <c r="H57" s="14"/>
-      <c r="I57" s="14"/>
-      <c r="J57" s="14" t="s">
-        <v>382</v>
+      <c r="E57" s="20" t="s">
+        <v>597</v>
+      </c>
+      <c r="G57" t="s">
+        <v>598</v>
       </c>
     </row>
     <row r="58" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C58" s="25"/>
-      <c r="D58" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="F58" t="s">
-        <v>291</v>
-      </c>
-      <c r="J58" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C59" s="25"/>
-      <c r="D59" s="13" t="s">
-        <v>288</v>
-      </c>
-      <c r="E59" s="14"/>
-      <c r="F59" s="14" t="s">
-        <v>292</v>
-      </c>
-      <c r="G59" s="14"/>
-      <c r="H59" s="14"/>
-      <c r="I59" s="14"/>
-      <c r="J59" s="14" t="s">
-        <v>382</v>
+      <c r="E58" s="20" t="s">
+        <v>604</v>
+      </c>
+      <c r="G58" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="C59" t="s">
+        <v>360</v>
+      </c>
+      <c r="J59" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="60" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C60" s="25"/>
-      <c r="D60" s="13" t="s">
-        <v>289</v>
-      </c>
-      <c r="E60" s="14"/>
-      <c r="F60" s="14" t="s">
-        <v>391</v>
-      </c>
-      <c r="G60" s="14"/>
-      <c r="H60" s="14"/>
-      <c r="I60" s="14"/>
-      <c r="J60" s="14" t="s">
-        <v>382</v>
+      <c r="C60" s="25" t="s">
+        <v>200</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>605</v>
+      </c>
+      <c r="F60" t="s">
+        <v>268</v>
+      </c>
+      <c r="J60" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="61" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="19"/>
       <c r="C61" s="25"/>
       <c r="D61" s="13" t="s">
-        <v>290</v>
+        <v>265</v>
       </c>
       <c r="E61" s="14"/>
       <c r="F61" s="14" t="s">
-        <v>392</v>
+        <v>369</v>
       </c>
       <c r="G61" s="14"/>
       <c r="H61" s="14"/>
       <c r="I61" s="14"/>
       <c r="J61" s="14" t="s">
-        <v>382</v>
+        <v>361</v>
       </c>
     </row>
     <row r="62" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="19"/>
       <c r="C62" s="25"/>
-      <c r="D62" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="F62" t="s">
-        <v>297</v>
-      </c>
-      <c r="J62" t="s">
-        <v>207</v>
+      <c r="D62" s="13" t="s">
+        <v>266</v>
+      </c>
+      <c r="E62" s="14"/>
+      <c r="F62" s="14" t="s">
+        <v>370</v>
+      </c>
+      <c r="G62" s="14"/>
+      <c r="H62" s="14"/>
+      <c r="I62" s="14"/>
+      <c r="J62" s="14" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="63" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C63" s="25"/>
       <c r="D63" s="13" t="s">
-        <v>294</v>
+        <v>267</v>
       </c>
       <c r="E63" s="14"/>
       <c r="F63" s="14" t="s">
-        <v>390</v>
+        <v>371</v>
       </c>
       <c r="G63" s="14"/>
       <c r="H63" s="14"/>
       <c r="I63" s="14"/>
       <c r="J63" s="14" t="s">
-        <v>382</v>
+        <v>361</v>
       </c>
     </row>
     <row r="64" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C64" s="25"/>
-      <c r="D64" s="13" t="s">
-        <v>295</v>
-      </c>
-      <c r="E64" s="14"/>
-      <c r="F64" s="14" t="s">
-        <v>391</v>
-      </c>
-      <c r="G64" s="14"/>
-      <c r="H64" s="14"/>
-      <c r="I64" s="14"/>
-      <c r="J64" s="14" t="s">
-        <v>382</v>
+      <c r="D64" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="F64" t="s">
+        <v>270</v>
+      </c>
+      <c r="J64" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="65" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C65" s="25"/>
       <c r="D65" s="13" t="s">
-        <v>296</v>
+        <v>271</v>
       </c>
       <c r="E65" s="14"/>
       <c r="F65" s="14" t="s">
-        <v>392</v>
+        <v>369</v>
       </c>
       <c r="G65" s="14"/>
       <c r="H65" s="14"/>
       <c r="I65" s="14"/>
       <c r="J65" s="14" t="s">
-        <v>382</v>
+        <v>361</v>
       </c>
     </row>
     <row r="66" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C66" s="25"/>
-      <c r="D66" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="F66" t="s">
-        <v>116</v>
-      </c>
-      <c r="J66" t="s">
-        <v>207</v>
+      <c r="D66" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="E66" s="14"/>
+      <c r="F66" s="14" t="s">
+        <v>370</v>
+      </c>
+      <c r="G66" s="14"/>
+      <c r="H66" s="14"/>
+      <c r="I66" s="14"/>
+      <c r="J66" s="14" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="67" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C67" s="25"/>
       <c r="D67" s="13" t="s">
-        <v>109</v>
+        <v>273</v>
       </c>
       <c r="E67" s="14"/>
       <c r="F67" s="14" t="s">
-        <v>390</v>
+        <v>371</v>
       </c>
       <c r="G67" s="14"/>
       <c r="H67" s="14"/>
       <c r="I67" s="14"/>
       <c r="J67" s="14" t="s">
-        <v>382</v>
+        <v>361</v>
       </c>
     </row>
     <row r="68" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C68" s="25"/>
-      <c r="D68" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="E68" s="14"/>
-      <c r="F68" s="14" t="s">
-        <v>391</v>
-      </c>
-      <c r="G68" s="14"/>
-      <c r="H68" s="14"/>
-      <c r="I68" s="14"/>
-      <c r="J68" s="14" t="s">
-        <v>382</v>
+      <c r="D68" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="F68" t="s">
+        <v>278</v>
+      </c>
+      <c r="J68" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="69" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C69" s="25"/>
       <c r="D69" s="13" t="s">
-        <v>111</v>
+        <v>275</v>
       </c>
       <c r="E69" s="14"/>
       <c r="F69" s="14" t="s">
-        <v>392</v>
+        <v>279</v>
       </c>
       <c r="G69" s="14"/>
       <c r="H69" s="14"/>
       <c r="I69" s="14"/>
       <c r="J69" s="14" t="s">
-        <v>382</v>
+        <v>361</v>
       </c>
     </row>
     <row r="70" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C70" s="25"/>
-      <c r="D70" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="F70" t="s">
-        <v>117</v>
-      </c>
-      <c r="J70" t="s">
-        <v>207</v>
+      <c r="D70" s="13" t="s">
+        <v>276</v>
+      </c>
+      <c r="E70" s="14"/>
+      <c r="F70" s="14" t="s">
+        <v>370</v>
+      </c>
+      <c r="G70" s="14"/>
+      <c r="H70" s="14"/>
+      <c r="I70" s="14"/>
+      <c r="J70" s="14" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="71" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C71" s="25"/>
       <c r="D71" s="13" t="s">
-        <v>113</v>
+        <v>277</v>
       </c>
       <c r="E71" s="14"/>
       <c r="F71" s="14" t="s">
-        <v>390</v>
+        <v>371</v>
       </c>
       <c r="G71" s="14"/>
       <c r="H71" s="14"/>
       <c r="I71" s="14"/>
       <c r="J71" s="14" t="s">
-        <v>382</v>
+        <v>361</v>
       </c>
     </row>
     <row r="72" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C72" s="25"/>
-      <c r="D72" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="E72" s="14"/>
-      <c r="F72" s="14" t="s">
-        <v>391</v>
-      </c>
-      <c r="G72" s="14"/>
-      <c r="H72" s="14"/>
-      <c r="I72" s="14"/>
-      <c r="J72" s="14" t="s">
-        <v>382</v>
+      <c r="D72" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="F72" t="s">
+        <v>284</v>
+      </c>
+      <c r="J72" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="73" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C73" s="25"/>
       <c r="D73" s="13" t="s">
-        <v>115</v>
+        <v>281</v>
       </c>
       <c r="E73" s="14"/>
       <c r="F73" s="14" t="s">
-        <v>392</v>
+        <v>369</v>
       </c>
       <c r="G73" s="14"/>
       <c r="H73" s="14"/>
       <c r="I73" s="14"/>
       <c r="J73" s="14" t="s">
-        <v>382</v>
+        <v>361</v>
       </c>
     </row>
     <row r="74" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C74" s="25" t="s">
-        <v>203</v>
-      </c>
-      <c r="D74" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="F74" t="s">
-        <v>126</v>
-      </c>
-      <c r="J74" t="s">
-        <v>208</v>
+      <c r="C74" s="25"/>
+      <c r="D74" s="13" t="s">
+        <v>282</v>
+      </c>
+      <c r="E74" s="14"/>
+      <c r="F74" s="14" t="s">
+        <v>370</v>
+      </c>
+      <c r="G74" s="14"/>
+      <c r="H74" s="14"/>
+      <c r="I74" s="14"/>
+      <c r="J74" s="14" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="75" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C75" s="25"/>
       <c r="D75" s="13" t="s">
-        <v>119</v>
+        <v>283</v>
       </c>
       <c r="E75" s="14"/>
       <c r="F75" s="14" t="s">
-        <v>390</v>
+        <v>371</v>
       </c>
       <c r="G75" s="14"/>
       <c r="H75" s="14"/>
       <c r="I75" s="14"/>
       <c r="J75" s="14" t="s">
-        <v>384</v>
+        <v>361</v>
       </c>
     </row>
     <row r="76" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C76" s="25"/>
-      <c r="D76" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="E76" s="14"/>
-      <c r="F76" s="14" t="s">
-        <v>391</v>
-      </c>
-      <c r="G76" s="14"/>
-      <c r="H76" s="14"/>
-      <c r="I76" s="14"/>
-      <c r="J76" s="14" t="s">
-        <v>384</v>
+      <c r="D76" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="F76" t="s">
+        <v>112</v>
+      </c>
+      <c r="J76" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="77" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C77" s="25"/>
       <c r="D77" s="13" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="E77" s="14"/>
       <c r="F77" s="14" t="s">
-        <v>392</v>
+        <v>369</v>
       </c>
       <c r="G77" s="14"/>
       <c r="H77" s="14"/>
       <c r="I77" s="14"/>
       <c r="J77" s="14" t="s">
-        <v>384</v>
+        <v>361</v>
       </c>
     </row>
     <row r="78" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C78" s="25"/>
-      <c r="D78" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="F78" s="20" t="s">
-        <v>202</v>
-      </c>
-      <c r="J78" t="s">
-        <v>208</v>
+      <c r="D78" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="E78" s="14"/>
+      <c r="F78" s="14" t="s">
+        <v>370</v>
+      </c>
+      <c r="G78" s="14"/>
+      <c r="H78" s="14"/>
+      <c r="I78" s="14"/>
+      <c r="J78" s="14" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="79" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C79" s="25"/>
       <c r="D79" s="13" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="E79" s="14"/>
       <c r="F79" s="14" t="s">
-        <v>390</v>
+        <v>371</v>
       </c>
       <c r="G79" s="14"/>
       <c r="H79" s="14"/>
       <c r="I79" s="14"/>
       <c r="J79" s="14" t="s">
-        <v>384</v>
+        <v>361</v>
       </c>
     </row>
     <row r="80" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C80" s="25"/>
-      <c r="D80" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="E80" s="14"/>
-      <c r="F80" s="14" t="s">
-        <v>391</v>
-      </c>
-      <c r="G80" s="14"/>
-      <c r="H80" s="14"/>
-      <c r="I80" s="14"/>
-      <c r="J80" s="14" t="s">
-        <v>384</v>
+      <c r="D80" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="F80" t="s">
+        <v>113</v>
+      </c>
+      <c r="J80" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="81" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C81" s="25"/>
       <c r="D81" s="13" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="E81" s="14"/>
       <c r="F81" s="14" t="s">
-        <v>392</v>
+        <v>369</v>
       </c>
       <c r="G81" s="14"/>
       <c r="H81" s="14"/>
       <c r="I81" s="14"/>
       <c r="J81" s="14" t="s">
-        <v>384</v>
+        <v>361</v>
       </c>
     </row>
     <row r="82" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C82" s="25"/>
-      <c r="D82" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="J82" t="s">
-        <v>208</v>
+      <c r="D82" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="E82" s="14"/>
+      <c r="F82" s="14" t="s">
+        <v>370</v>
+      </c>
+      <c r="G82" s="14"/>
+      <c r="H82" s="14"/>
+      <c r="I82" s="14"/>
+      <c r="J82" s="14" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="83" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C83" s="25"/>
       <c r="D83" s="13" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="E83" s="14"/>
       <c r="F83" s="14" t="s">
-        <v>390</v>
+        <v>371</v>
       </c>
       <c r="G83" s="14"/>
       <c r="H83" s="14"/>
       <c r="I83" s="14"/>
       <c r="J83" s="14" t="s">
-        <v>384</v>
+        <v>361</v>
       </c>
     </row>
     <row r="84" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C84" s="25"/>
-      <c r="D84" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="E84" s="14"/>
-      <c r="F84" s="14" t="s">
-        <v>391</v>
-      </c>
-      <c r="G84" s="14"/>
-      <c r="H84" s="14"/>
-      <c r="I84" s="14"/>
-      <c r="J84" s="14" t="s">
-        <v>384</v>
+      <c r="C84" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F84" t="s">
+        <v>122</v>
+      </c>
+      <c r="J84" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="85" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C85" s="25"/>
       <c r="D85" s="13" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="E85" s="14"/>
       <c r="F85" s="14" t="s">
-        <v>392</v>
+        <v>369</v>
       </c>
       <c r="G85" s="14"/>
       <c r="H85" s="14"/>
       <c r="I85" s="14"/>
       <c r="J85" s="14" t="s">
-        <v>384</v>
+        <v>363</v>
       </c>
     </row>
     <row r="86" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C86" s="25"/>
-      <c r="D86" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="F86" t="s">
-        <v>135</v>
-      </c>
-      <c r="J86" t="s">
-        <v>208</v>
+      <c r="D86" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="E86" s="14"/>
+      <c r="F86" s="14" t="s">
+        <v>370</v>
+      </c>
+      <c r="G86" s="14"/>
+      <c r="H86" s="14"/>
+      <c r="I86" s="14"/>
+      <c r="J86" s="14" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="87" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C87" s="25"/>
       <c r="D87" s="13" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="E87" s="14"/>
       <c r="F87" s="14" t="s">
-        <v>390</v>
+        <v>371</v>
       </c>
       <c r="G87" s="14"/>
       <c r="H87" s="14"/>
       <c r="I87" s="14"/>
       <c r="J87" s="14" t="s">
-        <v>384</v>
+        <v>363</v>
       </c>
     </row>
     <row r="88" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C88" s="25"/>
-      <c r="D88" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="E88" s="14"/>
-      <c r="F88" s="14" t="s">
-        <v>391</v>
-      </c>
-      <c r="G88" s="14"/>
-      <c r="H88" s="14"/>
-      <c r="I88" s="14"/>
-      <c r="J88" s="14" t="s">
-        <v>384</v>
+      <c r="D88" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F88" s="20" t="s">
+        <v>198</v>
+      </c>
+      <c r="J88" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="89" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C89" s="25"/>
       <c r="D89" s="13" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="E89" s="14"/>
       <c r="F89" s="14" t="s">
-        <v>392</v>
+        <v>369</v>
       </c>
       <c r="G89" s="14"/>
       <c r="H89" s="14"/>
       <c r="I89" s="14"/>
       <c r="J89" s="14" t="s">
-        <v>384</v>
+        <v>363</v>
       </c>
     </row>
     <row r="90" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C90" s="25"/>
-      <c r="D90" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="J90" t="s">
-        <v>208</v>
+      <c r="D90" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="E90" s="14"/>
+      <c r="F90" s="14" t="s">
+        <v>370</v>
+      </c>
+      <c r="G90" s="14"/>
+      <c r="H90" s="14"/>
+      <c r="I90" s="14"/>
+      <c r="J90" s="14" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="91" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C91" s="25"/>
       <c r="D91" s="13" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="E91" s="14"/>
       <c r="F91" s="14" t="s">
-        <v>390</v>
+        <v>371</v>
       </c>
       <c r="G91" s="14"/>
       <c r="H91" s="14"/>
       <c r="I91" s="14"/>
       <c r="J91" s="14" t="s">
-        <v>384</v>
+        <v>363</v>
       </c>
     </row>
     <row r="92" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C92" s="25"/>
-      <c r="D92" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="E92" s="14"/>
-      <c r="F92" s="14" t="s">
-        <v>391</v>
-      </c>
-      <c r="G92" s="14"/>
-      <c r="H92" s="14"/>
-      <c r="I92" s="14"/>
-      <c r="J92" s="14" t="s">
-        <v>384</v>
+      <c r="D92" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="J92" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="93" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C93" s="25"/>
       <c r="D93" s="13" t="s">
-        <v>321</v>
+        <v>124</v>
       </c>
       <c r="E93" s="14"/>
       <c r="F93" s="14" t="s">
-        <v>392</v>
+        <v>369</v>
       </c>
       <c r="G93" s="14"/>
       <c r="H93" s="14"/>
       <c r="I93" s="14"/>
       <c r="J93" s="14" t="s">
-        <v>384</v>
+        <v>363</v>
       </c>
     </row>
     <row r="94" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C94" s="25"/>
-      <c r="D94" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="F94" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="J94" t="s">
-        <v>208</v>
+      <c r="D94" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="E94" s="14"/>
+      <c r="F94" s="14" t="s">
+        <v>370</v>
+      </c>
+      <c r="G94" s="14"/>
+      <c r="H94" s="14"/>
+      <c r="I94" s="14"/>
+      <c r="J94" s="14" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="95" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C95" s="25"/>
       <c r="D95" s="13" t="s">
-        <v>323</v>
+        <v>126</v>
       </c>
       <c r="E95" s="14"/>
       <c r="F95" s="14" t="s">
-        <v>390</v>
+        <v>371</v>
       </c>
       <c r="G95" s="14"/>
       <c r="H95" s="14"/>
       <c r="I95" s="14"/>
       <c r="J95" s="14" t="s">
-        <v>384</v>
+        <v>363</v>
       </c>
     </row>
     <row r="96" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C96" s="25"/>
-      <c r="D96" s="13" t="s">
-        <v>324</v>
-      </c>
-      <c r="E96" s="14"/>
-      <c r="F96" s="14" t="s">
-        <v>391</v>
-      </c>
-      <c r="G96" s="14"/>
-      <c r="H96" s="14"/>
-      <c r="I96" s="14"/>
-      <c r="J96" s="14" t="s">
-        <v>384</v>
+      <c r="D96" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="F96" t="s">
+        <v>131</v>
+      </c>
+      <c r="J96" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="97" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C97" s="25"/>
       <c r="D97" s="13" t="s">
-        <v>325</v>
+        <v>128</v>
       </c>
       <c r="E97" s="14"/>
       <c r="F97" s="14" t="s">
-        <v>392</v>
+        <v>369</v>
       </c>
       <c r="G97" s="14"/>
       <c r="H97" s="14"/>
       <c r="I97" s="14"/>
       <c r="J97" s="14" t="s">
-        <v>384</v>
+        <v>363</v>
       </c>
     </row>
     <row r="98" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C98" s="25" t="s">
-        <v>205</v>
-      </c>
-      <c r="D98" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="F98" t="s">
-        <v>338</v>
-      </c>
-      <c r="J98" t="s">
-        <v>209</v>
+      <c r="C98" s="25"/>
+      <c r="D98" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="E98" s="14"/>
+      <c r="F98" s="14" t="s">
+        <v>370</v>
+      </c>
+      <c r="G98" s="14"/>
+      <c r="H98" s="14"/>
+      <c r="I98" s="14"/>
+      <c r="J98" s="14" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="99" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C99" s="25"/>
       <c r="D99" s="13" t="s">
-        <v>327</v>
+        <v>130</v>
       </c>
       <c r="E99" s="14"/>
       <c r="F99" s="14" t="s">
-        <v>390</v>
+        <v>371</v>
       </c>
       <c r="G99" s="14"/>
       <c r="H99" s="14"/>
       <c r="I99" s="14"/>
       <c r="J99" s="14" t="s">
-        <v>385</v>
+        <v>363</v>
       </c>
     </row>
     <row r="100" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C100" s="25"/>
-      <c r="D100" s="13" t="s">
-        <v>328</v>
-      </c>
-      <c r="E100" s="14"/>
-      <c r="F100" s="14" t="s">
-        <v>391</v>
-      </c>
-      <c r="G100" s="14"/>
-      <c r="H100" s="14"/>
-      <c r="I100" s="14"/>
-      <c r="J100" s="14" t="s">
-        <v>385</v>
+      <c r="D100" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="J100" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="101" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C101" s="25"/>
       <c r="D101" s="13" t="s">
-        <v>329</v>
+        <v>133</v>
       </c>
       <c r="E101" s="14"/>
       <c r="F101" s="14" t="s">
-        <v>392</v>
+        <v>369</v>
       </c>
       <c r="G101" s="14"/>
       <c r="H101" s="14"/>
       <c r="I101" s="14"/>
       <c r="J101" s="14" t="s">
-        <v>385</v>
+        <v>363</v>
       </c>
     </row>
     <row r="102" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C102" s="25"/>
-      <c r="D102" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="J102" t="s">
-        <v>209</v>
+      <c r="D102" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="E102" s="14"/>
+      <c r="F102" s="14" t="s">
+        <v>370</v>
+      </c>
+      <c r="G102" s="14"/>
+      <c r="H102" s="14"/>
+      <c r="I102" s="14"/>
+      <c r="J102" s="14" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="103" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C103" s="25"/>
       <c r="D103" s="13" t="s">
-        <v>331</v>
+        <v>306</v>
       </c>
       <c r="E103" s="14"/>
       <c r="F103" s="14" t="s">
-        <v>390</v>
+        <v>371</v>
       </c>
       <c r="G103" s="14"/>
       <c r="H103" s="14"/>
       <c r="I103" s="14"/>
       <c r="J103" s="14" t="s">
-        <v>385</v>
+        <v>363</v>
       </c>
     </row>
     <row r="104" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C104" s="25"/>
-      <c r="D104" s="13" t="s">
-        <v>332</v>
-      </c>
-      <c r="E104" s="14"/>
-      <c r="F104" s="14" t="s">
-        <v>391</v>
-      </c>
-      <c r="G104" s="14"/>
-      <c r="H104" s="14"/>
-      <c r="I104" s="14"/>
-      <c r="J104" s="14" t="s">
-        <v>385</v>
+      <c r="D104" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="F104" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="J104" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="105" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C105" s="25"/>
       <c r="D105" s="13" t="s">
-        <v>333</v>
+        <v>308</v>
       </c>
       <c r="E105" s="14"/>
       <c r="F105" s="14" t="s">
-        <v>392</v>
+        <v>369</v>
       </c>
       <c r="G105" s="14"/>
       <c r="H105" s="14"/>
       <c r="I105" s="14"/>
       <c r="J105" s="14" t="s">
-        <v>385</v>
+        <v>363</v>
       </c>
     </row>
     <row r="106" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C106" s="25"/>
-      <c r="D106" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="J106" t="s">
-        <v>43</v>
+      <c r="D106" s="13" t="s">
+        <v>309</v>
+      </c>
+      <c r="E106" s="14"/>
+      <c r="F106" s="14" t="s">
+        <v>370</v>
+      </c>
+      <c r="G106" s="14"/>
+      <c r="H106" s="14"/>
+      <c r="I106" s="14"/>
+      <c r="J106" s="14" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="107" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C107" s="25"/>
       <c r="D107" s="13" t="s">
-        <v>335</v>
+        <v>310</v>
       </c>
       <c r="E107" s="14"/>
       <c r="F107" s="14" t="s">
-        <v>390</v>
+        <v>371</v>
       </c>
       <c r="G107" s="14"/>
       <c r="H107" s="14"/>
       <c r="I107" s="14"/>
       <c r="J107" s="14" t="s">
-        <v>385</v>
+        <v>363</v>
       </c>
     </row>
     <row r="108" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C108" s="25"/>
-      <c r="D108" s="13" t="s">
-        <v>336</v>
-      </c>
-      <c r="E108" s="14"/>
-      <c r="F108" s="14" t="s">
-        <v>391</v>
-      </c>
-      <c r="G108" s="14"/>
-      <c r="H108" s="14"/>
-      <c r="I108" s="14"/>
-      <c r="J108" s="14" t="s">
-        <v>385</v>
+      <c r="C108" s="25" t="s">
+        <v>201</v>
+      </c>
+      <c r="D108" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="F108" t="s">
+        <v>323</v>
+      </c>
+      <c r="J108" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="109" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C109" s="25"/>
       <c r="D109" s="13" t="s">
-        <v>337</v>
+        <v>312</v>
       </c>
       <c r="E109" s="14"/>
       <c r="F109" s="14" t="s">
-        <v>392</v>
+        <v>369</v>
       </c>
       <c r="G109" s="14"/>
       <c r="H109" s="14"/>
       <c r="I109" s="14"/>
       <c r="J109" s="14" t="s">
-        <v>385</v>
+        <v>364</v>
       </c>
     </row>
     <row r="110" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C110" s="25"/>
-      <c r="D110" s="3" t="s">
-        <v>339</v>
-      </c>
-      <c r="J110" t="s">
-        <v>209</v>
+      <c r="D110" s="13" t="s">
+        <v>313</v>
+      </c>
+      <c r="E110" s="14"/>
+      <c r="F110" s="14" t="s">
+        <v>370</v>
+      </c>
+      <c r="G110" s="14"/>
+      <c r="H110" s="14"/>
+      <c r="I110" s="14"/>
+      <c r="J110" s="14" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="111" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C111" s="25"/>
       <c r="D111" s="13" t="s">
-        <v>340</v>
+        <v>314</v>
       </c>
       <c r="E111" s="14"/>
       <c r="F111" s="14" t="s">
-        <v>390</v>
+        <v>371</v>
       </c>
       <c r="G111" s="14"/>
       <c r="H111" s="14"/>
       <c r="I111" s="14"/>
       <c r="J111" s="14" t="s">
-        <v>385</v>
+        <v>364</v>
       </c>
     </row>
     <row r="112" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C112" s="25"/>
-      <c r="D112" s="13" t="s">
-        <v>341</v>
-      </c>
-      <c r="E112" s="14"/>
-      <c r="F112" s="14" t="s">
-        <v>391</v>
-      </c>
-      <c r="G112" s="14"/>
-      <c r="H112" s="14"/>
-      <c r="I112" s="14"/>
-      <c r="J112" s="14" t="s">
-        <v>385</v>
+      <c r="D112" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="J112" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="113" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C113" s="25"/>
       <c r="D113" s="13" t="s">
-        <v>342</v>
+        <v>316</v>
       </c>
       <c r="E113" s="14"/>
       <c r="F113" s="14" t="s">
-        <v>392</v>
+        <v>369</v>
       </c>
       <c r="G113" s="14"/>
       <c r="H113" s="14"/>
       <c r="I113" s="14"/>
       <c r="J113" s="14" t="s">
-        <v>385</v>
+        <v>364</v>
       </c>
     </row>
     <row r="114" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C114" s="25"/>
-      <c r="D114" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="J114" t="s">
-        <v>209</v>
+      <c r="D114" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="E114" s="14"/>
+      <c r="F114" s="14" t="s">
+        <v>370</v>
+      </c>
+      <c r="G114" s="14"/>
+      <c r="H114" s="14"/>
+      <c r="I114" s="14"/>
+      <c r="J114" s="14" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="115" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C115" s="25"/>
       <c r="D115" s="13" t="s">
-        <v>344</v>
+        <v>318</v>
       </c>
       <c r="E115" s="14"/>
       <c r="F115" s="14" t="s">
-        <v>390</v>
+        <v>371</v>
       </c>
       <c r="G115" s="14"/>
       <c r="H115" s="14"/>
       <c r="I115" s="14"/>
       <c r="J115" s="14" t="s">
-        <v>385</v>
+        <v>364</v>
       </c>
     </row>
     <row r="116" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C116" s="25"/>
-      <c r="D116" s="13" t="s">
-        <v>345</v>
-      </c>
-      <c r="E116" s="14"/>
-      <c r="F116" s="14" t="s">
-        <v>391</v>
-      </c>
-      <c r="G116" s="14"/>
-      <c r="H116" s="14"/>
-      <c r="I116" s="14"/>
-      <c r="J116" s="14" t="s">
-        <v>385</v>
+      <c r="D116" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="J116" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="117" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C117" s="25"/>
       <c r="D117" s="13" t="s">
-        <v>346</v>
+        <v>320</v>
       </c>
       <c r="E117" s="14"/>
       <c r="F117" s="14" t="s">
-        <v>392</v>
+        <v>369</v>
       </c>
       <c r="G117" s="14"/>
       <c r="H117" s="14"/>
       <c r="I117" s="14"/>
       <c r="J117" s="14" t="s">
-        <v>385</v>
+        <v>364</v>
       </c>
     </row>
     <row r="118" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C118" s="25"/>
-      <c r="D118" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="F118" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="J118" t="s">
-        <v>209</v>
+      <c r="D118" s="13" t="s">
+        <v>321</v>
+      </c>
+      <c r="E118" s="14"/>
+      <c r="F118" s="14" t="s">
+        <v>370</v>
+      </c>
+      <c r="G118" s="14"/>
+      <c r="H118" s="14"/>
+      <c r="I118" s="14"/>
+      <c r="J118" s="14" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="119" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C119" s="25"/>
       <c r="D119" s="13" t="s">
-        <v>348</v>
+        <v>322</v>
       </c>
       <c r="E119" s="14"/>
       <c r="F119" s="14" t="s">
-        <v>390</v>
+        <v>371</v>
       </c>
       <c r="G119" s="14"/>
       <c r="H119" s="14"/>
       <c r="I119" s="14"/>
       <c r="J119" s="14" t="s">
-        <v>385</v>
+        <v>364</v>
       </c>
     </row>
     <row r="120" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C120" s="25"/>
-      <c r="D120" s="13" t="s">
-        <v>349</v>
-      </c>
-      <c r="E120" s="14"/>
-      <c r="F120" s="14" t="s">
-        <v>391</v>
-      </c>
-      <c r="G120" s="14"/>
-      <c r="H120" s="14"/>
-      <c r="I120" s="14"/>
-      <c r="J120" s="14" t="s">
-        <v>385</v>
+      <c r="D120" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="J120" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="121" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C121" s="25"/>
       <c r="D121" s="13" t="s">
-        <v>350</v>
+        <v>325</v>
       </c>
       <c r="E121" s="14"/>
       <c r="F121" s="14" t="s">
-        <v>392</v>
+        <v>369</v>
       </c>
       <c r="G121" s="14"/>
       <c r="H121" s="14"/>
       <c r="I121" s="14"/>
       <c r="J121" s="14" t="s">
-        <v>385</v>
+        <v>364</v>
       </c>
     </row>
     <row r="122" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C122" s="25" t="s">
-        <v>206</v>
-      </c>
-      <c r="D122" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="J122" t="s">
-        <v>46</v>
+      <c r="C122" s="25"/>
+      <c r="D122" s="13" t="s">
+        <v>326</v>
+      </c>
+      <c r="E122" s="14"/>
+      <c r="F122" s="14" t="s">
+        <v>370</v>
+      </c>
+      <c r="G122" s="14"/>
+      <c r="H122" s="14"/>
+      <c r="I122" s="14"/>
+      <c r="J122" s="14" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="123" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C123" s="25"/>
       <c r="D123" s="13" t="s">
-        <v>165</v>
+        <v>327</v>
       </c>
       <c r="E123" s="14"/>
       <c r="F123" s="14" t="s">
-        <v>390</v>
+        <v>371</v>
       </c>
       <c r="G123" s="14"/>
       <c r="H123" s="14"/>
       <c r="I123" s="14"/>
       <c r="J123" s="14" t="s">
-        <v>386</v>
+        <v>364</v>
       </c>
     </row>
     <row r="124" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C124" s="25"/>
-      <c r="D124" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="E124" s="14"/>
-      <c r="F124" s="14" t="s">
-        <v>391</v>
-      </c>
-      <c r="G124" s="14"/>
-      <c r="H124" s="14"/>
-      <c r="I124" s="14"/>
-      <c r="J124" s="14" t="s">
-        <v>386</v>
+      <c r="D124" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="J124" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="125" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C125" s="25"/>
       <c r="D125" s="13" t="s">
-        <v>167</v>
+        <v>329</v>
       </c>
       <c r="E125" s="14"/>
       <c r="F125" s="14" t="s">
-        <v>392</v>
+        <v>369</v>
       </c>
       <c r="G125" s="14"/>
       <c r="H125" s="14"/>
       <c r="I125" s="14"/>
       <c r="J125" s="14" t="s">
-        <v>386</v>
+        <v>364</v>
       </c>
     </row>
     <row r="126" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C126" s="25"/>
-      <c r="D126" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="J126" t="s">
-        <v>46</v>
+      <c r="D126" s="13" t="s">
+        <v>330</v>
+      </c>
+      <c r="E126" s="14"/>
+      <c r="F126" s="14" t="s">
+        <v>370</v>
+      </c>
+      <c r="G126" s="14"/>
+      <c r="H126" s="14"/>
+      <c r="I126" s="14"/>
+      <c r="J126" s="14" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="127" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C127" s="25"/>
       <c r="D127" s="13" t="s">
-        <v>168</v>
+        <v>331</v>
       </c>
       <c r="E127" s="14"/>
       <c r="F127" s="14" t="s">
-        <v>390</v>
+        <v>371</v>
       </c>
       <c r="G127" s="14"/>
       <c r="H127" s="14"/>
       <c r="I127" s="14"/>
       <c r="J127" s="14" t="s">
-        <v>386</v>
+        <v>364</v>
       </c>
     </row>
     <row r="128" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C128" s="25"/>
-      <c r="D128" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="E128" s="14"/>
-      <c r="F128" s="14" t="s">
-        <v>391</v>
-      </c>
-      <c r="G128" s="14"/>
-      <c r="H128" s="14"/>
-      <c r="I128" s="14"/>
-      <c r="J128" s="14" t="s">
-        <v>386</v>
+      <c r="D128" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="F128" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="J128" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="129" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C129" s="25"/>
       <c r="D129" s="13" t="s">
-        <v>170</v>
+        <v>333</v>
       </c>
       <c r="E129" s="14"/>
       <c r="F129" s="14" t="s">
-        <v>392</v>
+        <v>369</v>
       </c>
       <c r="G129" s="14"/>
       <c r="H129" s="14"/>
       <c r="I129" s="14"/>
       <c r="J129" s="14" t="s">
-        <v>386</v>
+        <v>364</v>
       </c>
     </row>
     <row r="130" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C130" s="25"/>
-      <c r="D130" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="J130" t="s">
-        <v>42</v>
+      <c r="D130" s="13" t="s">
+        <v>334</v>
+      </c>
+      <c r="E130" s="14"/>
+      <c r="F130" s="14" t="s">
+        <v>370</v>
+      </c>
+      <c r="G130" s="14"/>
+      <c r="H130" s="14"/>
+      <c r="I130" s="14"/>
+      <c r="J130" s="14" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="131" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C131" s="25"/>
       <c r="D131" s="13" t="s">
-        <v>172</v>
+        <v>335</v>
       </c>
       <c r="E131" s="14"/>
       <c r="F131" s="14" t="s">
-        <v>390</v>
+        <v>371</v>
       </c>
       <c r="G131" s="14"/>
       <c r="H131" s="14"/>
       <c r="I131" s="14"/>
       <c r="J131" s="14" t="s">
-        <v>386</v>
+        <v>364</v>
       </c>
     </row>
     <row r="132" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="C132" s="25"/>
-      <c r="D132" s="13" t="s">
-        <v>173</v>
-      </c>
-      <c r="E132" s="14"/>
-      <c r="F132" s="14" t="s">
-        <v>391</v>
-      </c>
-      <c r="G132" s="14"/>
-      <c r="H132" s="14"/>
-      <c r="I132" s="14"/>
-      <c r="J132" s="14" t="s">
-        <v>386</v>
+      <c r="C132" s="25" t="s">
+        <v>202</v>
+      </c>
+      <c r="D132" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="J132" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="133" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C133" s="25"/>
       <c r="D133" s="13" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="E133" s="14"/>
       <c r="F133" s="14" t="s">
-        <v>392</v>
+        <v>369</v>
       </c>
       <c r="G133" s="14"/>
       <c r="H133" s="14"/>
       <c r="I133" s="14"/>
       <c r="J133" s="14" t="s">
-        <v>386</v>
+        <v>365</v>
       </c>
     </row>
     <row r="134" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C134" s="25"/>
-      <c r="D134" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="J134" t="s">
-        <v>46</v>
+      <c r="D134" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="E134" s="14"/>
+      <c r="F134" s="14" t="s">
+        <v>370</v>
+      </c>
+      <c r="G134" s="14"/>
+      <c r="H134" s="14"/>
+      <c r="I134" s="14"/>
+      <c r="J134" s="14" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="135" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C135" s="25"/>
       <c r="D135" s="13" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="E135" s="14"/>
       <c r="F135" s="14" t="s">
-        <v>390</v>
+        <v>371</v>
       </c>
       <c r="G135" s="14"/>
       <c r="H135" s="14"/>
       <c r="I135" s="14"/>
       <c r="J135" s="14" t="s">
-        <v>386</v>
+        <v>365</v>
       </c>
     </row>
     <row r="136" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C136" s="25"/>
-      <c r="D136" s="13" t="s">
-        <v>176</v>
-      </c>
-      <c r="E136" s="14"/>
-      <c r="F136" s="14" t="s">
-        <v>391</v>
-      </c>
-      <c r="G136" s="14"/>
-      <c r="H136" s="14"/>
-      <c r="I136" s="14"/>
-      <c r="J136" s="14" t="s">
-        <v>386</v>
+      <c r="D136" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="J136" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="137" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C137" s="25"/>
       <c r="D137" s="13" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="E137" s="14"/>
       <c r="F137" s="14" t="s">
-        <v>392</v>
+        <v>369</v>
       </c>
       <c r="G137" s="14"/>
       <c r="H137" s="14"/>
       <c r="I137" s="14"/>
       <c r="J137" s="14" t="s">
-        <v>386</v>
+        <v>365</v>
       </c>
     </row>
     <row r="138" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C138" s="25"/>
-      <c r="D138" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="J138" t="s">
-        <v>46</v>
+      <c r="D138" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="E138" s="14"/>
+      <c r="F138" s="14" t="s">
+        <v>370</v>
+      </c>
+      <c r="G138" s="14"/>
+      <c r="H138" s="14"/>
+      <c r="I138" s="14"/>
+      <c r="J138" s="14" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="139" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C139" s="25"/>
       <c r="D139" s="13" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="E139" s="14"/>
       <c r="F139" s="14" t="s">
-        <v>390</v>
+        <v>371</v>
       </c>
       <c r="G139" s="14"/>
       <c r="H139" s="14"/>
       <c r="I139" s="14"/>
       <c r="J139" s="14" t="s">
-        <v>386</v>
+        <v>365</v>
       </c>
     </row>
     <row r="140" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C140" s="25"/>
-      <c r="D140" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="E140" s="14"/>
-      <c r="F140" s="14" t="s">
-        <v>391</v>
-      </c>
-      <c r="G140" s="14"/>
-      <c r="H140" s="14"/>
-      <c r="I140" s="14"/>
-      <c r="J140" s="14" t="s">
-        <v>386</v>
+      <c r="D140" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="J140" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="141" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C141" s="25"/>
       <c r="D141" s="13" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="E141" s="14"/>
       <c r="F141" s="14" t="s">
-        <v>392</v>
+        <v>369</v>
       </c>
       <c r="G141" s="14"/>
       <c r="H141" s="14"/>
       <c r="I141" s="14"/>
       <c r="J141" s="14" t="s">
-        <v>386</v>
+        <v>365</v>
       </c>
     </row>
     <row r="142" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C142" s="25"/>
-      <c r="D142" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="J142" t="s">
-        <v>46</v>
+      <c r="D142" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="E142" s="14"/>
+      <c r="F142" s="14" t="s">
+        <v>370</v>
+      </c>
+      <c r="G142" s="14"/>
+      <c r="H142" s="14"/>
+      <c r="I142" s="14"/>
+      <c r="J142" s="14" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="143" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C143" s="25"/>
       <c r="D143" s="13" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="E143" s="14"/>
       <c r="F143" s="14" t="s">
-        <v>390</v>
+        <v>371</v>
       </c>
       <c r="G143" s="14"/>
       <c r="H143" s="14"/>
       <c r="I143" s="14"/>
       <c r="J143" s="14" t="s">
-        <v>386</v>
+        <v>365</v>
       </c>
     </row>
     <row r="144" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C144" s="25"/>
-      <c r="D144" s="13" t="s">
-        <v>182</v>
-      </c>
-      <c r="E144" s="14"/>
-      <c r="F144" s="14" t="s">
-        <v>391</v>
-      </c>
-      <c r="G144" s="14"/>
-      <c r="H144" s="14"/>
-      <c r="I144" s="14"/>
-      <c r="J144" s="14" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="145" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="D144" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="J144" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="145" spans="3:18" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C145" s="25"/>
       <c r="D145" s="13" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="E145" s="14"/>
       <c r="F145" s="14" t="s">
-        <v>392</v>
+        <v>369</v>
       </c>
       <c r="G145" s="14"/>
       <c r="H145" s="14"/>
       <c r="I145" s="14"/>
       <c r="J145" s="14" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="147" spans="3:12" x14ac:dyDescent="0.15">
-      <c r="C147" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="146" spans="3:18" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="C146" s="25"/>
+      <c r="D146" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="E146" s="14"/>
+      <c r="F146" s="14" t="s">
+        <v>370</v>
+      </c>
+      <c r="G146" s="14"/>
+      <c r="H146" s="14"/>
+      <c r="I146" s="14"/>
+      <c r="J146" s="14" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="147" spans="3:18" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="C147" s="25"/>
+      <c r="D147" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="E147" s="14"/>
+      <c r="F147" s="14" t="s">
+        <v>371</v>
+      </c>
+      <c r="G147" s="14"/>
+      <c r="H147" s="14"/>
+      <c r="I147" s="14"/>
+      <c r="J147" s="14" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="148" spans="3:18" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="C148" s="25"/>
+      <c r="D148" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="J148" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="149" spans="3:18" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="C149" s="25"/>
+      <c r="D149" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="E149" s="14"/>
+      <c r="F149" s="14" t="s">
+        <v>369</v>
+      </c>
+      <c r="G149" s="14"/>
+      <c r="H149" s="14"/>
+      <c r="I149" s="14"/>
+      <c r="J149" s="14" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="150" spans="3:18" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="C150" s="25"/>
+      <c r="D150" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="E150" s="14"/>
+      <c r="F150" s="14" t="s">
+        <v>370</v>
+      </c>
+      <c r="G150" s="14"/>
+      <c r="H150" s="14"/>
+      <c r="I150" s="14"/>
+      <c r="J150" s="14" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="151" spans="3:18" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="C151" s="25"/>
+      <c r="D151" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="E151" s="14"/>
+      <c r="F151" s="14" t="s">
+        <v>371</v>
+      </c>
+      <c r="G151" s="14"/>
+      <c r="H151" s="14"/>
+      <c r="I151" s="14"/>
+      <c r="J151" s="14" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="152" spans="3:18" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="C152" s="25"/>
+      <c r="D152" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="J152" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="153" spans="3:18" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="C153" s="25"/>
+      <c r="D153" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="E153" s="14"/>
+      <c r="F153" s="14" t="s">
+        <v>369</v>
+      </c>
+      <c r="G153" s="14"/>
+      <c r="H153" s="14"/>
+      <c r="I153" s="14"/>
+      <c r="J153" s="14" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="154" spans="3:18" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="C154" s="25"/>
+      <c r="D154" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="E154" s="14"/>
+      <c r="F154" s="14" t="s">
+        <v>370</v>
+      </c>
+      <c r="G154" s="14"/>
+      <c r="H154" s="14"/>
+      <c r="I154" s="14"/>
+      <c r="J154" s="14" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="155" spans="3:18" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="C155" s="25"/>
+      <c r="D155" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="E155" s="14"/>
+      <c r="F155" s="14" t="s">
+        <v>371</v>
+      </c>
+      <c r="G155" s="14"/>
+      <c r="H155" s="14"/>
+      <c r="I155" s="14"/>
+      <c r="J155" s="14" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="157" spans="3:18" x14ac:dyDescent="0.15">
+      <c r="C157" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="158" spans="3:18" x14ac:dyDescent="0.15">
+      <c r="D158" s="3" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="159" spans="3:18" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="D159" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="F159" t="s">
+        <v>226</v>
+      </c>
+      <c r="I159" t="s">
+        <v>225</v>
+      </c>
+      <c r="L159" s="20" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q159" t="s">
+        <v>583</v>
+      </c>
+      <c r="R159" s="27" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="160" spans="3:18" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="D160" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="F160" t="s">
+        <v>227</v>
+      </c>
+      <c r="I160" t="s">
+        <v>229</v>
+      </c>
+      <c r="L160" s="20" t="s">
+        <v>294</v>
+      </c>
+      <c r="Q160" t="s">
+        <v>584</v>
+      </c>
+      <c r="R160" s="27"/>
+    </row>
+    <row r="161" spans="3:27" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="D161" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="F161" t="s">
+        <v>228</v>
+      </c>
+      <c r="I161" t="s">
+        <v>230</v>
+      </c>
+      <c r="L161" s="20" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q161" t="s">
+        <v>585</v>
+      </c>
+      <c r="R161" s="27"/>
+    </row>
+    <row r="162" spans="3:27" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="D162" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="F162" t="s">
+        <v>286</v>
+      </c>
+      <c r="L162" s="20" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="163" spans="3:27" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="D163" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="F163" t="s">
+        <v>287</v>
+      </c>
+      <c r="L163" s="20" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="164" spans="3:27" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="D164" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="F164" t="s">
+        <v>290</v>
+      </c>
+      <c r="L164" s="20" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="165" spans="3:27" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="L165" s="20"/>
+    </row>
+    <row r="166" spans="3:27" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="D166" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="F166" t="s">
+        <v>291</v>
+      </c>
+      <c r="L166" s="20" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="167" spans="3:27" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="D167" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="F167" t="s">
+        <v>292</v>
+      </c>
+      <c r="L167" s="20" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="168" spans="3:27" x14ac:dyDescent="0.15">
+      <c r="L168" s="20"/>
+    </row>
+    <row r="169" spans="3:27" x14ac:dyDescent="0.15">
+      <c r="C169" t="s">
+        <v>223</v>
+      </c>
+      <c r="L169" s="20"/>
+    </row>
+    <row r="170" spans="3:27" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="D170" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="148" spans="3:12" x14ac:dyDescent="0.15">
-      <c r="D148" s="3" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="149" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="D149" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="F149" t="s">
-        <v>233</v>
-      </c>
-      <c r="I149" t="s">
-        <v>232</v>
-      </c>
-      <c r="L149" s="18" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="150" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="D150" s="3" t="s">
+      <c r="F170" t="s">
+        <v>305</v>
+      </c>
+      <c r="L170" s="20" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="171" spans="3:27" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="D171" t="s">
         <v>224</v>
       </c>
-      <c r="F150" t="s">
-        <v>234</v>
-      </c>
-      <c r="I150" t="s">
-        <v>236</v>
-      </c>
-      <c r="L150" s="18" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="151" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="D151" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="F151" t="s">
-        <v>235</v>
-      </c>
-      <c r="I151" t="s">
-        <v>237</v>
-      </c>
-      <c r="L151" s="18" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="152" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="D152" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="F152" t="s">
+      <c r="F171" t="s">
+        <v>253</v>
+      </c>
+      <c r="L171" s="20" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="172" spans="3:27" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="D172" t="s">
+        <v>288</v>
+      </c>
+      <c r="F172" t="s">
+        <v>254</v>
+      </c>
+      <c r="L172" s="20" t="s">
+        <v>256</v>
+      </c>
+      <c r="AA172" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="173" spans="3:27" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="D173" t="s">
+        <v>289</v>
+      </c>
+      <c r="F173" t="s">
+        <v>255</v>
+      </c>
+      <c r="L173" s="20" t="s">
+        <v>257</v>
+      </c>
+      <c r="AA173" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="174" spans="3:27" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="D174" t="s">
+        <v>188</v>
+      </c>
+      <c r="F174" t="s">
+        <v>191</v>
+      </c>
+      <c r="L174" s="20" t="s">
+        <v>192</v>
+      </c>
+      <c r="AA174" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="175" spans="3:27" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="D175" t="s">
+        <v>189</v>
+      </c>
+      <c r="F175" t="s">
+        <v>191</v>
+      </c>
+      <c r="L175" s="20" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="176" spans="3:27" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="D176" t="s">
+        <v>190</v>
+      </c>
+      <c r="F176" t="s">
+        <v>191</v>
+      </c>
+      <c r="L176" s="20" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="177" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="D177" t="s">
+        <v>248</v>
+      </c>
+      <c r="F177" t="s">
+        <v>249</v>
+      </c>
+      <c r="L177" s="20" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="178" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="D178" t="s">
+        <v>251</v>
+      </c>
+      <c r="F178" t="s">
+        <v>249</v>
+      </c>
+      <c r="L178" s="20" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="179" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="D179" t="s">
+        <v>65</v>
+      </c>
+      <c r="F179" t="s">
+        <v>249</v>
+      </c>
+      <c r="L179" s="20" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="180" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="L180" s="20"/>
+    </row>
+    <row r="181" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="C181" t="s">
+        <v>264</v>
+      </c>
+      <c r="L181" s="20"/>
+    </row>
+    <row r="182" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="D182" t="s">
+        <v>298</v>
+      </c>
+      <c r="F182" t="s">
+        <v>260</v>
+      </c>
+      <c r="L182" s="20" t="s">
+        <v>261</v>
+      </c>
+      <c r="P182" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="183" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="D183" t="s">
         <v>299</v>
       </c>
-      <c r="L152" s="18" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="153" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="D153" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="F153" t="s">
+      <c r="F183" t="s">
+        <v>299</v>
+      </c>
+      <c r="L183" s="20" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="184" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A184" s="21"/>
+      <c r="D184" t="s">
         <v>300</v>
       </c>
-      <c r="L153" s="18" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="154" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="D154" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="F154" t="s">
+      <c r="F184" t="s">
+        <v>302</v>
+      </c>
+      <c r="L184" s="20" t="s">
         <v>303</v>
       </c>
-      <c r="L154" s="18" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="155" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.15"/>
-    <row r="156" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="D156" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="F156" t="s">
+    </row>
+    <row r="185" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="D185" t="s">
+        <v>301</v>
+      </c>
+      <c r="F185" t="s">
         <v>304</v>
       </c>
-      <c r="L156" s="18" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="157" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="D157" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="F157" t="s">
-        <v>305</v>
-      </c>
-      <c r="L157" s="18" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="159" spans="3:12" x14ac:dyDescent="0.15">
-      <c r="C159" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="160" spans="3:12" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="D160" t="s">
-        <v>229</v>
-      </c>
-      <c r="F160" t="s">
-        <v>320</v>
-      </c>
-      <c r="L160" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="161" spans="1:27" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="D161" t="s">
-        <v>231</v>
-      </c>
-      <c r="F161" t="s">
-        <v>261</v>
-      </c>
-      <c r="L161" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="162" spans="1:27" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="D162" t="s">
-        <v>301</v>
-      </c>
-      <c r="F162" t="s">
-        <v>263</v>
-      </c>
-      <c r="L162" t="s">
-        <v>265</v>
-      </c>
-      <c r="AA162" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="163" spans="1:27" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="D163" t="s">
-        <v>302</v>
-      </c>
-      <c r="F163" t="s">
-        <v>264</v>
-      </c>
-      <c r="L163" t="s">
-        <v>266</v>
-      </c>
-      <c r="AA163" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="164" spans="1:27" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="D164" t="s">
-        <v>192</v>
-      </c>
-      <c r="F164" t="s">
-        <v>195</v>
-      </c>
-      <c r="L164" s="18" t="s">
-        <v>196</v>
-      </c>
-      <c r="AA164" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="165" spans="1:27" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="D165" t="s">
-        <v>193</v>
-      </c>
-      <c r="F165" t="s">
-        <v>195</v>
-      </c>
-      <c r="L165" s="18" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="166" spans="1:27" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="D166" t="s">
-        <v>194</v>
-      </c>
-      <c r="F166" t="s">
-        <v>195</v>
-      </c>
-      <c r="L166" s="18" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="167" spans="1:27" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="D167" t="s">
-        <v>256</v>
-      </c>
-      <c r="F167" t="s">
-        <v>257</v>
-      </c>
-      <c r="L167" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="168" spans="1:27" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="D168" t="s">
+      <c r="L185" s="20" t="s">
         <v>259</v>
       </c>
-      <c r="F168" t="s">
-        <v>257</v>
-      </c>
-      <c r="L168" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="169" spans="1:27" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="D169" t="s">
-        <v>69</v>
-      </c>
-      <c r="F169" t="s">
-        <v>257</v>
-      </c>
-      <c r="L169" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="171" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="C171" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="172" spans="1:27" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="D172" t="s">
-        <v>313</v>
-      </c>
-      <c r="F172" t="s">
-        <v>269</v>
-      </c>
-      <c r="L172" s="18" t="s">
-        <v>270</v>
-      </c>
-      <c r="P172" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="173" spans="1:27" outlineLevel="1" x14ac:dyDescent="0.15"/>
-    <row r="174" spans="1:27" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="D174" t="s">
-        <v>314</v>
-      </c>
-      <c r="F174" t="s">
-        <v>314</v>
-      </c>
-      <c r="L174" s="18" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="175" spans="1:27" outlineLevel="1" x14ac:dyDescent="0.15"/>
-    <row r="176" spans="1:27" ht="54" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A176" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="D176" t="s">
-        <v>315</v>
-      </c>
-      <c r="F176" t="s">
-        <v>317</v>
-      </c>
-      <c r="L176" s="18" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="177" spans="4:12" outlineLevel="1" x14ac:dyDescent="0.15"/>
-    <row r="178" spans="4:12" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="D178" t="s">
-        <v>316</v>
-      </c>
-      <c r="F178" t="s">
-        <v>319</v>
-      </c>
-      <c r="L178" s="18" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="179" spans="4:12" outlineLevel="1" x14ac:dyDescent="0.15"/>
-    <row r="180" spans="4:12" outlineLevel="1" x14ac:dyDescent="0.15"/>
+    </row>
+    <row r="186" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="D186" t="s">
+        <v>563</v>
+      </c>
+      <c r="F186" t="s">
+        <v>564</v>
+      </c>
+      <c r="L186" s="20" t="s">
+        <v>565</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="C74:C97"/>
-    <mergeCell ref="C50:C73"/>
-    <mergeCell ref="C98:C121"/>
-    <mergeCell ref="C122:C145"/>
+  <mergeCells count="5">
+    <mergeCell ref="C84:C107"/>
+    <mergeCell ref="C60:C83"/>
+    <mergeCell ref="C108:C131"/>
+    <mergeCell ref="C132:C155"/>
+    <mergeCell ref="R159:R161"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5131,20 +5250,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B4" t="s">
-        <v>276</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5154,7 +5267,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:S71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -5172,220 +5285,220 @@
   <sheetData>
     <row r="2" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="H2" t="s">
-        <v>399</v>
+        <v>376</v>
       </c>
       <c r="O2" t="s">
-        <v>565</v>
+        <v>542</v>
       </c>
       <c r="Q2" t="s">
-        <v>566</v>
+        <v>543</v>
       </c>
       <c r="S2" t="s">
-        <v>567</v>
+        <v>544</v>
       </c>
     </row>
     <row r="3" spans="2:19" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B4" s="26" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G4" t="s">
-        <v>501</v>
+        <v>478</v>
       </c>
       <c r="H4" s="18" t="s">
-        <v>405</v>
+        <v>382</v>
       </c>
       <c r="I4" t="s">
-        <v>406</v>
+        <v>383</v>
       </c>
       <c r="O4" t="s">
-        <v>502</v>
+        <v>479</v>
       </c>
       <c r="Q4" t="s">
-        <v>568</v>
+        <v>545</v>
       </c>
       <c r="S4" t="s">
-        <v>577</v>
+        <v>554</v>
       </c>
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B5" s="26"/>
       <c r="C5" s="22" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G5" t="s">
-        <v>503</v>
+        <v>480</v>
       </c>
       <c r="H5" s="18" t="s">
-        <v>407</v>
+        <v>384</v>
       </c>
       <c r="I5" t="s">
-        <v>408</v>
+        <v>385</v>
       </c>
       <c r="O5" t="s">
-        <v>504</v>
+        <v>481</v>
       </c>
       <c r="Q5" t="s">
-        <v>569</v>
+        <v>546</v>
       </c>
       <c r="S5" t="s">
-        <v>578</v>
+        <v>555</v>
       </c>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B6" s="26"/>
       <c r="C6" s="7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="G6" t="s">
-        <v>505</v>
+        <v>482</v>
       </c>
       <c r="H6" s="18" t="s">
-        <v>409</v>
+        <v>386</v>
       </c>
       <c r="I6" t="s">
-        <v>410</v>
+        <v>387</v>
       </c>
       <c r="O6" t="s">
-        <v>506</v>
+        <v>483</v>
       </c>
       <c r="Q6" t="s">
-        <v>570</v>
+        <v>547</v>
       </c>
       <c r="S6" t="s">
-        <v>579</v>
+        <v>556</v>
       </c>
     </row>
     <row r="7" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B7" s="26"/>
       <c r="C7" s="8" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="G7" t="s">
-        <v>507</v>
+        <v>484</v>
       </c>
       <c r="H7" s="18" t="s">
-        <v>411</v>
+        <v>388</v>
       </c>
       <c r="I7" t="s">
-        <v>412</v>
+        <v>389</v>
       </c>
       <c r="O7" t="s">
-        <v>508</v>
+        <v>485</v>
       </c>
       <c r="Q7" t="s">
-        <v>571</v>
+        <v>548</v>
       </c>
       <c r="S7" t="s">
-        <v>580</v>
+        <v>557</v>
       </c>
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B8" s="26"/>
       <c r="C8" s="7" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="G8" t="s">
-        <v>509</v>
+        <v>486</v>
       </c>
       <c r="H8" s="18" t="s">
-        <v>413</v>
+        <v>390</v>
       </c>
       <c r="I8" t="s">
-        <v>414</v>
+        <v>391</v>
       </c>
       <c r="O8" t="s">
-        <v>510</v>
+        <v>487</v>
       </c>
       <c r="Q8" t="s">
-        <v>572</v>
+        <v>549</v>
       </c>
       <c r="S8" t="s">
-        <v>581</v>
+        <v>558</v>
       </c>
     </row>
     <row r="9" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B9" s="26"/>
       <c r="C9" s="7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="G9" t="s">
-        <v>511</v>
+        <v>488</v>
       </c>
       <c r="H9" s="18" t="s">
-        <v>415</v>
+        <v>392</v>
       </c>
       <c r="I9" t="s">
-        <v>416</v>
+        <v>393</v>
       </c>
       <c r="O9" t="s">
-        <v>512</v>
+        <v>489</v>
       </c>
       <c r="Q9" t="s">
-        <v>573</v>
+        <v>550</v>
       </c>
       <c r="S9" t="s">
-        <v>582</v>
+        <v>559</v>
       </c>
     </row>
     <row r="10" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B10" s="26"/>
       <c r="C10" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="G10" t="s">
-        <v>513</v>
+        <v>490</v>
       </c>
       <c r="H10" s="18" t="s">
-        <v>417</v>
+        <v>394</v>
       </c>
       <c r="I10" t="s">
-        <v>418</v>
+        <v>395</v>
       </c>
       <c r="O10" t="s">
-        <v>514</v>
+        <v>491</v>
       </c>
       <c r="Q10" t="s">
-        <v>574</v>
+        <v>551</v>
       </c>
       <c r="S10" t="s">
-        <v>583</v>
+        <v>560</v>
       </c>
     </row>
     <row r="11" spans="2:19" x14ac:dyDescent="0.15">
@@ -5394,306 +5507,306 @@
         <v>37</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G11" t="s">
-        <v>515</v>
+        <v>492</v>
       </c>
       <c r="H11" s="18" t="s">
-        <v>419</v>
+        <v>396</v>
       </c>
       <c r="I11" t="s">
-        <v>420</v>
+        <v>397</v>
       </c>
       <c r="O11" t="s">
-        <v>516</v>
+        <v>493</v>
       </c>
       <c r="Q11" t="s">
-        <v>575</v>
+        <v>552</v>
       </c>
       <c r="S11" t="s">
-        <v>584</v>
+        <v>561</v>
       </c>
     </row>
     <row r="12" spans="2:19" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B12" s="26"/>
       <c r="C12" s="12" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G12" t="s">
-        <v>517</v>
+        <v>494</v>
       </c>
       <c r="H12" s="18" t="s">
-        <v>421</v>
+        <v>398</v>
       </c>
       <c r="I12" t="s">
-        <v>422</v>
+        <v>399</v>
       </c>
       <c r="O12" t="s">
-        <v>518</v>
+        <v>495</v>
       </c>
       <c r="Q12" t="s">
-        <v>576</v>
+        <v>553</v>
       </c>
       <c r="S12" t="s">
-        <v>585</v>
+        <v>562</v>
       </c>
     </row>
     <row r="14" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B14" s="25" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C14" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E14" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="G14" t="s">
-        <v>519</v>
+        <v>496</v>
       </c>
       <c r="H14" t="s">
-        <v>423</v>
+        <v>400</v>
       </c>
       <c r="I14" t="s">
-        <v>424</v>
+        <v>401</v>
       </c>
       <c r="O14" t="s">
-        <v>520</v>
+        <v>497</v>
       </c>
     </row>
     <row r="15" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B15" s="25"/>
       <c r="C15" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E15" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G15" t="s">
-        <v>521</v>
+        <v>498</v>
       </c>
       <c r="H15" t="s">
-        <v>423</v>
+        <v>400</v>
       </c>
       <c r="I15" t="s">
-        <v>424</v>
+        <v>401</v>
       </c>
       <c r="O15" t="s">
-        <v>522</v>
+        <v>499</v>
       </c>
     </row>
     <row r="16" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B16" s="25"/>
       <c r="C16" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E16" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="G16" t="s">
-        <v>523</v>
+        <v>500</v>
       </c>
       <c r="H16" t="s">
-        <v>423</v>
+        <v>400</v>
       </c>
       <c r="I16" t="s">
-        <v>424</v>
+        <v>401</v>
       </c>
       <c r="O16" t="s">
-        <v>524</v>
+        <v>501</v>
       </c>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B17" s="25"/>
       <c r="C17" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E17" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="G17" t="s">
-        <v>525</v>
+        <v>502</v>
       </c>
       <c r="H17" s="24" t="s">
-        <v>425</v>
+        <v>402</v>
       </c>
       <c r="I17" t="s">
-        <v>426</v>
+        <v>403</v>
       </c>
       <c r="O17" t="s">
-        <v>526</v>
+        <v>503</v>
       </c>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B18" s="25"/>
       <c r="C18" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E18" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G18" t="s">
-        <v>527</v>
+        <v>504</v>
       </c>
       <c r="H18" t="s">
-        <v>427</v>
+        <v>404</v>
       </c>
       <c r="I18" t="s">
-        <v>426</v>
+        <v>403</v>
       </c>
       <c r="O18" t="s">
-        <v>528</v>
+        <v>505</v>
       </c>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B19" s="25"/>
       <c r="C19" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E19" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G19" s="20" t="s">
-        <v>529</v>
+        <v>506</v>
       </c>
       <c r="H19" t="s">
-        <v>427</v>
+        <v>404</v>
       </c>
       <c r="I19" t="s">
-        <v>426</v>
+        <v>403</v>
       </c>
       <c r="O19" t="s">
-        <v>530</v>
+        <v>507</v>
       </c>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B20" s="25"/>
       <c r="C20" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E20" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="G20" t="s">
-        <v>531</v>
+        <v>508</v>
       </c>
       <c r="H20" t="s">
-        <v>428</v>
+        <v>405</v>
       </c>
       <c r="I20" t="s">
-        <v>429</v>
+        <v>406</v>
       </c>
       <c r="O20" t="s">
-        <v>532</v>
+        <v>509</v>
       </c>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B21" s="25"/>
       <c r="C21" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E21" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="G21" t="s">
-        <v>533</v>
+        <v>510</v>
       </c>
       <c r="H21" t="s">
-        <v>430</v>
+        <v>407</v>
       </c>
       <c r="I21" t="s">
-        <v>431</v>
+        <v>408</v>
       </c>
       <c r="O21" t="s">
-        <v>534</v>
+        <v>511</v>
       </c>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B22" s="25"/>
       <c r="C22" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E22" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="G22" t="s">
-        <v>535</v>
+        <v>512</v>
       </c>
       <c r="H22" t="s">
-        <v>428</v>
+        <v>405</v>
       </c>
       <c r="I22" t="s">
-        <v>429</v>
+        <v>406</v>
       </c>
       <c r="O22" t="s">
-        <v>536</v>
+        <v>513</v>
       </c>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B23" s="25"/>
       <c r="C23" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E23" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="G23" t="s">
-        <v>537</v>
+        <v>514</v>
       </c>
       <c r="H23" t="s">
-        <v>432</v>
+        <v>409</v>
       </c>
       <c r="I23" t="s">
-        <v>433</v>
+        <v>410</v>
       </c>
       <c r="O23" t="s">
-        <v>538</v>
+        <v>515</v>
       </c>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B24" s="25"/>
       <c r="C24" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E24" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G24" t="s">
-        <v>539</v>
+        <v>516</v>
       </c>
       <c r="H24" t="s">
-        <v>400</v>
+        <v>377</v>
       </c>
       <c r="I24" t="s">
-        <v>434</v>
+        <v>411</v>
       </c>
       <c r="O24" t="s">
-        <v>540</v>
+        <v>517</v>
       </c>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B25" s="25"/>
       <c r="C25" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E25" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="G25" t="s">
-        <v>541</v>
+        <v>518</v>
       </c>
       <c r="H25" t="s">
-        <v>402</v>
+        <v>379</v>
       </c>
       <c r="I25" t="s">
-        <v>435</v>
+        <v>412</v>
       </c>
       <c r="O25" t="s">
-        <v>542</v>
+        <v>519</v>
       </c>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.15">
@@ -5705,16 +5818,16 @@
         <v>8</v>
       </c>
       <c r="G26" t="s">
-        <v>544</v>
+        <v>521</v>
       </c>
       <c r="H26" t="s">
-        <v>400</v>
+        <v>377</v>
       </c>
       <c r="I26" t="s">
-        <v>434</v>
+        <v>411</v>
       </c>
       <c r="O26" t="s">
-        <v>545</v>
+        <v>522</v>
       </c>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.15">
@@ -5726,16 +5839,16 @@
         <v>9</v>
       </c>
       <c r="G27" t="s">
-        <v>546</v>
+        <v>523</v>
       </c>
       <c r="H27" t="s">
-        <v>436</v>
+        <v>413</v>
       </c>
       <c r="I27" t="s">
-        <v>437</v>
+        <v>414</v>
       </c>
       <c r="O27" t="s">
-        <v>547</v>
+        <v>524</v>
       </c>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.15">
@@ -5747,16 +5860,16 @@
         <v>10</v>
       </c>
       <c r="G28" t="s">
-        <v>543</v>
+        <v>520</v>
       </c>
       <c r="H28" t="s">
-        <v>438</v>
+        <v>415</v>
       </c>
       <c r="I28" t="s">
-        <v>439</v>
+        <v>416</v>
       </c>
       <c r="O28" t="s">
-        <v>548</v>
+        <v>525</v>
       </c>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.15">
@@ -5768,16 +5881,16 @@
         <v>12</v>
       </c>
       <c r="G29" t="s">
-        <v>549</v>
+        <v>526</v>
       </c>
       <c r="H29" t="s">
-        <v>440</v>
+        <v>417</v>
       </c>
       <c r="I29" t="s">
-        <v>441</v>
+        <v>418</v>
       </c>
       <c r="O29" t="s">
-        <v>550</v>
+        <v>527</v>
       </c>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.15">
@@ -5789,16 +5902,16 @@
         <v>14</v>
       </c>
       <c r="G30" t="s">
-        <v>551</v>
+        <v>528</v>
       </c>
       <c r="H30" t="s">
-        <v>401</v>
+        <v>378</v>
       </c>
       <c r="I30" t="s">
-        <v>442</v>
+        <v>419</v>
       </c>
       <c r="O30" t="s">
-        <v>552</v>
+        <v>529</v>
       </c>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.15">
@@ -5810,16 +5923,16 @@
         <v>15</v>
       </c>
       <c r="G31" t="s">
-        <v>553</v>
+        <v>530</v>
       </c>
       <c r="H31" t="s">
-        <v>443</v>
+        <v>420</v>
       </c>
       <c r="I31" t="s">
-        <v>444</v>
+        <v>421</v>
       </c>
       <c r="O31" t="s">
-        <v>554</v>
+        <v>531</v>
       </c>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.15">
@@ -5831,16 +5944,16 @@
         <v>17</v>
       </c>
       <c r="G32" t="s">
-        <v>555</v>
+        <v>532</v>
       </c>
       <c r="H32" t="s">
-        <v>443</v>
+        <v>420</v>
       </c>
       <c r="I32" t="s">
-        <v>444</v>
+        <v>421</v>
       </c>
       <c r="O32" t="s">
-        <v>556</v>
+        <v>533</v>
       </c>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.15">
@@ -5852,16 +5965,16 @@
         <v>18</v>
       </c>
       <c r="G33" t="s">
-        <v>557</v>
+        <v>534</v>
       </c>
       <c r="H33" t="s">
-        <v>445</v>
+        <v>422</v>
       </c>
       <c r="I33" t="s">
-        <v>446</v>
+        <v>423</v>
       </c>
       <c r="O33" t="s">
-        <v>558</v>
+        <v>535</v>
       </c>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.15">
@@ -5873,16 +5986,16 @@
         <v>20</v>
       </c>
       <c r="G34" t="s">
-        <v>559</v>
+        <v>536</v>
       </c>
       <c r="H34" t="s">
-        <v>447</v>
+        <v>424</v>
       </c>
       <c r="I34" t="s">
-        <v>448</v>
+        <v>425</v>
       </c>
       <c r="O34" t="s">
-        <v>564</v>
+        <v>541</v>
       </c>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.15">
@@ -5894,16 +6007,16 @@
         <v>22</v>
       </c>
       <c r="G35" t="s">
-        <v>560</v>
+        <v>537</v>
       </c>
       <c r="H35" t="s">
-        <v>447</v>
+        <v>424</v>
       </c>
       <c r="I35" t="s">
-        <v>448</v>
+        <v>425</v>
       </c>
       <c r="O35" t="s">
-        <v>563</v>
+        <v>540</v>
       </c>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.15">
@@ -5915,16 +6028,16 @@
         <v>24</v>
       </c>
       <c r="G36" t="s">
-        <v>561</v>
+        <v>538</v>
       </c>
       <c r="H36" t="s">
-        <v>447</v>
+        <v>424</v>
       </c>
       <c r="I36" t="s">
-        <v>448</v>
+        <v>425</v>
       </c>
       <c r="O36" t="s">
-        <v>562</v>
+        <v>539</v>
       </c>
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.15">
@@ -5938,13 +6051,13 @@
         <v>38</v>
       </c>
       <c r="G38" t="s">
-        <v>449</v>
+        <v>426</v>
       </c>
       <c r="H38" t="s">
-        <v>499</v>
+        <v>476</v>
       </c>
       <c r="I38" t="s">
-        <v>450</v>
+        <v>427</v>
       </c>
     </row>
     <row r="39" spans="2:15" x14ac:dyDescent="0.15">
@@ -5956,13 +6069,13 @@
         <v>28</v>
       </c>
       <c r="G39" t="s">
-        <v>451</v>
+        <v>428</v>
       </c>
       <c r="H39" t="s">
-        <v>500</v>
+        <v>477</v>
       </c>
       <c r="I39" t="s">
-        <v>450</v>
+        <v>427</v>
       </c>
     </row>
     <row r="40" spans="2:15" x14ac:dyDescent="0.15">
@@ -5974,13 +6087,13 @@
         <v>30</v>
       </c>
       <c r="G40" t="s">
-        <v>452</v>
+        <v>429</v>
       </c>
       <c r="H40" t="s">
-        <v>499</v>
+        <v>476</v>
       </c>
       <c r="I40" t="s">
-        <v>450</v>
+        <v>427</v>
       </c>
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.15">
@@ -5992,49 +6105,49 @@
         <v>40</v>
       </c>
       <c r="G41" t="s">
-        <v>453</v>
+        <v>430</v>
       </c>
       <c r="H41" t="s">
-        <v>498</v>
+        <v>475</v>
       </c>
       <c r="I41" t="s">
-        <v>450</v>
+        <v>427</v>
       </c>
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B42" s="25"/>
       <c r="C42" s="3" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>31</v>
       </c>
       <c r="G42" t="s">
-        <v>454</v>
+        <v>431</v>
       </c>
       <c r="H42" t="s">
-        <v>497</v>
+        <v>474</v>
       </c>
       <c r="I42" t="s">
-        <v>450</v>
+        <v>427</v>
       </c>
     </row>
     <row r="43" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B43" s="25"/>
       <c r="C43" s="3" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>41</v>
       </c>
       <c r="G43" t="s">
-        <v>455</v>
+        <v>432</v>
       </c>
       <c r="H43" t="s">
-        <v>456</v>
+        <v>433</v>
       </c>
       <c r="I43" t="s">
-        <v>457</v>
+        <v>434</v>
       </c>
     </row>
     <row r="44" spans="2:15" x14ac:dyDescent="0.15">
@@ -6046,285 +6159,285 @@
         <v>32</v>
       </c>
       <c r="G44" t="s">
-        <v>458</v>
+        <v>435</v>
       </c>
       <c r="H44" t="s">
-        <v>459</v>
+        <v>436</v>
       </c>
       <c r="I44" t="s">
-        <v>460</v>
+        <v>437</v>
       </c>
     </row>
     <row r="45" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B45" s="25"/>
       <c r="C45" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="G45" t="s">
-        <v>461</v>
+        <v>438</v>
       </c>
       <c r="H45" t="s">
-        <v>462</v>
+        <v>439</v>
       </c>
       <c r="I45" t="s">
-        <v>463</v>
+        <v>440</v>
       </c>
     </row>
     <row r="46" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B46" s="23"/>
       <c r="C46" s="3" t="s">
-        <v>403</v>
+        <v>380</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>404</v>
+        <v>381</v>
       </c>
       <c r="G46" t="s">
-        <v>464</v>
+        <v>441</v>
       </c>
       <c r="H46" t="s">
-        <v>465</v>
+        <v>442</v>
       </c>
       <c r="I46" t="s">
-        <v>466</v>
+        <v>443</v>
       </c>
     </row>
     <row r="48" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B48" s="25" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="E48" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="G48" t="s">
-        <v>467</v>
+        <v>444</v>
       </c>
       <c r="H48" t="s">
-        <v>468</v>
+        <v>445</v>
       </c>
       <c r="I48" t="s">
-        <v>469</v>
+        <v>446</v>
       </c>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B49" s="25"/>
       <c r="C49" s="3" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="E49" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G49" t="s">
-        <v>470</v>
+        <v>447</v>
       </c>
       <c r="H49" t="s">
-        <v>468</v>
+        <v>445</v>
       </c>
       <c r="I49" t="s">
-        <v>469</v>
+        <v>446</v>
       </c>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B50" s="25"/>
       <c r="C50" s="3" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="E50" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="G50" t="s">
-        <v>471</v>
+        <v>448</v>
       </c>
       <c r="H50" t="s">
-        <v>468</v>
+        <v>445</v>
       </c>
       <c r="I50" t="s">
-        <v>469</v>
+        <v>446</v>
       </c>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B51" s="25"/>
       <c r="C51" s="3" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="E51" t="s">
         <v>0</v>
       </c>
       <c r="G51" t="s">
-        <v>472</v>
+        <v>449</v>
       </c>
       <c r="H51" t="s">
-        <v>468</v>
+        <v>445</v>
       </c>
       <c r="I51" t="s">
-        <v>469</v>
+        <v>446</v>
       </c>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B52" s="25"/>
       <c r="C52" s="3" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E52" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="G52" t="s">
-        <v>473</v>
+        <v>450</v>
       </c>
       <c r="H52" t="s">
-        <v>468</v>
+        <v>445</v>
       </c>
       <c r="I52" t="s">
-        <v>469</v>
+        <v>446</v>
       </c>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B53" s="25"/>
       <c r="C53" s="3" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E53" t="s">
         <v>34</v>
       </c>
       <c r="G53" t="s">
-        <v>474</v>
+        <v>451</v>
       </c>
       <c r="H53" t="s">
-        <v>468</v>
+        <v>445</v>
       </c>
       <c r="I53" t="s">
-        <v>469</v>
+        <v>446</v>
       </c>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B54" s="25"/>
       <c r="C54" s="3" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E54" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G54" t="s">
-        <v>475</v>
+        <v>452</v>
       </c>
       <c r="H54" t="s">
-        <v>468</v>
+        <v>445</v>
       </c>
       <c r="I54" t="s">
-        <v>469</v>
+        <v>446</v>
       </c>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B55" s="25"/>
       <c r="C55" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="E55" s="20" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="G55" t="s">
-        <v>476</v>
+        <v>453</v>
       </c>
       <c r="H55" t="s">
-        <v>468</v>
+        <v>445</v>
       </c>
       <c r="I55" t="s">
-        <v>469</v>
+        <v>446</v>
       </c>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B56" s="25"/>
       <c r="C56" s="3" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="E56" s="20" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G56" t="s">
-        <v>477</v>
+        <v>454</v>
       </c>
       <c r="H56" t="s">
-        <v>468</v>
+        <v>445</v>
       </c>
       <c r="I56" t="s">
-        <v>469</v>
+        <v>446</v>
       </c>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B57" s="25"/>
       <c r="C57" s="3" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="E57" s="20" t="s">
         <v>33</v>
       </c>
       <c r="G57" t="s">
-        <v>478</v>
+        <v>455</v>
       </c>
       <c r="H57" t="s">
-        <v>468</v>
+        <v>445</v>
       </c>
       <c r="I57" t="s">
-        <v>469</v>
+        <v>446</v>
       </c>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B58" s="25"/>
       <c r="C58" s="3" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="E58" s="20" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="G58" t="s">
-        <v>479</v>
+        <v>456</v>
       </c>
       <c r="H58" t="s">
-        <v>468</v>
+        <v>445</v>
       </c>
       <c r="I58" t="s">
-        <v>469</v>
+        <v>446</v>
       </c>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B59" s="25"/>
       <c r="C59" s="3" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="E59" s="20" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="G59" t="s">
-        <v>480</v>
+        <v>457</v>
       </c>
       <c r="H59" t="s">
-        <v>468</v>
+        <v>445</v>
       </c>
       <c r="I59" t="s">
-        <v>469</v>
+        <v>446</v>
       </c>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B60" s="25"/>
       <c r="C60" s="3" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E60" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="G60" t="s">
-        <v>481</v>
+        <v>458</v>
       </c>
       <c r="H60" t="s">
-        <v>482</v>
+        <v>459</v>
       </c>
       <c r="I60" t="s">
-        <v>483</v>
+        <v>460</v>
       </c>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.15">
@@ -6336,13 +6449,13 @@
         <v>2</v>
       </c>
       <c r="G61" t="s">
-        <v>484</v>
+        <v>461</v>
       </c>
       <c r="H61" t="s">
-        <v>482</v>
+        <v>459</v>
       </c>
       <c r="I61" t="s">
-        <v>483</v>
+        <v>460</v>
       </c>
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.15">
@@ -6354,13 +6467,13 @@
         <v>4</v>
       </c>
       <c r="G62" t="s">
-        <v>485</v>
+        <v>462</v>
       </c>
       <c r="H62" t="s">
-        <v>482</v>
+        <v>459</v>
       </c>
       <c r="I62" t="s">
-        <v>483</v>
+        <v>460</v>
       </c>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.15">
@@ -6372,13 +6485,13 @@
         <v>6</v>
       </c>
       <c r="G63" t="s">
-        <v>486</v>
+        <v>463</v>
       </c>
       <c r="H63" t="s">
-        <v>482</v>
+        <v>459</v>
       </c>
       <c r="I63" t="s">
-        <v>483</v>
+        <v>460</v>
       </c>
     </row>
     <row r="64" spans="2:9" x14ac:dyDescent="0.15">
@@ -6387,16 +6500,16 @@
         <v>7</v>
       </c>
       <c r="E64" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="G64" t="s">
-        <v>487</v>
+        <v>464</v>
       </c>
       <c r="H64" t="s">
-        <v>488</v>
+        <v>465</v>
       </c>
       <c r="I64" t="s">
-        <v>489</v>
+        <v>466</v>
       </c>
     </row>
     <row r="65" spans="2:9" x14ac:dyDescent="0.15">
@@ -6405,124 +6518,124 @@
         <v>35</v>
       </c>
       <c r="E65" s="20" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G65" t="s">
-        <v>490</v>
+        <v>467</v>
       </c>
       <c r="H65" t="s">
-        <v>488</v>
+        <v>465</v>
       </c>
       <c r="I65" t="s">
-        <v>489</v>
+        <v>466</v>
       </c>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B66" s="25"/>
       <c r="C66" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E66" s="20" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="G66" t="s">
-        <v>491</v>
+        <v>468</v>
       </c>
       <c r="H66" t="s">
-        <v>488</v>
+        <v>465</v>
       </c>
       <c r="I66" t="s">
-        <v>489</v>
+        <v>466</v>
       </c>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B67" s="25"/>
       <c r="C67" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E67" s="20" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G67" t="s">
-        <v>492</v>
+        <v>469</v>
       </c>
       <c r="H67" t="s">
-        <v>488</v>
+        <v>465</v>
       </c>
       <c r="I67" t="s">
-        <v>489</v>
+        <v>466</v>
       </c>
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B68" s="25"/>
       <c r="C68" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E68" s="20" t="s">
         <v>36</v>
       </c>
       <c r="G68" t="s">
-        <v>493</v>
+        <v>470</v>
       </c>
       <c r="H68" t="s">
-        <v>488</v>
+        <v>465</v>
       </c>
       <c r="I68" t="s">
-        <v>489</v>
+        <v>466</v>
       </c>
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B69" s="25"/>
       <c r="C69" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E69" s="20" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="G69" t="s">
-        <v>494</v>
+        <v>471</v>
       </c>
       <c r="H69" t="s">
-        <v>488</v>
+        <v>465</v>
       </c>
       <c r="I69" t="s">
-        <v>489</v>
+        <v>466</v>
       </c>
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B70" s="25"/>
       <c r="C70" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E70" s="20" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G70" t="s">
-        <v>495</v>
+        <v>472</v>
       </c>
       <c r="H70" t="s">
-        <v>488</v>
+        <v>465</v>
       </c>
       <c r="I70" t="s">
-        <v>489</v>
+        <v>466</v>
       </c>
     </row>
     <row r="71" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B71" s="25"/>
       <c r="C71" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E71" s="20" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G71" t="s">
-        <v>496</v>
+        <v>473</v>
       </c>
       <c r="H71" t="s">
-        <v>488</v>
+        <v>465</v>
       </c>
       <c r="I71" t="s">
-        <v>489</v>
+        <v>466</v>
       </c>
     </row>
   </sheetData>
